--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -46134,7 +46134,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>5173261</v>
+        <v>5173253</v>
       </c>
       <c r="C513" t="s">
         <v>28</v>
@@ -46146,13 +46146,13 @@
         <v>44766.35416666666</v>
       </c>
       <c r="F513" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G513" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513">
         <v>3</v>
@@ -46161,40 +46161,40 @@
         <v>58</v>
       </c>
       <c r="K513">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L513">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M513">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N513">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O513">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P513">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q513">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R513">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S513">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T513">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U513">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V513">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W513">
         <v>-1</v>
@@ -46203,16 +46203,16 @@
         <v>-1</v>
       </c>
       <c r="Y513">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Z513">
         <v>-1</v>
       </c>
       <c r="AA513">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB513">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC513">
         <v>-1</v>
@@ -46223,7 +46223,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>5173253</v>
+        <v>5173261</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46235,13 +46235,13 @@
         <v>44766.35416666666</v>
       </c>
       <c r="F514" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G514" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514">
         <v>3</v>
@@ -46250,41 +46250,41 @@
         <v>58</v>
       </c>
       <c r="K514">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L514">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M514">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N514">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O514">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P514">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q514">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R514">
+        <v>2.05</v>
+      </c>
+      <c r="S514">
+        <v>1.8</v>
+      </c>
+      <c r="T514">
+        <v>3</v>
+      </c>
+      <c r="U514">
         <v>1.925</v>
       </c>
-      <c r="S514">
+      <c r="V514">
         <v>1.925</v>
       </c>
-      <c r="T514">
-        <v>2.5</v>
-      </c>
-      <c r="U514">
-        <v>1.875</v>
-      </c>
-      <c r="V514">
-        <v>1.975</v>
-      </c>
       <c r="W514">
         <v>-1</v>
       </c>
@@ -46292,16 +46292,16 @@
         <v>-1</v>
       </c>
       <c r="Y514">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Z514">
         <v>-1</v>
       </c>
       <c r="AA514">
+        <v>0.8</v>
+      </c>
+      <c r="AB514">
         <v>0.925</v>
-      </c>
-      <c r="AB514">
-        <v>0.875</v>
       </c>
       <c r="AC514">
         <v>-1</v>
@@ -47736,7 +47736,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>5173276</v>
+        <v>5173277</v>
       </c>
       <c r="C531" t="s">
         <v>28</v>
@@ -47748,28 +47748,28 @@
         <v>44787.35416666666</v>
       </c>
       <c r="F531" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G531" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I531">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J531" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K531">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L531">
         <v>3.5</v>
       </c>
       <c r="M531">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N531">
         <v>2</v>
@@ -47784,40 +47784,40 @@
         <v>-0.5</v>
       </c>
       <c r="R531">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S531">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T531">
         <v>2.75</v>
       </c>
       <c r="U531">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V531">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W531">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X531">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y531">
         <v>-1</v>
       </c>
       <c r="Z531">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA531">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB531">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC531">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="532" spans="1:29">
@@ -47825,7 +47825,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>5173277</v>
+        <v>5173276</v>
       </c>
       <c r="C532" t="s">
         <v>28</v>
@@ -47837,28 +47837,28 @@
         <v>44787.35416666666</v>
       </c>
       <c r="F532" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G532" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I532">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J532" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K532">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L532">
         <v>3.5</v>
       </c>
       <c r="M532">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N532">
         <v>2</v>
@@ -47873,40 +47873,40 @@
         <v>-0.5</v>
       </c>
       <c r="R532">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S532">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T532">
         <v>2.75</v>
       </c>
       <c r="U532">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V532">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W532">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X532">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y532">
         <v>-1</v>
       </c>
       <c r="Z532">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA532">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB532">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC532">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533" spans="1:29">
@@ -50139,7 +50139,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>5173300</v>
+        <v>5173304</v>
       </c>
       <c r="C558" t="s">
         <v>28</v>
@@ -50151,76 +50151,76 @@
         <v>44808.35416666666</v>
       </c>
       <c r="F558" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G558" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J558" t="s">
         <v>60</v>
       </c>
       <c r="K558">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="L558">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M558">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N558">
-        <v>1.55</v>
+        <v>3.1</v>
       </c>
       <c r="O558">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P558">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q558">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R558">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S558">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T558">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U558">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V558">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W558">
         <v>-1</v>
       </c>
       <c r="X558">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y558">
         <v>-1</v>
       </c>
       <c r="Z558">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA558">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB558">
         <v>-1</v>
       </c>
       <c r="AC558">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="559" spans="1:29">
@@ -50228,7 +50228,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>5173304</v>
+        <v>5173303</v>
       </c>
       <c r="C559" t="s">
         <v>28</v>
@@ -50240,76 +50240,76 @@
         <v>44808.35416666666</v>
       </c>
       <c r="F559" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G559" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H559">
         <v>0</v>
       </c>
       <c r="I559">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J559" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K559">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L559">
         <v>3.4</v>
       </c>
       <c r="M559">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N559">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O559">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P559">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q559">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R559">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S559">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T559">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U559">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V559">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W559">
         <v>-1</v>
       </c>
       <c r="X559">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y559">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z559">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA559">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB559">
         <v>-1</v>
       </c>
       <c r="AC559">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="560" spans="1:29">
@@ -50317,7 +50317,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>5173303</v>
+        <v>5173300</v>
       </c>
       <c r="C560" t="s">
         <v>28</v>
@@ -50329,76 +50329,76 @@
         <v>44808.35416666666</v>
       </c>
       <c r="F560" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G560" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I560">
         <v>1</v>
       </c>
       <c r="J560" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K560">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="L560">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M560">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N560">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="O560">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P560">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q560">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R560">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S560">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T560">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U560">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V560">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W560">
         <v>-1</v>
       </c>
       <c r="X560">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y560">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z560">
         <v>-1</v>
       </c>
       <c r="AA560">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB560">
         <v>-1</v>
       </c>
       <c r="AC560">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="561" spans="1:29">
@@ -51029,7 +51029,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>5173314</v>
+        <v>5173307</v>
       </c>
       <c r="C568" t="s">
         <v>28</v>
@@ -51041,76 +51041,76 @@
         <v>44815.35416666666</v>
       </c>
       <c r="F568" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G568" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I568">
         <v>1</v>
       </c>
       <c r="J568" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K568">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L568">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M568">
+        <v>4.2</v>
+      </c>
+      <c r="N568">
+        <v>1.65</v>
+      </c>
+      <c r="O568">
+        <v>4</v>
+      </c>
+      <c r="P568">
+        <v>5.25</v>
+      </c>
+      <c r="Q568">
+        <v>-0.75</v>
+      </c>
+      <c r="R568">
+        <v>1.8</v>
+      </c>
+      <c r="S568">
+        <v>2.05</v>
+      </c>
+      <c r="T568">
         <v>2.75</v>
       </c>
-      <c r="N568">
-        <v>2.875</v>
-      </c>
-      <c r="O568">
-        <v>3.8</v>
-      </c>
-      <c r="P568">
-        <v>2.25</v>
-      </c>
-      <c r="Q568">
-        <v>0.25</v>
-      </c>
-      <c r="R568">
-        <v>1.825</v>
-      </c>
-      <c r="S568">
-        <v>2.025</v>
-      </c>
-      <c r="T568">
-        <v>3.25</v>
-      </c>
       <c r="U568">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V568">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W568">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X568">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y568">
         <v>-1</v>
       </c>
       <c r="Z568">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA568">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB568">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC568">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="569" spans="1:29">
@@ -51118,7 +51118,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>5173307</v>
+        <v>5173314</v>
       </c>
       <c r="C569" t="s">
         <v>28</v>
@@ -51130,76 +51130,76 @@
         <v>44815.35416666666</v>
       </c>
       <c r="F569" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G569" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I569">
         <v>1</v>
       </c>
       <c r="J569" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K569">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L569">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M569">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N569">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="O569">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P569">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q569">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R569">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S569">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T569">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U569">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V569">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W569">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X569">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y569">
         <v>-1</v>
       </c>
       <c r="Z569">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA569">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB569">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC569">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="570" spans="1:29">
@@ -51207,7 +51207,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>5173322</v>
+        <v>5173324</v>
       </c>
       <c r="C570" t="s">
         <v>28</v>
@@ -51219,76 +51219,76 @@
         <v>44820.5625</v>
       </c>
       <c r="F570" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G570" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H570">
         <v>2</v>
       </c>
       <c r="I570">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J570" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K570">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L570">
         <v>3.5</v>
       </c>
       <c r="M570">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N570">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O570">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P570">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q570">
         <v>0.25</v>
       </c>
       <c r="R570">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S570">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T570">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U570">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V570">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W570">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X570">
         <v>-1</v>
       </c>
       <c r="Y570">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z570">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA570">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB570">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC570">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="571" spans="1:29">
@@ -51296,7 +51296,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5173324</v>
+        <v>5173322</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51308,76 +51308,76 @@
         <v>44820.5625</v>
       </c>
       <c r="F571" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G571" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H571">
         <v>2</v>
       </c>
       <c r="I571">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J571" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K571">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L571">
         <v>3.5</v>
       </c>
       <c r="M571">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N571">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O571">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P571">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q571">
         <v>0.25</v>
       </c>
       <c r="R571">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S571">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T571">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U571">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V571">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W571">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X571">
         <v>-1</v>
       </c>
       <c r="Y571">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z571">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA571">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB571">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC571">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -53076,7 +53076,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>5173342</v>
+        <v>5173339</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53088,73 +53088,73 @@
         <v>44842.33333333334</v>
       </c>
       <c r="F591" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G591" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J591" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K591">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="L591">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M591">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N591">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="O591">
         <v>3.6</v>
       </c>
       <c r="P591">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q591">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R591">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S591">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T591">
         <v>2.75</v>
       </c>
       <c r="U591">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V591">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W591">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X591">
         <v>-1</v>
       </c>
       <c r="Y591">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z591">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA591">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB591">
-        <v>0.4875</v>
+        <v>0.475</v>
       </c>
       <c r="AC591">
         <v>-0.5</v>
@@ -53165,7 +53165,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>5173339</v>
+        <v>5173342</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53177,73 +53177,73 @@
         <v>44842.33333333334</v>
       </c>
       <c r="F592" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G592" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J592" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K592">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="L592">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M592">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N592">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="O592">
         <v>3.6</v>
       </c>
       <c r="P592">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q592">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R592">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S592">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T592">
         <v>2.75</v>
       </c>
       <c r="U592">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V592">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W592">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X592">
         <v>-1</v>
       </c>
       <c r="Y592">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z592">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA592">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB592">
-        <v>0.475</v>
+        <v>0.4875</v>
       </c>
       <c r="AC592">
         <v>-0.5</v>
@@ -55212,7 +55212,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>5173361</v>
+        <v>5173368</v>
       </c>
       <c r="C615" t="s">
         <v>28</v>
@@ -55224,46 +55224,46 @@
         <v>44862.5625</v>
       </c>
       <c r="F615" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G615" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H615">
         <v>1</v>
       </c>
       <c r="I615">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J615" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K615">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L615">
         <v>3.6</v>
       </c>
       <c r="M615">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N615">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O615">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P615">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q615">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R615">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S615">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T615">
         <v>2.75</v>
@@ -55275,19 +55275,19 @@
         <v>1.875</v>
       </c>
       <c r="W615">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X615">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y615">
         <v>-1</v>
       </c>
       <c r="Z615">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA615">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB615">
         <v>-1</v>
@@ -55301,7 +55301,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>5173368</v>
+        <v>5173361</v>
       </c>
       <c r="C616" t="s">
         <v>28</v>
@@ -55313,46 +55313,46 @@
         <v>44862.5625</v>
       </c>
       <c r="F616" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G616" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H616">
         <v>1</v>
       </c>
       <c r="I616">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J616" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K616">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L616">
         <v>3.6</v>
       </c>
       <c r="M616">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N616">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O616">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P616">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q616">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R616">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S616">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T616">
         <v>2.75</v>
@@ -55364,19 +55364,19 @@
         <v>1.875</v>
       </c>
       <c r="W616">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X616">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y616">
         <v>-1</v>
       </c>
       <c r="Z616">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA616">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB616">
         <v>-1</v>
@@ -55746,7 +55746,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>5173363</v>
+        <v>5173365</v>
       </c>
       <c r="C621" t="s">
         <v>28</v>
@@ -55758,76 +55758,76 @@
         <v>44864.39583333334</v>
       </c>
       <c r="F621" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G621" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I621">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J621" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K621">
         <v>2.375</v>
       </c>
       <c r="L621">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M621">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N621">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O621">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="P621">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q621">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R621">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S621">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T621">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U621">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V621">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W621">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X621">
         <v>-1</v>
       </c>
       <c r="Y621">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z621">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA621">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB621">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC621">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="622" spans="1:29">
@@ -55835,7 +55835,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>5173365</v>
+        <v>5173366</v>
       </c>
       <c r="C622" t="s">
         <v>28</v>
@@ -55847,40 +55847,40 @@
         <v>44864.39583333334</v>
       </c>
       <c r="F622" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G622" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I622">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J622" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K622">
         <v>2.375</v>
       </c>
       <c r="L622">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M622">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N622">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O622">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P622">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q622">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R622">
         <v>1.825</v>
@@ -55892,31 +55892,31 @@
         <v>2.5</v>
       </c>
       <c r="U622">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V622">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W622">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X622">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y622">
         <v>-1</v>
       </c>
       <c r="Z622">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA622">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB622">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC622">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="623" spans="1:29">
@@ -55924,7 +55924,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>5173366</v>
+        <v>5173363</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55936,73 +55936,73 @@
         <v>44864.39583333334</v>
       </c>
       <c r="F623" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G623" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H623">
         <v>2</v>
       </c>
       <c r="I623">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J623" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K623">
         <v>2.375</v>
       </c>
       <c r="L623">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M623">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N623">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="O623">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="P623">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q623">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R623">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S623">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T623">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U623">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V623">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W623">
         <v>-1</v>
       </c>
       <c r="X623">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y623">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z623">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA623">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB623">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC623">
         <v>-1</v>
@@ -56013,7 +56013,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>5173372</v>
+        <v>5173377</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -56025,76 +56025,76 @@
         <v>44869.60416666666</v>
       </c>
       <c r="F624" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G624" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H624">
+        <v>0</v>
+      </c>
+      <c r="I624">
         <v>1</v>
       </c>
-      <c r="I624">
-        <v>0</v>
-      </c>
       <c r="J624" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K624">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L624">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M624">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N624">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O624">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P624">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q624">
         <v>-0.5</v>
       </c>
       <c r="R624">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S624">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T624">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U624">
+        <v>1.95</v>
+      </c>
+      <c r="V624">
         <v>1.9</v>
       </c>
-      <c r="V624">
-        <v>1.95</v>
-      </c>
       <c r="W624">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X624">
         <v>-1</v>
       </c>
       <c r="Y624">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z624">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA624">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB624">
         <v>-1</v>
       </c>
       <c r="AC624">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="625" spans="1:29">
@@ -56102,7 +56102,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>5173377</v>
+        <v>5173372</v>
       </c>
       <c r="C625" t="s">
         <v>28</v>
@@ -56114,76 +56114,76 @@
         <v>44869.60416666666</v>
       </c>
       <c r="F625" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G625" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H625">
+        <v>1</v>
+      </c>
+      <c r="I625">
         <v>0</v>
       </c>
-      <c r="I625">
-        <v>1</v>
-      </c>
       <c r="J625" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K625">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L625">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M625">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N625">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O625">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P625">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q625">
         <v>-0.5</v>
       </c>
       <c r="R625">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S625">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T625">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U625">
+        <v>1.9</v>
+      </c>
+      <c r="V625">
         <v>1.95</v>
       </c>
-      <c r="V625">
-        <v>1.9</v>
-      </c>
       <c r="W625">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X625">
         <v>-1</v>
       </c>
       <c r="Y625">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z625">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA625">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB625">
         <v>-1</v>
       </c>
       <c r="AC625">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="626" spans="1:29">
@@ -59217,7 +59217,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>5173408</v>
+        <v>5173410</v>
       </c>
       <c r="C660" t="s">
         <v>28</v>
@@ -59229,73 +59229,73 @@
         <v>44960.60416666666</v>
       </c>
       <c r="F660" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G660" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H660">
+        <v>0</v>
+      </c>
+      <c r="I660">
         <v>4</v>
       </c>
-      <c r="I660">
-        <v>1</v>
-      </c>
       <c r="J660" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K660">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="L660">
         <v>3.5</v>
       </c>
       <c r="M660">
+        <v>1.909</v>
+      </c>
+      <c r="N660">
+        <v>3.75</v>
+      </c>
+      <c r="O660">
         <v>3.3</v>
       </c>
-      <c r="N660">
-        <v>2.4</v>
-      </c>
-      <c r="O660">
-        <v>3.4</v>
-      </c>
       <c r="P660">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q660">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R660">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S660">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T660">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U660">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V660">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W660">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X660">
         <v>-1</v>
       </c>
       <c r="Y660">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z660">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA660">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB660">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC660">
         <v>-1</v>
@@ -59306,7 +59306,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5173410</v>
+        <v>5173408</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59318,73 +59318,73 @@
         <v>44960.60416666666</v>
       </c>
       <c r="F661" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G661" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I661">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J661" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K661">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L661">
         <v>3.5</v>
       </c>
       <c r="M661">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N661">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="O661">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P661">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q661">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R661">
+        <v>2.05</v>
+      </c>
+      <c r="S661">
+        <v>1.75</v>
+      </c>
+      <c r="T661">
+        <v>2.5</v>
+      </c>
+      <c r="U661">
+        <v>1.825</v>
+      </c>
+      <c r="V661">
         <v>2.025</v>
       </c>
-      <c r="S661">
-        <v>1.825</v>
-      </c>
-      <c r="T661">
-        <v>2.25</v>
-      </c>
-      <c r="U661">
-        <v>1.9</v>
-      </c>
-      <c r="V661">
-        <v>1.95</v>
-      </c>
       <c r="W661">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X661">
         <v>-1</v>
       </c>
       <c r="Y661">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z661">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA661">
+        <v>-1</v>
+      </c>
+      <c r="AB661">
         <v>0.825</v>
-      </c>
-      <c r="AB661">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC661">
         <v>-1</v>
@@ -59395,7 +59395,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>5173411</v>
+        <v>5173413</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59407,76 +59407,76 @@
         <v>44961.375</v>
       </c>
       <c r="F662" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G662" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I662">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J662" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K662">
+        <v>2.875</v>
+      </c>
+      <c r="L662">
+        <v>3.3</v>
+      </c>
+      <c r="M662">
+        <v>2.375</v>
+      </c>
+      <c r="N662">
+        <v>3.1</v>
+      </c>
+      <c r="O662">
+        <v>3.2</v>
+      </c>
+      <c r="P662">
+        <v>2.375</v>
+      </c>
+      <c r="Q662">
+        <v>0.25</v>
+      </c>
+      <c r="R662">
+        <v>1.8</v>
+      </c>
+      <c r="S662">
+        <v>2.05</v>
+      </c>
+      <c r="T662">
         <v>2.25</v>
       </c>
-      <c r="L662">
-        <v>3.4</v>
-      </c>
-      <c r="M662">
-        <v>3.1</v>
-      </c>
-      <c r="N662">
-        <v>2.55</v>
-      </c>
-      <c r="O662">
-        <v>3.25</v>
-      </c>
-      <c r="P662">
-        <v>2.875</v>
-      </c>
-      <c r="Q662">
-        <v>0</v>
-      </c>
-      <c r="R662">
+      <c r="U662">
         <v>1.85</v>
       </c>
-      <c r="S662">
-        <v>2</v>
-      </c>
-      <c r="T662">
-        <v>2.5</v>
-      </c>
-      <c r="U662">
-        <v>2.025</v>
-      </c>
       <c r="V662">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W662">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X662">
         <v>-1</v>
       </c>
       <c r="Y662">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z662">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA662">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB662">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC662">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="663" spans="1:29">
@@ -59484,7 +59484,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5173413</v>
+        <v>5173411</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59496,76 +59496,76 @@
         <v>44961.375</v>
       </c>
       <c r="F663" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G663" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I663">
+        <v>3</v>
+      </c>
+      <c r="J663" t="s">
+        <v>58</v>
+      </c>
+      <c r="K663">
+        <v>2.25</v>
+      </c>
+      <c r="L663">
+        <v>3.4</v>
+      </c>
+      <c r="M663">
+        <v>3.1</v>
+      </c>
+      <c r="N663">
+        <v>2.55</v>
+      </c>
+      <c r="O663">
+        <v>3.25</v>
+      </c>
+      <c r="P663">
+        <v>2.875</v>
+      </c>
+      <c r="Q663">
         <v>0</v>
       </c>
-      <c r="J663" t="s">
-        <v>59</v>
-      </c>
-      <c r="K663">
-        <v>2.875</v>
-      </c>
-      <c r="L663">
-        <v>3.3</v>
-      </c>
-      <c r="M663">
-        <v>2.375</v>
-      </c>
-      <c r="N663">
-        <v>3.1</v>
-      </c>
-      <c r="O663">
-        <v>3.2</v>
-      </c>
-      <c r="P663">
-        <v>2.375</v>
-      </c>
-      <c r="Q663">
-        <v>0.25</v>
-      </c>
       <c r="R663">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S663">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T663">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U663">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V663">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W663">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X663">
         <v>-1</v>
       </c>
       <c r="Y663">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z663">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA663">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB663">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC663">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -59751,7 +59751,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>5173412</v>
+        <v>5173409</v>
       </c>
       <c r="C666" t="s">
         <v>28</v>
@@ -59763,46 +59763,46 @@
         <v>44962.39583333334</v>
       </c>
       <c r="F666" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G666" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I666">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J666" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K666">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="L666">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M666">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="N666">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O666">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P666">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q666">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R666">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S666">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T666">
         <v>2.75</v>
@@ -59817,16 +59817,16 @@
         <v>-1</v>
       </c>
       <c r="X666">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y666">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z666">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA666">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB666">
         <v>-1</v>
@@ -59840,7 +59840,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5173409</v>
+        <v>5173412</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59852,46 +59852,46 @@
         <v>44962.39583333334</v>
       </c>
       <c r="F667" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G667" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H667">
+        <v>1</v>
+      </c>
+      <c r="I667">
+        <v>1</v>
+      </c>
+      <c r="J667" t="s">
+        <v>60</v>
+      </c>
+      <c r="K667">
+        <v>2.75</v>
+      </c>
+      <c r="L667">
+        <v>3.5</v>
+      </c>
+      <c r="M667">
+        <v>2.45</v>
+      </c>
+      <c r="N667">
+        <v>2.75</v>
+      </c>
+      <c r="O667">
+        <v>3.5</v>
+      </c>
+      <c r="P667">
+        <v>2.5</v>
+      </c>
+      <c r="Q667">
         <v>0</v>
       </c>
-      <c r="I667">
-        <v>2</v>
-      </c>
-      <c r="J667" t="s">
-        <v>58</v>
-      </c>
-      <c r="K667">
-        <v>3.6</v>
-      </c>
-      <c r="L667">
-        <v>3.6</v>
-      </c>
-      <c r="M667">
-        <v>1.95</v>
-      </c>
-      <c r="N667">
-        <v>4</v>
-      </c>
-      <c r="O667">
-        <v>3.6</v>
-      </c>
-      <c r="P667">
-        <v>1.909</v>
-      </c>
-      <c r="Q667">
-        <v>0.5</v>
-      </c>
       <c r="R667">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S667">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T667">
         <v>2.75</v>
@@ -59906,16 +59906,16 @@
         <v>-1</v>
       </c>
       <c r="X667">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y667">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z667">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA667">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB667">
         <v>-1</v>
@@ -60196,7 +60196,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>5173422</v>
+        <v>5173420</v>
       </c>
       <c r="C671" t="s">
         <v>28</v>
@@ -60208,55 +60208,55 @@
         <v>44968.375</v>
       </c>
       <c r="F671" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G671" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H671">
+        <v>2</v>
+      </c>
+      <c r="I671">
         <v>3</v>
-      </c>
-      <c r="I671">
-        <v>4</v>
       </c>
       <c r="J671" t="s">
         <v>58</v>
       </c>
       <c r="K671">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="L671">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M671">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N671">
+        <v>1.85</v>
+      </c>
+      <c r="O671">
+        <v>3.8</v>
+      </c>
+      <c r="P671">
+        <v>4</v>
+      </c>
+      <c r="Q671">
+        <v>-0.5</v>
+      </c>
+      <c r="R671">
+        <v>1.825</v>
+      </c>
+      <c r="S671">
+        <v>2.025</v>
+      </c>
+      <c r="T671">
         <v>3</v>
       </c>
-      <c r="O671">
-        <v>3.5</v>
-      </c>
-      <c r="P671">
-        <v>2.3</v>
-      </c>
-      <c r="Q671">
-        <v>0.25</v>
-      </c>
-      <c r="R671">
-        <v>1.875</v>
-      </c>
-      <c r="S671">
-        <v>1.975</v>
-      </c>
-      <c r="T671">
-        <v>2.75</v>
-      </c>
       <c r="U671">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V671">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W671">
         <v>-1</v>
@@ -60265,16 +60265,16 @@
         <v>-1</v>
       </c>
       <c r="Y671">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="Z671">
         <v>-1</v>
       </c>
       <c r="AA671">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB671">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC671">
         <v>-1</v>
@@ -60285,7 +60285,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>5173420</v>
+        <v>5173419</v>
       </c>
       <c r="C672" t="s">
         <v>28</v>
@@ -60297,76 +60297,76 @@
         <v>44968.375</v>
       </c>
       <c r="F672" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G672" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I672">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J672" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K672">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L672">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M672">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N672">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O672">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P672">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q672">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R672">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S672">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T672">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U672">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V672">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W672">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X672">
         <v>-1</v>
       </c>
       <c r="Y672">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z672">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA672">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB672">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC672">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="673" spans="1:29">
@@ -60374,7 +60374,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>5173419</v>
+        <v>5173422</v>
       </c>
       <c r="C673" t="s">
         <v>28</v>
@@ -60386,76 +60386,76 @@
         <v>44968.375</v>
       </c>
       <c r="F673" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G673" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I673">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J673" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K673">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L673">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M673">
+        <v>2.4</v>
+      </c>
+      <c r="N673">
+        <v>3</v>
+      </c>
+      <c r="O673">
         <v>3.5</v>
       </c>
-      <c r="N673">
-        <v>2.1</v>
-      </c>
-      <c r="O673">
-        <v>3.3</v>
-      </c>
       <c r="P673">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q673">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R673">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S673">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T673">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U673">
+        <v>1.95</v>
+      </c>
+      <c r="V673">
         <v>1.9</v>
       </c>
-      <c r="V673">
-        <v>1.95</v>
-      </c>
       <c r="W673">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X673">
         <v>-1</v>
       </c>
       <c r="Y673">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z673">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA673">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB673">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC673">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="674" spans="1:29">
@@ -61353,7 +61353,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>5173426</v>
+        <v>5173425</v>
       </c>
       <c r="C684" t="s">
         <v>28</v>
@@ -61365,58 +61365,58 @@
         <v>44976.39583333334</v>
       </c>
       <c r="F684" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G684" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H684">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I684">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J684" t="s">
         <v>59</v>
       </c>
       <c r="K684">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L684">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M684">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N684">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O684">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P684">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q684">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R684">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S684">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T684">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U684">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V684">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W684">
-        <v>0.909</v>
+        <v>0.571</v>
       </c>
       <c r="X684">
         <v>-1</v>
@@ -61425,16 +61425,16 @@
         <v>-1</v>
       </c>
       <c r="Z684">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA684">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB684">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC684">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="685" spans="1:29">
@@ -61442,7 +61442,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>5173425</v>
+        <v>5173426</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61454,58 +61454,58 @@
         <v>44976.39583333334</v>
       </c>
       <c r="F685" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G685" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I685">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J685" t="s">
         <v>59</v>
       </c>
       <c r="K685">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L685">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M685">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N685">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O685">
+        <v>3.3</v>
+      </c>
+      <c r="P685">
         <v>4.2</v>
       </c>
-      <c r="P685">
-        <v>5.75</v>
-      </c>
       <c r="Q685">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R685">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S685">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T685">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U685">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V685">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W685">
-        <v>0.571</v>
+        <v>0.909</v>
       </c>
       <c r="X685">
         <v>-1</v>
@@ -61514,16 +61514,16 @@
         <v>-1</v>
       </c>
       <c r="Z685">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA685">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB685">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC685">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -61620,7 +61620,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>5173440</v>
+        <v>5173438</v>
       </c>
       <c r="C687" t="s">
         <v>28</v>
@@ -61632,40 +61632,40 @@
         <v>44981.60416666666</v>
       </c>
       <c r="F687" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G687" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H687">
+        <v>3</v>
+      </c>
+      <c r="I687">
         <v>1</v>
-      </c>
-      <c r="I687">
-        <v>0</v>
       </c>
       <c r="J687" t="s">
         <v>59</v>
       </c>
       <c r="K687">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L687">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M687">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N687">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O687">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P687">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q687">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R687">
         <v>2</v>
@@ -61677,13 +61677,13 @@
         <v>2.75</v>
       </c>
       <c r="U687">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V687">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W687">
-        <v>0.8</v>
+        <v>0.615</v>
       </c>
       <c r="X687">
         <v>-1</v>
@@ -61692,16 +61692,16 @@
         <v>-1</v>
       </c>
       <c r="Z687">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA687">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB687">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC687">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="688" spans="1:29">
@@ -61709,7 +61709,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>5173438</v>
+        <v>5173440</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61721,40 +61721,40 @@
         <v>44981.60416666666</v>
       </c>
       <c r="F688" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G688" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H688">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I688">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J688" t="s">
         <v>59</v>
       </c>
       <c r="K688">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L688">
+        <v>3.6</v>
+      </c>
+      <c r="M688">
+        <v>4.2</v>
+      </c>
+      <c r="N688">
+        <v>1.8</v>
+      </c>
+      <c r="O688">
         <v>3.75</v>
       </c>
-      <c r="M688">
-        <v>4.75</v>
-      </c>
-      <c r="N688">
-        <v>1.615</v>
-      </c>
-      <c r="O688">
-        <v>4</v>
-      </c>
       <c r="P688">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q688">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R688">
         <v>2</v>
@@ -61766,13 +61766,13 @@
         <v>2.75</v>
       </c>
       <c r="U688">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V688">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W688">
-        <v>0.615</v>
+        <v>0.8</v>
       </c>
       <c r="X688">
         <v>-1</v>
@@ -61781,16 +61781,16 @@
         <v>-1</v>
       </c>
       <c r="Z688">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA688">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB688">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC688">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="689" spans="1:29">
@@ -62154,7 +62154,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>5173433</v>
+        <v>5173435</v>
       </c>
       <c r="C693" t="s">
         <v>28</v>
@@ -62166,46 +62166,46 @@
         <v>44983.39583333334</v>
       </c>
       <c r="F693" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G693" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H693">
+        <v>1</v>
+      </c>
+      <c r="I693">
         <v>0</v>
       </c>
-      <c r="I693">
-        <v>1</v>
-      </c>
       <c r="J693" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K693">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="L693">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M693">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N693">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O693">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P693">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q693">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R693">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S693">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T693">
         <v>2.25</v>
@@ -62217,19 +62217,19 @@
         <v>2.025</v>
       </c>
       <c r="W693">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X693">
         <v>-1</v>
       </c>
       <c r="Y693">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z693">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA693">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB693">
         <v>-1</v>
@@ -62243,7 +62243,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>5173439</v>
+        <v>5173433</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62255,56 +62255,56 @@
         <v>44983.39583333334</v>
       </c>
       <c r="F694" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G694" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H694">
+        <v>0</v>
+      </c>
+      <c r="I694">
         <v>1</v>
-      </c>
-      <c r="I694">
-        <v>2</v>
       </c>
       <c r="J694" t="s">
         <v>58</v>
       </c>
       <c r="K694">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L694">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M694">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N694">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O694">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P694">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q694">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R694">
+        <v>1.775</v>
+      </c>
+      <c r="S694">
+        <v>2.1</v>
+      </c>
+      <c r="T694">
+        <v>2.25</v>
+      </c>
+      <c r="U694">
+        <v>1.825</v>
+      </c>
+      <c r="V694">
         <v>2.025</v>
       </c>
-      <c r="S694">
-        <v>1.825</v>
-      </c>
-      <c r="T694">
-        <v>3</v>
-      </c>
-      <c r="U694">
-        <v>1.85</v>
-      </c>
-      <c r="V694">
-        <v>2</v>
-      </c>
       <c r="W694">
         <v>-1</v>
       </c>
@@ -62312,19 +62312,19 @@
         <v>-1</v>
       </c>
       <c r="Y694">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Z694">
         <v>-1</v>
       </c>
       <c r="AA694">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AB694">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC694">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="695" spans="1:29">
@@ -62332,7 +62332,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5173435</v>
+        <v>5173439</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62344,76 +62344,76 @@
         <v>44983.39583333334</v>
       </c>
       <c r="F695" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G695" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H695">
         <v>1</v>
       </c>
       <c r="I695">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J695" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K695">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L695">
         <v>3.6</v>
       </c>
       <c r="M695">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N695">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O695">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P695">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q695">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R695">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S695">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T695">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U695">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V695">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W695">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X695">
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z695">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA695">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB695">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC695">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -64201,7 +64201,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>5173462</v>
+        <v>5173461</v>
       </c>
       <c r="C716" t="s">
         <v>28</v>
@@ -64213,49 +64213,49 @@
         <v>45003.375</v>
       </c>
       <c r="F716" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G716" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I716">
         <v>0</v>
       </c>
       <c r="J716" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K716">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L716">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M716">
-        <v>4.333</v>
+        <v>3.9</v>
       </c>
       <c r="N716">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O716">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P716">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q716">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R716">
+        <v>2.025</v>
+      </c>
+      <c r="S716">
         <v>1.825</v>
       </c>
-      <c r="S716">
-        <v>2.025</v>
-      </c>
       <c r="T716">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U716">
         <v>2</v>
@@ -64264,25 +64264,25 @@
         <v>1.85</v>
       </c>
       <c r="W716">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X716">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y716">
         <v>-1</v>
       </c>
       <c r="Z716">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA716">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB716">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC716">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="717" spans="1:29">
@@ -64290,7 +64290,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>5173461</v>
+        <v>5173467</v>
       </c>
       <c r="C717" t="s">
         <v>28</v>
@@ -64302,13 +64302,13 @@
         <v>45003.375</v>
       </c>
       <c r="F717" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G717" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H717">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I717">
         <v>0</v>
@@ -64317,43 +64317,43 @@
         <v>59</v>
       </c>
       <c r="K717">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L717">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M717">
-        <v>3.9</v>
+        <v>2.15</v>
       </c>
       <c r="N717">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="O717">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P717">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q717">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R717">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S717">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T717">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U717">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V717">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W717">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="X717">
         <v>-1</v>
@@ -64362,16 +64362,16 @@
         <v>-1</v>
       </c>
       <c r="Z717">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA717">
         <v>-1</v>
       </c>
       <c r="AB717">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC717">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="718" spans="1:29">
@@ -64379,7 +64379,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>5173467</v>
+        <v>5173462</v>
       </c>
       <c r="C718" t="s">
         <v>28</v>
@@ -64391,76 +64391,76 @@
         <v>45003.375</v>
       </c>
       <c r="F718" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G718" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718">
         <v>0</v>
       </c>
       <c r="J718" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K718">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L718">
+        <v>4</v>
+      </c>
+      <c r="M718">
+        <v>4.333</v>
+      </c>
+      <c r="N718">
+        <v>1.666</v>
+      </c>
+      <c r="O718">
+        <v>4.333</v>
+      </c>
+      <c r="P718">
+        <v>4.2</v>
+      </c>
+      <c r="Q718">
+        <v>-0.75</v>
+      </c>
+      <c r="R718">
+        <v>1.825</v>
+      </c>
+      <c r="S718">
+        <v>2.025</v>
+      </c>
+      <c r="T718">
         <v>3.5</v>
       </c>
-      <c r="M718">
-        <v>2.15</v>
-      </c>
-      <c r="N718">
-        <v>3.25</v>
-      </c>
-      <c r="O718">
-        <v>3.5</v>
-      </c>
-      <c r="P718">
-        <v>2.15</v>
-      </c>
-      <c r="Q718">
-        <v>0.25</v>
-      </c>
-      <c r="R718">
-        <v>1.975</v>
-      </c>
-      <c r="S718">
-        <v>1.875</v>
-      </c>
-      <c r="T718">
-        <v>2.5</v>
-      </c>
       <c r="U718">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V718">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W718">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X718">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y718">
         <v>-1</v>
       </c>
       <c r="Z718">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA718">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB718">
         <v>-1</v>
       </c>
       <c r="AC718">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="719" spans="1:29">
@@ -64824,7 +64824,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>5173473</v>
+        <v>5173471</v>
       </c>
       <c r="C723" t="s">
         <v>28</v>
@@ -64836,76 +64836,76 @@
         <v>45016.5625</v>
       </c>
       <c r="F723" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G723" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J723" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K723">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L723">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M723">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N723">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O723">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P723">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="Q723">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R723">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S723">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T723">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U723">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V723">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W723">
         <v>-1</v>
       </c>
       <c r="X723">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y723">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z723">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA723">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB723">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC723">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="724" spans="1:29">
@@ -64913,7 +64913,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>5173471</v>
+        <v>5173473</v>
       </c>
       <c r="C724" t="s">
         <v>28</v>
@@ -64925,76 +64925,76 @@
         <v>45016.5625</v>
       </c>
       <c r="F724" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G724" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J724" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K724">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L724">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M724">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N724">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O724">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P724">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q724">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R724">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S724">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T724">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U724">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V724">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W724">
         <v>-1</v>
       </c>
       <c r="X724">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y724">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z724">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA724">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB724">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC724">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="725" spans="1:29">
@@ -66159,7 +66159,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5173478</v>
+        <v>5173480</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66171,76 +66171,76 @@
         <v>45025.35416666666</v>
       </c>
       <c r="F738" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G738" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H738">
         <v>2</v>
       </c>
       <c r="I738">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J738" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K738">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="L738">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M738">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N738">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O738">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P738">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q738">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R738">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S738">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T738">
         <v>2.75</v>
       </c>
       <c r="U738">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V738">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W738">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X738">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y738">
         <v>-1</v>
       </c>
       <c r="Z738">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA738">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB738">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AC738">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66248,7 +66248,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5173480</v>
+        <v>5173478</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66260,76 +66260,76 @@
         <v>45025.35416666666</v>
       </c>
       <c r="F739" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G739" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H739">
         <v>2</v>
       </c>
       <c r="I739">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J739" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K739">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L739">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M739">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N739">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O739">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P739">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q739">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R739">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S739">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T739">
         <v>2.75</v>
       </c>
       <c r="U739">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V739">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W739">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X739">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y739">
         <v>-1</v>
       </c>
       <c r="Z739">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA739">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB739">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AC739">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -66960,7 +66960,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>5173488</v>
+        <v>5173491</v>
       </c>
       <c r="C747" t="s">
         <v>28</v>
@@ -66972,76 +66972,76 @@
         <v>45032.35416666666</v>
       </c>
       <c r="F747" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G747" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H747">
         <v>1</v>
       </c>
       <c r="I747">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J747" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K747">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L747">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M747">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="N747">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O747">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P747">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q747">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R747">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S747">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T747">
         <v>2.75</v>
       </c>
       <c r="U747">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V747">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W747">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X747">
         <v>-1</v>
       </c>
       <c r="Y747">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z747">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA747">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB747">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC747">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="748" spans="1:29">
@@ -67138,7 +67138,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>5173491</v>
+        <v>5173488</v>
       </c>
       <c r="C749" t="s">
         <v>28</v>
@@ -67150,76 +67150,76 @@
         <v>45032.35416666666</v>
       </c>
       <c r="F749" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G749" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H749">
         <v>1</v>
       </c>
       <c r="I749">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J749" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K749">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L749">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M749">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="N749">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O749">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P749">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q749">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R749">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S749">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T749">
         <v>2.75</v>
       </c>
       <c r="U749">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V749">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W749">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X749">
         <v>-1</v>
       </c>
       <c r="Y749">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z749">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA749">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB749">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC749">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="750" spans="1:29">
@@ -67761,7 +67761,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>5173499</v>
+        <v>5173500</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67773,76 +67773,76 @@
         <v>45039.35416666666</v>
       </c>
       <c r="F756" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G756" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J756" t="s">
         <v>60</v>
       </c>
       <c r="K756">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="L756">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M756">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="N756">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="O756">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P756">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="Q756">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R756">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S756">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T756">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U756">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V756">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W756">
         <v>-1</v>
       </c>
       <c r="X756">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y756">
         <v>-1</v>
       </c>
       <c r="Z756">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA756">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB756">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC756">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -67939,7 +67939,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>5173500</v>
+        <v>5173499</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67951,76 +67951,76 @@
         <v>45039.35416666666</v>
       </c>
       <c r="F758" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G758" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J758" t="s">
         <v>60</v>
       </c>
       <c r="K758">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="L758">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M758">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="N758">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="O758">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P758">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="Q758">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R758">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S758">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T758">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U758">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V758">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W758">
         <v>-1</v>
       </c>
       <c r="X758">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y758">
         <v>-1</v>
       </c>
       <c r="Z758">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA758">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB758">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC758">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="759" spans="1:29">
@@ -68295,7 +68295,7 @@
         <v>760</v>
       </c>
       <c r="B762">
-        <v>5315786</v>
+        <v>5318491</v>
       </c>
       <c r="C762" t="s">
         <v>28</v>
@@ -68307,76 +68307,76 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F762" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G762" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762">
         <v>1</v>
       </c>
       <c r="J762" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K762">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L762">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M762">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N762">
+        <v>2</v>
+      </c>
+      <c r="O762">
+        <v>3.6</v>
+      </c>
+      <c r="P762">
+        <v>3.75</v>
+      </c>
+      <c r="Q762">
+        <v>-0.5</v>
+      </c>
+      <c r="R762">
         <v>2.05</v>
       </c>
-      <c r="O762">
-        <v>3.3</v>
-      </c>
-      <c r="P762">
-        <v>3.5</v>
-      </c>
-      <c r="Q762">
-        <v>-0.25</v>
-      </c>
-      <c r="R762">
+      <c r="S762">
         <v>1.8</v>
       </c>
-      <c r="S762">
-        <v>2.05</v>
-      </c>
       <c r="T762">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U762">
+        <v>1.975</v>
+      </c>
+      <c r="V762">
         <v>1.875</v>
       </c>
-      <c r="V762">
-        <v>1.975</v>
-      </c>
       <c r="W762">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X762">
         <v>-1</v>
       </c>
       <c r="Y762">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z762">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA762">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB762">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC762">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="763" spans="1:29">
@@ -68384,7 +68384,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>5318491</v>
+        <v>5315786</v>
       </c>
       <c r="C763" t="s">
         <v>28</v>
@@ -68396,76 +68396,76 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F763" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G763" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763">
         <v>1</v>
       </c>
       <c r="J763" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K763">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L763">
+        <v>3.5</v>
+      </c>
+      <c r="M763">
         <v>3.8</v>
       </c>
-      <c r="M763">
-        <v>4.5</v>
-      </c>
       <c r="N763">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O763">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P763">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q763">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R763">
+        <v>1.8</v>
+      </c>
+      <c r="S763">
         <v>2.05</v>
       </c>
-      <c r="S763">
-        <v>1.8</v>
-      </c>
       <c r="T763">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U763">
+        <v>1.875</v>
+      </c>
+      <c r="V763">
         <v>1.975</v>
       </c>
-      <c r="V763">
-        <v>1.875</v>
-      </c>
       <c r="W763">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X763">
         <v>-1</v>
       </c>
       <c r="Y763">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z763">
+        <v>-1</v>
+      </c>
+      <c r="AA763">
         <v>1.05</v>
       </c>
-      <c r="AA763">
-        <v>-1</v>
-      </c>
       <c r="AB763">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC763">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="764" spans="1:29">
@@ -68651,7 +68651,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>5318493</v>
+        <v>5318492</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68663,76 +68663,76 @@
         <v>45046.35416666666</v>
       </c>
       <c r="F766" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G766" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J766" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K766">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L766">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M766">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N766">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O766">
+        <v>4</v>
+      </c>
+      <c r="P766">
+        <v>1.95</v>
+      </c>
+      <c r="Q766">
+        <v>0.5</v>
+      </c>
+      <c r="R766">
+        <v>1.9</v>
+      </c>
+      <c r="S766">
+        <v>1.95</v>
+      </c>
+      <c r="T766">
         <v>3.25</v>
       </c>
-      <c r="P766">
-        <v>2.55</v>
-      </c>
-      <c r="Q766">
-        <v>0</v>
-      </c>
-      <c r="R766">
-        <v>2.05</v>
-      </c>
-      <c r="S766">
-        <v>1.8</v>
-      </c>
-      <c r="T766">
-        <v>2.25</v>
-      </c>
       <c r="U766">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V766">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W766">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X766">
         <v>-1</v>
       </c>
       <c r="Y766">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z766">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA766">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB766">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC766">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -68740,7 +68740,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>5318492</v>
+        <v>5318493</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68752,76 +68752,76 @@
         <v>45046.35416666666</v>
       </c>
       <c r="F767" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G767" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H767">
+        <v>2</v>
+      </c>
+      <c r="I767">
+        <v>1</v>
+      </c>
+      <c r="J767" t="s">
+        <v>59</v>
+      </c>
+      <c r="K767">
+        <v>3</v>
+      </c>
+      <c r="L767">
+        <v>3.4</v>
+      </c>
+      <c r="M767">
+        <v>2.3</v>
+      </c>
+      <c r="N767">
+        <v>2.8</v>
+      </c>
+      <c r="O767">
+        <v>3.25</v>
+      </c>
+      <c r="P767">
+        <v>2.55</v>
+      </c>
+      <c r="Q767">
         <v>0</v>
       </c>
-      <c r="I767">
-        <v>3</v>
-      </c>
-      <c r="J767" t="s">
-        <v>58</v>
-      </c>
-      <c r="K767">
-        <v>3.1</v>
-      </c>
-      <c r="L767">
-        <v>3.6</v>
-      </c>
-      <c r="M767">
-        <v>2.1</v>
-      </c>
-      <c r="N767">
-        <v>3.5</v>
-      </c>
-      <c r="O767">
-        <v>4</v>
-      </c>
-      <c r="P767">
-        <v>1.95</v>
-      </c>
-      <c r="Q767">
-        <v>0.5</v>
-      </c>
       <c r="R767">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S767">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T767">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U767">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V767">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W767">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X767">
         <v>-1</v>
       </c>
       <c r="Y767">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z767">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA767">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB767">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC767">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -68829,7 +68829,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>5350577</v>
+        <v>5354747</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68841,76 +68841,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F768" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G768" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I768">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J768" t="s">
         <v>60</v>
       </c>
       <c r="K768">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L768">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M768">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N768">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O768">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P768">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q768">
+        <v>-0.25</v>
+      </c>
+      <c r="R768">
+        <v>2.05</v>
+      </c>
+      <c r="S768">
+        <v>1.75</v>
+      </c>
+      <c r="T768">
+        <v>2.75</v>
+      </c>
+      <c r="U768">
+        <v>1.8</v>
+      </c>
+      <c r="V768">
+        <v>2.05</v>
+      </c>
+      <c r="W768">
+        <v>-1</v>
+      </c>
+      <c r="X768">
+        <v>2.6</v>
+      </c>
+      <c r="Y768">
+        <v>-1</v>
+      </c>
+      <c r="Z768">
         <v>-0.5</v>
       </c>
-      <c r="R768">
-        <v>1.975</v>
-      </c>
-      <c r="S768">
-        <v>1.875</v>
-      </c>
-      <c r="T768">
-        <v>3.25</v>
-      </c>
-      <c r="U768">
-        <v>2</v>
-      </c>
-      <c r="V768">
-        <v>1.85</v>
-      </c>
-      <c r="W768">
-        <v>-1</v>
-      </c>
-      <c r="X768">
-        <v>3</v>
-      </c>
-      <c r="Y768">
-        <v>-1</v>
-      </c>
-      <c r="Z768">
-        <v>-1</v>
-      </c>
       <c r="AA768">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB768">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC768">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -68918,7 +68918,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>5354747</v>
+        <v>5350577</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68930,76 +68930,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F769" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G769" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I769">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J769" t="s">
         <v>60</v>
       </c>
       <c r="K769">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L769">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M769">
+        <v>3.5</v>
+      </c>
+      <c r="N769">
+        <v>1.909</v>
+      </c>
+      <c r="O769">
+        <v>4</v>
+      </c>
+      <c r="P769">
+        <v>3.5</v>
+      </c>
+      <c r="Q769">
+        <v>-0.5</v>
+      </c>
+      <c r="R769">
+        <v>1.975</v>
+      </c>
+      <c r="S769">
+        <v>1.875</v>
+      </c>
+      <c r="T769">
+        <v>3.25</v>
+      </c>
+      <c r="U769">
+        <v>2</v>
+      </c>
+      <c r="V769">
+        <v>1.85</v>
+      </c>
+      <c r="W769">
+        <v>-1</v>
+      </c>
+      <c r="X769">
         <v>3</v>
       </c>
-      <c r="N769">
-        <v>2.375</v>
-      </c>
-      <c r="O769">
-        <v>3.6</v>
-      </c>
-      <c r="P769">
-        <v>2.8</v>
-      </c>
-      <c r="Q769">
-        <v>-0.25</v>
-      </c>
-      <c r="R769">
-        <v>2.05</v>
-      </c>
-      <c r="S769">
-        <v>1.75</v>
-      </c>
-      <c r="T769">
-        <v>2.75</v>
-      </c>
-      <c r="U769">
-        <v>1.8</v>
-      </c>
-      <c r="V769">
-        <v>2.05</v>
-      </c>
-      <c r="W769">
-        <v>-1</v>
-      </c>
-      <c r="X769">
-        <v>2.6</v>
-      </c>
       <c r="Y769">
         <v>-1</v>
       </c>
       <c r="Z769">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA769">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB769">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC769">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="770" spans="1:29">
@@ -72567,7 +72567,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>6846734</v>
+        <v>6846735</v>
       </c>
       <c r="C810" t="s">
         <v>28</v>
@@ -72579,13 +72579,13 @@
         <v>45137.35416666666</v>
       </c>
       <c r="F810" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G810" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H810">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I810">
         <v>0</v>
@@ -72594,43 +72594,43 @@
         <v>59</v>
       </c>
       <c r="K810">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L810">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M810">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N810">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O810">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P810">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q810">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R810">
+        <v>1.975</v>
+      </c>
+      <c r="S810">
         <v>1.875</v>
       </c>
-      <c r="S810">
-        <v>1.975</v>
-      </c>
       <c r="T810">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U810">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V810">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W810">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="X810">
         <v>-1</v>
@@ -72639,16 +72639,16 @@
         <v>-1</v>
       </c>
       <c r="Z810">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA810">
         <v>-1</v>
       </c>
       <c r="AB810">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC810">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="811" spans="1:29">
@@ -72656,7 +72656,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>6846735</v>
+        <v>6846734</v>
       </c>
       <c r="C811" t="s">
         <v>28</v>
@@ -72668,13 +72668,13 @@
         <v>45137.35416666666</v>
       </c>
       <c r="F811" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G811" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I811">
         <v>0</v>
@@ -72683,43 +72683,43 @@
         <v>59</v>
       </c>
       <c r="K811">
+        <v>2.6</v>
+      </c>
+      <c r="L811">
+        <v>3.4</v>
+      </c>
+      <c r="M811">
         <v>2.4</v>
       </c>
-      <c r="L811">
-        <v>3.3</v>
-      </c>
-      <c r="M811">
-        <v>2.7</v>
-      </c>
       <c r="N811">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O811">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P811">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q811">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R811">
+        <v>1.875</v>
+      </c>
+      <c r="S811">
         <v>1.975</v>
       </c>
-      <c r="S811">
-        <v>1.875</v>
-      </c>
       <c r="T811">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U811">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V811">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W811">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="X811">
         <v>-1</v>
@@ -72728,16 +72728,16 @@
         <v>-1</v>
       </c>
       <c r="Z811">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA811">
         <v>-1</v>
       </c>
       <c r="AB811">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC811">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="812" spans="1:29">
@@ -77017,7 +77017,7 @@
         <v>858</v>
       </c>
       <c r="B860">
-        <v>6846180</v>
+        <v>6846772</v>
       </c>
       <c r="C860" t="s">
         <v>28</v>
@@ -77029,76 +77029,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F860" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G860" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I860">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J860" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K860">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L860">
         <v>3.6</v>
       </c>
       <c r="M860">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N860">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O860">
         <v>3.6</v>
       </c>
       <c r="P860">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="Q860">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R860">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S860">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T860">
         <v>3</v>
       </c>
       <c r="U860">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V860">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W860">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X860">
         <v>-1</v>
       </c>
       <c r="Y860">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z860">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA860">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB860">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC860">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="861" spans="1:29">
@@ -77106,7 +77106,7 @@
         <v>859</v>
       </c>
       <c r="B861">
-        <v>6846772</v>
+        <v>6846180</v>
       </c>
       <c r="C861" t="s">
         <v>28</v>
@@ -77118,76 +77118,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F861" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G861" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H861">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I861">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J861" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K861">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L861">
         <v>3.6</v>
       </c>
       <c r="M861">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N861">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O861">
         <v>3.6</v>
       </c>
       <c r="P861">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q861">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R861">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S861">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T861">
         <v>3</v>
       </c>
       <c r="U861">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V861">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W861">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X861">
         <v>-1</v>
       </c>
       <c r="Y861">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z861">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA861">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB861">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC861">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="862" spans="1:29">
@@ -77907,7 +77907,7 @@
         <v>868</v>
       </c>
       <c r="B870">
-        <v>6846777</v>
+        <v>6846778</v>
       </c>
       <c r="C870" t="s">
         <v>28</v>
@@ -77919,49 +77919,49 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F870" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G870" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H870">
+        <v>2</v>
+      </c>
+      <c r="I870">
         <v>0</v>
       </c>
-      <c r="I870">
-        <v>2</v>
-      </c>
       <c r="J870" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K870">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L870">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M870">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N870">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O870">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P870">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q870">
         <v>-0.75</v>
       </c>
       <c r="R870">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S870">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T870">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U870">
         <v>2.025</v>
@@ -77970,19 +77970,19 @@
         <v>1.825</v>
       </c>
       <c r="W870">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X870">
         <v>-1</v>
       </c>
       <c r="Y870">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z870">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA870">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB870">
         <v>-1</v>
@@ -77996,7 +77996,7 @@
         <v>869</v>
       </c>
       <c r="B871">
-        <v>6846778</v>
+        <v>6846777</v>
       </c>
       <c r="C871" t="s">
         <v>28</v>
@@ -78008,49 +78008,49 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F871" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G871" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J871" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K871">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L871">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M871">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N871">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O871">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P871">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q871">
         <v>-0.75</v>
       </c>
       <c r="R871">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S871">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T871">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U871">
         <v>2.025</v>
@@ -78059,19 +78059,19 @@
         <v>1.825</v>
       </c>
       <c r="W871">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X871">
         <v>-1</v>
       </c>
       <c r="Y871">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z871">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA871">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB871">
         <v>-1</v>
@@ -80043,7 +80043,7 @@
         <v>892</v>
       </c>
       <c r="B894">
-        <v>6846798</v>
+        <v>6846797</v>
       </c>
       <c r="C894" t="s">
         <v>28</v>
@@ -80055,46 +80055,46 @@
         <v>45226.5625</v>
       </c>
       <c r="F894" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G894" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I894">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J894" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K894">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="L894">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M894">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N894">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="O894">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P894">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q894">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R894">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S894">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T894">
         <v>3</v>
@@ -80106,19 +80106,19 @@
         <v>1.825</v>
       </c>
       <c r="W894">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X894">
         <v>-1</v>
       </c>
       <c r="Y894">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z894">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA894">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB894">
         <v>1.025</v>
@@ -80132,7 +80132,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>6846797</v>
+        <v>6846798</v>
       </c>
       <c r="C895" t="s">
         <v>28</v>
@@ -80144,46 +80144,46 @@
         <v>45226.5625</v>
       </c>
       <c r="F895" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G895" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H895">
+        <v>1</v>
+      </c>
+      <c r="I895">
         <v>4</v>
       </c>
-      <c r="I895">
-        <v>0</v>
-      </c>
       <c r="J895" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K895">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="L895">
+        <v>3.5</v>
+      </c>
+      <c r="M895">
+        <v>2.1</v>
+      </c>
+      <c r="N895">
         <v>3.75</v>
       </c>
-      <c r="M895">
-        <v>4.5</v>
-      </c>
-      <c r="N895">
-        <v>1.65</v>
-      </c>
       <c r="O895">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P895">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q895">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R895">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S895">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T895">
         <v>3</v>
@@ -80195,19 +80195,19 @@
         <v>1.825</v>
       </c>
       <c r="W895">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X895">
         <v>-1</v>
       </c>
       <c r="Y895">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z895">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA895">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB895">
         <v>1.025</v>
@@ -80577,7 +80577,7 @@
         <v>898</v>
       </c>
       <c r="B900">
-        <v>6846184</v>
+        <v>6846795</v>
       </c>
       <c r="C900" t="s">
         <v>28</v>
@@ -80589,13 +80589,13 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F900" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G900" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I900">
         <v>2</v>
@@ -80604,40 +80604,40 @@
         <v>58</v>
       </c>
       <c r="K900">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L900">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M900">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N900">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O900">
         <v>3.8</v>
       </c>
       <c r="P900">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q900">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R900">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S900">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T900">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U900">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V900">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W900">
         <v>-1</v>
@@ -80646,19 +80646,19 @@
         <v>-1</v>
       </c>
       <c r="Y900">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Z900">
         <v>-1</v>
       </c>
       <c r="AA900">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB900">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC900">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="901" spans="1:29">
@@ -80666,7 +80666,7 @@
         <v>899</v>
       </c>
       <c r="B901">
-        <v>6846795</v>
+        <v>6846184</v>
       </c>
       <c r="C901" t="s">
         <v>28</v>
@@ -80678,13 +80678,13 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F901" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G901" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I901">
         <v>2</v>
@@ -80693,40 +80693,40 @@
         <v>58</v>
       </c>
       <c r="K901">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L901">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M901">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N901">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O901">
         <v>3.8</v>
       </c>
       <c r="P901">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q901">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R901">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S901">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T901">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U901">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V901">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W901">
         <v>-1</v>
@@ -80735,19 +80735,19 @@
         <v>-1</v>
       </c>
       <c r="Y901">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Z901">
         <v>-1</v>
       </c>
       <c r="AA901">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB901">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC901">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="902" spans="1:29">
@@ -81645,7 +81645,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>6846153</v>
+        <v>6846185</v>
       </c>
       <c r="C912" t="s">
         <v>28</v>
@@ -81657,76 +81657,76 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F912" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G912" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I912">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J912" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K912">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L912">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M912">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N912">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="O912">
         <v>4</v>
       </c>
       <c r="P912">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q912">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R912">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S912">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T912">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U912">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V912">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W912">
         <v>-1</v>
       </c>
       <c r="X912">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y912">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z912">
         <v>-1</v>
       </c>
       <c r="AA912">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB912">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC912">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="913" spans="1:29">
@@ -81734,7 +81734,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>6846185</v>
+        <v>6846153</v>
       </c>
       <c r="C913" t="s">
         <v>28</v>
@@ -81746,76 +81746,76 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F913" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G913" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I913">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J913" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K913">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L913">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M913">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N913">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="O913">
         <v>4</v>
       </c>
       <c r="P913">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q913">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R913">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S913">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T913">
+        <v>2.75</v>
+      </c>
+      <c r="U913">
+        <v>1.975</v>
+      </c>
+      <c r="V913">
+        <v>1.875</v>
+      </c>
+      <c r="W913">
+        <v>-1</v>
+      </c>
+      <c r="X913">
         <v>3</v>
       </c>
-      <c r="U913">
-        <v>2.025</v>
-      </c>
-      <c r="V913">
-        <v>1.825</v>
-      </c>
-      <c r="W913">
-        <v>-1</v>
-      </c>
-      <c r="X913">
-        <v>-1</v>
-      </c>
       <c r="Y913">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z913">
         <v>-1</v>
       </c>
       <c r="AA913">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB913">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC913">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="914" spans="1:29">
@@ -83247,7 +83247,7 @@
         <v>928</v>
       </c>
       <c r="B930">
-        <v>6846155</v>
+        <v>6846819</v>
       </c>
       <c r="C930" t="s">
         <v>28</v>
@@ -83259,40 +83259,40 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F930" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G930" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I930">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J930" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K930">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L930">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M930">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="N930">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O930">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P930">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q930">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R930">
         <v>1.825</v>
@@ -83301,31 +83301,31 @@
         <v>2.025</v>
       </c>
       <c r="T930">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U930">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V930">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W930">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X930">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y930">
         <v>-1</v>
       </c>
       <c r="Z930">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA930">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB930">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC930">
         <v>-1</v>
@@ -83336,7 +83336,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>6846819</v>
+        <v>6846155</v>
       </c>
       <c r="C931" t="s">
         <v>28</v>
@@ -83348,40 +83348,40 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F931" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G931" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H931">
+        <v>2</v>
+      </c>
+      <c r="I931">
+        <v>2</v>
+      </c>
+      <c r="J931" t="s">
+        <v>60</v>
+      </c>
+      <c r="K931">
+        <v>2.3</v>
+      </c>
+      <c r="L931">
+        <v>3.6</v>
+      </c>
+      <c r="M931">
+        <v>2.8</v>
+      </c>
+      <c r="N931">
+        <v>1.833</v>
+      </c>
+      <c r="O931">
         <v>4</v>
       </c>
-      <c r="I931">
-        <v>0</v>
-      </c>
-      <c r="J931" t="s">
-        <v>59</v>
-      </c>
-      <c r="K931">
-        <v>1.85</v>
-      </c>
-      <c r="L931">
-        <v>3.75</v>
-      </c>
-      <c r="M931">
-        <v>3.9</v>
-      </c>
-      <c r="N931">
-        <v>1.533</v>
-      </c>
-      <c r="O931">
-        <v>4.5</v>
-      </c>
       <c r="P931">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q931">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R931">
         <v>1.825</v>
@@ -83390,31 +83390,31 @@
         <v>2.025</v>
       </c>
       <c r="T931">
+        <v>2.75</v>
+      </c>
+      <c r="U931">
+        <v>1.85</v>
+      </c>
+      <c r="V931">
+        <v>2</v>
+      </c>
+      <c r="W931">
+        <v>-1</v>
+      </c>
+      <c r="X931">
         <v>3</v>
       </c>
-      <c r="U931">
-        <v>1.9</v>
-      </c>
-      <c r="V931">
-        <v>1.95</v>
-      </c>
-      <c r="W931">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X931">
-        <v>-1</v>
-      </c>
       <c r="Y931">
         <v>-1</v>
       </c>
       <c r="Z931">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA931">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB931">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC931">
         <v>-1</v>
@@ -84048,7 +84048,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>6846828</v>
+        <v>6846831</v>
       </c>
       <c r="C939" t="s">
         <v>28</v>
@@ -84060,73 +84060,73 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F939" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G939" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I939">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J939" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K939">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L939">
         <v>3.5</v>
       </c>
       <c r="M939">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N939">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O939">
         <v>3.5</v>
       </c>
       <c r="P939">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q939">
         <v>-0.25</v>
       </c>
       <c r="R939">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S939">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T939">
         <v>2.5</v>
       </c>
       <c r="U939">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V939">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W939">
         <v>-1</v>
       </c>
       <c r="X939">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y939">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z939">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA939">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB939">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC939">
         <v>-1</v>
@@ -84137,7 +84137,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>6846831</v>
+        <v>6846828</v>
       </c>
       <c r="C940" t="s">
         <v>28</v>
@@ -84149,73 +84149,73 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F940" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G940" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I940">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J940" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K940">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L940">
         <v>3.5</v>
       </c>
       <c r="M940">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N940">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O940">
         <v>3.5</v>
       </c>
       <c r="P940">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q940">
         <v>-0.25</v>
       </c>
       <c r="R940">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S940">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T940">
         <v>2.5</v>
       </c>
       <c r="U940">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V940">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W940">
         <v>-1</v>
       </c>
       <c r="X940">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y940">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z940">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA940">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB940">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC940">
         <v>-1</v>
@@ -84315,7 +84315,7 @@
         <v>940</v>
       </c>
       <c r="B942">
-        <v>6846829</v>
+        <v>6846826</v>
       </c>
       <c r="C942" t="s">
         <v>28</v>
@@ -84327,49 +84327,49 @@
         <v>45269.375</v>
       </c>
       <c r="F942" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G942" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H942">
         <v>1</v>
       </c>
       <c r="I942">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J942" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K942">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L942">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M942">
+        <v>4.5</v>
+      </c>
+      <c r="N942">
+        <v>1.65</v>
+      </c>
+      <c r="O942">
+        <v>4.5</v>
+      </c>
+      <c r="P942">
+        <v>4.333</v>
+      </c>
+      <c r="Q942">
+        <v>-1</v>
+      </c>
+      <c r="R942">
+        <v>2.05</v>
+      </c>
+      <c r="S942">
+        <v>1.8</v>
+      </c>
+      <c r="T942">
         <v>3.5</v>
-      </c>
-      <c r="N942">
-        <v>1.95</v>
-      </c>
-      <c r="O942">
-        <v>3.6</v>
-      </c>
-      <c r="P942">
-        <v>3.75</v>
-      </c>
-      <c r="Q942">
-        <v>-0.5</v>
-      </c>
-      <c r="R942">
-        <v>2</v>
-      </c>
-      <c r="S942">
-        <v>1.85</v>
-      </c>
-      <c r="T942">
-        <v>2.75</v>
       </c>
       <c r="U942">
         <v>1.925</v>
@@ -84381,16 +84381,16 @@
         <v>-1</v>
       </c>
       <c r="X942">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y942">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z942">
         <v>-1</v>
       </c>
       <c r="AA942">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB942">
         <v>-1</v>
@@ -84404,7 +84404,7 @@
         <v>941</v>
       </c>
       <c r="B943">
-        <v>6846826</v>
+        <v>6846829</v>
       </c>
       <c r="C943" t="s">
         <v>28</v>
@@ -84416,49 +84416,49 @@
         <v>45269.375</v>
       </c>
       <c r="F943" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G943" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H943">
         <v>1</v>
       </c>
       <c r="I943">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J943" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K943">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L943">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M943">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N943">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O943">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P943">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q943">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R943">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S943">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T943">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U943">
         <v>1.925</v>
@@ -84470,16 +84470,16 @@
         <v>-1</v>
       </c>
       <c r="X943">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y943">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z943">
         <v>-1</v>
       </c>
       <c r="AA943">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB943">
         <v>-1</v>
@@ -86451,7 +86451,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>6846846</v>
+        <v>6846845</v>
       </c>
       <c r="C966" t="s">
         <v>28</v>
@@ -86463,58 +86463,58 @@
         <v>45317.60416666666</v>
       </c>
       <c r="F966" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G966" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H966">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I966">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J966" t="s">
         <v>59</v>
       </c>
       <c r="K966">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L966">
         <v>3.5</v>
       </c>
       <c r="M966">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N966">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O966">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P966">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q966">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R966">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S966">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T966">
         <v>2.75</v>
       </c>
       <c r="U966">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V966">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W966">
-        <v>0.833</v>
+        <v>1.6</v>
       </c>
       <c r="X966">
         <v>-1</v>
@@ -86523,16 +86523,16 @@
         <v>-1</v>
       </c>
       <c r="Z966">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA966">
         <v>-1</v>
       </c>
       <c r="AB966">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC966">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="967" spans="1:29">
@@ -86540,7 +86540,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>6846845</v>
+        <v>6846846</v>
       </c>
       <c r="C967" t="s">
         <v>28</v>
@@ -86552,58 +86552,58 @@
         <v>45317.60416666666</v>
       </c>
       <c r="F967" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G967" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H967">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I967">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J967" t="s">
         <v>59</v>
       </c>
       <c r="K967">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L967">
         <v>3.5</v>
       </c>
       <c r="M967">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N967">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O967">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P967">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q967">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R967">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S967">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T967">
         <v>2.75</v>
       </c>
       <c r="U967">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V967">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W967">
-        <v>1.6</v>
+        <v>0.833</v>
       </c>
       <c r="X967">
         <v>-1</v>
@@ -86612,16 +86612,16 @@
         <v>-1</v>
       </c>
       <c r="Z967">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA967">
         <v>-1</v>
       </c>
       <c r="AB967">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC967">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="968" spans="1:29">
@@ -86629,7 +86629,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>6846190</v>
+        <v>6846849</v>
       </c>
       <c r="C968" t="s">
         <v>28</v>
@@ -86641,76 +86641,76 @@
         <v>45318.375</v>
       </c>
       <c r="F968" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G968" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J968" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K968">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="L968">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M968">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N968">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O968">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P968">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q968">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R968">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S968">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T968">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U968">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V968">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W968">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X968">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y968">
         <v>-1</v>
       </c>
       <c r="Z968">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA968">
         <v>-1</v>
       </c>
       <c r="AB968">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC968">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="969" spans="1:29">
@@ -86718,7 +86718,7 @@
         <v>967</v>
       </c>
       <c r="B969">
-        <v>6846849</v>
+        <v>6846190</v>
       </c>
       <c r="C969" t="s">
         <v>28</v>
@@ -86730,76 +86730,76 @@
         <v>45318.375</v>
       </c>
       <c r="F969" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G969" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J969" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K969">
+        <v>2.625</v>
+      </c>
+      <c r="L969">
         <v>3.5</v>
       </c>
-      <c r="L969">
-        <v>3.8</v>
-      </c>
       <c r="M969">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N969">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O969">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P969">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Q969">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R969">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S969">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T969">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U969">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V969">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W969">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X969">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y969">
         <v>-1</v>
       </c>
       <c r="Z969">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA969">
         <v>-1</v>
       </c>
       <c r="AB969">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC969">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="970" spans="1:29">
@@ -86985,7 +86985,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>6846844</v>
+        <v>6846848</v>
       </c>
       <c r="C972" t="s">
         <v>28</v>
@@ -86997,76 +86997,76 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F972" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G972" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H972">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I972">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J972" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K972">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="L972">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M972">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N972">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O972">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P972">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q972">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R972">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S972">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T972">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U972">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V972">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W972">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X972">
         <v>-1</v>
       </c>
       <c r="Y972">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z972">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA972">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB972">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC972">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="973" spans="1:29">
@@ -87074,7 +87074,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>6846848</v>
+        <v>6846844</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87086,76 +87086,76 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F973" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G973" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H973">
+        <v>3</v>
+      </c>
+      <c r="I973">
+        <v>4</v>
+      </c>
+      <c r="J973" t="s">
+        <v>58</v>
+      </c>
+      <c r="K973">
+        <v>1.6</v>
+      </c>
+      <c r="L973">
+        <v>4.2</v>
+      </c>
+      <c r="M973">
+        <v>4.75</v>
+      </c>
+      <c r="N973">
+        <v>1.533</v>
+      </c>
+      <c r="O973">
+        <v>4.5</v>
+      </c>
+      <c r="P973">
+        <v>5.75</v>
+      </c>
+      <c r="Q973">
+        <v>-1</v>
+      </c>
+      <c r="R973">
+        <v>1.85</v>
+      </c>
+      <c r="S973">
+        <v>2</v>
+      </c>
+      <c r="T973">
+        <v>3.5</v>
+      </c>
+      <c r="U973">
+        <v>1.95</v>
+      </c>
+      <c r="V973">
+        <v>1.9</v>
+      </c>
+      <c r="W973">
+        <v>-1</v>
+      </c>
+      <c r="X973">
+        <v>-1</v>
+      </c>
+      <c r="Y973">
+        <v>4.75</v>
+      </c>
+      <c r="Z973">
+        <v>-1</v>
+      </c>
+      <c r="AA973">
         <v>1</v>
       </c>
-      <c r="I973">
-        <v>0</v>
-      </c>
-      <c r="J973" t="s">
-        <v>59</v>
-      </c>
-      <c r="K973">
-        <v>2.75</v>
-      </c>
-      <c r="L973">
-        <v>3.7</v>
-      </c>
-      <c r="M973">
-        <v>2.3</v>
-      </c>
-      <c r="N973">
-        <v>2.3</v>
-      </c>
-      <c r="O973">
-        <v>3.6</v>
-      </c>
-      <c r="P973">
-        <v>2.875</v>
-      </c>
-      <c r="Q973">
-        <v>0</v>
-      </c>
-      <c r="R973">
-        <v>1.75</v>
-      </c>
-      <c r="S973">
-        <v>2.05</v>
-      </c>
-      <c r="T973">
-        <v>2.75</v>
-      </c>
-      <c r="U973">
-        <v>1.925</v>
-      </c>
-      <c r="V973">
-        <v>1.925</v>
-      </c>
-      <c r="W973">
-        <v>1.3</v>
-      </c>
-      <c r="X973">
-        <v>-1</v>
-      </c>
-      <c r="Y973">
-        <v>-1</v>
-      </c>
-      <c r="Z973">
-        <v>0.75</v>
-      </c>
-      <c r="AA973">
-        <v>-1</v>
-      </c>
       <c r="AB973">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC973">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="974" spans="1:29">
@@ -87744,10 +87744,10 @@
         <v>2.75</v>
       </c>
       <c r="U981">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V981">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W981">
         <v>0</v>
@@ -87883,19 +87883,19 @@
         <v>-0.25</v>
       </c>
       <c r="R983">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S983">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T983">
         <v>3</v>
       </c>
       <c r="U983">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V983">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W983">
         <v>0</v>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -44888,7 +44888,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>5173249</v>
+        <v>5173246</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -44900,73 +44900,73 @@
         <v>44758.33333333334</v>
       </c>
       <c r="F499" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G499" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H499">
         <v>2</v>
       </c>
       <c r="I499">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J499" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K499">
+        <v>2.3</v>
+      </c>
+      <c r="L499">
+        <v>3.3</v>
+      </c>
+      <c r="M499">
         <v>3.1</v>
       </c>
-      <c r="L499">
-        <v>3.4</v>
-      </c>
-      <c r="M499">
-        <v>2.25</v>
-      </c>
       <c r="N499">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O499">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P499">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q499">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R499">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S499">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T499">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U499">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V499">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W499">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X499">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y499">
         <v>-1</v>
       </c>
       <c r="Z499">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA499">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB499">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC499">
         <v>-1</v>
@@ -44977,7 +44977,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>5173246</v>
+        <v>5173247</v>
       </c>
       <c r="C500" t="s">
         <v>28</v>
@@ -44989,73 +44989,73 @@
         <v>44758.33333333334</v>
       </c>
       <c r="F500" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G500" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I500">
         <v>2</v>
       </c>
       <c r="J500" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K500">
         <v>2.3</v>
       </c>
       <c r="L500">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M500">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N500">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O500">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P500">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q500">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R500">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S500">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T500">
         <v>2.75</v>
       </c>
       <c r="U500">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V500">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W500">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X500">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y500">
         <v>-1</v>
       </c>
       <c r="Z500">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA500">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB500">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC500">
         <v>-1</v>
@@ -45066,7 +45066,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>5173247</v>
+        <v>5173250</v>
       </c>
       <c r="C501" t="s">
         <v>28</v>
@@ -45078,58 +45078,58 @@
         <v>44758.33333333334</v>
       </c>
       <c r="F501" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G501" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H501">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I501">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J501" t="s">
         <v>59</v>
       </c>
       <c r="K501">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L501">
         <v>3.4</v>
       </c>
       <c r="M501">
+        <v>2.1</v>
+      </c>
+      <c r="N501">
+        <v>3.25</v>
+      </c>
+      <c r="O501">
+        <v>3.8</v>
+      </c>
+      <c r="P501">
+        <v>2.05</v>
+      </c>
+      <c r="Q501">
+        <v>0.25</v>
+      </c>
+      <c r="R501">
+        <v>2.05</v>
+      </c>
+      <c r="S501">
+        <v>1.8</v>
+      </c>
+      <c r="T501">
         <v>3</v>
       </c>
-      <c r="N501">
-        <v>2.6</v>
-      </c>
-      <c r="O501">
-        <v>3.6</v>
-      </c>
-      <c r="P501">
-        <v>2.55</v>
-      </c>
-      <c r="Q501">
-        <v>0</v>
-      </c>
-      <c r="R501">
-        <v>1.9</v>
-      </c>
-      <c r="S501">
-        <v>1.95</v>
-      </c>
-      <c r="T501">
-        <v>2.75</v>
-      </c>
       <c r="U501">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V501">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W501">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="X501">
         <v>-1</v>
@@ -45138,16 +45138,16 @@
         <v>-1</v>
       </c>
       <c r="Z501">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA501">
         <v>-1</v>
       </c>
       <c r="AB501">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC501">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="502" spans="1:29">
@@ -45155,7 +45155,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>5173250</v>
+        <v>5173249</v>
       </c>
       <c r="C502" t="s">
         <v>28</v>
@@ -45167,59 +45167,59 @@
         <v>44758.33333333334</v>
       </c>
       <c r="F502" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G502" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H502">
         <v>2</v>
       </c>
       <c r="I502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J502" t="s">
         <v>59</v>
       </c>
       <c r="K502">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L502">
         <v>3.4</v>
       </c>
       <c r="M502">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N502">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O502">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P502">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="Q502">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R502">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S502">
+        <v>1.875</v>
+      </c>
+      <c r="T502">
+        <v>2.5</v>
+      </c>
+      <c r="U502">
+        <v>1.95</v>
+      </c>
+      <c r="V502">
+        <v>1.9</v>
+      </c>
+      <c r="W502">
         <v>1.8</v>
       </c>
-      <c r="T502">
-        <v>3</v>
-      </c>
-      <c r="U502">
-        <v>2</v>
-      </c>
-      <c r="V502">
-        <v>1.85</v>
-      </c>
-      <c r="W502">
-        <v>2.25</v>
-      </c>
       <c r="X502">
         <v>-1</v>
       </c>
@@ -45227,16 +45227,16 @@
         <v>-1</v>
       </c>
       <c r="Z502">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA502">
         <v>-1</v>
       </c>
       <c r="AB502">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC502">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503" spans="1:29">
@@ -45333,7 +45333,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>5173152</v>
+        <v>5173252</v>
       </c>
       <c r="C504" t="s">
         <v>28</v>
@@ -45345,76 +45345,76 @@
         <v>44759.35416666666</v>
       </c>
       <c r="F504" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G504" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H504">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I504">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J504" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K504">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L504">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M504">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="N504">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="O504">
         <v>4</v>
       </c>
       <c r="P504">
-        <v>4.2</v>
+        <v>1.727</v>
       </c>
       <c r="Q504">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R504">
+        <v>1.925</v>
+      </c>
+      <c r="S504">
+        <v>1.925</v>
+      </c>
+      <c r="T504">
+        <v>2.75</v>
+      </c>
+      <c r="U504">
         <v>1.975</v>
       </c>
-      <c r="S504">
+      <c r="V504">
         <v>1.875</v>
       </c>
-      <c r="T504">
-        <v>3</v>
-      </c>
-      <c r="U504">
-        <v>1.85</v>
-      </c>
-      <c r="V504">
-        <v>2</v>
-      </c>
       <c r="W504">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X504">
         <v>-1</v>
       </c>
       <c r="Y504">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z504">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA504">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB504">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC504">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="505" spans="1:29">
@@ -45511,7 +45511,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>5173252</v>
+        <v>5173152</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45523,76 +45523,76 @@
         <v>44759.35416666666</v>
       </c>
       <c r="F506" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G506" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H506">
+        <v>5</v>
+      </c>
+      <c r="I506">
         <v>0</v>
       </c>
-      <c r="I506">
-        <v>2</v>
-      </c>
       <c r="J506" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K506">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L506">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M506">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="N506">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="O506">
         <v>4</v>
       </c>
       <c r="P506">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="Q506">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R506">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S506">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T506">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U506">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V506">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W506">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X506">
         <v>-1</v>
       </c>
       <c r="Y506">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z506">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA506">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB506">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC506">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -46401,7 +46401,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>5173262</v>
+        <v>5173266</v>
       </c>
       <c r="C516" t="s">
         <v>28</v>
@@ -46413,76 +46413,76 @@
         <v>44778.5625</v>
       </c>
       <c r="F516" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G516" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H516">
         <v>1</v>
       </c>
       <c r="I516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J516" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K516">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L516">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M516">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N516">
+        <v>3.2</v>
+      </c>
+      <c r="O516">
+        <v>3.5</v>
+      </c>
+      <c r="P516">
+        <v>2.2</v>
+      </c>
+      <c r="Q516">
+        <v>0.25</v>
+      </c>
+      <c r="R516">
+        <v>1.9</v>
+      </c>
+      <c r="S516">
         <v>1.95</v>
       </c>
-      <c r="O516">
-        <v>3.75</v>
-      </c>
-      <c r="P516">
-        <v>3.5</v>
-      </c>
-      <c r="Q516">
-        <v>-0.5</v>
-      </c>
-      <c r="R516">
-        <v>1.925</v>
-      </c>
-      <c r="S516">
-        <v>1.925</v>
-      </c>
       <c r="T516">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U516">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V516">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W516">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X516">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y516">
         <v>-1</v>
       </c>
       <c r="Z516">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA516">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB516">
         <v>-1</v>
       </c>
       <c r="AC516">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="517" spans="1:29">
@@ -46490,7 +46490,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>5173266</v>
+        <v>5173262</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46502,76 +46502,76 @@
         <v>44778.5625</v>
       </c>
       <c r="F517" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G517" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H517">
         <v>1</v>
       </c>
       <c r="I517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J517" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K517">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L517">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M517">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N517">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="O517">
+        <v>3.75</v>
+      </c>
+      <c r="P517">
         <v>3.5</v>
       </c>
-      <c r="P517">
-        <v>2.2</v>
-      </c>
       <c r="Q517">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R517">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S517">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T517">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U517">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V517">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W517">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X517">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y517">
         <v>-1</v>
       </c>
       <c r="Z517">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA517">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB517">
         <v>-1</v>
       </c>
       <c r="AC517">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="518" spans="1:29">
@@ -46579,7 +46579,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>5173263</v>
+        <v>5173264</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46591,58 +46591,58 @@
         <v>44779.33333333334</v>
       </c>
       <c r="F518" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G518" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I518">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J518" t="s">
         <v>59</v>
       </c>
       <c r="K518">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L518">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M518">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N518">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O518">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P518">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q518">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R518">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S518">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T518">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U518">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V518">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W518">
-        <v>0.7270000000000001</v>
+        <v>1</v>
       </c>
       <c r="X518">
         <v>-1</v>
@@ -46651,16 +46651,16 @@
         <v>-1</v>
       </c>
       <c r="Z518">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA518">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB518">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC518">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -46668,7 +46668,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>5173267</v>
+        <v>5173263</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46680,76 +46680,76 @@
         <v>44779.33333333334</v>
       </c>
       <c r="F519" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G519" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I519">
         <v>0</v>
       </c>
       <c r="J519" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K519">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="L519">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M519">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="N519">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="O519">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P519">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q519">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R519">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S519">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T519">
         <v>2.75</v>
       </c>
       <c r="U519">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V519">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W519">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X519">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y519">
         <v>-1</v>
       </c>
       <c r="Z519">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA519">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB519">
         <v>-1</v>
       </c>
       <c r="AC519">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -46757,7 +46757,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>5173264</v>
+        <v>5173267</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46769,76 +46769,76 @@
         <v>44779.33333333334</v>
       </c>
       <c r="F520" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G520" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H520">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I520">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J520" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K520">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L520">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M520">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="N520">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O520">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P520">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q520">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R520">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S520">
+        <v>1.9</v>
+      </c>
+      <c r="T520">
+        <v>2.75</v>
+      </c>
+      <c r="U520">
+        <v>2</v>
+      </c>
+      <c r="V520">
         <v>1.85</v>
       </c>
-      <c r="T520">
-        <v>3</v>
-      </c>
-      <c r="U520">
-        <v>1.875</v>
-      </c>
-      <c r="V520">
-        <v>1.975</v>
-      </c>
       <c r="W520">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X520">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y520">
         <v>-1</v>
       </c>
       <c r="Z520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA520">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB520">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC520">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -47736,7 +47736,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>5173276</v>
+        <v>5173277</v>
       </c>
       <c r="C531" t="s">
         <v>28</v>
@@ -47748,28 +47748,28 @@
         <v>44787.35416666666</v>
       </c>
       <c r="F531" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G531" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I531">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J531" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K531">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L531">
         <v>3.5</v>
       </c>
       <c r="M531">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N531">
         <v>2</v>
@@ -47784,40 +47784,40 @@
         <v>-0.5</v>
       </c>
       <c r="R531">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S531">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T531">
         <v>2.75</v>
       </c>
       <c r="U531">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V531">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W531">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X531">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y531">
         <v>-1</v>
       </c>
       <c r="Z531">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA531">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB531">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC531">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="532" spans="1:29">
@@ -47825,7 +47825,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>5173277</v>
+        <v>5173276</v>
       </c>
       <c r="C532" t="s">
         <v>28</v>
@@ -47837,28 +47837,28 @@
         <v>44787.35416666666</v>
       </c>
       <c r="F532" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G532" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I532">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J532" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K532">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L532">
         <v>3.5</v>
       </c>
       <c r="M532">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N532">
         <v>2</v>
@@ -47873,40 +47873,40 @@
         <v>-0.5</v>
       </c>
       <c r="R532">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S532">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T532">
         <v>2.75</v>
       </c>
       <c r="U532">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V532">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W532">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X532">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y532">
         <v>-1</v>
       </c>
       <c r="Z532">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA532">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB532">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC532">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533" spans="1:29">
@@ -48804,7 +48804,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>5173289</v>
+        <v>5173294</v>
       </c>
       <c r="C543" t="s">
         <v>28</v>
@@ -48816,58 +48816,58 @@
         <v>44799.5625</v>
       </c>
       <c r="F543" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G543" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H543">
         <v>4</v>
       </c>
       <c r="I543">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J543" t="s">
         <v>59</v>
       </c>
       <c r="K543">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L543">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M543">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N543">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O543">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P543">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q543">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R543">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S543">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T543">
         <v>2.75</v>
       </c>
       <c r="U543">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V543">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W543">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X543">
         <v>-1</v>
@@ -48876,13 +48876,13 @@
         <v>-1</v>
       </c>
       <c r="Z543">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA543">
         <v>-1</v>
       </c>
       <c r="AB543">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC543">
         <v>-1</v>
@@ -48893,7 +48893,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>5173294</v>
+        <v>5173289</v>
       </c>
       <c r="C544" t="s">
         <v>28</v>
@@ -48905,58 +48905,58 @@
         <v>44799.5625</v>
       </c>
       <c r="F544" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G544" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H544">
         <v>4</v>
       </c>
       <c r="I544">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J544" t="s">
         <v>59</v>
       </c>
       <c r="K544">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L544">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M544">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N544">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O544">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P544">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q544">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R544">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S544">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T544">
         <v>2.75</v>
       </c>
       <c r="U544">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V544">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W544">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X544">
         <v>-1</v>
@@ -48965,13 +48965,13 @@
         <v>-1</v>
       </c>
       <c r="Z544">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA544">
         <v>-1</v>
       </c>
       <c r="AB544">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC544">
         <v>-1</v>
@@ -49338,7 +49338,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>5173295</v>
+        <v>5173297</v>
       </c>
       <c r="C549" t="s">
         <v>28</v>
@@ -49350,49 +49350,49 @@
         <v>44801.35416666666</v>
       </c>
       <c r="F549" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G549" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I549">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J549" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K549">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L549">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M549">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N549">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O549">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P549">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q549">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R549">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S549">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T549">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U549">
         <v>1.8</v>
@@ -49401,25 +49401,25 @@
         <v>2.05</v>
       </c>
       <c r="W549">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X549">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y549">
         <v>-1</v>
       </c>
       <c r="Z549">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA549">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB549">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC549">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550" spans="1:29">
@@ -49427,7 +49427,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>5173293</v>
+        <v>5173295</v>
       </c>
       <c r="C550" t="s">
         <v>28</v>
@@ -49439,16 +49439,16 @@
         <v>44801.35416666666</v>
       </c>
       <c r="F550" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G550" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H550">
+        <v>2</v>
+      </c>
+      <c r="I550">
         <v>1</v>
-      </c>
-      <c r="I550">
-        <v>0</v>
       </c>
       <c r="J550" t="s">
         <v>59</v>
@@ -49463,34 +49463,34 @@
         <v>3.1</v>
       </c>
       <c r="N550">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O550">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P550">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q550">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R550">
+        <v>1.9</v>
+      </c>
+      <c r="S550">
         <v>1.95</v>
-      </c>
-      <c r="S550">
-        <v>1.9</v>
       </c>
       <c r="T550">
         <v>2.75</v>
       </c>
       <c r="U550">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V550">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W550">
-        <v>0.909</v>
+        <v>1.2</v>
       </c>
       <c r="X550">
         <v>-1</v>
@@ -49499,16 +49499,16 @@
         <v>-1</v>
       </c>
       <c r="Z550">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA550">
         <v>-1</v>
       </c>
       <c r="AB550">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC550">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="551" spans="1:29">
@@ -49516,7 +49516,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>5173297</v>
+        <v>5173293</v>
       </c>
       <c r="C551" t="s">
         <v>28</v>
@@ -49528,76 +49528,76 @@
         <v>44801.35416666666</v>
       </c>
       <c r="F551" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G551" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H551">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I551">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J551" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K551">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L551">
+        <v>3.4</v>
+      </c>
+      <c r="M551">
+        <v>3.1</v>
+      </c>
+      <c r="N551">
+        <v>1.909</v>
+      </c>
+      <c r="O551">
+        <v>3.8</v>
+      </c>
+      <c r="P551">
         <v>3.75</v>
       </c>
-      <c r="M551">
-        <v>4.333</v>
-      </c>
-      <c r="N551">
-        <v>1.666</v>
-      </c>
-      <c r="O551">
-        <v>4.333</v>
-      </c>
-      <c r="P551">
-        <v>4.5</v>
-      </c>
       <c r="Q551">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R551">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S551">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T551">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U551">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V551">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W551">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X551">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y551">
         <v>-1</v>
       </c>
       <c r="Z551">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA551">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB551">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC551">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="552" spans="1:29">
@@ -49605,7 +49605,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>5173306</v>
+        <v>5173301</v>
       </c>
       <c r="C552" t="s">
         <v>28</v>
@@ -49617,58 +49617,58 @@
         <v>44806.5625</v>
       </c>
       <c r="F552" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G552" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H552">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I552">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J552" t="s">
         <v>59</v>
       </c>
       <c r="K552">
+        <v>2.45</v>
+      </c>
+      <c r="L552">
         <v>3.2</v>
       </c>
-      <c r="L552">
-        <v>3.4</v>
-      </c>
       <c r="M552">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N552">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O552">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P552">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q552">
         <v>0</v>
       </c>
       <c r="R552">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S552">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T552">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U552">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V552">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W552">
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="X552">
         <v>-1</v>
@@ -49677,13 +49677,13 @@
         <v>-1</v>
       </c>
       <c r="Z552">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA552">
         <v>-1</v>
       </c>
       <c r="AB552">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC552">
         <v>-1</v>
@@ -49694,7 +49694,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>5173301</v>
+        <v>5173306</v>
       </c>
       <c r="C553" t="s">
         <v>28</v>
@@ -49706,58 +49706,58 @@
         <v>44806.5625</v>
       </c>
       <c r="F553" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G553" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I553">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J553" t="s">
         <v>59</v>
       </c>
       <c r="K553">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="L553">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M553">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N553">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O553">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P553">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q553">
         <v>0</v>
       </c>
       <c r="R553">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S553">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T553">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U553">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V553">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W553">
-        <v>1.625</v>
+        <v>1.75</v>
       </c>
       <c r="X553">
         <v>-1</v>
@@ -49766,13 +49766,13 @@
         <v>-1</v>
       </c>
       <c r="Z553">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AA553">
         <v>-1</v>
       </c>
       <c r="AB553">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC553">
         <v>-1</v>
@@ -50228,7 +50228,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>5173304</v>
+        <v>5173303</v>
       </c>
       <c r="C559" t="s">
         <v>28</v>
@@ -50240,76 +50240,76 @@
         <v>44808.35416666666</v>
       </c>
       <c r="F559" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G559" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H559">
         <v>0</v>
       </c>
       <c r="I559">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J559" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K559">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L559">
         <v>3.4</v>
       </c>
       <c r="M559">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N559">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O559">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P559">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q559">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R559">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S559">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T559">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U559">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V559">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W559">
         <v>-1</v>
       </c>
       <c r="X559">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y559">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z559">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA559">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB559">
         <v>-1</v>
       </c>
       <c r="AC559">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="560" spans="1:29">
@@ -50317,7 +50317,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>5173303</v>
+        <v>5173304</v>
       </c>
       <c r="C560" t="s">
         <v>28</v>
@@ -50329,76 +50329,76 @@
         <v>44808.35416666666</v>
       </c>
       <c r="F560" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G560" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H560">
         <v>0</v>
       </c>
       <c r="I560">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J560" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K560">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L560">
         <v>3.4</v>
       </c>
       <c r="M560">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N560">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O560">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P560">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q560">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R560">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S560">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T560">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U560">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V560">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W560">
         <v>-1</v>
       </c>
       <c r="X560">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y560">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z560">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA560">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB560">
         <v>-1</v>
       </c>
       <c r="AC560">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="561" spans="1:29">
@@ -51385,7 +51385,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>5173316</v>
+        <v>5173319</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51397,58 +51397,58 @@
         <v>44821.33333333334</v>
       </c>
       <c r="F572" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G572" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H572">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I572">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J572" t="s">
         <v>59</v>
       </c>
       <c r="K572">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L572">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M572">
+        <v>4</v>
+      </c>
+      <c r="N572">
+        <v>1.7</v>
+      </c>
+      <c r="O572">
+        <v>4</v>
+      </c>
+      <c r="P572">
+        <v>4.5</v>
+      </c>
+      <c r="Q572">
+        <v>-0.75</v>
+      </c>
+      <c r="R572">
+        <v>1.875</v>
+      </c>
+      <c r="S572">
+        <v>1.975</v>
+      </c>
+      <c r="T572">
         <v>3</v>
       </c>
-      <c r="N572">
-        <v>2.25</v>
-      </c>
-      <c r="O572">
-        <v>3.75</v>
-      </c>
-      <c r="P572">
-        <v>2.9</v>
-      </c>
-      <c r="Q572">
-        <v>-0.25</v>
-      </c>
-      <c r="R572">
-        <v>2.025</v>
-      </c>
-      <c r="S572">
-        <v>1.825</v>
-      </c>
-      <c r="T572">
-        <v>2.75</v>
-      </c>
       <c r="U572">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V572">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W572">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X572">
         <v>-1</v>
@@ -51457,16 +51457,16 @@
         <v>-1</v>
       </c>
       <c r="Z572">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA572">
         <v>-1</v>
       </c>
       <c r="AB572">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC572">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="573" spans="1:29">
@@ -51474,7 +51474,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>5173319</v>
+        <v>5173316</v>
       </c>
       <c r="C573" t="s">
         <v>28</v>
@@ -51486,58 +51486,58 @@
         <v>44821.33333333334</v>
       </c>
       <c r="F573" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G573" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I573">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J573" t="s">
         <v>59</v>
       </c>
       <c r="K573">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L573">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M573">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N573">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O573">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P573">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q573">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R573">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S573">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T573">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U573">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V573">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W573">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X573">
         <v>-1</v>
@@ -51546,16 +51546,16 @@
         <v>-1</v>
       </c>
       <c r="Z573">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA573">
         <v>-1</v>
       </c>
       <c r="AB573">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC573">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="574" spans="1:29">
@@ -51741,7 +51741,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>5173323</v>
+        <v>5173320</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51753,76 +51753,76 @@
         <v>44822.35416666666</v>
       </c>
       <c r="F576" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G576" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H576">
         <v>2</v>
       </c>
       <c r="I576">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J576" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K576">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L576">
         <v>3.75</v>
       </c>
       <c r="M576">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="N576">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="O576">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P576">
+        <v>3.4</v>
+      </c>
+      <c r="Q576">
+        <v>-0.25</v>
+      </c>
+      <c r="R576">
         <v>1.8</v>
       </c>
-      <c r="Q576">
-        <v>0.75</v>
-      </c>
-      <c r="R576">
-        <v>1.85</v>
-      </c>
       <c r="S576">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T576">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U576">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V576">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W576">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X576">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y576">
         <v>-1</v>
       </c>
       <c r="Z576">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA576">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB576">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC576">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="577" spans="1:29">
@@ -51919,7 +51919,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>5173320</v>
+        <v>5173323</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51931,76 +51931,76 @@
         <v>44822.35416666666</v>
       </c>
       <c r="F578" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G578" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H578">
         <v>2</v>
       </c>
       <c r="I578">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J578" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K578">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L578">
         <v>3.75</v>
       </c>
       <c r="M578">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N578">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O578">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P578">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q578">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R578">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S578">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T578">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U578">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V578">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W578">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X578">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y578">
         <v>-1</v>
       </c>
       <c r="Z578">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA578">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB578">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC578">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -53343,7 +53343,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>5173337</v>
+        <v>5173340</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -53355,46 +53355,46 @@
         <v>44843.35416666666</v>
       </c>
       <c r="F594" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G594" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I594">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J594" t="s">
         <v>59</v>
       </c>
       <c r="K594">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L594">
         <v>3.6</v>
       </c>
       <c r="M594">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N594">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O594">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P594">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q594">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R594">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S594">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T594">
         <v>2.75</v>
@@ -53406,7 +53406,7 @@
         <v>1.925</v>
       </c>
       <c r="W594">
-        <v>0.8500000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="X594">
         <v>-1</v>
@@ -53415,16 +53415,16 @@
         <v>-1</v>
       </c>
       <c r="Z594">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA594">
         <v>-1</v>
       </c>
       <c r="AB594">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC594">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="595" spans="1:29">
@@ -53432,7 +53432,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>5173340</v>
+        <v>5173338</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53444,19 +53444,19 @@
         <v>44843.35416666666</v>
       </c>
       <c r="F595" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G595" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I595">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J595" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K595">
         <v>2.2</v>
@@ -53468,22 +53468,22 @@
         <v>2.9</v>
       </c>
       <c r="N595">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O595">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P595">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q595">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R595">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S595">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T595">
         <v>2.75</v>
@@ -53495,25 +53495,25 @@
         <v>1.925</v>
       </c>
       <c r="W595">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X595">
         <v>-1</v>
       </c>
       <c r="Y595">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z595">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA595">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB595">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC595">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="596" spans="1:29">
@@ -53521,7 +53521,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>5173338</v>
+        <v>5173337</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53533,46 +53533,46 @@
         <v>44843.35416666666</v>
       </c>
       <c r="F596" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G596" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H596">
         <v>2</v>
       </c>
       <c r="I596">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J596" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K596">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L596">
         <v>3.6</v>
       </c>
       <c r="M596">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N596">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O596">
+        <v>3.8</v>
+      </c>
+      <c r="P596">
         <v>3.75</v>
       </c>
-      <c r="P596">
-        <v>3.1</v>
-      </c>
       <c r="Q596">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R596">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S596">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T596">
         <v>2.75</v>
@@ -53584,25 +53584,25 @@
         <v>1.925</v>
       </c>
       <c r="W596">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X596">
         <v>-1</v>
       </c>
       <c r="Y596">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z596">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA596">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB596">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC596">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -53877,7 +53877,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>5173349</v>
+        <v>5173350</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
@@ -53889,13 +53889,13 @@
         <v>44849.33333333334</v>
       </c>
       <c r="F600" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G600" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600">
         <v>2</v>
@@ -53904,34 +53904,34 @@
         <v>58</v>
       </c>
       <c r="K600">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L600">
+        <v>3.75</v>
+      </c>
+      <c r="M600">
+        <v>3.1</v>
+      </c>
+      <c r="N600">
+        <v>2.3</v>
+      </c>
+      <c r="O600">
         <v>3.6</v>
       </c>
-      <c r="M600">
-        <v>2.1</v>
-      </c>
-      <c r="N600">
-        <v>2.8</v>
-      </c>
-      <c r="O600">
-        <v>3.4</v>
-      </c>
       <c r="P600">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q600">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R600">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S600">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T600">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U600">
         <v>1.925</v>
@@ -53946,19 +53946,19 @@
         <v>-1</v>
       </c>
       <c r="Y600">
-        <v>1.45</v>
+        <v>1.875</v>
       </c>
       <c r="Z600">
         <v>-1</v>
       </c>
       <c r="AA600">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB600">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC600">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="601" spans="1:29">
@@ -53966,7 +53966,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>5173350</v>
+        <v>5173349</v>
       </c>
       <c r="C601" t="s">
         <v>28</v>
@@ -53978,13 +53978,13 @@
         <v>44849.33333333334</v>
       </c>
       <c r="F601" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G601" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I601">
         <v>2</v>
@@ -53993,34 +53993,34 @@
         <v>58</v>
       </c>
       <c r="K601">
+        <v>3.2</v>
+      </c>
+      <c r="L601">
+        <v>3.6</v>
+      </c>
+      <c r="M601">
         <v>2.1</v>
       </c>
-      <c r="L601">
-        <v>3.75</v>
-      </c>
-      <c r="M601">
-        <v>3.1</v>
-      </c>
       <c r="N601">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O601">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P601">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q601">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R601">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S601">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T601">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U601">
         <v>1.925</v>
@@ -54035,19 +54035,19 @@
         <v>-1</v>
       </c>
       <c r="Y601">
-        <v>1.875</v>
+        <v>1.45</v>
       </c>
       <c r="Z601">
         <v>-1</v>
       </c>
       <c r="AA601">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB601">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC601">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="602" spans="1:29">
@@ -56013,7 +56013,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>5173372</v>
+        <v>5173377</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -56025,76 +56025,76 @@
         <v>44869.60416666666</v>
       </c>
       <c r="F624" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G624" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H624">
+        <v>0</v>
+      </c>
+      <c r="I624">
         <v>1</v>
       </c>
-      <c r="I624">
-        <v>0</v>
-      </c>
       <c r="J624" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K624">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L624">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M624">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N624">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O624">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P624">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q624">
         <v>-0.5</v>
       </c>
       <c r="R624">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S624">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T624">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U624">
+        <v>1.95</v>
+      </c>
+      <c r="V624">
         <v>1.9</v>
       </c>
-      <c r="V624">
-        <v>1.95</v>
-      </c>
       <c r="W624">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X624">
         <v>-1</v>
       </c>
       <c r="Y624">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z624">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA624">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB624">
         <v>-1</v>
       </c>
       <c r="AC624">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="625" spans="1:29">
@@ -56102,7 +56102,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>5173377</v>
+        <v>5173372</v>
       </c>
       <c r="C625" t="s">
         <v>28</v>
@@ -56114,76 +56114,76 @@
         <v>44869.60416666666</v>
       </c>
       <c r="F625" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G625" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H625">
+        <v>1</v>
+      </c>
+      <c r="I625">
         <v>0</v>
       </c>
-      <c r="I625">
-        <v>1</v>
-      </c>
       <c r="J625" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K625">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L625">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M625">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N625">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O625">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P625">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q625">
         <v>-0.5</v>
       </c>
       <c r="R625">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S625">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T625">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U625">
+        <v>1.9</v>
+      </c>
+      <c r="V625">
         <v>1.95</v>
       </c>
-      <c r="V625">
-        <v>1.9</v>
-      </c>
       <c r="W625">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X625">
         <v>-1</v>
       </c>
       <c r="Y625">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z625">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA625">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB625">
         <v>-1</v>
       </c>
       <c r="AC625">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="626" spans="1:29">
@@ -56547,7 +56547,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>5173374</v>
+        <v>5173371</v>
       </c>
       <c r="C630" t="s">
         <v>28</v>
@@ -56559,76 +56559,76 @@
         <v>44871.39583333334</v>
       </c>
       <c r="F630" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G630" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H630">
+        <v>3</v>
+      </c>
+      <c r="I630">
         <v>1</v>
       </c>
-      <c r="I630">
-        <v>2</v>
-      </c>
       <c r="J630" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K630">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="L630">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M630">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N630">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O630">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P630">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q630">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R630">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S630">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T630">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U630">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V630">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W630">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X630">
         <v>-1</v>
       </c>
       <c r="Y630">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z630">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA630">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB630">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC630">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="631" spans="1:29">
@@ -56636,7 +56636,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>5173371</v>
+        <v>5173378</v>
       </c>
       <c r="C631" t="s">
         <v>28</v>
@@ -56648,76 +56648,76 @@
         <v>44871.39583333334</v>
       </c>
       <c r="F631" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G631" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H631">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631">
         <v>1</v>
       </c>
       <c r="J631" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K631">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L631">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M631">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="N631">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="O631">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P631">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q631">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R631">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S631">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T631">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U631">
+        <v>1.875</v>
+      </c>
+      <c r="V631">
         <v>1.975</v>
       </c>
-      <c r="V631">
-        <v>1.875</v>
-      </c>
       <c r="W631">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X631">
         <v>-1</v>
       </c>
       <c r="Y631">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z631">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA631">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB631">
+        <v>-1</v>
+      </c>
+      <c r="AC631">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC631">
-        <v>-1</v>
       </c>
     </row>
     <row r="632" spans="1:29">
@@ -56725,7 +56725,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>5173378</v>
+        <v>5173374</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56737,76 +56737,76 @@
         <v>44871.39583333334</v>
       </c>
       <c r="F632" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G632" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I632">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J632" t="s">
         <v>58</v>
       </c>
       <c r="K632">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L632">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M632">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N632">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O632">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P632">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q632">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R632">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S632">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T632">
+        <v>2.75</v>
+      </c>
+      <c r="U632">
+        <v>1.925</v>
+      </c>
+      <c r="V632">
+        <v>1.925</v>
+      </c>
+      <c r="W632">
+        <v>-1</v>
+      </c>
+      <c r="X632">
+        <v>-1</v>
+      </c>
+      <c r="Y632">
         <v>2.5</v>
       </c>
-      <c r="U632">
-        <v>1.875</v>
-      </c>
-      <c r="V632">
-        <v>1.975</v>
-      </c>
-      <c r="W632">
-        <v>-1</v>
-      </c>
-      <c r="X632">
-        <v>-1</v>
-      </c>
-      <c r="Y632">
-        <v>1.8</v>
-      </c>
       <c r="Z632">
         <v>-1</v>
       </c>
       <c r="AA632">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB632">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC632">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56814,7 +56814,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5173382</v>
+        <v>5173387</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56826,10 +56826,10 @@
         <v>44873.60416666666</v>
       </c>
       <c r="F633" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G633" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H633">
         <v>2</v>
@@ -56841,31 +56841,31 @@
         <v>59</v>
       </c>
       <c r="K633">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L633">
         <v>3.4</v>
       </c>
       <c r="M633">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N633">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O633">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P633">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="Q633">
         <v>0</v>
       </c>
       <c r="R633">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S633">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T633">
         <v>2.5</v>
@@ -56877,7 +56877,7 @@
         <v>1.925</v>
       </c>
       <c r="W633">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X633">
         <v>-1</v>
@@ -56886,7 +56886,7 @@
         <v>-1</v>
       </c>
       <c r="Z633">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA633">
         <v>-1</v>
@@ -56903,7 +56903,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>5173387</v>
+        <v>5173382</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56915,10 +56915,10 @@
         <v>44873.60416666666</v>
       </c>
       <c r="F634" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G634" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H634">
         <v>2</v>
@@ -56930,31 +56930,31 @@
         <v>59</v>
       </c>
       <c r="K634">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L634">
         <v>3.4</v>
       </c>
       <c r="M634">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N634">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O634">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P634">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="Q634">
         <v>0</v>
       </c>
       <c r="R634">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S634">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T634">
         <v>2.5</v>
@@ -56966,7 +56966,7 @@
         <v>1.925</v>
       </c>
       <c r="W634">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X634">
         <v>-1</v>
@@ -56975,7 +56975,7 @@
         <v>-1</v>
       </c>
       <c r="Z634">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA634">
         <v>-1</v>
@@ -57170,7 +57170,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>5173379</v>
+        <v>5173384</v>
       </c>
       <c r="C637" t="s">
         <v>28</v>
@@ -57182,76 +57182,76 @@
         <v>44874.60416666666</v>
       </c>
       <c r="F637" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G637" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I637">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J637" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K637">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L637">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M637">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N637">
         <v>3.25</v>
       </c>
       <c r="O637">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P637">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q637">
         <v>0.25</v>
       </c>
       <c r="R637">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S637">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T637">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U637">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V637">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W637">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X637">
         <v>-1</v>
       </c>
       <c r="Y637">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z637">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA637">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB637">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC637">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="638" spans="1:29">
@@ -57259,7 +57259,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>5173385</v>
+        <v>5173383</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57271,10 +57271,10 @@
         <v>44874.60416666666</v>
       </c>
       <c r="F638" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G638" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H638">
         <v>1</v>
@@ -57289,58 +57289,58 @@
         <v>2.45</v>
       </c>
       <c r="L638">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M638">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N638">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O638">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P638">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q638">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R638">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S638">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T638">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U638">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V638">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W638">
         <v>-1</v>
       </c>
       <c r="X638">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y638">
         <v>-1</v>
       </c>
       <c r="Z638">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA638">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB638">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC638">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="639" spans="1:29">
@@ -57348,7 +57348,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>5173383</v>
+        <v>5173379</v>
       </c>
       <c r="C639" t="s">
         <v>28</v>
@@ -57360,76 +57360,76 @@
         <v>44874.60416666666</v>
       </c>
       <c r="F639" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G639" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H639">
         <v>1</v>
       </c>
       <c r="I639">
+        <v>0</v>
+      </c>
+      <c r="J639" t="s">
+        <v>59</v>
+      </c>
+      <c r="K639">
+        <v>3.2</v>
+      </c>
+      <c r="L639">
+        <v>3.6</v>
+      </c>
+      <c r="M639">
+        <v>2.05</v>
+      </c>
+      <c r="N639">
+        <v>3.25</v>
+      </c>
+      <c r="O639">
+        <v>3.6</v>
+      </c>
+      <c r="P639">
+        <v>2.1</v>
+      </c>
+      <c r="Q639">
+        <v>0.25</v>
+      </c>
+      <c r="R639">
+        <v>2</v>
+      </c>
+      <c r="S639">
+        <v>1.85</v>
+      </c>
+      <c r="T639">
+        <v>2.75</v>
+      </c>
+      <c r="U639">
+        <v>1.875</v>
+      </c>
+      <c r="V639">
+        <v>1.975</v>
+      </c>
+      <c r="W639">
+        <v>2.25</v>
+      </c>
+      <c r="X639">
+        <v>-1</v>
+      </c>
+      <c r="Y639">
+        <v>-1</v>
+      </c>
+      <c r="Z639">
         <v>1</v>
       </c>
-      <c r="J639" t="s">
-        <v>60</v>
-      </c>
-      <c r="K639">
-        <v>2.45</v>
-      </c>
-      <c r="L639">
-        <v>3.25</v>
-      </c>
-      <c r="M639">
-        <v>2.75</v>
-      </c>
-      <c r="N639">
-        <v>2.45</v>
-      </c>
-      <c r="O639">
-        <v>3.2</v>
-      </c>
-      <c r="P639">
-        <v>3</v>
-      </c>
-      <c r="Q639">
-        <v>-0.25</v>
-      </c>
-      <c r="R639">
-        <v>2.1</v>
-      </c>
-      <c r="S639">
-        <v>1.775</v>
-      </c>
-      <c r="T639">
-        <v>2.25</v>
-      </c>
-      <c r="U639">
-        <v>2</v>
-      </c>
-      <c r="V639">
-        <v>1.85</v>
-      </c>
-      <c r="W639">
-        <v>-1</v>
-      </c>
-      <c r="X639">
-        <v>2.2</v>
-      </c>
-      <c r="Y639">
-        <v>-1</v>
-      </c>
-      <c r="Z639">
-        <v>-0.5</v>
-      </c>
       <c r="AA639">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB639">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC639">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="640" spans="1:29">
@@ -57437,7 +57437,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>5173384</v>
+        <v>5173385</v>
       </c>
       <c r="C640" t="s">
         <v>28</v>
@@ -57449,76 +57449,76 @@
         <v>44874.60416666666</v>
       </c>
       <c r="F640" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G640" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H640">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I640">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J640" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K640">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="L640">
         <v>3.4</v>
       </c>
       <c r="M640">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="N640">
+        <v>2.75</v>
+      </c>
+      <c r="O640">
         <v>3.25</v>
       </c>
-      <c r="O640">
-        <v>3.3</v>
-      </c>
       <c r="P640">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q640">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R640">
+        <v>1.975</v>
+      </c>
+      <c r="S640">
         <v>1.875</v>
-      </c>
-      <c r="S640">
-        <v>1.975</v>
       </c>
       <c r="T640">
         <v>2.5</v>
       </c>
       <c r="U640">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V640">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W640">
         <v>-1</v>
       </c>
       <c r="X640">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y640">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z640">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA640">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB640">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC640">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="641" spans="1:29">
@@ -57882,7 +57882,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>5173389</v>
+        <v>5173391</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -57894,49 +57894,49 @@
         <v>44877.375</v>
       </c>
       <c r="F645" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G645" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H645">
+        <v>5</v>
+      </c>
+      <c r="I645">
         <v>4</v>
-      </c>
-      <c r="I645">
-        <v>2</v>
       </c>
       <c r="J645" t="s">
         <v>59</v>
       </c>
       <c r="K645">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L645">
+        <v>3.6</v>
+      </c>
+      <c r="M645">
         <v>4</v>
       </c>
-      <c r="M645">
-        <v>5</v>
-      </c>
       <c r="N645">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O645">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P645">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q645">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R645">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S645">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T645">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U645">
         <v>1.85</v>
@@ -57945,19 +57945,19 @@
         <v>2</v>
       </c>
       <c r="W645">
+        <v>0.8</v>
+      </c>
+      <c r="X645">
+        <v>-1</v>
+      </c>
+      <c r="Y645">
+        <v>-1</v>
+      </c>
+      <c r="Z645">
         <v>0.5</v>
       </c>
-      <c r="X645">
-        <v>-1</v>
-      </c>
-      <c r="Y645">
-        <v>-1</v>
-      </c>
-      <c r="Z645">
-        <v>0.8</v>
-      </c>
       <c r="AA645">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB645">
         <v>0.8500000000000001</v>
@@ -57971,7 +57971,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>5173391</v>
+        <v>5173389</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -57983,49 +57983,49 @@
         <v>44877.375</v>
       </c>
       <c r="F646" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G646" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H646">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I646">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J646" t="s">
         <v>59</v>
       </c>
       <c r="K646">
+        <v>1.571</v>
+      </c>
+      <c r="L646">
+        <v>4</v>
+      </c>
+      <c r="M646">
+        <v>5</v>
+      </c>
+      <c r="N646">
+        <v>1.5</v>
+      </c>
+      <c r="O646">
+        <v>4.75</v>
+      </c>
+      <c r="P646">
+        <v>5.75</v>
+      </c>
+      <c r="Q646">
+        <v>-1</v>
+      </c>
+      <c r="R646">
         <v>1.8</v>
       </c>
-      <c r="L646">
-        <v>3.6</v>
-      </c>
-      <c r="M646">
-        <v>4</v>
-      </c>
-      <c r="N646">
-        <v>1.8</v>
-      </c>
-      <c r="O646">
-        <v>3.8</v>
-      </c>
-      <c r="P646">
-        <v>4.333</v>
-      </c>
-      <c r="Q646">
-        <v>-0.75</v>
-      </c>
-      <c r="R646">
-        <v>2</v>
-      </c>
       <c r="S646">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T646">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U646">
         <v>1.85</v>
@@ -58034,19 +58034,19 @@
         <v>2</v>
       </c>
       <c r="W646">
+        <v>0.5</v>
+      </c>
+      <c r="X646">
+        <v>-1</v>
+      </c>
+      <c r="Y646">
+        <v>-1</v>
+      </c>
+      <c r="Z646">
         <v>0.8</v>
       </c>
-      <c r="X646">
-        <v>-1</v>
-      </c>
-      <c r="Y646">
-        <v>-1</v>
-      </c>
-      <c r="Z646">
-        <v>0.5</v>
-      </c>
       <c r="AA646">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB646">
         <v>0.8500000000000001</v>
@@ -58238,7 +58238,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>5173390</v>
+        <v>5173392</v>
       </c>
       <c r="C649" t="s">
         <v>28</v>
@@ -58250,46 +58250,46 @@
         <v>44878.39583333334</v>
       </c>
       <c r="F649" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G649" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I649">
         <v>1</v>
       </c>
       <c r="J649" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K649">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="L649">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M649">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N649">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O649">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P649">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q649">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R649">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S649">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T649">
         <v>2.5</v>
@@ -58301,25 +58301,25 @@
         <v>1.925</v>
       </c>
       <c r="W649">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X649">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y649">
         <v>-1</v>
       </c>
       <c r="Z649">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA649">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB649">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC649">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="650" spans="1:29">
@@ -58327,7 +58327,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>5173392</v>
+        <v>5173390</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -58339,46 +58339,46 @@
         <v>44878.39583333334</v>
       </c>
       <c r="F650" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G650" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I650">
         <v>1</v>
       </c>
       <c r="J650" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K650">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="L650">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M650">
+        <v>4.75</v>
+      </c>
+      <c r="N650">
         <v>2.05</v>
       </c>
-      <c r="N650">
-        <v>2.875</v>
-      </c>
       <c r="O650">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P650">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q650">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R650">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S650">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T650">
         <v>2.5</v>
@@ -58390,25 +58390,25 @@
         <v>1.925</v>
       </c>
       <c r="W650">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X650">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y650">
         <v>-1</v>
       </c>
       <c r="Z650">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA650">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB650">
+        <v>-1</v>
+      </c>
+      <c r="AC650">
         <v>0.925</v>
-      </c>
-      <c r="AC650">
-        <v>-1</v>
       </c>
     </row>
     <row r="651" spans="1:29">
@@ -59039,7 +59039,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>5173397</v>
+        <v>5173398</v>
       </c>
       <c r="C658" t="s">
         <v>28</v>
@@ -59051,73 +59051,73 @@
         <v>44955.39583333334</v>
       </c>
       <c r="F658" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G658" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I658">
         <v>2</v>
       </c>
       <c r="J658" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K658">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="L658">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M658">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N658">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O658">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P658">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q658">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R658">
+        <v>1.9</v>
+      </c>
+      <c r="S658">
+        <v>1.95</v>
+      </c>
+      <c r="T658">
+        <v>3.25</v>
+      </c>
+      <c r="U658">
         <v>2.025</v>
       </c>
-      <c r="S658">
-        <v>1.775</v>
-      </c>
-      <c r="T658">
-        <v>2.25</v>
-      </c>
-      <c r="U658">
+      <c r="V658">
         <v>1.825</v>
       </c>
-      <c r="V658">
-        <v>2.025</v>
-      </c>
       <c r="W658">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X658">
         <v>-1</v>
       </c>
       <c r="Y658">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z658">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA658">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB658">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC658">
         <v>-1</v>
@@ -59128,7 +59128,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>5173398</v>
+        <v>5173397</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59140,73 +59140,73 @@
         <v>44955.39583333334</v>
       </c>
       <c r="F659" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G659" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H659">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I659">
         <v>2</v>
       </c>
       <c r="J659" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K659">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="L659">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M659">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N659">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O659">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P659">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q659">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R659">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S659">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T659">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U659">
+        <v>1.825</v>
+      </c>
+      <c r="V659">
         <v>2.025</v>
       </c>
-      <c r="V659">
-        <v>1.825</v>
-      </c>
       <c r="W659">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X659">
         <v>-1</v>
       </c>
       <c r="Y659">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z659">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA659">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB659">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC659">
         <v>-1</v>
@@ -60285,7 +60285,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>5173420</v>
+        <v>5173419</v>
       </c>
       <c r="C672" t="s">
         <v>28</v>
@@ -60297,76 +60297,76 @@
         <v>44968.375</v>
       </c>
       <c r="F672" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G672" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I672">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J672" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K672">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L672">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M672">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N672">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O672">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P672">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q672">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R672">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S672">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T672">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U672">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V672">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W672">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X672">
         <v>-1</v>
       </c>
       <c r="Y672">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z672">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA672">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB672">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC672">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="673" spans="1:29">
@@ -60374,7 +60374,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>5173419</v>
+        <v>5173420</v>
       </c>
       <c r="C673" t="s">
         <v>28</v>
@@ -60386,76 +60386,76 @@
         <v>44968.375</v>
       </c>
       <c r="F673" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G673" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H673">
+        <v>2</v>
+      </c>
+      <c r="I673">
+        <v>3</v>
+      </c>
+      <c r="J673" t="s">
+        <v>58</v>
+      </c>
+      <c r="K673">
+        <v>1.727</v>
+      </c>
+      <c r="L673">
+        <v>3.8</v>
+      </c>
+      <c r="M673">
+        <v>4</v>
+      </c>
+      <c r="N673">
+        <v>1.85</v>
+      </c>
+      <c r="O673">
+        <v>3.8</v>
+      </c>
+      <c r="P673">
+        <v>4</v>
+      </c>
+      <c r="Q673">
+        <v>-0.5</v>
+      </c>
+      <c r="R673">
+        <v>1.825</v>
+      </c>
+      <c r="S673">
+        <v>2.025</v>
+      </c>
+      <c r="T673">
+        <v>3</v>
+      </c>
+      <c r="U673">
+        <v>2</v>
+      </c>
+      <c r="V673">
+        <v>1.85</v>
+      </c>
+      <c r="W673">
+        <v>-1</v>
+      </c>
+      <c r="X673">
+        <v>-1</v>
+      </c>
+      <c r="Y673">
+        <v>3</v>
+      </c>
+      <c r="Z673">
+        <v>-1</v>
+      </c>
+      <c r="AA673">
+        <v>1.025</v>
+      </c>
+      <c r="AB673">
         <v>1</v>
       </c>
-      <c r="I673">
-        <v>0</v>
-      </c>
-      <c r="J673" t="s">
-        <v>59</v>
-      </c>
-      <c r="K673">
-        <v>2</v>
-      </c>
-      <c r="L673">
-        <v>3.3</v>
-      </c>
-      <c r="M673">
-        <v>3.5</v>
-      </c>
-      <c r="N673">
-        <v>2.1</v>
-      </c>
-      <c r="O673">
-        <v>3.3</v>
-      </c>
-      <c r="P673">
-        <v>3.6</v>
-      </c>
-      <c r="Q673">
-        <v>-0.25</v>
-      </c>
-      <c r="R673">
-        <v>1.8</v>
-      </c>
-      <c r="S673">
-        <v>2.05</v>
-      </c>
-      <c r="T673">
-        <v>2.25</v>
-      </c>
-      <c r="U673">
-        <v>1.9</v>
-      </c>
-      <c r="V673">
-        <v>1.95</v>
-      </c>
-      <c r="W673">
-        <v>1.1</v>
-      </c>
-      <c r="X673">
-        <v>-1</v>
-      </c>
-      <c r="Y673">
-        <v>-1</v>
-      </c>
-      <c r="Z673">
-        <v>0.8</v>
-      </c>
-      <c r="AA673">
-        <v>-1</v>
-      </c>
-      <c r="AB673">
-        <v>-1</v>
-      </c>
       <c r="AC673">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="674" spans="1:29">
@@ -60819,7 +60819,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>5173432</v>
+        <v>5173427</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60831,76 +60831,76 @@
         <v>44974.60416666666</v>
       </c>
       <c r="F678" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G678" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J678" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K678">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L678">
+        <v>3.6</v>
+      </c>
+      <c r="M678">
+        <v>3.8</v>
+      </c>
+      <c r="N678">
+        <v>2</v>
+      </c>
+      <c r="O678">
         <v>3.5</v>
       </c>
-      <c r="M678">
-        <v>2.4</v>
-      </c>
-      <c r="N678">
-        <v>3</v>
-      </c>
-      <c r="O678">
-        <v>3.6</v>
-      </c>
       <c r="P678">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q678">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R678">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S678">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T678">
         <v>2.75</v>
       </c>
       <c r="U678">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V678">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W678">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X678">
         <v>-1</v>
       </c>
       <c r="Y678">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z678">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA678">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB678">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC678">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="679" spans="1:29">
@@ -60908,7 +60908,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5173427</v>
+        <v>5173432</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60920,76 +60920,76 @@
         <v>44974.60416666666</v>
       </c>
       <c r="F679" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G679" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I679">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J679" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K679">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L679">
+        <v>3.5</v>
+      </c>
+      <c r="M679">
+        <v>2.4</v>
+      </c>
+      <c r="N679">
+        <v>3</v>
+      </c>
+      <c r="O679">
         <v>3.6</v>
       </c>
-      <c r="M679">
-        <v>3.8</v>
-      </c>
-      <c r="N679">
-        <v>2</v>
-      </c>
-      <c r="O679">
-        <v>3.5</v>
-      </c>
       <c r="P679">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q679">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R679">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S679">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T679">
         <v>2.75</v>
       </c>
       <c r="U679">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V679">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W679">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X679">
         <v>-1</v>
       </c>
       <c r="Y679">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z679">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA679">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB679">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC679">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -61086,7 +61086,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>5173424</v>
+        <v>5173430</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61098,76 +61098,76 @@
         <v>44975.375</v>
       </c>
       <c r="F681" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G681" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I681">
         <v>1</v>
       </c>
       <c r="J681" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K681">
+        <v>2.8</v>
+      </c>
+      <c r="L681">
+        <v>3.3</v>
+      </c>
+      <c r="M681">
         <v>2.45</v>
       </c>
-      <c r="L681">
-        <v>3.25</v>
-      </c>
-      <c r="M681">
-        <v>2.875</v>
-      </c>
       <c r="N681">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O681">
         <v>3.3</v>
       </c>
       <c r="P681">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q681">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R681">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S681">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T681">
         <v>2.5</v>
       </c>
       <c r="U681">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V681">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W681">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X681">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y681">
         <v>-1</v>
       </c>
       <c r="Z681">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
       <c r="AA681">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB681">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC681">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="682" spans="1:29">
@@ -61175,7 +61175,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>5173430</v>
+        <v>5173424</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61187,76 +61187,76 @@
         <v>44975.375</v>
       </c>
       <c r="F682" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G682" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I682">
         <v>1</v>
       </c>
       <c r="J682" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K682">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="L682">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M682">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="N682">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O682">
         <v>3.3</v>
       </c>
       <c r="P682">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q682">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R682">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S682">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T682">
         <v>2.5</v>
       </c>
       <c r="U682">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V682">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W682">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X682">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y682">
         <v>-1</v>
       </c>
       <c r="Z682">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AA682">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB682">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC682">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="683" spans="1:29">
@@ -82446,7 +82446,7 @@
         <v>919</v>
       </c>
       <c r="B921">
-        <v>6846813</v>
+        <v>6845842</v>
       </c>
       <c r="C921" t="s">
         <v>28</v>
@@ -82458,76 +82458,76 @@
         <v>45254.60416666666</v>
       </c>
       <c r="F921" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G921" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H921">
         <v>2</v>
       </c>
       <c r="I921">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J921" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K921">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L921">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M921">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N921">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O921">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P921">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q921">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R921">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S921">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T921">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U921">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V921">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W921">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X921">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y921">
         <v>-1</v>
       </c>
       <c r="Z921">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA921">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB921">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC921">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="922" spans="1:29">
@@ -82535,7 +82535,7 @@
         <v>920</v>
       </c>
       <c r="B922">
-        <v>6845842</v>
+        <v>6846813</v>
       </c>
       <c r="C922" t="s">
         <v>28</v>
@@ -82547,76 +82547,76 @@
         <v>45254.60416666666</v>
       </c>
       <c r="F922" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G922" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H922">
         <v>2</v>
       </c>
       <c r="I922">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J922" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K922">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L922">
+        <v>4.5</v>
+      </c>
+      <c r="M922">
+        <v>7</v>
+      </c>
+      <c r="N922">
+        <v>1.363</v>
+      </c>
+      <c r="O922">
+        <v>5.75</v>
+      </c>
+      <c r="P922">
+        <v>7</v>
+      </c>
+      <c r="Q922">
+        <v>-1.5</v>
+      </c>
+      <c r="R922">
+        <v>1.85</v>
+      </c>
+      <c r="S922">
+        <v>2</v>
+      </c>
+      <c r="T922">
         <v>3.5</v>
       </c>
-      <c r="M922">
-        <v>3</v>
-      </c>
-      <c r="N922">
-        <v>2.1</v>
-      </c>
-      <c r="O922">
-        <v>3.4</v>
-      </c>
-      <c r="P922">
-        <v>3.4</v>
-      </c>
-      <c r="Q922">
-        <v>-0.25</v>
-      </c>
-      <c r="R922">
+      <c r="U922">
+        <v>1.975</v>
+      </c>
+      <c r="V922">
         <v>1.875</v>
       </c>
-      <c r="S922">
-        <v>1.975</v>
-      </c>
-      <c r="T922">
-        <v>2.75</v>
-      </c>
-      <c r="U922">
-        <v>1.925</v>
-      </c>
-      <c r="V922">
-        <v>1.925</v>
-      </c>
       <c r="W922">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X922">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y922">
         <v>-1</v>
       </c>
       <c r="Z922">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA922">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB922">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC922">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="923" spans="1:29">
@@ -85383,7 +85383,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>6846188</v>
+        <v>6846837</v>
       </c>
       <c r="C954" t="s">
         <v>28</v>
@@ -85395,40 +85395,40 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F954" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G954" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H954">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I954">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J954" t="s">
         <v>59</v>
       </c>
       <c r="K954">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L954">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M954">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N954">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O954">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P954">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q954">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R954">
         <v>2.025</v>
@@ -85437,7 +85437,7 @@
         <v>1.825</v>
       </c>
       <c r="T954">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U954">
         <v>1.925</v>
@@ -85446,7 +85446,7 @@
         <v>1.925</v>
       </c>
       <c r="W954">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="X954">
         <v>-1</v>
@@ -85472,7 +85472,7 @@
         <v>953</v>
       </c>
       <c r="B955">
-        <v>6846837</v>
+        <v>6846157</v>
       </c>
       <c r="C955" t="s">
         <v>28</v>
@@ -85484,76 +85484,76 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F955" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G955" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I955">
         <v>1</v>
       </c>
       <c r="J955" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K955">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="L955">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M955">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N955">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="O955">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P955">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q955">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R955">
+        <v>2</v>
+      </c>
+      <c r="S955">
+        <v>1.85</v>
+      </c>
+      <c r="T955">
+        <v>3</v>
+      </c>
+      <c r="U955">
+        <v>1.825</v>
+      </c>
+      <c r="V955">
         <v>2.025</v>
       </c>
-      <c r="S955">
-        <v>1.825</v>
-      </c>
-      <c r="T955">
-        <v>2.5</v>
-      </c>
-      <c r="U955">
-        <v>1.925</v>
-      </c>
-      <c r="V955">
-        <v>1.925</v>
-      </c>
       <c r="W955">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X955">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y955">
         <v>-1</v>
       </c>
       <c r="Z955">
+        <v>-1</v>
+      </c>
+      <c r="AA955">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB955">
+        <v>-1</v>
+      </c>
+      <c r="AC955">
         <v>1.025</v>
-      </c>
-      <c r="AA955">
-        <v>-1</v>
-      </c>
-      <c r="AB955">
-        <v>0.925</v>
-      </c>
-      <c r="AC955">
-        <v>-1</v>
       </c>
     </row>
     <row r="956" spans="1:29">
@@ -85561,7 +85561,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>6846157</v>
+        <v>6846188</v>
       </c>
       <c r="C956" t="s">
         <v>28</v>
@@ -85573,76 +85573,76 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F956" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G956" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H956">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I956">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J956" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K956">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L956">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M956">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="N956">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="O956">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P956">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="Q956">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R956">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S956">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T956">
         <v>3</v>
       </c>
       <c r="U956">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V956">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W956">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X956">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y956">
         <v>-1</v>
       </c>
       <c r="Z956">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA956">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB956">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC956">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="957" spans="1:29">

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -51385,7 +51385,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>5173319</v>
+        <v>5173316</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51397,58 +51397,58 @@
         <v>44821.33333333334</v>
       </c>
       <c r="F572" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G572" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I572">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J572" t="s">
         <v>59</v>
       </c>
       <c r="K572">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L572">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M572">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N572">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O572">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P572">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q572">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R572">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S572">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T572">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U572">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V572">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W572">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X572">
         <v>-1</v>
@@ -51457,16 +51457,16 @@
         <v>-1</v>
       </c>
       <c r="Z572">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA572">
         <v>-1</v>
       </c>
       <c r="AB572">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC572">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573" spans="1:29">
@@ -51474,7 +51474,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>5173316</v>
+        <v>5173319</v>
       </c>
       <c r="C573" t="s">
         <v>28</v>
@@ -51486,58 +51486,58 @@
         <v>44821.33333333334</v>
       </c>
       <c r="F573" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G573" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H573">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I573">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J573" t="s">
         <v>59</v>
       </c>
       <c r="K573">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L573">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M573">
+        <v>4</v>
+      </c>
+      <c r="N573">
+        <v>1.7</v>
+      </c>
+      <c r="O573">
+        <v>4</v>
+      </c>
+      <c r="P573">
+        <v>4.5</v>
+      </c>
+      <c r="Q573">
+        <v>-0.75</v>
+      </c>
+      <c r="R573">
+        <v>1.875</v>
+      </c>
+      <c r="S573">
+        <v>1.975</v>
+      </c>
+      <c r="T573">
         <v>3</v>
       </c>
-      <c r="N573">
-        <v>2.25</v>
-      </c>
-      <c r="O573">
-        <v>3.75</v>
-      </c>
-      <c r="P573">
-        <v>2.9</v>
-      </c>
-      <c r="Q573">
-        <v>-0.25</v>
-      </c>
-      <c r="R573">
-        <v>2.025</v>
-      </c>
-      <c r="S573">
-        <v>1.825</v>
-      </c>
-      <c r="T573">
-        <v>2.75</v>
-      </c>
       <c r="U573">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V573">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W573">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X573">
         <v>-1</v>
@@ -51546,16 +51546,16 @@
         <v>-1</v>
       </c>
       <c r="Z573">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA573">
         <v>-1</v>
       </c>
       <c r="AB573">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC573">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="574" spans="1:29">
@@ -51741,7 +51741,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>5173320</v>
+        <v>5173323</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51753,76 +51753,76 @@
         <v>44822.35416666666</v>
       </c>
       <c r="F576" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G576" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H576">
         <v>2</v>
       </c>
       <c r="I576">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J576" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K576">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L576">
         <v>3.75</v>
       </c>
       <c r="M576">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N576">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O576">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P576">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q576">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R576">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S576">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T576">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U576">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V576">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W576">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X576">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y576">
         <v>-1</v>
       </c>
       <c r="Z576">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA576">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB576">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC576">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="577" spans="1:29">
@@ -51919,7 +51919,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>5173323</v>
+        <v>5173320</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51931,76 +51931,76 @@
         <v>44822.35416666666</v>
       </c>
       <c r="F578" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G578" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H578">
         <v>2</v>
       </c>
       <c r="I578">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J578" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K578">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L578">
         <v>3.75</v>
       </c>
       <c r="M578">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="N578">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="O578">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P578">
+        <v>3.4</v>
+      </c>
+      <c r="Q578">
+        <v>-0.25</v>
+      </c>
+      <c r="R578">
         <v>1.8</v>
       </c>
-      <c r="Q578">
-        <v>0.75</v>
-      </c>
-      <c r="R578">
-        <v>1.85</v>
-      </c>
       <c r="S578">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T578">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U578">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V578">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W578">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X578">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y578">
         <v>-1</v>
       </c>
       <c r="Z578">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA578">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB578">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC578">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -58416,7 +58416,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>5173403</v>
+        <v>5173405</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58428,76 +58428,76 @@
         <v>44953.60416666666</v>
       </c>
       <c r="F651" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G651" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H651">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J651" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K651">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L651">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M651">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N651">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O651">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P651">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q651">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R651">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S651">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T651">
         <v>2.75</v>
       </c>
       <c r="U651">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V651">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W651">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X651">
         <v>-1</v>
       </c>
       <c r="Y651">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z651">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA651">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB651">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC651">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="652" spans="1:29">
@@ -58505,7 +58505,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5173405</v>
+        <v>5173403</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58517,76 +58517,76 @@
         <v>44953.60416666666</v>
       </c>
       <c r="F652" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G652" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I652">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J652" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K652">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L652">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M652">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N652">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O652">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P652">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q652">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R652">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S652">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T652">
         <v>2.75</v>
       </c>
       <c r="U652">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V652">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W652">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X652">
         <v>-1</v>
       </c>
       <c r="Y652">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z652">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA652">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB652">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC652">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -59217,7 +59217,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>5173408</v>
+        <v>5173410</v>
       </c>
       <c r="C660" t="s">
         <v>28</v>
@@ -59229,73 +59229,73 @@
         <v>44960.60416666666</v>
       </c>
       <c r="F660" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G660" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H660">
+        <v>0</v>
+      </c>
+      <c r="I660">
         <v>4</v>
       </c>
-      <c r="I660">
-        <v>1</v>
-      </c>
       <c r="J660" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K660">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="L660">
         <v>3.5</v>
       </c>
       <c r="M660">
+        <v>1.909</v>
+      </c>
+      <c r="N660">
+        <v>3.75</v>
+      </c>
+      <c r="O660">
         <v>3.3</v>
       </c>
-      <c r="N660">
-        <v>2.4</v>
-      </c>
-      <c r="O660">
-        <v>3.4</v>
-      </c>
       <c r="P660">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q660">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R660">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S660">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T660">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U660">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V660">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W660">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X660">
         <v>-1</v>
       </c>
       <c r="Y660">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z660">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA660">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB660">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC660">
         <v>-1</v>
@@ -59306,7 +59306,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5173410</v>
+        <v>5173408</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59318,73 +59318,73 @@
         <v>44960.60416666666</v>
       </c>
       <c r="F661" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G661" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I661">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J661" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K661">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L661">
         <v>3.5</v>
       </c>
       <c r="M661">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N661">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="O661">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P661">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q661">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R661">
+        <v>2.05</v>
+      </c>
+      <c r="S661">
+        <v>1.75</v>
+      </c>
+      <c r="T661">
+        <v>2.5</v>
+      </c>
+      <c r="U661">
+        <v>1.825</v>
+      </c>
+      <c r="V661">
         <v>2.025</v>
       </c>
-      <c r="S661">
-        <v>1.825</v>
-      </c>
-      <c r="T661">
-        <v>2.25</v>
-      </c>
-      <c r="U661">
-        <v>1.9</v>
-      </c>
-      <c r="V661">
-        <v>1.95</v>
-      </c>
       <c r="W661">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X661">
         <v>-1</v>
       </c>
       <c r="Y661">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z661">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA661">
+        <v>-1</v>
+      </c>
+      <c r="AB661">
         <v>0.825</v>
-      </c>
-      <c r="AB661">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC661">
         <v>-1</v>
@@ -60285,7 +60285,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>5173419</v>
+        <v>5173420</v>
       </c>
       <c r="C672" t="s">
         <v>28</v>
@@ -60297,76 +60297,76 @@
         <v>44968.375</v>
       </c>
       <c r="F672" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G672" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H672">
+        <v>2</v>
+      </c>
+      <c r="I672">
+        <v>3</v>
+      </c>
+      <c r="J672" t="s">
+        <v>58</v>
+      </c>
+      <c r="K672">
+        <v>1.727</v>
+      </c>
+      <c r="L672">
+        <v>3.8</v>
+      </c>
+      <c r="M672">
+        <v>4</v>
+      </c>
+      <c r="N672">
+        <v>1.85</v>
+      </c>
+      <c r="O672">
+        <v>3.8</v>
+      </c>
+      <c r="P672">
+        <v>4</v>
+      </c>
+      <c r="Q672">
+        <v>-0.5</v>
+      </c>
+      <c r="R672">
+        <v>1.825</v>
+      </c>
+      <c r="S672">
+        <v>2.025</v>
+      </c>
+      <c r="T672">
+        <v>3</v>
+      </c>
+      <c r="U672">
+        <v>2</v>
+      </c>
+      <c r="V672">
+        <v>1.85</v>
+      </c>
+      <c r="W672">
+        <v>-1</v>
+      </c>
+      <c r="X672">
+        <v>-1</v>
+      </c>
+      <c r="Y672">
+        <v>3</v>
+      </c>
+      <c r="Z672">
+        <v>-1</v>
+      </c>
+      <c r="AA672">
+        <v>1.025</v>
+      </c>
+      <c r="AB672">
         <v>1</v>
       </c>
-      <c r="I672">
-        <v>0</v>
-      </c>
-      <c r="J672" t="s">
-        <v>59</v>
-      </c>
-      <c r="K672">
-        <v>2</v>
-      </c>
-      <c r="L672">
-        <v>3.3</v>
-      </c>
-      <c r="M672">
-        <v>3.5</v>
-      </c>
-      <c r="N672">
-        <v>2.1</v>
-      </c>
-      <c r="O672">
-        <v>3.3</v>
-      </c>
-      <c r="P672">
-        <v>3.6</v>
-      </c>
-      <c r="Q672">
-        <v>-0.25</v>
-      </c>
-      <c r="R672">
-        <v>1.8</v>
-      </c>
-      <c r="S672">
-        <v>2.05</v>
-      </c>
-      <c r="T672">
-        <v>2.25</v>
-      </c>
-      <c r="U672">
-        <v>1.9</v>
-      </c>
-      <c r="V672">
-        <v>1.95</v>
-      </c>
-      <c r="W672">
-        <v>1.1</v>
-      </c>
-      <c r="X672">
-        <v>-1</v>
-      </c>
-      <c r="Y672">
-        <v>-1</v>
-      </c>
-      <c r="Z672">
-        <v>0.8</v>
-      </c>
-      <c r="AA672">
-        <v>-1</v>
-      </c>
-      <c r="AB672">
-        <v>-1</v>
-      </c>
       <c r="AC672">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="673" spans="1:29">
@@ -60374,7 +60374,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>5173420</v>
+        <v>5173419</v>
       </c>
       <c r="C673" t="s">
         <v>28</v>
@@ -60386,76 +60386,76 @@
         <v>44968.375</v>
       </c>
       <c r="F673" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G673" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I673">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J673" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K673">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L673">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M673">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N673">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O673">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P673">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q673">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R673">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S673">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T673">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U673">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V673">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W673">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X673">
         <v>-1</v>
       </c>
       <c r="Y673">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z673">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA673">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB673">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC673">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="674" spans="1:29">
@@ -66159,7 +66159,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5173478</v>
+        <v>5173480</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66171,76 +66171,76 @@
         <v>45025.35416666666</v>
       </c>
       <c r="F738" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G738" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H738">
         <v>2</v>
       </c>
       <c r="I738">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J738" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K738">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="L738">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M738">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N738">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O738">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P738">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q738">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R738">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S738">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T738">
         <v>2.75</v>
       </c>
       <c r="U738">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V738">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W738">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X738">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y738">
         <v>-1</v>
       </c>
       <c r="Z738">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA738">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB738">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AC738">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66248,7 +66248,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5173480</v>
+        <v>5173478</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66260,76 +66260,76 @@
         <v>45025.35416666666</v>
       </c>
       <c r="F739" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G739" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H739">
         <v>2</v>
       </c>
       <c r="I739">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J739" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K739">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L739">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M739">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N739">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O739">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P739">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q739">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R739">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S739">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T739">
         <v>2.75</v>
       </c>
       <c r="U739">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V739">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W739">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X739">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y739">
         <v>-1</v>
       </c>
       <c r="Z739">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA739">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB739">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AC739">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -67405,7 +67405,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>5214074</v>
+        <v>5176976</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67417,76 +67417,76 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F752" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G752" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I752">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J752" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K752">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L752">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M752">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N752">
+        <v>1.8</v>
+      </c>
+      <c r="O752">
+        <v>3.8</v>
+      </c>
+      <c r="P752">
+        <v>4.2</v>
+      </c>
+      <c r="Q752">
+        <v>-0.75</v>
+      </c>
+      <c r="R752">
+        <v>2.025</v>
+      </c>
+      <c r="S752">
+        <v>1.825</v>
+      </c>
+      <c r="T752">
+        <v>3</v>
+      </c>
+      <c r="U752">
+        <v>2.05</v>
+      </c>
+      <c r="V752">
+        <v>1.8</v>
+      </c>
+      <c r="W752">
+        <v>-1</v>
+      </c>
+      <c r="X752">
+        <v>-1</v>
+      </c>
+      <c r="Y752">
         <v>3.2</v>
       </c>
-      <c r="O752">
-        <v>3.4</v>
-      </c>
-      <c r="P752">
-        <v>2.25</v>
-      </c>
-      <c r="Q752">
-        <v>0.25</v>
-      </c>
-      <c r="R752">
-        <v>1.875</v>
-      </c>
-      <c r="S752">
-        <v>1.975</v>
-      </c>
-      <c r="T752">
-        <v>2.5</v>
-      </c>
-      <c r="U752">
-        <v>2</v>
-      </c>
-      <c r="V752">
-        <v>1.85</v>
-      </c>
-      <c r="W752">
-        <v>2.2</v>
-      </c>
-      <c r="X752">
-        <v>-1</v>
-      </c>
-      <c r="Y752">
-        <v>-1</v>
-      </c>
       <c r="Z752">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA752">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB752">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC752">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="753" spans="1:29">
@@ -67494,7 +67494,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>5176976</v>
+        <v>5214074</v>
       </c>
       <c r="C753" t="s">
         <v>28</v>
@@ -67506,76 +67506,76 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F753" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G753" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I753">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J753" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K753">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L753">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M753">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N753">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O753">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P753">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q753">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R753">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S753">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T753">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U753">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V753">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W753">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X753">
         <v>-1</v>
       </c>
       <c r="Y753">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z753">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA753">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB753">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC753">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="754" spans="1:29">
@@ -68651,7 +68651,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>5318493</v>
+        <v>5318492</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68663,76 +68663,76 @@
         <v>45046.35416666666</v>
       </c>
       <c r="F766" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G766" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J766" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K766">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L766">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M766">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N766">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O766">
+        <v>4</v>
+      </c>
+      <c r="P766">
+        <v>1.95</v>
+      </c>
+      <c r="Q766">
+        <v>0.5</v>
+      </c>
+      <c r="R766">
+        <v>1.9</v>
+      </c>
+      <c r="S766">
+        <v>1.95</v>
+      </c>
+      <c r="T766">
         <v>3.25</v>
       </c>
-      <c r="P766">
-        <v>2.55</v>
-      </c>
-      <c r="Q766">
-        <v>0</v>
-      </c>
-      <c r="R766">
-        <v>2.05</v>
-      </c>
-      <c r="S766">
-        <v>1.8</v>
-      </c>
-      <c r="T766">
-        <v>2.25</v>
-      </c>
       <c r="U766">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V766">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W766">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X766">
         <v>-1</v>
       </c>
       <c r="Y766">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z766">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA766">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB766">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC766">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -68740,7 +68740,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>5318492</v>
+        <v>5318493</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68752,76 +68752,76 @@
         <v>45046.35416666666</v>
       </c>
       <c r="F767" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G767" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H767">
+        <v>2</v>
+      </c>
+      <c r="I767">
+        <v>1</v>
+      </c>
+      <c r="J767" t="s">
+        <v>59</v>
+      </c>
+      <c r="K767">
+        <v>3</v>
+      </c>
+      <c r="L767">
+        <v>3.4</v>
+      </c>
+      <c r="M767">
+        <v>2.3</v>
+      </c>
+      <c r="N767">
+        <v>2.8</v>
+      </c>
+      <c r="O767">
+        <v>3.25</v>
+      </c>
+      <c r="P767">
+        <v>2.55</v>
+      </c>
+      <c r="Q767">
         <v>0</v>
       </c>
-      <c r="I767">
-        <v>3</v>
-      </c>
-      <c r="J767" t="s">
-        <v>58</v>
-      </c>
-      <c r="K767">
-        <v>3.1</v>
-      </c>
-      <c r="L767">
-        <v>3.6</v>
-      </c>
-      <c r="M767">
-        <v>2.1</v>
-      </c>
-      <c r="N767">
-        <v>3.5</v>
-      </c>
-      <c r="O767">
-        <v>4</v>
-      </c>
-      <c r="P767">
-        <v>1.95</v>
-      </c>
-      <c r="Q767">
-        <v>0.5</v>
-      </c>
       <c r="R767">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S767">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T767">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U767">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V767">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W767">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X767">
         <v>-1</v>
       </c>
       <c r="Y767">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z767">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA767">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB767">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC767">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -68829,7 +68829,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>5350577</v>
+        <v>5354747</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68841,76 +68841,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F768" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G768" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I768">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J768" t="s">
         <v>60</v>
       </c>
       <c r="K768">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L768">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M768">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N768">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O768">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P768">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q768">
+        <v>-0.25</v>
+      </c>
+      <c r="R768">
+        <v>2.05</v>
+      </c>
+      <c r="S768">
+        <v>1.75</v>
+      </c>
+      <c r="T768">
+        <v>2.75</v>
+      </c>
+      <c r="U768">
+        <v>1.8</v>
+      </c>
+      <c r="V768">
+        <v>2.05</v>
+      </c>
+      <c r="W768">
+        <v>-1</v>
+      </c>
+      <c r="X768">
+        <v>2.6</v>
+      </c>
+      <c r="Y768">
+        <v>-1</v>
+      </c>
+      <c r="Z768">
         <v>-0.5</v>
       </c>
-      <c r="R768">
-        <v>1.975</v>
-      </c>
-      <c r="S768">
-        <v>1.875</v>
-      </c>
-      <c r="T768">
-        <v>3.25</v>
-      </c>
-      <c r="U768">
-        <v>2</v>
-      </c>
-      <c r="V768">
-        <v>1.85</v>
-      </c>
-      <c r="W768">
-        <v>-1</v>
-      </c>
-      <c r="X768">
-        <v>3</v>
-      </c>
-      <c r="Y768">
-        <v>-1</v>
-      </c>
-      <c r="Z768">
-        <v>-1</v>
-      </c>
       <c r="AA768">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB768">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC768">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -68918,7 +68918,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>5354747</v>
+        <v>5350577</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68930,76 +68930,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F769" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G769" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I769">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J769" t="s">
         <v>60</v>
       </c>
       <c r="K769">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L769">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M769">
+        <v>3.5</v>
+      </c>
+      <c r="N769">
+        <v>1.909</v>
+      </c>
+      <c r="O769">
+        <v>4</v>
+      </c>
+      <c r="P769">
+        <v>3.5</v>
+      </c>
+      <c r="Q769">
+        <v>-0.5</v>
+      </c>
+      <c r="R769">
+        <v>1.975</v>
+      </c>
+      <c r="S769">
+        <v>1.875</v>
+      </c>
+      <c r="T769">
+        <v>3.25</v>
+      </c>
+      <c r="U769">
+        <v>2</v>
+      </c>
+      <c r="V769">
+        <v>1.85</v>
+      </c>
+      <c r="W769">
+        <v>-1</v>
+      </c>
+      <c r="X769">
         <v>3</v>
       </c>
-      <c r="N769">
-        <v>2.375</v>
-      </c>
-      <c r="O769">
-        <v>3.6</v>
-      </c>
-      <c r="P769">
-        <v>2.8</v>
-      </c>
-      <c r="Q769">
-        <v>-0.25</v>
-      </c>
-      <c r="R769">
-        <v>2.05</v>
-      </c>
-      <c r="S769">
-        <v>1.75</v>
-      </c>
-      <c r="T769">
-        <v>2.75</v>
-      </c>
-      <c r="U769">
-        <v>1.8</v>
-      </c>
-      <c r="V769">
-        <v>2.05</v>
-      </c>
-      <c r="W769">
-        <v>-1</v>
-      </c>
-      <c r="X769">
-        <v>2.6</v>
-      </c>
       <c r="Y769">
         <v>-1</v>
       </c>
       <c r="Z769">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA769">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB769">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC769">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="770" spans="1:29">
@@ -69808,7 +69808,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>5395114</v>
+        <v>5390353</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69820,76 +69820,76 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F779" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G779" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I779">
         <v>2</v>
       </c>
       <c r="J779" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K779">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L779">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M779">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N779">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O779">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P779">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q779">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R779">
+        <v>2.025</v>
+      </c>
+      <c r="S779">
         <v>1.825</v>
-      </c>
-      <c r="S779">
-        <v>2.025</v>
       </c>
       <c r="T779">
         <v>2.75</v>
       </c>
       <c r="U779">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V779">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W779">
         <v>-1</v>
       </c>
       <c r="X779">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y779">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z779">
         <v>-1</v>
       </c>
       <c r="AA779">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB779">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC779">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -69986,7 +69986,7 @@
         <v>779</v>
       </c>
       <c r="B781">
-        <v>5390353</v>
+        <v>5395114</v>
       </c>
       <c r="C781" t="s">
         <v>28</v>
@@ -69998,76 +69998,76 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F781" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G781" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I781">
         <v>2</v>
       </c>
       <c r="J781" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K781">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L781">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M781">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N781">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O781">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P781">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q781">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R781">
+        <v>1.825</v>
+      </c>
+      <c r="S781">
         <v>2.025</v>
-      </c>
-      <c r="S781">
-        <v>1.825</v>
       </c>
       <c r="T781">
         <v>2.75</v>
       </c>
       <c r="U781">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V781">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W781">
         <v>-1</v>
       </c>
       <c r="X781">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y781">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z781">
         <v>-1</v>
       </c>
       <c r="AA781">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB781">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC781">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="782" spans="1:29">
@@ -70164,7 +70164,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>5389806</v>
+        <v>5389804</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70176,73 +70176,73 @@
         <v>45060.35416666666</v>
       </c>
       <c r="F783" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G783" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H783">
+        <v>3</v>
+      </c>
+      <c r="I783">
+        <v>2</v>
+      </c>
+      <c r="J783" t="s">
+        <v>59</v>
+      </c>
+      <c r="K783">
+        <v>2.15</v>
+      </c>
+      <c r="L783">
+        <v>3.6</v>
+      </c>
+      <c r="M783">
+        <v>3</v>
+      </c>
+      <c r="N783">
+        <v>2</v>
+      </c>
+      <c r="O783">
+        <v>3.75</v>
+      </c>
+      <c r="P783">
+        <v>3.5</v>
+      </c>
+      <c r="Q783">
+        <v>-0.5</v>
+      </c>
+      <c r="R783">
+        <v>2</v>
+      </c>
+      <c r="S783">
+        <v>1.85</v>
+      </c>
+      <c r="T783">
+        <v>3</v>
+      </c>
+      <c r="U783">
+        <v>1.95</v>
+      </c>
+      <c r="V783">
+        <v>1.9</v>
+      </c>
+      <c r="W783">
         <v>1</v>
       </c>
-      <c r="I783">
-        <v>5</v>
-      </c>
-      <c r="J783" t="s">
-        <v>58</v>
-      </c>
-      <c r="K783">
-        <v>3.6</v>
-      </c>
-      <c r="L783">
-        <v>3.8</v>
-      </c>
-      <c r="M783">
-        <v>1.85</v>
-      </c>
-      <c r="N783">
-        <v>3.3</v>
-      </c>
-      <c r="O783">
-        <v>4</v>
-      </c>
-      <c r="P783">
-        <v>2</v>
-      </c>
-      <c r="Q783">
-        <v>0.5</v>
-      </c>
-      <c r="R783">
-        <v>1.85</v>
-      </c>
-      <c r="S783">
-        <v>2</v>
-      </c>
-      <c r="T783">
-        <v>3.25</v>
-      </c>
-      <c r="U783">
-        <v>2</v>
-      </c>
-      <c r="V783">
-        <v>1.85</v>
-      </c>
-      <c r="W783">
-        <v>-1</v>
-      </c>
       <c r="X783">
         <v>-1</v>
       </c>
       <c r="Y783">
+        <v>-1</v>
+      </c>
+      <c r="Z783">
         <v>1</v>
       </c>
-      <c r="Z783">
-        <v>-1</v>
-      </c>
       <c r="AA783">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB783">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC783">
         <v>-1</v>
@@ -70253,7 +70253,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>5389804</v>
+        <v>5389806</v>
       </c>
       <c r="C784" t="s">
         <v>28</v>
@@ -70265,73 +70265,73 @@
         <v>45060.35416666666</v>
       </c>
       <c r="F784" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G784" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H784">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I784">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J784" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K784">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L784">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M784">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N784">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O784">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P784">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Q784">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R784">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S784">
+        <v>2</v>
+      </c>
+      <c r="T784">
+        <v>3.25</v>
+      </c>
+      <c r="U784">
+        <v>2</v>
+      </c>
+      <c r="V784">
         <v>1.85</v>
       </c>
-      <c r="T784">
-        <v>3</v>
-      </c>
-      <c r="U784">
-        <v>1.95</v>
-      </c>
-      <c r="V784">
-        <v>1.9</v>
-      </c>
       <c r="W784">
+        <v>-1</v>
+      </c>
+      <c r="X784">
+        <v>-1</v>
+      </c>
+      <c r="Y784">
         <v>1</v>
       </c>
-      <c r="X784">
-        <v>-1</v>
-      </c>
-      <c r="Y784">
-        <v>-1</v>
-      </c>
       <c r="Z784">
+        <v>-1</v>
+      </c>
+      <c r="AA784">
         <v>1</v>
       </c>
-      <c r="AA784">
-        <v>-1</v>
-      </c>
       <c r="AB784">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC784">
         <v>-1</v>
@@ -70609,7 +70609,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>5419952</v>
+        <v>5422615</v>
       </c>
       <c r="C788" t="s">
         <v>28</v>
@@ -70621,76 +70621,76 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F788" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="G788" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I788">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J788" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K788">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="L788">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M788">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N788">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O788">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P788">
-        <v>8.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q788">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R788">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S788">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T788">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U788">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V788">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W788">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X788">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y788">
         <v>-1</v>
       </c>
       <c r="Z788">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA788">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB788">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC788">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="789" spans="1:29">
@@ -70698,7 +70698,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>5422615</v>
+        <v>5422620</v>
       </c>
       <c r="C789" t="s">
         <v>28</v>
@@ -70710,73 +70710,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F789" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G789" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I789">
         <v>2</v>
       </c>
       <c r="J789" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K789">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L789">
         <v>3.5</v>
       </c>
       <c r="M789">
+        <v>3.6</v>
+      </c>
+      <c r="N789">
+        <v>2.2</v>
+      </c>
+      <c r="O789">
+        <v>3.5</v>
+      </c>
+      <c r="P789">
+        <v>3.25</v>
+      </c>
+      <c r="Q789">
+        <v>-0.25</v>
+      </c>
+      <c r="R789">
+        <v>1.9</v>
+      </c>
+      <c r="S789">
+        <v>1.95</v>
+      </c>
+      <c r="T789">
         <v>2.5</v>
       </c>
-      <c r="N789">
-        <v>2.8</v>
-      </c>
-      <c r="O789">
-        <v>3.6</v>
-      </c>
-      <c r="P789">
-        <v>2.375</v>
-      </c>
-      <c r="Q789">
-        <v>0.25</v>
-      </c>
-      <c r="R789">
-        <v>1.775</v>
-      </c>
-      <c r="S789">
-        <v>2.1</v>
-      </c>
-      <c r="T789">
-        <v>3.25</v>
-      </c>
       <c r="U789">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V789">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W789">
         <v>-1</v>
       </c>
       <c r="X789">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y789">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z789">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA789">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB789">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC789">
         <v>-1</v>
@@ -70787,7 +70787,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>5422620</v>
+        <v>5419952</v>
       </c>
       <c r="C790" t="s">
         <v>28</v>
@@ -70799,76 +70799,76 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F790" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G790" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H790">
         <v>1</v>
       </c>
       <c r="I790">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J790" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K790">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L790">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M790">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N790">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O790">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P790">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q790">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R790">
+        <v>1.95</v>
+      </c>
+      <c r="S790">
         <v>1.9</v>
       </c>
-      <c r="S790">
-        <v>1.95</v>
-      </c>
       <c r="T790">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U790">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V790">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W790">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X790">
         <v>-1</v>
       </c>
       <c r="Y790">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z790">
         <v>-1</v>
       </c>
       <c r="AA790">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB790">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC790">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="791" spans="1:29">
@@ -71232,7 +71232,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>5464665</v>
+        <v>5464664</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -71244,76 +71244,76 @@
         <v>45074.4375</v>
       </c>
       <c r="F795" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G795" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I795">
         <v>1</v>
       </c>
       <c r="J795" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K795">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="L795">
+        <v>4</v>
+      </c>
+      <c r="M795">
+        <v>3.6</v>
+      </c>
+      <c r="N795">
+        <v>1.6</v>
+      </c>
+      <c r="O795">
+        <v>4.75</v>
+      </c>
+      <c r="P795">
         <v>5</v>
       </c>
-      <c r="M795">
-        <v>1.4</v>
-      </c>
-      <c r="N795">
-        <v>10</v>
-      </c>
-      <c r="O795">
-        <v>5.75</v>
-      </c>
-      <c r="P795">
-        <v>1.285</v>
-      </c>
       <c r="Q795">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R795">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S795">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T795">
         <v>3.5</v>
       </c>
       <c r="U795">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V795">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W795">
         <v>-1</v>
       </c>
       <c r="X795">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y795">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z795">
+        <v>-1</v>
+      </c>
+      <c r="AA795">
+        <v>0.925</v>
+      </c>
+      <c r="AB795">
+        <v>-1</v>
+      </c>
+      <c r="AC795">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA795">
-        <v>-1</v>
-      </c>
-      <c r="AB795">
-        <v>-1</v>
-      </c>
-      <c r="AC795">
-        <v>0.95</v>
       </c>
     </row>
     <row r="796" spans="1:29">
@@ -71321,7 +71321,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>5466583</v>
+        <v>5464665</v>
       </c>
       <c r="C796" t="s">
         <v>28</v>
@@ -71333,76 +71333,76 @@
         <v>45074.4375</v>
       </c>
       <c r="F796" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G796" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796">
         <v>1</v>
       </c>
       <c r="J796" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K796">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="L796">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M796">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="N796">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="O796">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P796">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q796">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R796">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S796">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T796">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U796">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V796">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W796">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X796">
         <v>-1</v>
       </c>
       <c r="Y796">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z796">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA796">
         <v>-1</v>
       </c>
       <c r="AB796">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC796">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="797" spans="1:29">
@@ -71410,7 +71410,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>5460817</v>
+        <v>5466583</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71422,76 +71422,76 @@
         <v>45074.4375</v>
       </c>
       <c r="F797" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G797" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J797" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K797">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L797">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M797">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N797">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O797">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P797">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q797">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R797">
+        <v>1.775</v>
+      </c>
+      <c r="S797">
+        <v>2.1</v>
+      </c>
+      <c r="T797">
+        <v>2.5</v>
+      </c>
+      <c r="U797">
         <v>1.925</v>
       </c>
-      <c r="S797">
+      <c r="V797">
         <v>1.925</v>
       </c>
-      <c r="T797">
-        <v>3</v>
-      </c>
-      <c r="U797">
-        <v>1.875</v>
-      </c>
-      <c r="V797">
-        <v>1.975</v>
-      </c>
       <c r="W797">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X797">
         <v>-1</v>
       </c>
       <c r="Y797">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z797">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA797">
+        <v>-1</v>
+      </c>
+      <c r="AB797">
         <v>0.925</v>
       </c>
-      <c r="AB797">
-        <v>0</v>
-      </c>
       <c r="AC797">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="798" spans="1:29">
@@ -71499,7 +71499,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>5464664</v>
+        <v>5460817</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71511,40 +71511,40 @@
         <v>45074.4375</v>
       </c>
       <c r="F798" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G798" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I798">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J798" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K798">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L798">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M798">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N798">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O798">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P798">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q798">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R798">
         <v>1.925</v>
@@ -71553,22 +71553,22 @@
         <v>1.925</v>
       </c>
       <c r="T798">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U798">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V798">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W798">
         <v>-1</v>
       </c>
       <c r="X798">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y798">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z798">
         <v>-1</v>
@@ -71577,10 +71577,10 @@
         <v>0.925</v>
       </c>
       <c r="AB798">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC798">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -72122,7 +72122,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>6846142</v>
+        <v>6846174</v>
       </c>
       <c r="C805" t="s">
         <v>28</v>
@@ -72134,73 +72134,73 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F805" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G805" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I805">
         <v>2</v>
       </c>
       <c r="J805" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K805">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="L805">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M805">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="N805">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O805">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P805">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q805">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R805">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S805">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T805">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U805">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V805">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W805">
         <v>-1</v>
       </c>
       <c r="X805">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y805">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z805">
         <v>-1</v>
       </c>
       <c r="AA805">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB805">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC805">
         <v>-1</v>
@@ -72211,7 +72211,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>6846737</v>
+        <v>6846142</v>
       </c>
       <c r="C806" t="s">
         <v>28</v>
@@ -72223,55 +72223,55 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F806" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G806" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I806">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J806" t="s">
         <v>58</v>
       </c>
       <c r="K806">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="L806">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M806">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N806">
         <v>3.1</v>
       </c>
       <c r="O806">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P806">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="Q806">
         <v>0.25</v>
       </c>
       <c r="R806">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S806">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T806">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U806">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V806">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W806">
         <v>-1</v>
@@ -72280,16 +72280,16 @@
         <v>-1</v>
       </c>
       <c r="Y806">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="Z806">
         <v>-1</v>
       </c>
       <c r="AA806">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB806">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC806">
         <v>-1</v>
@@ -72300,7 +72300,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>6846174</v>
+        <v>6846737</v>
       </c>
       <c r="C807" t="s">
         <v>28</v>
@@ -72312,73 +72312,73 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F807" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G807" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H807">
         <v>2</v>
       </c>
       <c r="I807">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J807" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K807">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L807">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M807">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N807">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O807">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P807">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q807">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R807">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S807">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T807">
         <v>3</v>
       </c>
       <c r="U807">
+        <v>1.95</v>
+      </c>
+      <c r="V807">
         <v>1.9</v>
       </c>
-      <c r="V807">
-        <v>1.95</v>
-      </c>
       <c r="W807">
         <v>-1</v>
       </c>
       <c r="X807">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y807">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z807">
         <v>-1</v>
       </c>
       <c r="AA807">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB807">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC807">
         <v>-1</v>
@@ -72656,7 +72656,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>6846735</v>
+        <v>6846736</v>
       </c>
       <c r="C811" t="s">
         <v>28</v>
@@ -72668,76 +72668,76 @@
         <v>45137.35416666666</v>
       </c>
       <c r="F811" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G811" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J811" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K811">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L811">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M811">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="N811">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O811">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P811">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q811">
         <v>-0.25</v>
       </c>
       <c r="R811">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S811">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T811">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U811">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V811">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W811">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X811">
         <v>-1</v>
       </c>
       <c r="Y811">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z811">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA811">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB811">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC811">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="812" spans="1:29">
@@ -72745,7 +72745,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>6846736</v>
+        <v>6846735</v>
       </c>
       <c r="C812" t="s">
         <v>28</v>
@@ -72757,76 +72757,76 @@
         <v>45137.35416666666</v>
       </c>
       <c r="F812" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G812" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H812">
+        <v>2</v>
+      </c>
+      <c r="I812">
         <v>0</v>
       </c>
-      <c r="I812">
-        <v>1</v>
-      </c>
       <c r="J812" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K812">
+        <v>2.4</v>
+      </c>
+      <c r="L812">
+        <v>3.3</v>
+      </c>
+      <c r="M812">
         <v>2.7</v>
       </c>
-      <c r="L812">
-        <v>3.4</v>
-      </c>
-      <c r="M812">
-        <v>2.35</v>
-      </c>
       <c r="N812">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O812">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P812">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q812">
         <v>-0.25</v>
       </c>
       <c r="R812">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S812">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T812">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U812">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V812">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W812">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X812">
         <v>-1</v>
       </c>
       <c r="Y812">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z812">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA812">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB812">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC812">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="813" spans="1:29">
@@ -73012,7 +73012,7 @@
         <v>813</v>
       </c>
       <c r="B815">
-        <v>6846143</v>
+        <v>6846175</v>
       </c>
       <c r="C815" t="s">
         <v>28</v>
@@ -73024,76 +73024,76 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F815" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G815" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I815">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J815" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K815">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L815">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M815">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N815">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O815">
         <v>3.6</v>
       </c>
       <c r="P815">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q815">
         <v>-0.5</v>
       </c>
       <c r="R815">
+        <v>2.05</v>
+      </c>
+      <c r="S815">
+        <v>1.8</v>
+      </c>
+      <c r="T815">
+        <v>2.75</v>
+      </c>
+      <c r="U815">
         <v>1.95</v>
       </c>
-      <c r="S815">
+      <c r="V815">
         <v>1.9</v>
       </c>
-      <c r="T815">
-        <v>2.5</v>
-      </c>
-      <c r="U815">
-        <v>1.825</v>
-      </c>
-      <c r="V815">
-        <v>2.025</v>
-      </c>
       <c r="W815">
         <v>-1</v>
       </c>
       <c r="X815">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y815">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z815">
         <v>-1</v>
       </c>
       <c r="AA815">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB815">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC815">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="816" spans="1:29">
@@ -73101,7 +73101,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>6846175</v>
+        <v>6846143</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73113,76 +73113,76 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F816" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G816" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I816">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J816" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K816">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="L816">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M816">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N816">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O816">
         <v>3.6</v>
       </c>
       <c r="P816">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q816">
         <v>-0.5</v>
       </c>
       <c r="R816">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S816">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T816">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U816">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V816">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W816">
         <v>-1</v>
       </c>
       <c r="X816">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y816">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z816">
         <v>-1</v>
       </c>
       <c r="AA816">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB816">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC816">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="817" spans="1:29">
@@ -73457,7 +73457,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>6846744</v>
+        <v>6846743</v>
       </c>
       <c r="C820" t="s">
         <v>28</v>
@@ -73469,76 +73469,76 @@
         <v>45144.35416666666</v>
       </c>
       <c r="F820" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G820" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H820">
         <v>2</v>
       </c>
       <c r="I820">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J820" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K820">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L820">
+        <v>3.75</v>
+      </c>
+      <c r="M820">
         <v>3.6</v>
       </c>
-      <c r="M820">
-        <v>3.1</v>
-      </c>
       <c r="N820">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O820">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P820">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q820">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R820">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S820">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T820">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U820">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V820">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W820">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X820">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y820">
         <v>-1</v>
       </c>
       <c r="Z820">
+        <v>0.475</v>
+      </c>
+      <c r="AA820">
         <v>-0.5</v>
       </c>
-      <c r="AA820">
-        <v>0.3875</v>
-      </c>
       <c r="AB820">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC820">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="821" spans="1:29">
@@ -73546,7 +73546,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>6846743</v>
+        <v>6846744</v>
       </c>
       <c r="C821" t="s">
         <v>28</v>
@@ -73558,76 +73558,76 @@
         <v>45144.35416666666</v>
       </c>
       <c r="F821" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G821" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H821">
         <v>2</v>
       </c>
       <c r="I821">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J821" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K821">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L821">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M821">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N821">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O821">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P821">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q821">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R821">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S821">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T821">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U821">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V821">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W821">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X821">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y821">
         <v>-1</v>
       </c>
       <c r="Z821">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA821">
-        <v>-0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB821">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC821">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="822" spans="1:29">
@@ -74258,7 +74258,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>6846746</v>
+        <v>6846748</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74270,40 +74270,40 @@
         <v>45158.35416666666</v>
       </c>
       <c r="F829" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G829" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I829">
+        <v>0</v>
+      </c>
+      <c r="J829" t="s">
+        <v>59</v>
+      </c>
+      <c r="K829">
         <v>4</v>
       </c>
-      <c r="J829" t="s">
-        <v>58</v>
-      </c>
-      <c r="K829">
-        <v>2.15</v>
-      </c>
       <c r="L829">
+        <v>3.75</v>
+      </c>
+      <c r="M829">
+        <v>1.75</v>
+      </c>
+      <c r="N829">
+        <v>3.4</v>
+      </c>
+      <c r="O829">
         <v>3.5</v>
       </c>
-      <c r="M829">
-        <v>3</v>
-      </c>
-      <c r="N829">
-        <v>2.3</v>
-      </c>
-      <c r="O829">
-        <v>4</v>
-      </c>
       <c r="P829">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q829">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R829">
         <v>2.05</v>
@@ -74312,34 +74312,34 @@
         <v>1.8</v>
       </c>
       <c r="T829">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U829">
+        <v>1.825</v>
+      </c>
+      <c r="V829">
         <v>2.025</v>
       </c>
-      <c r="V829">
-        <v>1.825</v>
-      </c>
       <c r="W829">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X829">
         <v>-1</v>
       </c>
       <c r="Y829">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z829">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA829">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB829">
+        <v>-1</v>
+      </c>
+      <c r="AC829">
         <v>1.025</v>
-      </c>
-      <c r="AC829">
-        <v>-1</v>
       </c>
     </row>
     <row r="830" spans="1:29">
@@ -74347,7 +74347,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>6846748</v>
+        <v>6846746</v>
       </c>
       <c r="C830" t="s">
         <v>28</v>
@@ -74359,40 +74359,40 @@
         <v>45158.35416666666</v>
       </c>
       <c r="F830" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G830" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I830">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J830" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K830">
+        <v>2.15</v>
+      </c>
+      <c r="L830">
+        <v>3.5</v>
+      </c>
+      <c r="M830">
+        <v>3</v>
+      </c>
+      <c r="N830">
+        <v>2.3</v>
+      </c>
+      <c r="O830">
         <v>4</v>
       </c>
-      <c r="L830">
-        <v>3.75</v>
-      </c>
-      <c r="M830">
-        <v>1.75</v>
-      </c>
-      <c r="N830">
-        <v>3.4</v>
-      </c>
-      <c r="O830">
-        <v>3.5</v>
-      </c>
       <c r="P830">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q830">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R830">
         <v>2.05</v>
@@ -74401,34 +74401,34 @@
         <v>1.8</v>
       </c>
       <c r="T830">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U830">
+        <v>2.025</v>
+      </c>
+      <c r="V830">
         <v>1.825</v>
       </c>
-      <c r="V830">
-        <v>2.025</v>
-      </c>
       <c r="W830">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X830">
         <v>-1</v>
       </c>
       <c r="Y830">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z830">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA830">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB830">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC830">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="831" spans="1:29">
@@ -77017,7 +77017,7 @@
         <v>858</v>
       </c>
       <c r="B860">
-        <v>6846180</v>
+        <v>6846772</v>
       </c>
       <c r="C860" t="s">
         <v>28</v>
@@ -77029,76 +77029,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F860" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G860" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I860">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J860" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K860">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L860">
         <v>3.6</v>
       </c>
       <c r="M860">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N860">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O860">
         <v>3.6</v>
       </c>
       <c r="P860">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="Q860">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R860">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S860">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T860">
         <v>3</v>
       </c>
       <c r="U860">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V860">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W860">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X860">
         <v>-1</v>
       </c>
       <c r="Y860">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z860">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA860">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB860">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC860">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="861" spans="1:29">
@@ -77106,7 +77106,7 @@
         <v>859</v>
       </c>
       <c r="B861">
-        <v>6846772</v>
+        <v>6846180</v>
       </c>
       <c r="C861" t="s">
         <v>28</v>
@@ -77118,76 +77118,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F861" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G861" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H861">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I861">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J861" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K861">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L861">
         <v>3.6</v>
       </c>
       <c r="M861">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N861">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O861">
         <v>3.6</v>
       </c>
       <c r="P861">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q861">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R861">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S861">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T861">
         <v>3</v>
       </c>
       <c r="U861">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V861">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W861">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X861">
         <v>-1</v>
       </c>
       <c r="Y861">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z861">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA861">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB861">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC861">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="862" spans="1:29">
@@ -77907,7 +77907,7 @@
         <v>868</v>
       </c>
       <c r="B870">
-        <v>6846777</v>
+        <v>6846778</v>
       </c>
       <c r="C870" t="s">
         <v>28</v>
@@ -77919,49 +77919,49 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F870" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G870" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H870">
+        <v>2</v>
+      </c>
+      <c r="I870">
         <v>0</v>
       </c>
-      <c r="I870">
-        <v>2</v>
-      </c>
       <c r="J870" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K870">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L870">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M870">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N870">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O870">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P870">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q870">
         <v>-0.75</v>
       </c>
       <c r="R870">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S870">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T870">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U870">
         <v>2.025</v>
@@ -77970,19 +77970,19 @@
         <v>1.825</v>
       </c>
       <c r="W870">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X870">
         <v>-1</v>
       </c>
       <c r="Y870">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z870">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA870">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB870">
         <v>-1</v>
@@ -77996,7 +77996,7 @@
         <v>869</v>
       </c>
       <c r="B871">
-        <v>6846778</v>
+        <v>6846777</v>
       </c>
       <c r="C871" t="s">
         <v>28</v>
@@ -78008,49 +78008,49 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F871" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G871" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J871" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K871">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L871">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M871">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N871">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O871">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P871">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q871">
         <v>-0.75</v>
       </c>
       <c r="R871">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S871">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T871">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U871">
         <v>2.025</v>
@@ -78059,19 +78059,19 @@
         <v>1.825</v>
       </c>
       <c r="W871">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X871">
         <v>-1</v>
       </c>
       <c r="Y871">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z871">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA871">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB871">
         <v>-1</v>
@@ -79420,7 +79420,7 @@
         <v>885</v>
       </c>
       <c r="B887">
-        <v>6846793</v>
+        <v>6846788</v>
       </c>
       <c r="C887" t="s">
         <v>28</v>
@@ -79432,76 +79432,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F887" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G887" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H887">
+        <v>2</v>
+      </c>
+      <c r="I887">
         <v>0</v>
       </c>
-      <c r="I887">
-        <v>2</v>
-      </c>
       <c r="J887" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K887">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L887">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M887">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N887">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O887">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P887">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q887">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R887">
+        <v>1.825</v>
+      </c>
+      <c r="S887">
         <v>2.025</v>
       </c>
-      <c r="S887">
-        <v>1.825</v>
-      </c>
       <c r="T887">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U887">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V887">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W887">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X887">
         <v>-1</v>
       </c>
       <c r="Y887">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z887">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA887">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB887">
         <v>-1</v>
       </c>
       <c r="AC887">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="888" spans="1:29">
@@ -79509,7 +79509,7 @@
         <v>886</v>
       </c>
       <c r="B888">
-        <v>6846788</v>
+        <v>6846793</v>
       </c>
       <c r="C888" t="s">
         <v>28</v>
@@ -79521,76 +79521,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F888" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G888" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J888" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K888">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L888">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M888">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N888">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O888">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P888">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q888">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R888">
+        <v>2.025</v>
+      </c>
+      <c r="S888">
         <v>1.825</v>
       </c>
-      <c r="S888">
-        <v>2.025</v>
-      </c>
       <c r="T888">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U888">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V888">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W888">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X888">
         <v>-1</v>
       </c>
       <c r="Y888">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z888">
+        <v>-1</v>
+      </c>
+      <c r="AA888">
         <v>0.825</v>
       </c>
-      <c r="AA888">
-        <v>-1</v>
-      </c>
       <c r="AB888">
         <v>-1</v>
       </c>
       <c r="AC888">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="889" spans="1:29">
@@ -80043,7 +80043,7 @@
         <v>892</v>
       </c>
       <c r="B894">
-        <v>6846797</v>
+        <v>6846798</v>
       </c>
       <c r="C894" t="s">
         <v>28</v>
@@ -80055,46 +80055,46 @@
         <v>45226.5625</v>
       </c>
       <c r="F894" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G894" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H894">
+        <v>1</v>
+      </c>
+      <c r="I894">
         <v>4</v>
       </c>
-      <c r="I894">
-        <v>0</v>
-      </c>
       <c r="J894" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K894">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="L894">
+        <v>3.5</v>
+      </c>
+      <c r="M894">
+        <v>2.1</v>
+      </c>
+      <c r="N894">
         <v>3.75</v>
       </c>
-      <c r="M894">
-        <v>4.5</v>
-      </c>
-      <c r="N894">
-        <v>1.65</v>
-      </c>
       <c r="O894">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P894">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q894">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R894">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S894">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T894">
         <v>3</v>
@@ -80106,19 +80106,19 @@
         <v>1.825</v>
       </c>
       <c r="W894">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X894">
         <v>-1</v>
       </c>
       <c r="Y894">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z894">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA894">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB894">
         <v>1.025</v>
@@ -80132,7 +80132,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>6846798</v>
+        <v>6846797</v>
       </c>
       <c r="C895" t="s">
         <v>28</v>
@@ -80144,46 +80144,46 @@
         <v>45226.5625</v>
       </c>
       <c r="F895" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G895" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I895">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J895" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K895">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="L895">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M895">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N895">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="O895">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P895">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q895">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R895">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S895">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T895">
         <v>3</v>
@@ -80195,19 +80195,19 @@
         <v>1.825</v>
       </c>
       <c r="W895">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X895">
         <v>-1</v>
       </c>
       <c r="Y895">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z895">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA895">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB895">
         <v>1.025</v>
@@ -84849,7 +84849,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>6846832</v>
+        <v>6846833</v>
       </c>
       <c r="C948" t="s">
         <v>28</v>
@@ -84861,76 +84861,76 @@
         <v>45275.60416666666</v>
       </c>
       <c r="F948" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G948" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I948">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J948" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K948">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L948">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M948">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N948">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O948">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P948">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q948">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R948">
+        <v>1.925</v>
+      </c>
+      <c r="S948">
+        <v>1.925</v>
+      </c>
+      <c r="T948">
+        <v>3</v>
+      </c>
+      <c r="U948">
+        <v>2</v>
+      </c>
+      <c r="V948">
         <v>1.85</v>
       </c>
-      <c r="S948">
-        <v>2</v>
-      </c>
-      <c r="T948">
-        <v>2.75</v>
-      </c>
-      <c r="U948">
-        <v>1.975</v>
-      </c>
-      <c r="V948">
-        <v>1.875</v>
-      </c>
       <c r="W948">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X948">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y948">
         <v>-1</v>
       </c>
       <c r="Z948">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA948">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB948">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC948">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="949" spans="1:29">
@@ -84938,7 +84938,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>6846833</v>
+        <v>6846832</v>
       </c>
       <c r="C949" t="s">
         <v>28</v>
@@ -84950,76 +84950,76 @@
         <v>45275.60416666666</v>
       </c>
       <c r="F949" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G949" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H949">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I949">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J949" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K949">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L949">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M949">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N949">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O949">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P949">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q949">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R949">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S949">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T949">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U949">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V949">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W949">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X949">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y949">
         <v>-1</v>
       </c>
       <c r="Z949">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA949">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB949">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC949">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="950" spans="1:29">
@@ -85027,7 +85027,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>6845839</v>
+        <v>6846836</v>
       </c>
       <c r="C950" t="s">
         <v>28</v>
@@ -85039,46 +85039,46 @@
         <v>45276.375</v>
       </c>
       <c r="F950" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G950" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H950">
         <v>0</v>
       </c>
       <c r="I950">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J950" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K950">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="L950">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M950">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="N950">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O950">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P950">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q950">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R950">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S950">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T950">
         <v>3.25</v>
@@ -85093,16 +85093,16 @@
         <v>-1</v>
       </c>
       <c r="X950">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y950">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z950">
         <v>-1</v>
       </c>
       <c r="AA950">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB950">
         <v>-1</v>
@@ -85116,7 +85116,7 @@
         <v>949</v>
       </c>
       <c r="B951">
-        <v>6846835</v>
+        <v>6845839</v>
       </c>
       <c r="C951" t="s">
         <v>28</v>
@@ -85128,76 +85128,76 @@
         <v>45276.375</v>
       </c>
       <c r="F951" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G951" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J951" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K951">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L951">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M951">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="N951">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="O951">
+        <v>4.75</v>
+      </c>
+      <c r="P951">
+        <v>5.25</v>
+      </c>
+      <c r="Q951">
+        <v>-1</v>
+      </c>
+      <c r="R951">
+        <v>1.8</v>
+      </c>
+      <c r="S951">
+        <v>2.05</v>
+      </c>
+      <c r="T951">
+        <v>3.25</v>
+      </c>
+      <c r="U951">
+        <v>1.925</v>
+      </c>
+      <c r="V951">
+        <v>1.925</v>
+      </c>
+      <c r="W951">
+        <v>-1</v>
+      </c>
+      <c r="X951">
         <v>3.75</v>
       </c>
-      <c r="P951">
-        <v>2.5</v>
-      </c>
-      <c r="Q951">
-        <v>0</v>
-      </c>
-      <c r="R951">
-        <v>1.925</v>
-      </c>
-      <c r="S951">
-        <v>1.925</v>
-      </c>
-      <c r="T951">
-        <v>3</v>
-      </c>
-      <c r="U951">
-        <v>1.975</v>
-      </c>
-      <c r="V951">
-        <v>1.875</v>
-      </c>
-      <c r="W951">
-        <v>-1</v>
-      </c>
-      <c r="X951">
-        <v>-1</v>
-      </c>
       <c r="Y951">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z951">
         <v>-1</v>
       </c>
       <c r="AA951">
+        <v>1.05</v>
+      </c>
+      <c r="AB951">
+        <v>-1</v>
+      </c>
+      <c r="AC951">
         <v>0.925</v>
-      </c>
-      <c r="AB951">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC951">
-        <v>-1</v>
       </c>
     </row>
     <row r="952" spans="1:29">
@@ -85205,7 +85205,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>6846836</v>
+        <v>6846835</v>
       </c>
       <c r="C952" t="s">
         <v>28</v>
@@ -85217,55 +85217,55 @@
         <v>45276.375</v>
       </c>
       <c r="F952" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G952" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J952" t="s">
         <v>58</v>
       </c>
       <c r="K952">
+        <v>2.45</v>
+      </c>
+      <c r="L952">
+        <v>3.6</v>
+      </c>
+      <c r="M952">
+        <v>2.45</v>
+      </c>
+      <c r="N952">
+        <v>2.6</v>
+      </c>
+      <c r="O952">
+        <v>3.75</v>
+      </c>
+      <c r="P952">
+        <v>2.5</v>
+      </c>
+      <c r="Q952">
+        <v>0</v>
+      </c>
+      <c r="R952">
+        <v>1.925</v>
+      </c>
+      <c r="S952">
+        <v>1.925</v>
+      </c>
+      <c r="T952">
         <v>3</v>
       </c>
-      <c r="L952">
-        <v>3.75</v>
-      </c>
-      <c r="M952">
-        <v>2.1</v>
-      </c>
-      <c r="N952">
-        <v>3.25</v>
-      </c>
-      <c r="O952">
-        <v>4.2</v>
-      </c>
-      <c r="P952">
-        <v>1.95</v>
-      </c>
-      <c r="Q952">
-        <v>0.5</v>
-      </c>
-      <c r="R952">
-        <v>1.85</v>
-      </c>
-      <c r="S952">
-        <v>2</v>
-      </c>
-      <c r="T952">
-        <v>3.25</v>
-      </c>
       <c r="U952">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V952">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W952">
         <v>-1</v>
@@ -85274,19 +85274,19 @@
         <v>-1</v>
       </c>
       <c r="Y952">
-        <v>0.95</v>
+        <v>1.5</v>
       </c>
       <c r="Z952">
         <v>-1</v>
       </c>
       <c r="AA952">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB952">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC952">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="953" spans="1:29">
@@ -85383,7 +85383,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>6846837</v>
+        <v>6846188</v>
       </c>
       <c r="C954" t="s">
         <v>28</v>
@@ -85395,40 +85395,40 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F954" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G954" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I954">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J954" t="s">
         <v>59</v>
       </c>
       <c r="K954">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L954">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M954">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N954">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O954">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P954">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q954">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R954">
         <v>2.025</v>
@@ -85437,7 +85437,7 @@
         <v>1.825</v>
       </c>
       <c r="T954">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U954">
         <v>1.925</v>
@@ -85446,7 +85446,7 @@
         <v>1.925</v>
       </c>
       <c r="W954">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="X954">
         <v>-1</v>
@@ -85472,7 +85472,7 @@
         <v>953</v>
       </c>
       <c r="B955">
-        <v>6846157</v>
+        <v>6846837</v>
       </c>
       <c r="C955" t="s">
         <v>28</v>
@@ -85484,76 +85484,76 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F955" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G955" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I955">
         <v>1</v>
       </c>
       <c r="J955" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K955">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="L955">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M955">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N955">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="O955">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P955">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q955">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R955">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S955">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T955">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U955">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V955">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W955">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X955">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y955">
         <v>-1</v>
       </c>
       <c r="Z955">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA955">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB955">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC955">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="956" spans="1:29">
@@ -85561,7 +85561,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>6846188</v>
+        <v>6846157</v>
       </c>
       <c r="C956" t="s">
         <v>28</v>
@@ -85573,76 +85573,76 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F956" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G956" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H956">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I956">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J956" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K956">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L956">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M956">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N956">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="O956">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P956">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="Q956">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R956">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S956">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T956">
         <v>3</v>
       </c>
       <c r="U956">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V956">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W956">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X956">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y956">
         <v>-1</v>
       </c>
       <c r="Z956">
+        <v>-1</v>
+      </c>
+      <c r="AA956">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB956">
+        <v>-1</v>
+      </c>
+      <c r="AC956">
         <v>1.025</v>
-      </c>
-      <c r="AA956">
-        <v>-1</v>
-      </c>
-      <c r="AB956">
-        <v>0.925</v>
-      </c>
-      <c r="AC956">
-        <v>-1</v>
       </c>
     </row>
     <row r="957" spans="1:29">
@@ -85650,7 +85650,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>7625888</v>
+        <v>7625865</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85662,40 +85662,40 @@
         <v>45310.60416666666</v>
       </c>
       <c r="F957" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G957" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H957">
+        <v>2</v>
+      </c>
+      <c r="I957">
         <v>1</v>
       </c>
-      <c r="I957">
-        <v>2</v>
-      </c>
       <c r="J957" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K957">
         <v>1.571</v>
       </c>
       <c r="L957">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M957">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N957">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O957">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P957">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q957">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R957">
         <v>2</v>
@@ -85704,34 +85704,34 @@
         <v>1.85</v>
       </c>
       <c r="T957">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U957">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V957">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W957">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X957">
         <v>-1</v>
       </c>
       <c r="Y957">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z957">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA957">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB957">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC957">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -85739,7 +85739,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>7625865</v>
+        <v>7625888</v>
       </c>
       <c r="C958" t="s">
         <v>28</v>
@@ -85751,40 +85751,40 @@
         <v>45310.60416666666</v>
       </c>
       <c r="F958" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G958" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I958">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J958" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K958">
         <v>1.571</v>
       </c>
       <c r="L958">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M958">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N958">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O958">
+        <v>3.8</v>
+      </c>
+      <c r="P958">
         <v>4.333</v>
       </c>
-      <c r="P958">
-        <v>5.25</v>
-      </c>
       <c r="Q958">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R958">
         <v>2</v>
@@ -85793,34 +85793,34 @@
         <v>1.85</v>
       </c>
       <c r="T958">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U958">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V958">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W958">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X958">
         <v>-1</v>
       </c>
       <c r="Y958">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z958">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA958">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB958">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC958">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="959" spans="1:29">
@@ -87252,7 +87252,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>6846853</v>
+        <v>6846851</v>
       </c>
       <c r="C975" t="s">
         <v>28</v>
@@ -87264,46 +87264,46 @@
         <v>45324.60416666666</v>
       </c>
       <c r="F975" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G975" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="K975">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="L975">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M975">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N975">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O975">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P975">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q975">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R975">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S975">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T975">
         <v>3</v>
       </c>
       <c r="U975">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V975">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W975">
         <v>0</v>
@@ -87326,7 +87326,7 @@
         <v>974</v>
       </c>
       <c r="B976">
-        <v>6846851</v>
+        <v>6846853</v>
       </c>
       <c r="C976" t="s">
         <v>28</v>
@@ -87338,46 +87338,46 @@
         <v>45324.60416666666</v>
       </c>
       <c r="F976" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G976" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="K976">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L976">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M976">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N976">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O976">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P976">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q976">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R976">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S976">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T976">
         <v>3</v>
       </c>
       <c r="U976">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V976">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W976">
         <v>0</v>
@@ -87400,7 +87400,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>6846160</v>
+        <v>6846855</v>
       </c>
       <c r="C977" t="s">
         <v>28</v>
@@ -87412,46 +87412,46 @@
         <v>45325.375</v>
       </c>
       <c r="F977" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G977" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K977">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L977">
+        <v>4</v>
+      </c>
+      <c r="M977">
         <v>4.2</v>
       </c>
-      <c r="M977">
-        <v>4.333</v>
-      </c>
       <c r="N977">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O977">
+        <v>3.8</v>
+      </c>
+      <c r="P977">
         <v>4</v>
       </c>
-      <c r="P977">
-        <v>4.2</v>
-      </c>
       <c r="Q977">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R977">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S977">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T977">
         <v>2.75</v>
       </c>
       <c r="U977">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V977">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W977">
         <v>0</v>
@@ -87548,7 +87548,7 @@
         <v>977</v>
       </c>
       <c r="B979">
-        <v>6846855</v>
+        <v>6846160</v>
       </c>
       <c r="C979" t="s">
         <v>28</v>
@@ -87560,46 +87560,46 @@
         <v>45325.375</v>
       </c>
       <c r="F979" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G979" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K979">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L979">
+        <v>4.2</v>
+      </c>
+      <c r="M979">
+        <v>4.333</v>
+      </c>
+      <c r="N979">
+        <v>1.7</v>
+      </c>
+      <c r="O979">
         <v>4</v>
       </c>
-      <c r="M979">
+      <c r="P979">
         <v>4.2</v>
       </c>
-      <c r="N979">
-        <v>1.8</v>
-      </c>
-      <c r="O979">
-        <v>3.8</v>
-      </c>
-      <c r="P979">
-        <v>4</v>
-      </c>
       <c r="Q979">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R979">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S979">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T979">
         <v>2.75</v>
       </c>
       <c r="U979">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V979">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W979">
         <v>0</v>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -44888,7 +44888,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>5173250</v>
+        <v>5173246</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -44900,76 +44900,76 @@
         <v>44758.33333333334</v>
       </c>
       <c r="F499" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G499" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H499">
         <v>2</v>
       </c>
       <c r="I499">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J499" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K499">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L499">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M499">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N499">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="O499">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P499">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q499">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R499">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S499">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T499">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U499">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V499">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W499">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X499">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y499">
         <v>-1</v>
       </c>
       <c r="Z499">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA499">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB499">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC499">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="500" spans="1:29">
@@ -45066,7 +45066,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>5173246</v>
+        <v>5173250</v>
       </c>
       <c r="C501" t="s">
         <v>28</v>
@@ -45078,76 +45078,76 @@
         <v>44758.33333333334</v>
       </c>
       <c r="F501" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G501" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H501">
         <v>2</v>
       </c>
       <c r="I501">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J501" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K501">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L501">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M501">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N501">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="O501">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P501">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q501">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R501">
+        <v>2.05</v>
+      </c>
+      <c r="S501">
+        <v>1.8</v>
+      </c>
+      <c r="T501">
+        <v>3</v>
+      </c>
+      <c r="U501">
+        <v>2</v>
+      </c>
+      <c r="V501">
         <v>1.85</v>
       </c>
-      <c r="S501">
-        <v>2</v>
-      </c>
-      <c r="T501">
-        <v>2.75</v>
-      </c>
-      <c r="U501">
-        <v>1.925</v>
-      </c>
-      <c r="V501">
-        <v>1.925</v>
-      </c>
       <c r="W501">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X501">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y501">
         <v>-1</v>
       </c>
       <c r="Z501">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA501">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB501">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC501">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="502" spans="1:29">
@@ -47202,7 +47202,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>5173279</v>
+        <v>5173274</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47214,76 +47214,76 @@
         <v>44785.5625</v>
       </c>
       <c r="F525" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G525" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H525">
         <v>0</v>
       </c>
       <c r="I525">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J525" t="s">
         <v>58</v>
       </c>
       <c r="K525">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L525">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M525">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N525">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="O525">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P525">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q525">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R525">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S525">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T525">
+        <v>2.75</v>
+      </c>
+      <c r="U525">
+        <v>1.975</v>
+      </c>
+      <c r="V525">
+        <v>1.875</v>
+      </c>
+      <c r="W525">
+        <v>-1</v>
+      </c>
+      <c r="X525">
+        <v>-1</v>
+      </c>
+      <c r="Y525">
         <v>3</v>
       </c>
-      <c r="U525">
-        <v>1.9</v>
-      </c>
-      <c r="V525">
-        <v>1.95</v>
-      </c>
-      <c r="W525">
-        <v>-1</v>
-      </c>
-      <c r="X525">
-        <v>-1</v>
-      </c>
-      <c r="Y525">
-        <v>1.4</v>
-      </c>
       <c r="Z525">
         <v>-1</v>
       </c>
       <c r="AA525">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB525">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC525">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -47291,7 +47291,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>5173274</v>
+        <v>5173279</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47303,55 +47303,55 @@
         <v>44785.5625</v>
       </c>
       <c r="F526" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G526" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H526">
         <v>0</v>
       </c>
       <c r="I526">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J526" t="s">
         <v>58</v>
       </c>
       <c r="K526">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L526">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M526">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N526">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="O526">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P526">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q526">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R526">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S526">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T526">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U526">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V526">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W526">
         <v>-1</v>
@@ -47360,19 +47360,19 @@
         <v>-1</v>
       </c>
       <c r="Y526">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="Z526">
         <v>-1</v>
       </c>
       <c r="AA526">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB526">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC526">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -48804,7 +48804,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>5173289</v>
+        <v>5173294</v>
       </c>
       <c r="C543" t="s">
         <v>28</v>
@@ -48816,58 +48816,58 @@
         <v>44799.5625</v>
       </c>
       <c r="F543" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G543" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H543">
         <v>4</v>
       </c>
       <c r="I543">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J543" t="s">
         <v>59</v>
       </c>
       <c r="K543">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L543">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M543">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N543">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O543">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P543">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q543">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R543">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S543">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T543">
         <v>2.75</v>
       </c>
       <c r="U543">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V543">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W543">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X543">
         <v>-1</v>
@@ -48876,13 +48876,13 @@
         <v>-1</v>
       </c>
       <c r="Z543">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA543">
         <v>-1</v>
       </c>
       <c r="AB543">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC543">
         <v>-1</v>
@@ -48893,7 +48893,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>5173294</v>
+        <v>5173289</v>
       </c>
       <c r="C544" t="s">
         <v>28</v>
@@ -48905,58 +48905,58 @@
         <v>44799.5625</v>
       </c>
       <c r="F544" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G544" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H544">
         <v>4</v>
       </c>
       <c r="I544">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J544" t="s">
         <v>59</v>
       </c>
       <c r="K544">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L544">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M544">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N544">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O544">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P544">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q544">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R544">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S544">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T544">
         <v>2.75</v>
       </c>
       <c r="U544">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V544">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W544">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X544">
         <v>-1</v>
@@ -48965,13 +48965,13 @@
         <v>-1</v>
       </c>
       <c r="Z544">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA544">
         <v>-1</v>
       </c>
       <c r="AB544">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC544">
         <v>-1</v>
@@ -49338,7 +49338,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>5173297</v>
+        <v>5173293</v>
       </c>
       <c r="C549" t="s">
         <v>28</v>
@@ -49350,76 +49350,76 @@
         <v>44801.35416666666</v>
       </c>
       <c r="F549" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G549" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H549">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I549">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J549" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K549">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L549">
+        <v>3.4</v>
+      </c>
+      <c r="M549">
+        <v>3.1</v>
+      </c>
+      <c r="N549">
+        <v>1.909</v>
+      </c>
+      <c r="O549">
+        <v>3.8</v>
+      </c>
+      <c r="P549">
         <v>3.75</v>
       </c>
-      <c r="M549">
-        <v>4.333</v>
-      </c>
-      <c r="N549">
-        <v>1.666</v>
-      </c>
-      <c r="O549">
-        <v>4.333</v>
-      </c>
-      <c r="P549">
-        <v>4.5</v>
-      </c>
       <c r="Q549">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R549">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S549">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T549">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U549">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V549">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W549">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X549">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y549">
         <v>-1</v>
       </c>
       <c r="Z549">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA549">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB549">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC549">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="550" spans="1:29">
@@ -49427,7 +49427,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>5173295</v>
+        <v>5173297</v>
       </c>
       <c r="C550" t="s">
         <v>28</v>
@@ -49439,49 +49439,49 @@
         <v>44801.35416666666</v>
       </c>
       <c r="F550" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G550" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I550">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J550" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K550">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L550">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M550">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N550">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O550">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P550">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q550">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R550">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S550">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T550">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U550">
         <v>1.8</v>
@@ -49490,25 +49490,25 @@
         <v>2.05</v>
       </c>
       <c r="W550">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X550">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y550">
         <v>-1</v>
       </c>
       <c r="Z550">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA550">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB550">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC550">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551" spans="1:29">
@@ -49516,7 +49516,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>5173293</v>
+        <v>5173295</v>
       </c>
       <c r="C551" t="s">
         <v>28</v>
@@ -49528,16 +49528,16 @@
         <v>44801.35416666666</v>
       </c>
       <c r="F551" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G551" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H551">
+        <v>2</v>
+      </c>
+      <c r="I551">
         <v>1</v>
-      </c>
-      <c r="I551">
-        <v>0</v>
       </c>
       <c r="J551" t="s">
         <v>59</v>
@@ -49552,34 +49552,34 @@
         <v>3.1</v>
       </c>
       <c r="N551">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O551">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P551">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q551">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R551">
+        <v>1.9</v>
+      </c>
+      <c r="S551">
         <v>1.95</v>
-      </c>
-      <c r="S551">
-        <v>1.9</v>
       </c>
       <c r="T551">
         <v>2.75</v>
       </c>
       <c r="U551">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V551">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W551">
-        <v>0.909</v>
+        <v>1.2</v>
       </c>
       <c r="X551">
         <v>-1</v>
@@ -49588,16 +49588,16 @@
         <v>-1</v>
       </c>
       <c r="Z551">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA551">
         <v>-1</v>
       </c>
       <c r="AB551">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC551">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="552" spans="1:29">
@@ -50228,7 +50228,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>5173303</v>
+        <v>5173304</v>
       </c>
       <c r="C559" t="s">
         <v>28</v>
@@ -50240,76 +50240,76 @@
         <v>44808.35416666666</v>
       </c>
       <c r="F559" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G559" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H559">
         <v>0</v>
       </c>
       <c r="I559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J559" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K559">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L559">
         <v>3.4</v>
       </c>
       <c r="M559">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N559">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O559">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P559">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q559">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R559">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S559">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T559">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U559">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V559">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W559">
         <v>-1</v>
       </c>
       <c r="X559">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y559">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z559">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA559">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB559">
         <v>-1</v>
       </c>
       <c r="AC559">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="560" spans="1:29">
@@ -50317,7 +50317,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>5173304</v>
+        <v>5173303</v>
       </c>
       <c r="C560" t="s">
         <v>28</v>
@@ -50329,76 +50329,76 @@
         <v>44808.35416666666</v>
       </c>
       <c r="F560" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G560" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H560">
         <v>0</v>
       </c>
       <c r="I560">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J560" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K560">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L560">
         <v>3.4</v>
       </c>
       <c r="M560">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N560">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O560">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P560">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q560">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R560">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S560">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T560">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U560">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V560">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W560">
         <v>-1</v>
       </c>
       <c r="X560">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y560">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z560">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA560">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB560">
         <v>-1</v>
       </c>
       <c r="AC560">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="561" spans="1:29">
@@ -50406,7 +50406,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>5173309</v>
+        <v>5173310</v>
       </c>
       <c r="C561" t="s">
         <v>28</v>
@@ -50418,76 +50418,76 @@
         <v>44813.5625</v>
       </c>
       <c r="F561" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G561" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H561">
+        <v>2</v>
+      </c>
+      <c r="I561">
+        <v>3</v>
+      </c>
+      <c r="J561" t="s">
+        <v>58</v>
+      </c>
+      <c r="K561">
+        <v>2.875</v>
+      </c>
+      <c r="L561">
+        <v>3.6</v>
+      </c>
+      <c r="M561">
+        <v>2.3</v>
+      </c>
+      <c r="N561">
+        <v>3.4</v>
+      </c>
+      <c r="O561">
+        <v>3.6</v>
+      </c>
+      <c r="P561">
+        <v>2</v>
+      </c>
+      <c r="Q561">
+        <v>0.5</v>
+      </c>
+      <c r="R561">
+        <v>1.875</v>
+      </c>
+      <c r="S561">
+        <v>1.975</v>
+      </c>
+      <c r="T561">
+        <v>3</v>
+      </c>
+      <c r="U561">
+        <v>2.05</v>
+      </c>
+      <c r="V561">
+        <v>1.8</v>
+      </c>
+      <c r="W561">
+        <v>-1</v>
+      </c>
+      <c r="X561">
+        <v>-1</v>
+      </c>
+      <c r="Y561">
         <v>1</v>
       </c>
-      <c r="I561">
-        <v>0</v>
-      </c>
-      <c r="J561" t="s">
-        <v>59</v>
-      </c>
-      <c r="K561">
-        <v>2.05</v>
-      </c>
-      <c r="L561">
-        <v>3.5</v>
-      </c>
-      <c r="M561">
-        <v>3.3</v>
-      </c>
-      <c r="N561">
-        <v>2.3</v>
-      </c>
-      <c r="O561">
-        <v>3.5</v>
-      </c>
-      <c r="P561">
-        <v>3</v>
-      </c>
-      <c r="Q561">
-        <v>-0.25</v>
-      </c>
-      <c r="R561">
-        <v>2.025</v>
-      </c>
-      <c r="S561">
-        <v>1.825</v>
-      </c>
-      <c r="T561">
-        <v>2.75</v>
-      </c>
-      <c r="U561">
-        <v>2</v>
-      </c>
-      <c r="V561">
-        <v>1.85</v>
-      </c>
-      <c r="W561">
-        <v>1.3</v>
-      </c>
-      <c r="X561">
-        <v>-1</v>
-      </c>
-      <c r="Y561">
-        <v>-1</v>
-      </c>
       <c r="Z561">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA561">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB561">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC561">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="562" spans="1:29">
@@ -50495,7 +50495,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>5173310</v>
+        <v>5173309</v>
       </c>
       <c r="C562" t="s">
         <v>28</v>
@@ -50507,76 +50507,76 @@
         <v>44813.5625</v>
       </c>
       <c r="F562" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G562" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I562">
+        <v>0</v>
+      </c>
+      <c r="J562" t="s">
+        <v>59</v>
+      </c>
+      <c r="K562">
+        <v>2.05</v>
+      </c>
+      <c r="L562">
+        <v>3.5</v>
+      </c>
+      <c r="M562">
+        <v>3.3</v>
+      </c>
+      <c r="N562">
+        <v>2.3</v>
+      </c>
+      <c r="O562">
+        <v>3.5</v>
+      </c>
+      <c r="P562">
         <v>3</v>
       </c>
-      <c r="J562" t="s">
-        <v>58</v>
-      </c>
-      <c r="K562">
-        <v>2.875</v>
-      </c>
-      <c r="L562">
-        <v>3.6</v>
-      </c>
-      <c r="M562">
-        <v>2.3</v>
-      </c>
-      <c r="N562">
-        <v>3.4</v>
-      </c>
-      <c r="O562">
-        <v>3.6</v>
-      </c>
-      <c r="P562">
-        <v>2</v>
-      </c>
       <c r="Q562">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R562">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S562">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T562">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U562">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V562">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W562">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X562">
         <v>-1</v>
       </c>
       <c r="Y562">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z562">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA562">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB562">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC562">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="563" spans="1:29">
@@ -51029,7 +51029,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>5173307</v>
+        <v>5173314</v>
       </c>
       <c r="C568" t="s">
         <v>28</v>
@@ -51041,76 +51041,76 @@
         <v>44815.35416666666</v>
       </c>
       <c r="F568" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G568" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I568">
         <v>1</v>
       </c>
       <c r="J568" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K568">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L568">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M568">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N568">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="O568">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P568">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q568">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R568">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S568">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T568">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U568">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V568">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W568">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X568">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y568">
         <v>-1</v>
       </c>
       <c r="Z568">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA568">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB568">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC568">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="569" spans="1:29">
@@ -51118,7 +51118,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>5173314</v>
+        <v>5173307</v>
       </c>
       <c r="C569" t="s">
         <v>28</v>
@@ -51130,76 +51130,76 @@
         <v>44815.35416666666</v>
       </c>
       <c r="F569" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G569" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I569">
         <v>1</v>
       </c>
       <c r="J569" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K569">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L569">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M569">
+        <v>4.2</v>
+      </c>
+      <c r="N569">
+        <v>1.65</v>
+      </c>
+      <c r="O569">
+        <v>4</v>
+      </c>
+      <c r="P569">
+        <v>5.25</v>
+      </c>
+      <c r="Q569">
+        <v>-0.75</v>
+      </c>
+      <c r="R569">
+        <v>1.8</v>
+      </c>
+      <c r="S569">
+        <v>2.05</v>
+      </c>
+      <c r="T569">
         <v>2.75</v>
       </c>
-      <c r="N569">
-        <v>2.875</v>
-      </c>
-      <c r="O569">
-        <v>3.8</v>
-      </c>
-      <c r="P569">
-        <v>2.25</v>
-      </c>
-      <c r="Q569">
-        <v>0.25</v>
-      </c>
-      <c r="R569">
-        <v>1.825</v>
-      </c>
-      <c r="S569">
-        <v>2.025</v>
-      </c>
-      <c r="T569">
-        <v>3.25</v>
-      </c>
       <c r="U569">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V569">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W569">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X569">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y569">
         <v>-1</v>
       </c>
       <c r="Z569">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA569">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB569">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC569">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="570" spans="1:29">
@@ -51207,7 +51207,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>5173324</v>
+        <v>5173322</v>
       </c>
       <c r="C570" t="s">
         <v>28</v>
@@ -51219,76 +51219,76 @@
         <v>44820.5625</v>
       </c>
       <c r="F570" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G570" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H570">
         <v>2</v>
       </c>
       <c r="I570">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J570" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K570">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L570">
         <v>3.5</v>
       </c>
       <c r="M570">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N570">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O570">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P570">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q570">
         <v>0.25</v>
       </c>
       <c r="R570">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S570">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T570">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U570">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V570">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W570">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X570">
         <v>-1</v>
       </c>
       <c r="Y570">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z570">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA570">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB570">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC570">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="571" spans="1:29">
@@ -51296,7 +51296,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5173322</v>
+        <v>5173324</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51308,76 +51308,76 @@
         <v>44820.5625</v>
       </c>
       <c r="F571" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G571" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H571">
         <v>2</v>
       </c>
       <c r="I571">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J571" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K571">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L571">
         <v>3.5</v>
       </c>
       <c r="M571">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N571">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O571">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P571">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q571">
         <v>0.25</v>
       </c>
       <c r="R571">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S571">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T571">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U571">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V571">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W571">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X571">
         <v>-1</v>
       </c>
       <c r="Y571">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z571">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA571">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB571">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC571">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -52008,7 +52008,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>5173330</v>
+        <v>5173327</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -52020,10 +52020,10 @@
         <v>44834.5625</v>
       </c>
       <c r="F579" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G579" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H579">
         <v>1</v>
@@ -52035,41 +52035,41 @@
         <v>58</v>
       </c>
       <c r="K579">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L579">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M579">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N579">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="O579">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P579">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q579">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R579">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S579">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T579">
         <v>3</v>
       </c>
       <c r="U579">
+        <v>1.9</v>
+      </c>
+      <c r="V579">
         <v>1.95</v>
       </c>
-      <c r="V579">
-        <v>1.9</v>
-      </c>
       <c r="W579">
         <v>-1</v>
       </c>
@@ -52077,13 +52077,13 @@
         <v>-1</v>
       </c>
       <c r="Y579">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="Z579">
         <v>-1</v>
       </c>
       <c r="AA579">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB579">
         <v>0</v>
@@ -52097,7 +52097,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>5173327</v>
+        <v>5173330</v>
       </c>
       <c r="C580" t="s">
         <v>28</v>
@@ -52109,10 +52109,10 @@
         <v>44834.5625</v>
       </c>
       <c r="F580" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G580" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H580">
         <v>1</v>
@@ -52124,41 +52124,41 @@
         <v>58</v>
       </c>
       <c r="K580">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L580">
+        <v>3.4</v>
+      </c>
+      <c r="M580">
+        <v>2.15</v>
+      </c>
+      <c r="N580">
         <v>3.5</v>
       </c>
-      <c r="M580">
-        <v>3.3</v>
-      </c>
-      <c r="N580">
-        <v>2.45</v>
-      </c>
       <c r="O580">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P580">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q580">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R580">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S580">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T580">
         <v>3</v>
       </c>
       <c r="U580">
+        <v>1.95</v>
+      </c>
+      <c r="V580">
         <v>1.9</v>
       </c>
-      <c r="V580">
-        <v>1.95</v>
-      </c>
       <c r="W580">
         <v>-1</v>
       </c>
@@ -52166,13 +52166,13 @@
         <v>-1</v>
       </c>
       <c r="Y580">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="Z580">
         <v>-1</v>
       </c>
       <c r="AA580">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB580">
         <v>0</v>
@@ -54411,7 +54411,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>5173354</v>
+        <v>5173358</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54423,76 +54423,76 @@
         <v>44855.5625</v>
       </c>
       <c r="F606" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G606" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J606" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K606">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L606">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M606">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N606">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="O606">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P606">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q606">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R606">
+        <v>2.1</v>
+      </c>
+      <c r="S606">
+        <v>1.775</v>
+      </c>
+      <c r="T606">
+        <v>2.5</v>
+      </c>
+      <c r="U606">
+        <v>2</v>
+      </c>
+      <c r="V606">
         <v>1.85</v>
       </c>
-      <c r="S606">
-        <v>2</v>
-      </c>
-      <c r="T606">
-        <v>3</v>
-      </c>
-      <c r="U606">
-        <v>1.95</v>
-      </c>
-      <c r="V606">
-        <v>1.9</v>
-      </c>
       <c r="W606">
         <v>-1</v>
       </c>
       <c r="X606">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y606">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z606">
         <v>-1</v>
       </c>
       <c r="AA606">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB606">
         <v>-1</v>
       </c>
       <c r="AC606">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -54500,7 +54500,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>5173358</v>
+        <v>5173354</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -54512,76 +54512,76 @@
         <v>44855.5625</v>
       </c>
       <c r="F607" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G607" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I607">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J607" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K607">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L607">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M607">
+        <v>5</v>
+      </c>
+      <c r="N607">
+        <v>1.833</v>
+      </c>
+      <c r="O607">
+        <v>3.8</v>
+      </c>
+      <c r="P607">
+        <v>4.2</v>
+      </c>
+      <c r="Q607">
+        <v>-0.5</v>
+      </c>
+      <c r="R607">
+        <v>1.85</v>
+      </c>
+      <c r="S607">
+        <v>2</v>
+      </c>
+      <c r="T607">
+        <v>3</v>
+      </c>
+      <c r="U607">
+        <v>1.95</v>
+      </c>
+      <c r="V607">
+        <v>1.9</v>
+      </c>
+      <c r="W607">
+        <v>-1</v>
+      </c>
+      <c r="X607">
         <v>2.8</v>
       </c>
-      <c r="N607">
-        <v>2.9</v>
-      </c>
-      <c r="O607">
-        <v>3.3</v>
-      </c>
-      <c r="P607">
-        <v>2.45</v>
-      </c>
-      <c r="Q607">
-        <v>0</v>
-      </c>
-      <c r="R607">
-        <v>2.1</v>
-      </c>
-      <c r="S607">
-        <v>1.775</v>
-      </c>
-      <c r="T607">
-        <v>2.5</v>
-      </c>
-      <c r="U607">
-        <v>2</v>
-      </c>
-      <c r="V607">
-        <v>1.85</v>
-      </c>
-      <c r="W607">
-        <v>-1</v>
-      </c>
-      <c r="X607">
-        <v>-1</v>
-      </c>
       <c r="Y607">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z607">
         <v>-1</v>
       </c>
       <c r="AA607">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB607">
         <v>-1</v>
       </c>
       <c r="AC607">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="608" spans="1:29">
@@ -55746,7 +55746,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>5173365</v>
+        <v>5173363</v>
       </c>
       <c r="C621" t="s">
         <v>28</v>
@@ -55758,76 +55758,76 @@
         <v>44864.39583333334</v>
       </c>
       <c r="F621" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G621" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I621">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J621" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K621">
         <v>2.375</v>
       </c>
       <c r="L621">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M621">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N621">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O621">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="P621">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q621">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R621">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S621">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T621">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U621">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V621">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W621">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X621">
         <v>-1</v>
       </c>
       <c r="Y621">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z621">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA621">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB621">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC621">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="622" spans="1:29">
@@ -55835,7 +55835,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>5173366</v>
+        <v>5173365</v>
       </c>
       <c r="C622" t="s">
         <v>28</v>
@@ -55847,40 +55847,40 @@
         <v>44864.39583333334</v>
       </c>
       <c r="F622" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G622" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I622">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J622" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K622">
         <v>2.375</v>
       </c>
       <c r="L622">
+        <v>3.6</v>
+      </c>
+      <c r="M622">
+        <v>2.7</v>
+      </c>
+      <c r="N622">
+        <v>2.55</v>
+      </c>
+      <c r="O622">
         <v>3.5</v>
       </c>
-      <c r="M622">
-        <v>2.75</v>
-      </c>
-      <c r="N622">
-        <v>3.1</v>
-      </c>
-      <c r="O622">
-        <v>3.3</v>
-      </c>
       <c r="P622">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q622">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R622">
         <v>1.825</v>
@@ -55892,31 +55892,31 @@
         <v>2.5</v>
       </c>
       <c r="U622">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V622">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W622">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X622">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y622">
         <v>-1</v>
       </c>
       <c r="Z622">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA622">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB622">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC622">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="623" spans="1:29">
@@ -55924,7 +55924,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>5173363</v>
+        <v>5173366</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55936,73 +55936,73 @@
         <v>44864.39583333334</v>
       </c>
       <c r="F623" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G623" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H623">
         <v>2</v>
       </c>
       <c r="I623">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J623" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K623">
         <v>2.375</v>
       </c>
       <c r="L623">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M623">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N623">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O623">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="P623">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q623">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R623">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S623">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T623">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U623">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V623">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W623">
         <v>-1</v>
       </c>
       <c r="X623">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y623">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z623">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA623">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB623">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC623">
         <v>-1</v>
@@ -59395,7 +59395,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>5173413</v>
+        <v>5173411</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59407,76 +59407,76 @@
         <v>44961.375</v>
       </c>
       <c r="F662" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G662" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I662">
+        <v>3</v>
+      </c>
+      <c r="J662" t="s">
+        <v>58</v>
+      </c>
+      <c r="K662">
+        <v>2.25</v>
+      </c>
+      <c r="L662">
+        <v>3.4</v>
+      </c>
+      <c r="M662">
+        <v>3.1</v>
+      </c>
+      <c r="N662">
+        <v>2.55</v>
+      </c>
+      <c r="O662">
+        <v>3.25</v>
+      </c>
+      <c r="P662">
+        <v>2.875</v>
+      </c>
+      <c r="Q662">
         <v>0</v>
       </c>
-      <c r="J662" t="s">
-        <v>59</v>
-      </c>
-      <c r="K662">
-        <v>2.875</v>
-      </c>
-      <c r="L662">
-        <v>3.3</v>
-      </c>
-      <c r="M662">
-        <v>2.375</v>
-      </c>
-      <c r="N662">
-        <v>3.1</v>
-      </c>
-      <c r="O662">
-        <v>3.2</v>
-      </c>
-      <c r="P662">
-        <v>2.375</v>
-      </c>
-      <c r="Q662">
-        <v>0.25</v>
-      </c>
       <c r="R662">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S662">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T662">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U662">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V662">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W662">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X662">
         <v>-1</v>
       </c>
       <c r="Y662">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z662">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA662">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB662">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC662">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="663" spans="1:29">
@@ -59484,7 +59484,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5173411</v>
+        <v>5173413</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59496,76 +59496,76 @@
         <v>44961.375</v>
       </c>
       <c r="F663" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G663" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I663">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J663" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K663">
+        <v>2.875</v>
+      </c>
+      <c r="L663">
+        <v>3.3</v>
+      </c>
+      <c r="M663">
+        <v>2.375</v>
+      </c>
+      <c r="N663">
+        <v>3.1</v>
+      </c>
+      <c r="O663">
+        <v>3.2</v>
+      </c>
+      <c r="P663">
+        <v>2.375</v>
+      </c>
+      <c r="Q663">
+        <v>0.25</v>
+      </c>
+      <c r="R663">
+        <v>1.8</v>
+      </c>
+      <c r="S663">
+        <v>2.05</v>
+      </c>
+      <c r="T663">
         <v>2.25</v>
       </c>
-      <c r="L663">
-        <v>3.4</v>
-      </c>
-      <c r="M663">
-        <v>3.1</v>
-      </c>
-      <c r="N663">
-        <v>2.55</v>
-      </c>
-      <c r="O663">
-        <v>3.25</v>
-      </c>
-      <c r="P663">
-        <v>2.875</v>
-      </c>
-      <c r="Q663">
-        <v>0</v>
-      </c>
-      <c r="R663">
+      <c r="U663">
         <v>1.85</v>
       </c>
-      <c r="S663">
-        <v>2</v>
-      </c>
-      <c r="T663">
-        <v>2.5</v>
-      </c>
-      <c r="U663">
-        <v>2.025</v>
-      </c>
       <c r="V663">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W663">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X663">
         <v>-1</v>
       </c>
       <c r="Y663">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z663">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA663">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB663">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC663">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -59751,7 +59751,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>5173409</v>
+        <v>5173412</v>
       </c>
       <c r="C666" t="s">
         <v>28</v>
@@ -59763,46 +59763,46 @@
         <v>44962.39583333334</v>
       </c>
       <c r="F666" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G666" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H666">
+        <v>1</v>
+      </c>
+      <c r="I666">
+        <v>1</v>
+      </c>
+      <c r="J666" t="s">
+        <v>60</v>
+      </c>
+      <c r="K666">
+        <v>2.75</v>
+      </c>
+      <c r="L666">
+        <v>3.5</v>
+      </c>
+      <c r="M666">
+        <v>2.45</v>
+      </c>
+      <c r="N666">
+        <v>2.75</v>
+      </c>
+      <c r="O666">
+        <v>3.5</v>
+      </c>
+      <c r="P666">
+        <v>2.5</v>
+      </c>
+      <c r="Q666">
         <v>0</v>
       </c>
-      <c r="I666">
-        <v>2</v>
-      </c>
-      <c r="J666" t="s">
-        <v>58</v>
-      </c>
-      <c r="K666">
-        <v>3.6</v>
-      </c>
-      <c r="L666">
-        <v>3.6</v>
-      </c>
-      <c r="M666">
-        <v>1.95</v>
-      </c>
-      <c r="N666">
-        <v>4</v>
-      </c>
-      <c r="O666">
-        <v>3.6</v>
-      </c>
-      <c r="P666">
-        <v>1.909</v>
-      </c>
-      <c r="Q666">
-        <v>0.5</v>
-      </c>
       <c r="R666">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S666">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T666">
         <v>2.75</v>
@@ -59817,16 +59817,16 @@
         <v>-1</v>
       </c>
       <c r="X666">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y666">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z666">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA666">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB666">
         <v>-1</v>
@@ -59840,7 +59840,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5173412</v>
+        <v>5173409</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59852,46 +59852,46 @@
         <v>44962.39583333334</v>
       </c>
       <c r="F667" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G667" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J667" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K667">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="L667">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M667">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="N667">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O667">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P667">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q667">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R667">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S667">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T667">
         <v>2.75</v>
@@ -59906,16 +59906,16 @@
         <v>-1</v>
       </c>
       <c r="X667">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y667">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z667">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA667">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB667">
         <v>-1</v>
@@ -61620,7 +61620,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>5173438</v>
+        <v>5173440</v>
       </c>
       <c r="C687" t="s">
         <v>28</v>
@@ -61632,40 +61632,40 @@
         <v>44981.60416666666</v>
       </c>
       <c r="F687" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G687" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H687">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J687" t="s">
         <v>59</v>
       </c>
       <c r="K687">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L687">
+        <v>3.6</v>
+      </c>
+      <c r="M687">
+        <v>4.2</v>
+      </c>
+      <c r="N687">
+        <v>1.8</v>
+      </c>
+      <c r="O687">
         <v>3.75</v>
       </c>
-      <c r="M687">
-        <v>4.75</v>
-      </c>
-      <c r="N687">
-        <v>1.615</v>
-      </c>
-      <c r="O687">
-        <v>4</v>
-      </c>
       <c r="P687">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q687">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R687">
         <v>2</v>
@@ -61677,13 +61677,13 @@
         <v>2.75</v>
       </c>
       <c r="U687">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V687">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W687">
-        <v>0.615</v>
+        <v>0.8</v>
       </c>
       <c r="X687">
         <v>-1</v>
@@ -61692,16 +61692,16 @@
         <v>-1</v>
       </c>
       <c r="Z687">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA687">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB687">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC687">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="688" spans="1:29">
@@ -61709,7 +61709,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>5173440</v>
+        <v>5173438</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61721,40 +61721,40 @@
         <v>44981.60416666666</v>
       </c>
       <c r="F688" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G688" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H688">
+        <v>3</v>
+      </c>
+      <c r="I688">
         <v>1</v>
-      </c>
-      <c r="I688">
-        <v>0</v>
       </c>
       <c r="J688" t="s">
         <v>59</v>
       </c>
       <c r="K688">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L688">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M688">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N688">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O688">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P688">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q688">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R688">
         <v>2</v>
@@ -61766,13 +61766,13 @@
         <v>2.75</v>
       </c>
       <c r="U688">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V688">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W688">
-        <v>0.8</v>
+        <v>0.615</v>
       </c>
       <c r="X688">
         <v>-1</v>
@@ -61781,16 +61781,16 @@
         <v>-1</v>
       </c>
       <c r="Z688">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA688">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB688">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC688">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="689" spans="1:29">
@@ -68295,7 +68295,7 @@
         <v>760</v>
       </c>
       <c r="B762">
-        <v>5315786</v>
+        <v>5318491</v>
       </c>
       <c r="C762" t="s">
         <v>28</v>
@@ -68307,76 +68307,76 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F762" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G762" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762">
         <v>1</v>
       </c>
       <c r="J762" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K762">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L762">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M762">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N762">
+        <v>2</v>
+      </c>
+      <c r="O762">
+        <v>3.6</v>
+      </c>
+      <c r="P762">
+        <v>3.75</v>
+      </c>
+      <c r="Q762">
+        <v>-0.5</v>
+      </c>
+      <c r="R762">
         <v>2.05</v>
       </c>
-      <c r="O762">
-        <v>3.3</v>
-      </c>
-      <c r="P762">
-        <v>3.5</v>
-      </c>
-      <c r="Q762">
-        <v>-0.25</v>
-      </c>
-      <c r="R762">
+      <c r="S762">
         <v>1.8</v>
       </c>
-      <c r="S762">
-        <v>2.05</v>
-      </c>
       <c r="T762">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U762">
+        <v>1.975</v>
+      </c>
+      <c r="V762">
         <v>1.875</v>
       </c>
-      <c r="V762">
-        <v>1.975</v>
-      </c>
       <c r="W762">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X762">
         <v>-1</v>
       </c>
       <c r="Y762">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z762">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA762">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB762">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC762">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="763" spans="1:29">
@@ -68384,7 +68384,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>5318491</v>
+        <v>5315786</v>
       </c>
       <c r="C763" t="s">
         <v>28</v>
@@ -68396,76 +68396,76 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F763" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G763" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763">
         <v>1</v>
       </c>
       <c r="J763" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K763">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L763">
+        <v>3.5</v>
+      </c>
+      <c r="M763">
         <v>3.8</v>
       </c>
-      <c r="M763">
-        <v>4.5</v>
-      </c>
       <c r="N763">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O763">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P763">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q763">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R763">
+        <v>1.8</v>
+      </c>
+      <c r="S763">
         <v>2.05</v>
       </c>
-      <c r="S763">
-        <v>1.8</v>
-      </c>
       <c r="T763">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U763">
+        <v>1.875</v>
+      </c>
+      <c r="V763">
         <v>1.975</v>
       </c>
-      <c r="V763">
-        <v>1.875</v>
-      </c>
       <c r="W763">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X763">
         <v>-1</v>
       </c>
       <c r="Y763">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z763">
+        <v>-1</v>
+      </c>
+      <c r="AA763">
         <v>1.05</v>
       </c>
-      <c r="AA763">
-        <v>-1</v>
-      </c>
       <c r="AB763">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC763">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="764" spans="1:29">
@@ -68562,7 +68562,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>5318493</v>
+        <v>5320584</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68574,58 +68574,58 @@
         <v>45046.35416666666</v>
       </c>
       <c r="F765" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G765" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I765">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J765" t="s">
         <v>59</v>
       </c>
       <c r="K765">
+        <v>1.95</v>
+      </c>
+      <c r="L765">
+        <v>3.75</v>
+      </c>
+      <c r="M765">
+        <v>3.3</v>
+      </c>
+      <c r="N765">
+        <v>2.2</v>
+      </c>
+      <c r="O765">
+        <v>3.75</v>
+      </c>
+      <c r="P765">
         <v>3</v>
       </c>
-      <c r="L765">
-        <v>3.4</v>
-      </c>
-      <c r="M765">
-        <v>2.3</v>
-      </c>
-      <c r="N765">
-        <v>2.8</v>
-      </c>
-      <c r="O765">
-        <v>3.25</v>
-      </c>
-      <c r="P765">
-        <v>2.55</v>
-      </c>
       <c r="Q765">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R765">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S765">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T765">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U765">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V765">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W765">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X765">
         <v>-1</v>
@@ -68634,13 +68634,13 @@
         <v>-1</v>
       </c>
       <c r="Z765">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA765">
         <v>-1</v>
       </c>
       <c r="AB765">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC765">
         <v>-1</v>
@@ -68651,7 +68651,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>5320584</v>
+        <v>5318492</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68663,76 +68663,76 @@
         <v>45046.35416666666</v>
       </c>
       <c r="F766" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G766" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H766">
+        <v>0</v>
+      </c>
+      <c r="I766">
         <v>3</v>
       </c>
-      <c r="I766">
-        <v>2</v>
-      </c>
       <c r="J766" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K766">
+        <v>3.1</v>
+      </c>
+      <c r="L766">
+        <v>3.6</v>
+      </c>
+      <c r="M766">
+        <v>2.1</v>
+      </c>
+      <c r="N766">
+        <v>3.5</v>
+      </c>
+      <c r="O766">
+        <v>4</v>
+      </c>
+      <c r="P766">
         <v>1.95</v>
       </c>
-      <c r="L766">
-        <v>3.75</v>
-      </c>
-      <c r="M766">
-        <v>3.3</v>
-      </c>
-      <c r="N766">
-        <v>2.2</v>
-      </c>
-      <c r="O766">
-        <v>3.75</v>
-      </c>
-      <c r="P766">
-        <v>3</v>
-      </c>
       <c r="Q766">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R766">
+        <v>1.9</v>
+      </c>
+      <c r="S766">
         <v>1.95</v>
       </c>
-      <c r="S766">
-        <v>1.9</v>
-      </c>
       <c r="T766">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U766">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V766">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W766">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X766">
         <v>-1</v>
       </c>
       <c r="Y766">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z766">
+        <v>-1</v>
+      </c>
+      <c r="AA766">
         <v>0.95</v>
       </c>
-      <c r="AA766">
-        <v>-1</v>
-      </c>
       <c r="AB766">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC766">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -68740,7 +68740,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>5318492</v>
+        <v>5318493</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68752,76 +68752,76 @@
         <v>45046.35416666666</v>
       </c>
       <c r="F767" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G767" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H767">
+        <v>2</v>
+      </c>
+      <c r="I767">
+        <v>1</v>
+      </c>
+      <c r="J767" t="s">
+        <v>59</v>
+      </c>
+      <c r="K767">
+        <v>3</v>
+      </c>
+      <c r="L767">
+        <v>3.4</v>
+      </c>
+      <c r="M767">
+        <v>2.3</v>
+      </c>
+      <c r="N767">
+        <v>2.8</v>
+      </c>
+      <c r="O767">
+        <v>3.25</v>
+      </c>
+      <c r="P767">
+        <v>2.55</v>
+      </c>
+      <c r="Q767">
         <v>0</v>
       </c>
-      <c r="I767">
-        <v>3</v>
-      </c>
-      <c r="J767" t="s">
-        <v>58</v>
-      </c>
-      <c r="K767">
-        <v>3.1</v>
-      </c>
-      <c r="L767">
-        <v>3.6</v>
-      </c>
-      <c r="M767">
-        <v>2.1</v>
-      </c>
-      <c r="N767">
-        <v>3.5</v>
-      </c>
-      <c r="O767">
-        <v>4</v>
-      </c>
-      <c r="P767">
-        <v>1.95</v>
-      </c>
-      <c r="Q767">
-        <v>0.5</v>
-      </c>
       <c r="R767">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S767">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T767">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U767">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V767">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W767">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X767">
         <v>-1</v>
       </c>
       <c r="Y767">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z767">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA767">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB767">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC767">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -77017,7 +77017,7 @@
         <v>858</v>
       </c>
       <c r="B860">
-        <v>6846772</v>
+        <v>6846180</v>
       </c>
       <c r="C860" t="s">
         <v>28</v>
@@ -77029,76 +77029,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F860" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G860" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H860">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I860">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J860" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K860">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L860">
         <v>3.6</v>
       </c>
       <c r="M860">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N860">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O860">
         <v>3.6</v>
       </c>
       <c r="P860">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q860">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R860">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S860">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T860">
         <v>3</v>
       </c>
       <c r="U860">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V860">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W860">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X860">
         <v>-1</v>
       </c>
       <c r="Y860">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z860">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA860">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB860">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC860">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="861" spans="1:29">
@@ -77106,7 +77106,7 @@
         <v>859</v>
       </c>
       <c r="B861">
-        <v>6846180</v>
+        <v>6846772</v>
       </c>
       <c r="C861" t="s">
         <v>28</v>
@@ -77118,76 +77118,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F861" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G861" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I861">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J861" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K861">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L861">
         <v>3.6</v>
       </c>
       <c r="M861">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N861">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O861">
         <v>3.6</v>
       </c>
       <c r="P861">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="Q861">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R861">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S861">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T861">
         <v>3</v>
       </c>
       <c r="U861">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V861">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W861">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X861">
         <v>-1</v>
       </c>
       <c r="Y861">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z861">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA861">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB861">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC861">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="862" spans="1:29">
@@ -77373,7 +77373,7 @@
         <v>862</v>
       </c>
       <c r="B864">
-        <v>6846770</v>
+        <v>6846769</v>
       </c>
       <c r="C864" t="s">
         <v>28</v>
@@ -77385,76 +77385,76 @@
         <v>45193.35416666666</v>
       </c>
       <c r="F864" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G864" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H864">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I864">
         <v>1</v>
       </c>
       <c r="J864" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K864">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L864">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M864">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N864">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O864">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P864">
         <v>3.6</v>
       </c>
       <c r="Q864">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R864">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S864">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T864">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U864">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V864">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W864">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X864">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y864">
         <v>-1</v>
       </c>
       <c r="Z864">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA864">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB864">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC864">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="865" spans="1:29">
@@ -77462,7 +77462,7 @@
         <v>863</v>
       </c>
       <c r="B865">
-        <v>6846769</v>
+        <v>6846770</v>
       </c>
       <c r="C865" t="s">
         <v>28</v>
@@ -77474,76 +77474,76 @@
         <v>45193.35416666666</v>
       </c>
       <c r="F865" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G865" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I865">
         <v>1</v>
       </c>
       <c r="J865" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K865">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L865">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M865">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N865">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O865">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P865">
         <v>3.6</v>
       </c>
       <c r="Q865">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R865">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S865">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T865">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U865">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V865">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W865">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X865">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y865">
         <v>-1</v>
       </c>
       <c r="Z865">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA865">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB865">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC865">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="866" spans="1:29">
@@ -79064,7 +79064,7 @@
         <v>881</v>
       </c>
       <c r="B883">
-        <v>6846182</v>
+        <v>6845852</v>
       </c>
       <c r="C883" t="s">
         <v>28</v>
@@ -79076,37 +79076,37 @@
         <v>45207.35416666666</v>
       </c>
       <c r="F883" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G883" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H883">
         <v>1</v>
       </c>
       <c r="I883">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J883" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K883">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L883">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M883">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N883">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O883">
         <v>3.8</v>
       </c>
       <c r="P883">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q883">
         <v>-0.25</v>
@@ -79121,31 +79121,31 @@
         <v>3.25</v>
       </c>
       <c r="U883">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V883">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W883">
         <v>-1</v>
       </c>
       <c r="X883">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y883">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z883">
+        <v>-1</v>
+      </c>
+      <c r="AA883">
+        <v>1.025</v>
+      </c>
+      <c r="AB883">
         <v>-0.5</v>
       </c>
-      <c r="AA883">
-        <v>0.5125</v>
-      </c>
-      <c r="AB883">
-        <v>-1</v>
-      </c>
       <c r="AC883">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="884" spans="1:29">
@@ -79153,7 +79153,7 @@
         <v>882</v>
       </c>
       <c r="B884">
-        <v>6845852</v>
+        <v>6846182</v>
       </c>
       <c r="C884" t="s">
         <v>28</v>
@@ -79165,37 +79165,37 @@
         <v>45207.35416666666</v>
       </c>
       <c r="F884" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G884" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H884">
         <v>1</v>
       </c>
       <c r="I884">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J884" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K884">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L884">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M884">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N884">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O884">
         <v>3.8</v>
       </c>
       <c r="P884">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q884">
         <v>-0.25</v>
@@ -79210,31 +79210,31 @@
         <v>3.25</v>
       </c>
       <c r="U884">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V884">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W884">
         <v>-1</v>
       </c>
       <c r="X884">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y884">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z884">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA884">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AB884">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC884">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="885" spans="1:29">
@@ -80577,7 +80577,7 @@
         <v>898</v>
       </c>
       <c r="B900">
-        <v>6846795</v>
+        <v>6846184</v>
       </c>
       <c r="C900" t="s">
         <v>28</v>
@@ -80589,13 +80589,13 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F900" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G900" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I900">
         <v>2</v>
@@ -80604,40 +80604,40 @@
         <v>58</v>
       </c>
       <c r="K900">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L900">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M900">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N900">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O900">
         <v>3.8</v>
       </c>
       <c r="P900">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q900">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R900">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S900">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T900">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U900">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V900">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W900">
         <v>-1</v>
@@ -80646,19 +80646,19 @@
         <v>-1</v>
       </c>
       <c r="Y900">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Z900">
         <v>-1</v>
       </c>
       <c r="AA900">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB900">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC900">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="901" spans="1:29">
@@ -80666,7 +80666,7 @@
         <v>899</v>
       </c>
       <c r="B901">
-        <v>6846184</v>
+        <v>6846795</v>
       </c>
       <c r="C901" t="s">
         <v>28</v>
@@ -80678,13 +80678,13 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F901" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G901" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I901">
         <v>2</v>
@@ -80693,40 +80693,40 @@
         <v>58</v>
       </c>
       <c r="K901">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L901">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M901">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N901">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O901">
         <v>3.8</v>
       </c>
       <c r="P901">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q901">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R901">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S901">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T901">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U901">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V901">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W901">
         <v>-1</v>
@@ -80735,19 +80735,19 @@
         <v>-1</v>
       </c>
       <c r="Y901">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Z901">
         <v>-1</v>
       </c>
       <c r="AA901">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB901">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC901">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="902" spans="1:29">
@@ -81111,7 +81111,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>6846805</v>
+        <v>6846803</v>
       </c>
       <c r="C906" t="s">
         <v>28</v>
@@ -81123,13 +81123,13 @@
         <v>45234.375</v>
       </c>
       <c r="F906" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G906" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I906">
         <v>2</v>
@@ -81141,37 +81141,37 @@
         <v>2.2</v>
       </c>
       <c r="L906">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M906">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N906">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O906">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P906">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q906">
         <v>-0.25</v>
       </c>
       <c r="R906">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S906">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T906">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U906">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V906">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W906">
         <v>-1</v>
@@ -81180,19 +81180,19 @@
         <v>-1</v>
       </c>
       <c r="Y906">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Z906">
         <v>-1</v>
       </c>
       <c r="AA906">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB906">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC906">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="907" spans="1:29">
@@ -81200,7 +81200,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>6846803</v>
+        <v>6846805</v>
       </c>
       <c r="C907" t="s">
         <v>28</v>
@@ -81212,13 +81212,13 @@
         <v>45234.375</v>
       </c>
       <c r="F907" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G907" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I907">
         <v>2</v>
@@ -81230,37 +81230,37 @@
         <v>2.2</v>
       </c>
       <c r="L907">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M907">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N907">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O907">
+        <v>3.6</v>
+      </c>
+      <c r="P907">
         <v>3.4</v>
-      </c>
-      <c r="P907">
-        <v>3.25</v>
       </c>
       <c r="Q907">
         <v>-0.25</v>
       </c>
       <c r="R907">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S907">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T907">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U907">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V907">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W907">
         <v>-1</v>
@@ -81269,19 +81269,19 @@
         <v>-1</v>
       </c>
       <c r="Y907">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Z907">
         <v>-1</v>
       </c>
       <c r="AA907">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB907">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC907">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="908" spans="1:29">
@@ -81378,7 +81378,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>6845849</v>
+        <v>6846802</v>
       </c>
       <c r="C909" t="s">
         <v>28</v>
@@ -81390,76 +81390,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F909" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G909" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H909">
         <v>0</v>
       </c>
       <c r="I909">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J909" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K909">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L909">
         <v>3.6</v>
       </c>
       <c r="M909">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N909">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O909">
         <v>3.6</v>
       </c>
       <c r="P909">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q909">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R909">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S909">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T909">
         <v>3</v>
       </c>
       <c r="U909">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V909">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W909">
         <v>-1</v>
       </c>
       <c r="X909">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y909">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z909">
+        <v>-1</v>
+      </c>
+      <c r="AA909">
+        <v>0.925</v>
+      </c>
+      <c r="AB909">
         <v>0</v>
       </c>
-      <c r="AA909">
+      <c r="AC909">
         <v>-0</v>
-      </c>
-      <c r="AB909">
-        <v>-1</v>
-      </c>
-      <c r="AC909">
-        <v>0.825</v>
       </c>
     </row>
     <row r="910" spans="1:29">
@@ -81467,7 +81467,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>6846804</v>
+        <v>6845849</v>
       </c>
       <c r="C910" t="s">
         <v>28</v>
@@ -81479,76 +81479,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F910" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G910" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910">
         <v>0</v>
       </c>
       <c r="J910" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K910">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="L910">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M910">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N910">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="O910">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P910">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q910">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R910">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S910">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T910">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U910">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V910">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W910">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X910">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y910">
         <v>-1</v>
       </c>
       <c r="Z910">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA910">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB910">
         <v>-1</v>
       </c>
       <c r="AC910">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="911" spans="1:29">
@@ -81556,7 +81556,7 @@
         <v>909</v>
       </c>
       <c r="B911">
-        <v>6846802</v>
+        <v>6846804</v>
       </c>
       <c r="C911" t="s">
         <v>28</v>
@@ -81568,76 +81568,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F911" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G911" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H911">
+        <v>2</v>
+      </c>
+      <c r="I911">
         <v>0</v>
       </c>
-      <c r="I911">
-        <v>3</v>
-      </c>
       <c r="J911" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K911">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L911">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M911">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N911">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O911">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P911">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q911">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R911">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S911">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T911">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U911">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V911">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W911">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X911">
         <v>-1</v>
       </c>
       <c r="Y911">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z911">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA911">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB911">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC911">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="912" spans="1:29">
@@ -81645,7 +81645,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>6846185</v>
+        <v>6846153</v>
       </c>
       <c r="C912" t="s">
         <v>28</v>
@@ -81657,76 +81657,76 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F912" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G912" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I912">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J912" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K912">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L912">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M912">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N912">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="O912">
         <v>4</v>
       </c>
       <c r="P912">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q912">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R912">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S912">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T912">
+        <v>2.75</v>
+      </c>
+      <c r="U912">
+        <v>1.975</v>
+      </c>
+      <c r="V912">
+        <v>1.875</v>
+      </c>
+      <c r="W912">
+        <v>-1</v>
+      </c>
+      <c r="X912">
         <v>3</v>
       </c>
-      <c r="U912">
-        <v>2.025</v>
-      </c>
-      <c r="V912">
-        <v>1.825</v>
-      </c>
-      <c r="W912">
-        <v>-1</v>
-      </c>
-      <c r="X912">
-        <v>-1</v>
-      </c>
       <c r="Y912">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z912">
         <v>-1</v>
       </c>
       <c r="AA912">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB912">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC912">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="913" spans="1:29">
@@ -81734,7 +81734,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>6846153</v>
+        <v>6846185</v>
       </c>
       <c r="C913" t="s">
         <v>28</v>
@@ -81746,76 +81746,76 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F913" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G913" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I913">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J913" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K913">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L913">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M913">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N913">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="O913">
         <v>4</v>
       </c>
       <c r="P913">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q913">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R913">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S913">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T913">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U913">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V913">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W913">
         <v>-1</v>
       </c>
       <c r="X913">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y913">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z913">
         <v>-1</v>
       </c>
       <c r="AA913">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB913">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC913">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="914" spans="1:29">
@@ -83247,7 +83247,7 @@
         <v>928</v>
       </c>
       <c r="B930">
-        <v>6846155</v>
+        <v>6846819</v>
       </c>
       <c r="C930" t="s">
         <v>28</v>
@@ -83259,40 +83259,40 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F930" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G930" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I930">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J930" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K930">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L930">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M930">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="N930">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O930">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P930">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q930">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R930">
         <v>1.825</v>
@@ -83301,31 +83301,31 @@
         <v>2.025</v>
       </c>
       <c r="T930">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U930">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V930">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W930">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X930">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y930">
         <v>-1</v>
       </c>
       <c r="Z930">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA930">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB930">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC930">
         <v>-1</v>
@@ -83336,7 +83336,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>6846819</v>
+        <v>6846155</v>
       </c>
       <c r="C931" t="s">
         <v>28</v>
@@ -83348,40 +83348,40 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F931" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G931" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H931">
+        <v>2</v>
+      </c>
+      <c r="I931">
+        <v>2</v>
+      </c>
+      <c r="J931" t="s">
+        <v>60</v>
+      </c>
+      <c r="K931">
+        <v>2.3</v>
+      </c>
+      <c r="L931">
+        <v>3.6</v>
+      </c>
+      <c r="M931">
+        <v>2.8</v>
+      </c>
+      <c r="N931">
+        <v>1.833</v>
+      </c>
+      <c r="O931">
         <v>4</v>
       </c>
-      <c r="I931">
-        <v>0</v>
-      </c>
-      <c r="J931" t="s">
-        <v>59</v>
-      </c>
-      <c r="K931">
-        <v>1.85</v>
-      </c>
-      <c r="L931">
-        <v>3.75</v>
-      </c>
-      <c r="M931">
-        <v>3.9</v>
-      </c>
-      <c r="N931">
-        <v>1.533</v>
-      </c>
-      <c r="O931">
-        <v>4.5</v>
-      </c>
       <c r="P931">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q931">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R931">
         <v>1.825</v>
@@ -83390,31 +83390,31 @@
         <v>2.025</v>
       </c>
       <c r="T931">
+        <v>2.75</v>
+      </c>
+      <c r="U931">
+        <v>1.85</v>
+      </c>
+      <c r="V931">
+        <v>2</v>
+      </c>
+      <c r="W931">
+        <v>-1</v>
+      </c>
+      <c r="X931">
         <v>3</v>
       </c>
-      <c r="U931">
-        <v>1.9</v>
-      </c>
-      <c r="V931">
-        <v>1.95</v>
-      </c>
-      <c r="W931">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X931">
-        <v>-1</v>
-      </c>
       <c r="Y931">
         <v>-1</v>
       </c>
       <c r="Z931">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA931">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB931">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC931">
         <v>-1</v>
@@ -84048,7 +84048,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>6846828</v>
+        <v>6846831</v>
       </c>
       <c r="C939" t="s">
         <v>28</v>
@@ -84060,73 +84060,73 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F939" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G939" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I939">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J939" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K939">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L939">
         <v>3.5</v>
       </c>
       <c r="M939">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N939">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O939">
         <v>3.5</v>
       </c>
       <c r="P939">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q939">
         <v>-0.25</v>
       </c>
       <c r="R939">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S939">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T939">
         <v>2.5</v>
       </c>
       <c r="U939">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V939">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W939">
         <v>-1</v>
       </c>
       <c r="X939">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y939">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z939">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA939">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB939">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC939">
         <v>-1</v>
@@ -84137,7 +84137,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>6846831</v>
+        <v>6846828</v>
       </c>
       <c r="C940" t="s">
         <v>28</v>
@@ -84149,73 +84149,73 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F940" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G940" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I940">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J940" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K940">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L940">
         <v>3.5</v>
       </c>
       <c r="M940">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N940">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O940">
         <v>3.5</v>
       </c>
       <c r="P940">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q940">
         <v>-0.25</v>
       </c>
       <c r="R940">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S940">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T940">
         <v>2.5</v>
       </c>
       <c r="U940">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V940">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W940">
         <v>-1</v>
       </c>
       <c r="X940">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y940">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z940">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA940">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB940">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC940">
         <v>-1</v>
@@ -85828,7 +85828,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>7625887</v>
+        <v>7625866</v>
       </c>
       <c r="C959" t="s">
         <v>28</v>
@@ -85840,13 +85840,13 @@
         <v>45311.375</v>
       </c>
       <c r="F959" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G959" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I959">
         <v>0</v>
@@ -85855,61 +85855,61 @@
         <v>59</v>
       </c>
       <c r="K959">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L959">
+        <v>3.75</v>
+      </c>
+      <c r="M959">
         <v>4.333</v>
       </c>
-      <c r="M959">
-        <v>6.5</v>
-      </c>
       <c r="N959">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O959">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P959">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q959">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R959">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S959">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T959">
         <v>2.75</v>
       </c>
       <c r="U959">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V959">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W959">
+        <v>0.95</v>
+      </c>
+      <c r="X959">
+        <v>-1</v>
+      </c>
+      <c r="Y959">
+        <v>-1</v>
+      </c>
+      <c r="Z959">
+        <v>0.925</v>
+      </c>
+      <c r="AA959">
+        <v>-1</v>
+      </c>
+      <c r="AB959">
         <v>0.45</v>
       </c>
-      <c r="X959">
-        <v>-1</v>
-      </c>
-      <c r="Y959">
-        <v>-1</v>
-      </c>
-      <c r="Z959">
-        <v>1.05</v>
-      </c>
-      <c r="AA959">
-        <v>-1</v>
-      </c>
-      <c r="AB959">
-        <v>-1</v>
-      </c>
       <c r="AC959">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="960" spans="1:29">
@@ -85917,7 +85917,7 @@
         <v>958</v>
       </c>
       <c r="B960">
-        <v>7625866</v>
+        <v>6846189</v>
       </c>
       <c r="C960" t="s">
         <v>28</v>
@@ -85929,76 +85929,76 @@
         <v>45311.375</v>
       </c>
       <c r="F960" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G960" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H960">
+        <v>2</v>
+      </c>
+      <c r="I960">
+        <v>2</v>
+      </c>
+      <c r="J960" t="s">
+        <v>60</v>
+      </c>
+      <c r="K960">
+        <v>2.25</v>
+      </c>
+      <c r="L960">
+        <v>3.6</v>
+      </c>
+      <c r="M960">
         <v>3</v>
       </c>
-      <c r="I960">
-        <v>0</v>
-      </c>
-      <c r="J960" t="s">
-        <v>59</v>
-      </c>
-      <c r="K960">
-        <v>1.8</v>
-      </c>
-      <c r="L960">
-        <v>3.75</v>
-      </c>
-      <c r="M960">
-        <v>4.333</v>
-      </c>
       <c r="N960">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O960">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P960">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q960">
         <v>-0.5</v>
       </c>
       <c r="R960">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S960">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T960">
         <v>2.75</v>
       </c>
       <c r="U960">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V960">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W960">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X960">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y960">
         <v>-1</v>
       </c>
       <c r="Z960">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA960">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB960">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC960">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="961" spans="1:29">
@@ -86006,7 +86006,7 @@
         <v>959</v>
       </c>
       <c r="B961">
-        <v>6846189</v>
+        <v>7625887</v>
       </c>
       <c r="C961" t="s">
         <v>28</v>
@@ -86018,76 +86018,76 @@
         <v>45311.375</v>
       </c>
       <c r="F961" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G961" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H961">
         <v>2</v>
       </c>
       <c r="I961">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J961" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K961">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L961">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M961">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N961">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O961">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P961">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q961">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R961">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S961">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T961">
         <v>2.75</v>
       </c>
       <c r="U961">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V961">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W961">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X961">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y961">
         <v>-1</v>
       </c>
       <c r="Z961">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA961">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB961">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC961">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="962" spans="1:29">
@@ -86184,7 +86184,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>6845838</v>
+        <v>6846839</v>
       </c>
       <c r="C963" t="s">
         <v>28</v>
@@ -86196,40 +86196,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F963" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G963" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J963" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K963">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L963">
         <v>3.6</v>
       </c>
       <c r="M963">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N963">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O963">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P963">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q963">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R963">
         <v>2.05</v>
@@ -86241,31 +86241,31 @@
         <v>3</v>
       </c>
       <c r="U963">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V963">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W963">
         <v>-1</v>
       </c>
       <c r="X963">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y963">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z963">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA963">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB963">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC963">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="964" spans="1:29">
@@ -86273,7 +86273,7 @@
         <v>962</v>
       </c>
       <c r="B964">
-        <v>6846839</v>
+        <v>6845838</v>
       </c>
       <c r="C964" t="s">
         <v>28</v>
@@ -86285,40 +86285,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F964" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G964" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J964" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K964">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L964">
         <v>3.6</v>
       </c>
       <c r="M964">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N964">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O964">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P964">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q964">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R964">
         <v>2.05</v>
@@ -86330,31 +86330,31 @@
         <v>3</v>
       </c>
       <c r="U964">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V964">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W964">
         <v>-1</v>
       </c>
       <c r="X964">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y964">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z964">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA964">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB964">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC964">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="965" spans="1:29">
@@ -86985,7 +86985,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>6846848</v>
+        <v>6846844</v>
       </c>
       <c r="C972" t="s">
         <v>28</v>
@@ -86997,76 +86997,76 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F972" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G972" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H972">
+        <v>3</v>
+      </c>
+      <c r="I972">
+        <v>4</v>
+      </c>
+      <c r="J972" t="s">
+        <v>58</v>
+      </c>
+      <c r="K972">
+        <v>1.6</v>
+      </c>
+      <c r="L972">
+        <v>4.2</v>
+      </c>
+      <c r="M972">
+        <v>4.75</v>
+      </c>
+      <c r="N972">
+        <v>1.533</v>
+      </c>
+      <c r="O972">
+        <v>4.5</v>
+      </c>
+      <c r="P972">
+        <v>5.75</v>
+      </c>
+      <c r="Q972">
+        <v>-1</v>
+      </c>
+      <c r="R972">
+        <v>1.85</v>
+      </c>
+      <c r="S972">
+        <v>2</v>
+      </c>
+      <c r="T972">
+        <v>3.5</v>
+      </c>
+      <c r="U972">
+        <v>1.95</v>
+      </c>
+      <c r="V972">
+        <v>1.9</v>
+      </c>
+      <c r="W972">
+        <v>-1</v>
+      </c>
+      <c r="X972">
+        <v>-1</v>
+      </c>
+      <c r="Y972">
+        <v>4.75</v>
+      </c>
+      <c r="Z972">
+        <v>-1</v>
+      </c>
+      <c r="AA972">
         <v>1</v>
       </c>
-      <c r="I972">
-        <v>0</v>
-      </c>
-      <c r="J972" t="s">
-        <v>59</v>
-      </c>
-      <c r="K972">
-        <v>2.75</v>
-      </c>
-      <c r="L972">
-        <v>3.7</v>
-      </c>
-      <c r="M972">
-        <v>2.3</v>
-      </c>
-      <c r="N972">
-        <v>2.3</v>
-      </c>
-      <c r="O972">
-        <v>3.6</v>
-      </c>
-      <c r="P972">
-        <v>2.875</v>
-      </c>
-      <c r="Q972">
-        <v>0</v>
-      </c>
-      <c r="R972">
-        <v>1.75</v>
-      </c>
-      <c r="S972">
-        <v>2.05</v>
-      </c>
-      <c r="T972">
-        <v>2.75</v>
-      </c>
-      <c r="U972">
-        <v>1.925</v>
-      </c>
-      <c r="V972">
-        <v>1.925</v>
-      </c>
-      <c r="W972">
-        <v>1.3</v>
-      </c>
-      <c r="X972">
-        <v>-1</v>
-      </c>
-      <c r="Y972">
-        <v>-1</v>
-      </c>
-      <c r="Z972">
-        <v>0.75</v>
-      </c>
-      <c r="AA972">
-        <v>-1</v>
-      </c>
       <c r="AB972">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC972">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="973" spans="1:29">
@@ -87074,7 +87074,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>6846844</v>
+        <v>6846848</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87086,76 +87086,76 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F973" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G973" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H973">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I973">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J973" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K973">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="L973">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M973">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N973">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O973">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P973">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q973">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R973">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S973">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T973">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U973">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V973">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W973">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X973">
         <v>-1</v>
       </c>
       <c r="Y973">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z973">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA973">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB973">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC973">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="974" spans="1:29">
@@ -87291,10 +87291,10 @@
         <v>-0.75</v>
       </c>
       <c r="R975">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S975">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T975">
         <v>3</v>
@@ -87365,10 +87365,10 @@
         <v>-0.25</v>
       </c>
       <c r="R976">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S976">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T976">
         <v>3</v>
@@ -87439,10 +87439,10 @@
         <v>-0.75</v>
       </c>
       <c r="R977">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S977">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T977">
         <v>2.75</v>
@@ -87587,10 +87587,10 @@
         <v>-0.5</v>
       </c>
       <c r="R979">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S979">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T979">
         <v>2.75</v>
@@ -87735,19 +87735,19 @@
         <v>-1</v>
       </c>
       <c r="R981">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S981">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T981">
         <v>2.75</v>
       </c>
       <c r="U981">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V981">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W981">
         <v>0</v>
@@ -87883,10 +87883,10 @@
         <v>-0.25</v>
       </c>
       <c r="R983">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S983">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T983">
         <v>3</v>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -151,10 +151,10 @@
     <t>Magdeburg</t>
   </si>
   <si>
-    <t>St Pauli</t>
+    <t>Hansa Rostock</t>
   </si>
   <si>
-    <t>Hansa Rostock</t>
+    <t>St Pauli</t>
   </si>
   <si>
     <t>VfL Osnabruck</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC352"/>
+  <dimension ref="A1:AC349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -919,7 +919,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5173407</v>
+        <v>5173409</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2076,73 +2076,73 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
         <v>3.6</v>
       </c>
       <c r="M18">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N18">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="O18">
         <v>3.6</v>
       </c>
       <c r="P18">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.975</v>
+      </c>
+      <c r="S18">
+        <v>1.875</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.9</v>
+      </c>
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="S18">
-        <v>1.9</v>
-      </c>
-      <c r="T18">
-        <v>2.5</v>
-      </c>
-      <c r="U18">
-        <v>1.875</v>
-      </c>
-      <c r="V18">
-        <v>1.975</v>
-      </c>
       <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>0.909</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>0.875</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.95</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>0.95</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
-      <c r="AC18">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2150,7 +2150,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5173409</v>
+        <v>5173407</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2165,73 +2165,73 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
         <v>3.6</v>
       </c>
       <c r="M19">
+        <v>3.75</v>
+      </c>
+      <c r="N19">
         <v>1.95</v>
-      </c>
-      <c r="N19">
-        <v>4</v>
       </c>
       <c r="O19">
         <v>3.6</v>
       </c>
       <c r="P19">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
+        <v>1.9</v>
+      </c>
+      <c r="T19">
+        <v>2.5</v>
+      </c>
+      <c r="U19">
+        <v>1.875</v>
+      </c>
+      <c r="V19">
         <v>1.975</v>
       </c>
-      <c r="S19">
-        <v>1.875</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
-      <c r="U19">
-        <v>1.9</v>
-      </c>
-      <c r="V19">
-        <v>1.95</v>
-      </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2343,7 +2343,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>44969.39583333334</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
         <v>41</v>
@@ -3322,7 +3322,7 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3497,7 +3497,7 @@
         <v>44975.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -3841,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5173438</v>
+        <v>5173440</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3853,40 +3853,40 @@
         <v>44981.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>53</v>
       </c>
       <c r="K38">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L38">
+        <v>3.6</v>
+      </c>
+      <c r="M38">
+        <v>4.2</v>
+      </c>
+      <c r="N38">
+        <v>1.8</v>
+      </c>
+      <c r="O38">
         <v>3.75</v>
       </c>
-      <c r="M38">
-        <v>4.75</v>
-      </c>
-      <c r="N38">
-        <v>1.615</v>
-      </c>
-      <c r="O38">
-        <v>4</v>
-      </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
         <v>2</v>
@@ -3898,13 +3898,13 @@
         <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W38">
-        <v>0.615</v>
+        <v>0.8</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3913,16 +3913,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5173440</v>
+        <v>5173438</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,40 +3942,40 @@
         <v>44981.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
         <v>1</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>53</v>
       </c>
       <c r="K39">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L39">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N39">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R39">
         <v>2</v>
@@ -3987,13 +3987,13 @@
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>0.8</v>
+        <v>0.615</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4002,16 +4002,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4565,10 +4565,10 @@
         <v>44983.39583333334</v>
       </c>
       <c r="F46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" t="s">
         <v>45</v>
-      </c>
-      <c r="G46" t="s">
-        <v>46</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -5277,7 +5277,7 @@
         <v>44990.39583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -5443,7 +5443,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5173453</v>
+        <v>5173459</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5455,76 +5455,76 @@
         <v>44995.60416666666</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N56">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P56">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC56">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5173459</v>
+        <v>5173453</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,76 +5544,76 @@
         <v>44995.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K57">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O57">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P57">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X57">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5722,7 +5722,7 @@
         <v>44996.375</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G59" t="s">
         <v>43</v>
@@ -5992,7 +5992,7 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5173460</v>
+        <v>5173464</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,73 +6256,73 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K65">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L65">
+        <v>3.4</v>
+      </c>
+      <c r="M65">
         <v>3.2</v>
       </c>
-      <c r="M65">
-        <v>3.3</v>
-      </c>
       <c r="N65">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O65">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q65">
         <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S65">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X65">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA65">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5173464</v>
+        <v>5173460</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,73 +6345,73 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K66">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N66">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P66">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q66">
         <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB66">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6778,7 +6778,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5173466</v>
+        <v>5173465</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6790,13 +6790,13 @@
         <v>45004.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>5</v>
@@ -6805,40 +6805,40 @@
         <v>52</v>
       </c>
       <c r="K71">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="L71">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M71">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N71">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O71">
         <v>3.5</v>
       </c>
       <c r="P71">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q71">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6847,16 +6847,16 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.909</v>
+        <v>1.15</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB71">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6867,7 +6867,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5173465</v>
+        <v>5173466</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6879,13 +6879,13 @@
         <v>45004.39583333334</v>
       </c>
       <c r="F72" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" t="s">
         <v>46</v>
       </c>
-      <c r="G72" t="s">
-        <v>30</v>
-      </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>5</v>
@@ -6894,40 +6894,40 @@
         <v>52</v>
       </c>
       <c r="K72">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="L72">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="N72">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O72">
         <v>3.5</v>
       </c>
       <c r="P72">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6936,16 +6936,16 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.15</v>
+        <v>0.909</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7045,7 +7045,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5173473</v>
+        <v>5173471</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7057,76 +7057,76 @@
         <v>45016.5625</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K74">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N74">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P74">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7134,7 +7134,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5173471</v>
+        <v>5173473</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7146,76 +7146,76 @@
         <v>45016.5625</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K75">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N75">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O75">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7235,7 +7235,7 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
         <v>42</v>
@@ -7683,7 +7683,7 @@
         <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -8128,7 +8128,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5173478</v>
+        <v>5173483</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8214,73 +8214,73 @@
         <v>45025.35416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M87">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N87">
+        <v>2.7</v>
+      </c>
+      <c r="O87">
+        <v>3.25</v>
+      </c>
+      <c r="P87">
         <v>2.6</v>
-      </c>
-      <c r="O87">
-        <v>3.4</v>
-      </c>
-      <c r="P87">
-        <v>2.625</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8291,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5173485</v>
+        <v>5173480</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8303,76 +8303,76 @@
         <v>45025.35416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K88">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N88">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X88">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
+        <v>0.825</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
+        <v>0.4625</v>
+      </c>
+      <c r="AC88">
         <v>-0.5</v>
-      </c>
-      <c r="AA88">
-        <v>0.45</v>
-      </c>
-      <c r="AB88">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8469,7 +8469,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5173480</v>
+        <v>5173478</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8481,76 +8481,76 @@
         <v>45025.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>2</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K90">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N90">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8558,7 +8558,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5173483</v>
+        <v>5173485</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8570,40 +8570,40 @@
         <v>45025.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91" t="s">
+        <v>54</v>
+      </c>
+      <c r="K91">
+        <v>2.3</v>
+      </c>
+      <c r="L91">
+        <v>3.4</v>
+      </c>
+      <c r="M91">
         <v>3</v>
       </c>
-      <c r="J91" t="s">
-        <v>52</v>
-      </c>
-      <c r="K91">
-        <v>2.7</v>
-      </c>
-      <c r="L91">
-        <v>3.3</v>
-      </c>
-      <c r="M91">
-        <v>2.6</v>
-      </c>
       <c r="N91">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O91">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
         <v>1.95</v>
@@ -8615,28 +8615,28 @@
         <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y91">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8840,7 +8840,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -9181,7 +9181,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5173488</v>
+        <v>5173493</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9193,76 +9193,76 @@
         <v>45032.35416666666</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>53</v>
+      </c>
+      <c r="K98">
+        <v>1.909</v>
+      </c>
+      <c r="L98">
+        <v>3.6</v>
+      </c>
+      <c r="M98">
+        <v>3.5</v>
+      </c>
+      <c r="N98">
+        <v>2.1</v>
+      </c>
+      <c r="O98">
+        <v>3.75</v>
+      </c>
+      <c r="P98">
+        <v>3.2</v>
+      </c>
+      <c r="Q98">
+        <v>-0.25</v>
+      </c>
+      <c r="R98">
+        <v>1.875</v>
+      </c>
+      <c r="S98">
+        <v>1.975</v>
+      </c>
+      <c r="T98">
+        <v>3</v>
+      </c>
+      <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
+        <v>1.85</v>
+      </c>
+      <c r="W98">
+        <v>1.1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
+        <v>0.875</v>
+      </c>
+      <c r="AA98">
+        <v>-1</v>
+      </c>
+      <c r="AB98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>2</v>
-      </c>
-      <c r="J98" t="s">
-        <v>52</v>
-      </c>
-      <c r="K98">
-        <v>1.533</v>
-      </c>
-      <c r="L98">
-        <v>4</v>
-      </c>
-      <c r="M98">
-        <v>5.75</v>
-      </c>
-      <c r="N98">
-        <v>1.615</v>
-      </c>
-      <c r="O98">
-        <v>4</v>
-      </c>
-      <c r="P98">
-        <v>5</v>
-      </c>
-      <c r="Q98">
-        <v>-0.75</v>
-      </c>
-      <c r="R98">
-        <v>1.8</v>
-      </c>
-      <c r="S98">
-        <v>2.05</v>
-      </c>
-      <c r="T98">
-        <v>2.75</v>
-      </c>
-      <c r="U98">
-        <v>1.975</v>
-      </c>
-      <c r="V98">
-        <v>1.875</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>4</v>
-      </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
-      <c r="AA98">
-        <v>1.05</v>
-      </c>
-      <c r="AB98">
-        <v>0.4875</v>
-      </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5173493</v>
+        <v>5173488</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9282,76 +9282,76 @@
         <v>45032.35416666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99" t="s">
+        <v>52</v>
+      </c>
+      <c r="K99">
+        <v>1.533</v>
+      </c>
+      <c r="L99">
         <v>4</v>
       </c>
-      <c r="I99">
-        <v>2</v>
-      </c>
-      <c r="J99" t="s">
-        <v>53</v>
-      </c>
-      <c r="K99">
-        <v>1.909</v>
-      </c>
-      <c r="L99">
-        <v>3.6</v>
-      </c>
       <c r="M99">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="N99">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="O99">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
+        <v>2.05</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>1.975</v>
+      </c>
+      <c r="V99">
         <v>1.875</v>
       </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>2</v>
-      </c>
-      <c r="V99">
-        <v>1.85</v>
-      </c>
       <c r="W99">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9552,7 +9552,7 @@
         <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102">
         <v>4</v>
@@ -9816,7 +9816,7 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G105" t="s">
         <v>43</v>
@@ -9982,7 +9982,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5173497</v>
+        <v>5173500</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9994,76 +9994,76 @@
         <v>45039.35416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K107">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="L107">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N107">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P107">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10160,7 +10160,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5173500</v>
+        <v>5173497</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10172,76 +10172,76 @@
         <v>45039.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K109">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="L109">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M109">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N109">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R109">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X109">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA109">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC109">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10439,7 +10439,7 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G112" t="s">
         <v>36</v>
@@ -10531,7 +10531,7 @@
         <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -11418,7 +11418,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G123" t="s">
         <v>42</v>
@@ -11510,7 +11510,7 @@
         <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11866,7 +11866,7 @@
         <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12308,7 +12308,7 @@
         <v>45059.64583333334</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
@@ -12667,7 +12667,7 @@
         <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -13290,7 +13290,7 @@
         <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13554,7 +13554,7 @@
         <v>45074.4375</v>
       </c>
       <c r="F147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -14177,7 +14177,7 @@
         <v>45074.4375</v>
       </c>
       <c r="F154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G154" t="s">
         <v>40</v>
@@ -14358,7 +14358,7 @@
         <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14800,7 +14800,7 @@
         <v>45137.35416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G161" t="s">
         <v>35</v>
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6846740</v>
+        <v>6845859</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45142.5625</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K164">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="L164">
         <v>4</v>
       </c>
       <c r="M164">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="N164">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O164">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P164">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q164">
         <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T164">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15144,7 +15144,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6845859</v>
+        <v>6846740</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15156,76 +15156,76 @@
         <v>45142.5625</v>
       </c>
       <c r="F165" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K165">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="L165">
         <v>4</v>
       </c>
       <c r="M165">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N165">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O165">
+        <v>4.2</v>
+      </c>
+      <c r="P165">
         <v>4.333</v>
-      </c>
-      <c r="P165">
-        <v>4.75</v>
       </c>
       <c r="Q165">
         <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S165">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y165">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15245,7 +15245,7 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G166" t="s">
         <v>30</v>
@@ -15426,7 +15426,7 @@
         <v>50</v>
       </c>
       <c r="G168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6846750</v>
+        <v>6846176</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,58 +15868,58 @@
         <v>45156.5625</v>
       </c>
       <c r="F173" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
+        <v>2.1</v>
+      </c>
+      <c r="L173">
         <v>3.5</v>
       </c>
-      <c r="L173">
-        <v>3.4</v>
-      </c>
       <c r="M173">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N173">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O173">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P173">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S173">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V173">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W173">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15928,16 +15928,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6846176</v>
+        <v>6846750</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15957,58 +15957,58 @@
         <v>45156.5625</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G174" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>53</v>
       </c>
       <c r="K174">
+        <v>3.5</v>
+      </c>
+      <c r="L174">
+        <v>3.4</v>
+      </c>
+      <c r="M174">
+        <v>1.95</v>
+      </c>
+      <c r="N174">
+        <v>2.8</v>
+      </c>
+      <c r="O174">
+        <v>3.4</v>
+      </c>
+      <c r="P174">
+        <v>2.4</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
         <v>2.1</v>
       </c>
-      <c r="L174">
-        <v>3.5</v>
-      </c>
-      <c r="M174">
-        <v>3.1</v>
-      </c>
-      <c r="N174">
-        <v>2.2</v>
-      </c>
-      <c r="O174">
-        <v>3.6</v>
-      </c>
-      <c r="P174">
-        <v>3.2</v>
-      </c>
-      <c r="Q174">
-        <v>-0.25</v>
-      </c>
-      <c r="R174">
-        <v>1.925</v>
-      </c>
       <c r="S174">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U174">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V174">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W174">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16017,16 +16017,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16138,7 +16138,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G177" t="s">
         <v>34</v>
@@ -17025,7 +17025,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G186" t="s">
         <v>47</v>
@@ -17203,7 +17203,7 @@
         <v>45165.35416666666</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G188" t="s">
         <v>44</v>
@@ -17562,7 +17562,7 @@
         <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -18096,7 +18096,7 @@
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18449,7 +18449,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G202" t="s">
         <v>30</v>
@@ -18805,7 +18805,7 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G206" t="s">
         <v>31</v>
@@ -19517,7 +19517,7 @@
         <v>45192.64583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
         <v>51</v>
@@ -19698,7 +19698,7 @@
         <v>41</v>
       </c>
       <c r="G216" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H216">
         <v>3</v>
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6846775</v>
+        <v>6846776</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,58 +19873,58 @@
         <v>45198.5625</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G218" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H218">
+        <v>3</v>
+      </c>
+      <c r="I218">
         <v>1</v>
-      </c>
-      <c r="I218">
-        <v>0</v>
       </c>
       <c r="J218" t="s">
         <v>53</v>
       </c>
       <c r="K218">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L218">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M218">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N218">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O218">
         <v>4</v>
       </c>
       <c r="P218">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T218">
         <v>3.25</v>
       </c>
       <c r="U218">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V218">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W218">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X218">
         <v>-1</v>
@@ -19933,16 +19933,16 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA218">
         <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC218">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6846776</v>
+        <v>6846775</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,58 +19962,58 @@
         <v>45198.5625</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G219" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>53</v>
       </c>
       <c r="K219">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L219">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M219">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N219">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O219">
         <v>4</v>
       </c>
       <c r="P219">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S219">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T219">
         <v>3.25</v>
       </c>
       <c r="U219">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V219">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W219">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20022,16 +20022,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20051,7 +20051,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G220" t="s">
         <v>40</v>
@@ -20321,7 +20321,7 @@
         <v>49</v>
       </c>
       <c r="G223" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -21033,7 +21033,7 @@
         <v>43</v>
       </c>
       <c r="G231" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21119,7 +21119,7 @@
         <v>45206.64583333334</v>
       </c>
       <c r="F232" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G232" t="s">
         <v>35</v>
@@ -21656,7 +21656,7 @@
         <v>39</v>
       </c>
       <c r="G238" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -22009,7 +22009,7 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F242" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G242" t="s">
         <v>31</v>
@@ -22442,7 +22442,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6846151</v>
+        <v>6846794</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22454,58 +22454,58 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F247" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
         <v>53</v>
       </c>
       <c r="K247">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L247">
+        <v>3.6</v>
+      </c>
+      <c r="M247">
+        <v>3.4</v>
+      </c>
+      <c r="N247">
+        <v>2.3</v>
+      </c>
+      <c r="O247">
         <v>3.8</v>
       </c>
-      <c r="M247">
-        <v>4.5</v>
-      </c>
-      <c r="N247">
-        <v>1.571</v>
-      </c>
-      <c r="O247">
-        <v>4.333</v>
-      </c>
       <c r="P247">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q247">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S247">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T247">
         <v>3</v>
       </c>
       <c r="U247">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V247">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W247">
-        <v>0.571</v>
+        <v>1.3</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22514,16 +22514,16 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA247">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC247">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22531,7 +22531,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6846794</v>
+        <v>6846151</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22543,58 +22543,58 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F248" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
         <v>53</v>
       </c>
       <c r="K248">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="L248">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M248">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N248">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O248">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P248">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q248">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R248">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S248">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T248">
         <v>3</v>
       </c>
       <c r="U248">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V248">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W248">
-        <v>1.3</v>
+        <v>0.571</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22603,16 +22603,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB248">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22991,7 +22991,7 @@
         <v>48</v>
       </c>
       <c r="G253" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H253">
         <v>1</v>
@@ -23065,7 +23065,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6846152</v>
+        <v>6846801</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23077,55 +23077,55 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F254" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G254" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J254" t="s">
         <v>52</v>
       </c>
       <c r="K254">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="L254">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M254">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N254">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O254">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P254">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q254">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R254">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S254">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T254">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U254">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V254">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W254">
         <v>-1</v>
@@ -23134,19 +23134,19 @@
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>1.15</v>
+        <v>4.75</v>
       </c>
       <c r="Z254">
         <v>-1</v>
       </c>
       <c r="AA254">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC254">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23154,7 +23154,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6846801</v>
+        <v>6846152</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23166,55 +23166,55 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G255" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J255" t="s">
         <v>52</v>
       </c>
       <c r="K255">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L255">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M255">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N255">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O255">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P255">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q255">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R255">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S255">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T255">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U255">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V255">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W255">
         <v>-1</v>
@@ -23223,19 +23223,19 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>4.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z255">
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB255">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23789,7 +23789,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F262" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G262" t="s">
         <v>49</v>
@@ -23866,7 +23866,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6846185</v>
+        <v>6846153</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23878,76 +23878,76 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G263" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K263">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L263">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M263">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N263">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="O263">
         <v>4</v>
       </c>
       <c r="P263">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q263">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R263">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S263">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T263">
+        <v>2.75</v>
+      </c>
+      <c r="U263">
+        <v>1.975</v>
+      </c>
+      <c r="V263">
+        <v>1.875</v>
+      </c>
+      <c r="W263">
+        <v>-1</v>
+      </c>
+      <c r="X263">
         <v>3</v>
       </c>
-      <c r="U263">
-        <v>2.025</v>
-      </c>
-      <c r="V263">
-        <v>1.825</v>
-      </c>
-      <c r="W263">
-        <v>-1</v>
-      </c>
-      <c r="X263">
-        <v>-1</v>
-      </c>
       <c r="Y263">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23955,7 +23955,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6846153</v>
+        <v>6846185</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23967,76 +23967,76 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F264" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G264" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K264">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L264">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M264">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N264">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="O264">
         <v>4</v>
       </c>
       <c r="P264">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q264">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R264">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S264">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T264">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U264">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V264">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z264">
         <v>-1</v>
       </c>
       <c r="AA264">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC264">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24593,7 +24593,7 @@
         <v>44</v>
       </c>
       <c r="G271" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H271">
         <v>1</v>
@@ -24857,10 +24857,10 @@
         <v>45255.375</v>
       </c>
       <c r="F274" t="s">
+        <v>45</v>
+      </c>
+      <c r="G274" t="s">
         <v>46</v>
-      </c>
-      <c r="G274" t="s">
-        <v>45</v>
       </c>
       <c r="H274">
         <v>2</v>
@@ -25468,7 +25468,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6846819</v>
+        <v>6846155</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25480,40 +25480,40 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F281" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G281" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H281">
+        <v>2</v>
+      </c>
+      <c r="I281">
+        <v>2</v>
+      </c>
+      <c r="J281" t="s">
+        <v>54</v>
+      </c>
+      <c r="K281">
+        <v>2.3</v>
+      </c>
+      <c r="L281">
+        <v>3.6</v>
+      </c>
+      <c r="M281">
+        <v>2.8</v>
+      </c>
+      <c r="N281">
+        <v>1.833</v>
+      </c>
+      <c r="O281">
         <v>4</v>
       </c>
-      <c r="I281">
-        <v>0</v>
-      </c>
-      <c r="J281" t="s">
-        <v>53</v>
-      </c>
-      <c r="K281">
-        <v>1.85</v>
-      </c>
-      <c r="L281">
-        <v>3.75</v>
-      </c>
-      <c r="M281">
-        <v>3.9</v>
-      </c>
-      <c r="N281">
-        <v>1.533</v>
-      </c>
-      <c r="O281">
-        <v>4.5</v>
-      </c>
       <c r="P281">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q281">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R281">
         <v>1.825</v>
@@ -25522,31 +25522,31 @@
         <v>2.025</v>
       </c>
       <c r="T281">
+        <v>2.75</v>
+      </c>
+      <c r="U281">
+        <v>1.85</v>
+      </c>
+      <c r="V281">
+        <v>2</v>
+      </c>
+      <c r="W281">
+        <v>-1</v>
+      </c>
+      <c r="X281">
         <v>3</v>
       </c>
-      <c r="U281">
-        <v>1.9</v>
-      </c>
-      <c r="V281">
-        <v>1.95</v>
-      </c>
-      <c r="W281">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X281">
-        <v>-1</v>
-      </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB281">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC281">
         <v>-1</v>
@@ -25557,7 +25557,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6846155</v>
+        <v>6846819</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25569,40 +25569,40 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F282" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G282" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I282">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K282">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L282">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M282">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="N282">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O282">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P282">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q282">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R282">
         <v>1.825</v>
@@ -25611,31 +25611,31 @@
         <v>2.025</v>
       </c>
       <c r="T282">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U282">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V282">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W282">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X282">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA282">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC282">
         <v>-1</v>
@@ -26002,7 +26002,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6846820</v>
+        <v>6845841</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26014,58 +26014,58 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F287" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G287" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H287">
+        <v>5</v>
+      </c>
+      <c r="I287">
         <v>1</v>
-      </c>
-      <c r="I287">
-        <v>0</v>
       </c>
       <c r="J287" t="s">
         <v>53</v>
       </c>
       <c r="K287">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L287">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M287">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="N287">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O287">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P287">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q287">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R287">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S287">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T287">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U287">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V287">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W287">
-        <v>1.8</v>
+        <v>0.909</v>
       </c>
       <c r="X287">
         <v>-1</v>
@@ -26074,16 +26074,16 @@
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA287">
         <v>-1</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC287">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26091,7 +26091,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6845841</v>
+        <v>6846820</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26103,58 +26103,58 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F288" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G288" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H288">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
         <v>53</v>
       </c>
       <c r="K288">
+        <v>2.3</v>
+      </c>
+      <c r="L288">
+        <v>3.5</v>
+      </c>
+      <c r="M288">
+        <v>2.875</v>
+      </c>
+      <c r="N288">
+        <v>2.8</v>
+      </c>
+      <c r="O288">
+        <v>3.4</v>
+      </c>
+      <c r="P288">
+        <v>2.55</v>
+      </c>
+      <c r="Q288">
+        <v>0</v>
+      </c>
+      <c r="R288">
         <v>2.05</v>
       </c>
-      <c r="L288">
-        <v>3.75</v>
-      </c>
-      <c r="M288">
-        <v>3.25</v>
-      </c>
-      <c r="N288">
-        <v>1.909</v>
-      </c>
-      <c r="O288">
-        <v>4</v>
-      </c>
-      <c r="P288">
-        <v>3.6</v>
-      </c>
-      <c r="Q288">
-        <v>-0.5</v>
-      </c>
-      <c r="R288">
+      <c r="S288">
+        <v>1.8</v>
+      </c>
+      <c r="T288">
+        <v>2.75</v>
+      </c>
+      <c r="U288">
         <v>1.925</v>
       </c>
-      <c r="S288">
+      <c r="V288">
         <v>1.925</v>
       </c>
-      <c r="T288">
-        <v>3</v>
-      </c>
-      <c r="U288">
-        <v>1.875</v>
-      </c>
-      <c r="V288">
-        <v>1.975</v>
-      </c>
       <c r="W288">
-        <v>0.909</v>
+        <v>1.8</v>
       </c>
       <c r="X288">
         <v>-1</v>
@@ -26163,16 +26163,16 @@
         <v>-1</v>
       </c>
       <c r="Z288">
+        <v>1.05</v>
+      </c>
+      <c r="AA288">
+        <v>-1</v>
+      </c>
+      <c r="AB288">
+        <v>-1</v>
+      </c>
+      <c r="AC288">
         <v>0.925</v>
-      </c>
-      <c r="AA288">
-        <v>-1</v>
-      </c>
-      <c r="AB288">
-        <v>0.875</v>
-      </c>
-      <c r="AC288">
-        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26195,7 +26195,7 @@
         <v>29</v>
       </c>
       <c r="G289" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H289">
         <v>2</v>
@@ -26269,7 +26269,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6846831</v>
+        <v>6846828</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26281,73 +26281,73 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F290" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G290" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K290">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L290">
         <v>3.5</v>
       </c>
       <c r="M290">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N290">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O290">
         <v>3.5</v>
       </c>
       <c r="P290">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q290">
         <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S290">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T290">
         <v>2.5</v>
       </c>
       <c r="U290">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V290">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W290">
         <v>-1</v>
       </c>
       <c r="X290">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y290">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA290">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB290">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26358,7 +26358,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6846828</v>
+        <v>6846831</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26370,73 +26370,73 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G291" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J291" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K291">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L291">
         <v>3.5</v>
       </c>
       <c r="M291">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N291">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O291">
         <v>3.5</v>
       </c>
       <c r="P291">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q291">
         <v>-0.25</v>
       </c>
       <c r="R291">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S291">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T291">
         <v>2.5</v>
       </c>
       <c r="U291">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V291">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W291">
         <v>-1</v>
       </c>
       <c r="X291">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y291">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z291">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA291">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB291">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26729,7 +26729,7 @@
         <v>47</v>
       </c>
       <c r="G295" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -26993,7 +26993,7 @@
         <v>45270.39583333334</v>
       </c>
       <c r="F298" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G298" t="s">
         <v>51</v>
@@ -27070,7 +27070,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6846832</v>
+        <v>6846833</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27082,76 +27082,76 @@
         <v>45275.60416666666</v>
       </c>
       <c r="F299" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G299" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I299">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K299">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L299">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M299">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N299">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O299">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P299">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q299">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R299">
+        <v>1.925</v>
+      </c>
+      <c r="S299">
+        <v>1.925</v>
+      </c>
+      <c r="T299">
+        <v>3</v>
+      </c>
+      <c r="U299">
+        <v>2</v>
+      </c>
+      <c r="V299">
         <v>1.85</v>
       </c>
-      <c r="S299">
-        <v>2</v>
-      </c>
-      <c r="T299">
-        <v>2.75</v>
-      </c>
-      <c r="U299">
-        <v>1.975</v>
-      </c>
-      <c r="V299">
-        <v>1.875</v>
-      </c>
       <c r="W299">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X299">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA299">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC299">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27159,7 +27159,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6846833</v>
+        <v>6846832</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27171,76 +27171,76 @@
         <v>45275.60416666666</v>
       </c>
       <c r="F300" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G300" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H300">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J300" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K300">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L300">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M300">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N300">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O300">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P300">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q300">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R300">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S300">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T300">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U300">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V300">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W300">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X300">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB300">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC300">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27616,7 +27616,7 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F305" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G305" t="s">
         <v>48</v>
@@ -28049,7 +28049,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7625887</v>
+        <v>7625866</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28061,13 +28061,13 @@
         <v>45311.375</v>
       </c>
       <c r="F310" t="s">
+        <v>35</v>
+      </c>
+      <c r="G310" t="s">
         <v>45</v>
       </c>
-      <c r="G310" t="s">
-        <v>41</v>
-      </c>
       <c r="H310">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I310">
         <v>0</v>
@@ -28076,61 +28076,61 @@
         <v>53</v>
       </c>
       <c r="K310">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L310">
+        <v>3.75</v>
+      </c>
+      <c r="M310">
         <v>4.333</v>
       </c>
-      <c r="M310">
-        <v>6.5</v>
-      </c>
       <c r="N310">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O310">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P310">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q310">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R310">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S310">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T310">
         <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V310">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W310">
+        <v>0.95</v>
+      </c>
+      <c r="X310">
+        <v>-1</v>
+      </c>
+      <c r="Y310">
+        <v>-1</v>
+      </c>
+      <c r="Z310">
+        <v>0.925</v>
+      </c>
+      <c r="AA310">
+        <v>-1</v>
+      </c>
+      <c r="AB310">
         <v>0.45</v>
       </c>
-      <c r="X310">
-        <v>-1</v>
-      </c>
-      <c r="Y310">
-        <v>-1</v>
-      </c>
-      <c r="Z310">
-        <v>1.05</v>
-      </c>
-      <c r="AA310">
-        <v>-1</v>
-      </c>
-      <c r="AB310">
-        <v>-1</v>
-      </c>
       <c r="AC310">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28138,7 +28138,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7625866</v>
+        <v>7625887</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28150,13 +28150,13 @@
         <v>45311.375</v>
       </c>
       <c r="F311" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G311" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H311">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311">
         <v>0</v>
@@ -28165,43 +28165,43 @@
         <v>53</v>
       </c>
       <c r="K311">
+        <v>1.5</v>
+      </c>
+      <c r="L311">
+        <v>4.333</v>
+      </c>
+      <c r="M311">
+        <v>6.5</v>
+      </c>
+      <c r="N311">
+        <v>1.45</v>
+      </c>
+      <c r="O311">
+        <v>4.5</v>
+      </c>
+      <c r="P311">
+        <v>6.5</v>
+      </c>
+      <c r="Q311">
+        <v>-1.25</v>
+      </c>
+      <c r="R311">
+        <v>2.05</v>
+      </c>
+      <c r="S311">
         <v>1.8</v>
-      </c>
-      <c r="L311">
-        <v>3.75</v>
-      </c>
-      <c r="M311">
-        <v>4.333</v>
-      </c>
-      <c r="N311">
-        <v>1.95</v>
-      </c>
-      <c r="O311">
-        <v>3.75</v>
-      </c>
-      <c r="P311">
-        <v>3.8</v>
-      </c>
-      <c r="Q311">
-        <v>-0.5</v>
-      </c>
-      <c r="R311">
-        <v>1.925</v>
-      </c>
-      <c r="S311">
-        <v>1.925</v>
       </c>
       <c r="T311">
         <v>2.75</v>
       </c>
       <c r="U311">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V311">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W311">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="X311">
         <v>-1</v>
@@ -28210,16 +28210,16 @@
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA311">
         <v>-1</v>
       </c>
       <c r="AB311">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28951,7 +28951,7 @@
         <v>45318.375</v>
       </c>
       <c r="F320" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G320" t="s">
         <v>50</v>
@@ -29132,7 +29132,7 @@
         <v>30</v>
       </c>
       <c r="G322" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H322">
         <v>1</v>
@@ -29206,7 +29206,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6846848</v>
+        <v>6846847</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29218,58 +29218,58 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F323" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G323" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H323">
+        <v>2</v>
+      </c>
+      <c r="I323">
         <v>1</v>
-      </c>
-      <c r="I323">
-        <v>0</v>
       </c>
       <c r="J323" t="s">
         <v>53</v>
       </c>
       <c r="K323">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L323">
         <v>3.7</v>
       </c>
       <c r="M323">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N323">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O323">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P323">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q323">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R323">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S323">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T323">
         <v>2.75</v>
       </c>
       <c r="U323">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V323">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W323">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="X323">
         <v>-1</v>
@@ -29278,16 +29278,16 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA323">
         <v>-1</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC323">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29295,7 +29295,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6846847</v>
+        <v>6846844</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29307,76 +29307,76 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F324" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G324" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I324">
+        <v>4</v>
+      </c>
+      <c r="J324" t="s">
+        <v>52</v>
+      </c>
+      <c r="K324">
+        <v>1.6</v>
+      </c>
+      <c r="L324">
+        <v>4.2</v>
+      </c>
+      <c r="M324">
+        <v>4.75</v>
+      </c>
+      <c r="N324">
+        <v>1.533</v>
+      </c>
+      <c r="O324">
+        <v>4.5</v>
+      </c>
+      <c r="P324">
+        <v>5.75</v>
+      </c>
+      <c r="Q324">
+        <v>-1</v>
+      </c>
+      <c r="R324">
+        <v>1.85</v>
+      </c>
+      <c r="S324">
+        <v>2</v>
+      </c>
+      <c r="T324">
+        <v>3.5</v>
+      </c>
+      <c r="U324">
+        <v>1.95</v>
+      </c>
+      <c r="V324">
+        <v>1.9</v>
+      </c>
+      <c r="W324">
+        <v>-1</v>
+      </c>
+      <c r="X324">
+        <v>-1</v>
+      </c>
+      <c r="Y324">
+        <v>4.75</v>
+      </c>
+      <c r="Z324">
+        <v>-1</v>
+      </c>
+      <c r="AA324">
         <v>1</v>
       </c>
-      <c r="J324" t="s">
-        <v>53</v>
-      </c>
-      <c r="K324">
-        <v>2.1</v>
-      </c>
-      <c r="L324">
-        <v>3.7</v>
-      </c>
-      <c r="M324">
-        <v>3.1</v>
-      </c>
-      <c r="N324">
-        <v>1.95</v>
-      </c>
-      <c r="O324">
-        <v>3.75</v>
-      </c>
-      <c r="P324">
-        <v>3.75</v>
-      </c>
-      <c r="Q324">
-        <v>-0.5</v>
-      </c>
-      <c r="R324">
-        <v>1.975</v>
-      </c>
-      <c r="S324">
-        <v>1.875</v>
-      </c>
-      <c r="T324">
-        <v>2.75</v>
-      </c>
-      <c r="U324">
-        <v>1.85</v>
-      </c>
-      <c r="V324">
-        <v>2</v>
-      </c>
-      <c r="W324">
+      <c r="AB324">
         <v>0.95</v>
       </c>
-      <c r="X324">
-        <v>-1</v>
-      </c>
-      <c r="Y324">
-        <v>-1</v>
-      </c>
-      <c r="Z324">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA324">
-        <v>-1</v>
-      </c>
-      <c r="AB324">
-        <v>0.425</v>
-      </c>
       <c r="AC324">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29384,7 +29384,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6846844</v>
+        <v>6846848</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29396,76 +29396,76 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F325" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G325" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H325">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I325">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J325" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K325">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="L325">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M325">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N325">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O325">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P325">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q325">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R325">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S325">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T325">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U325">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V325">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W325">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA325">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB325">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29752,7 +29752,7 @@
         <v>45325.375</v>
       </c>
       <c r="F329" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G329" t="s">
         <v>43</v>
@@ -30096,7 +30096,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6846850</v>
+        <v>6846852</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30108,58 +30108,58 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F333" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G333" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H333">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I333">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J333" t="s">
         <v>53</v>
       </c>
       <c r="K333">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="L333">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M333">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N333">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O333">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P333">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q333">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R333">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S333">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T333">
         <v>2.75</v>
       </c>
       <c r="U333">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V333">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W333">
-        <v>1.55</v>
+        <v>0.5</v>
       </c>
       <c r="X333">
         <v>-1</v>
@@ -30168,16 +30168,16 @@
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB333">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AC333">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30185,7 +30185,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6846852</v>
+        <v>6846850</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30197,58 +30197,58 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F334" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G334" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I334">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J334" t="s">
         <v>53</v>
       </c>
       <c r="K334">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="L334">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M334">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N334">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O334">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P334">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q334">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R334">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S334">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T334">
         <v>2.75</v>
       </c>
       <c r="U334">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V334">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W334">
-        <v>0.5</v>
+        <v>1.55</v>
       </c>
       <c r="X334">
         <v>-1</v>
@@ -30257,16 +30257,16 @@
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA334">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AC334">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30556,7 +30556,7 @@
         <v>44</v>
       </c>
       <c r="G338" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -31001,7 +31001,7 @@
         <v>47</v>
       </c>
       <c r="G343" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H343">
         <v>0</v>
@@ -31075,7 +31075,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6845834</v>
+        <v>6846865</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31087,16 +31087,16 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F344" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G344" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H344">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J344" t="s">
         <v>53</v>
@@ -31105,40 +31105,40 @@
         <v>2.15</v>
       </c>
       <c r="L344">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M344">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N344">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O344">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P344">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q344">
         <v>-0.25</v>
       </c>
       <c r="R344">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S344">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T344">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U344">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V344">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W344">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="X344">
         <v>-1</v>
@@ -31147,16 +31147,16 @@
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA344">
         <v>-1</v>
       </c>
       <c r="AB344">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC344">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31164,7 +31164,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6846865</v>
+        <v>6845834</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31176,16 +31176,16 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F345" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G345" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J345" t="s">
         <v>53</v>
@@ -31194,40 +31194,40 @@
         <v>2.15</v>
       </c>
       <c r="L345">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M345">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N345">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O345">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P345">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q345">
         <v>-0.25</v>
       </c>
       <c r="R345">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S345">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T345">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U345">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V345">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W345">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="X345">
         <v>-1</v>
@@ -31236,16 +31236,16 @@
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA345">
         <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC345">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31253,7 +31253,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6846862</v>
+        <v>6846864</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31262,49 +31262,49 @@
         <v>28</v>
       </c>
       <c r="E346" s="2">
-        <v>45339.375</v>
+        <v>45339.6875</v>
       </c>
       <c r="F346" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G346" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="K346">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="L346">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M346">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N346">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="O346">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P346">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q346">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R346">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S346">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T346">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U346">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V346">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W346">
         <v>0</v>
@@ -31327,7 +31327,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6846863</v>
+        <v>6846867</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31336,49 +31336,49 @@
         <v>28</v>
       </c>
       <c r="E347" s="2">
-        <v>45339.375</v>
+        <v>45340.39583333334</v>
       </c>
       <c r="F347" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G347" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K347">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L347">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M347">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N347">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O347">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P347">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q347">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R347">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S347">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T347">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U347">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W347">
         <v>0</v>
@@ -31401,7 +31401,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6846866</v>
+        <v>6846193</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31410,49 +31410,49 @@
         <v>28</v>
       </c>
       <c r="E348" s="2">
-        <v>45339.375</v>
+        <v>45340.39583333334</v>
       </c>
       <c r="F348" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G348" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K348">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="L348">
         <v>4.2</v>
       </c>
       <c r="M348">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="N348">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="O348">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P348">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="Q348">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R348">
+        <v>1.825</v>
+      </c>
+      <c r="S348">
         <v>2.025</v>
-      </c>
-      <c r="S348">
-        <v>1.825</v>
       </c>
       <c r="T348">
         <v>3</v>
       </c>
       <c r="U348">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V348">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W348">
         <v>0</v>
@@ -31475,7 +31475,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6846864</v>
+        <v>6846162</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31484,49 +31484,49 @@
         <v>28</v>
       </c>
       <c r="E349" s="2">
-        <v>45339.6875</v>
+        <v>45340.39583333334</v>
       </c>
       <c r="F349" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G349" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K349">
-        <v>2.35</v>
+        <v>1.45</v>
       </c>
       <c r="L349">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M349">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="N349">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="O349">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P349">
-        <v>2.55</v>
+        <v>8.5</v>
       </c>
       <c r="Q349">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R349">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S349">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T349">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U349">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V349">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W349">
         <v>0</v>
@@ -31541,228 +31541,6 @@
         <v>0</v>
       </c>
       <c r="AA349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:29">
-      <c r="A350" s="1">
-        <v>348</v>
-      </c>
-      <c r="B350">
-        <v>6846162</v>
-      </c>
-      <c r="C350" t="s">
-        <v>28</v>
-      </c>
-      <c r="D350" t="s">
-        <v>28</v>
-      </c>
-      <c r="E350" s="2">
-        <v>45340.39583333334</v>
-      </c>
-      <c r="F350" t="s">
-        <v>45</v>
-      </c>
-      <c r="G350" t="s">
-        <v>40</v>
-      </c>
-      <c r="K350">
-        <v>1.45</v>
-      </c>
-      <c r="L350">
-        <v>4.5</v>
-      </c>
-      <c r="M350">
-        <v>6.5</v>
-      </c>
-      <c r="N350">
-        <v>1.363</v>
-      </c>
-      <c r="O350">
-        <v>4.75</v>
-      </c>
-      <c r="P350">
-        <v>8.5</v>
-      </c>
-      <c r="Q350">
-        <v>-1.25</v>
-      </c>
-      <c r="R350">
-        <v>1.825</v>
-      </c>
-      <c r="S350">
-        <v>2.025</v>
-      </c>
-      <c r="T350">
-        <v>2.75</v>
-      </c>
-      <c r="U350">
-        <v>1.925</v>
-      </c>
-      <c r="V350">
-        <v>1.925</v>
-      </c>
-      <c r="W350">
-        <v>0</v>
-      </c>
-      <c r="X350">
-        <v>0</v>
-      </c>
-      <c r="Y350">
-        <v>0</v>
-      </c>
-      <c r="Z350">
-        <v>0</v>
-      </c>
-      <c r="AA350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:29">
-      <c r="A351" s="1">
-        <v>349</v>
-      </c>
-      <c r="B351">
-        <v>6846193</v>
-      </c>
-      <c r="C351" t="s">
-        <v>28</v>
-      </c>
-      <c r="D351" t="s">
-        <v>28</v>
-      </c>
-      <c r="E351" s="2">
-        <v>45340.39583333334</v>
-      </c>
-      <c r="F351" t="s">
-        <v>50</v>
-      </c>
-      <c r="G351" t="s">
-        <v>47</v>
-      </c>
-      <c r="K351">
-        <v>1.65</v>
-      </c>
-      <c r="L351">
-        <v>4.2</v>
-      </c>
-      <c r="M351">
-        <v>4.5</v>
-      </c>
-      <c r="N351">
-        <v>1.8</v>
-      </c>
-      <c r="O351">
-        <v>4</v>
-      </c>
-      <c r="P351">
-        <v>4.2</v>
-      </c>
-      <c r="Q351">
-        <v>-0.5</v>
-      </c>
-      <c r="R351">
-        <v>1.85</v>
-      </c>
-      <c r="S351">
-        <v>2</v>
-      </c>
-      <c r="T351">
-        <v>3</v>
-      </c>
-      <c r="U351">
-        <v>2</v>
-      </c>
-      <c r="V351">
-        <v>1.85</v>
-      </c>
-      <c r="W351">
-        <v>0</v>
-      </c>
-      <c r="X351">
-        <v>0</v>
-      </c>
-      <c r="Y351">
-        <v>0</v>
-      </c>
-      <c r="Z351">
-        <v>0</v>
-      </c>
-      <c r="AA351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:29">
-      <c r="A352" s="1">
-        <v>350</v>
-      </c>
-      <c r="B352">
-        <v>6846867</v>
-      </c>
-      <c r="C352" t="s">
-        <v>28</v>
-      </c>
-      <c r="D352" t="s">
-        <v>28</v>
-      </c>
-      <c r="E352" s="2">
-        <v>45340.39583333334</v>
-      </c>
-      <c r="F352" t="s">
-        <v>35</v>
-      </c>
-      <c r="G352" t="s">
-        <v>41</v>
-      </c>
-      <c r="K352">
-        <v>2.4</v>
-      </c>
-      <c r="L352">
-        <v>3.6</v>
-      </c>
-      <c r="M352">
-        <v>2.7</v>
-      </c>
-      <c r="N352">
-        <v>2.55</v>
-      </c>
-      <c r="O352">
-        <v>3.6</v>
-      </c>
-      <c r="P352">
-        <v>2.6</v>
-      </c>
-      <c r="Q352">
-        <v>0</v>
-      </c>
-      <c r="R352">
-        <v>1.875</v>
-      </c>
-      <c r="S352">
-        <v>1.975</v>
-      </c>
-      <c r="T352">
-        <v>2.75</v>
-      </c>
-      <c r="U352">
-        <v>1.825</v>
-      </c>
-      <c r="V352">
-        <v>2.025</v>
-      </c>
-      <c r="W352">
-        <v>0</v>
-      </c>
-      <c r="X352">
-        <v>0</v>
-      </c>
-      <c r="Y352">
-        <v>0</v>
-      </c>
-      <c r="Z352">
-        <v>0</v>
-      </c>
-      <c r="AA352">
         <v>0</v>
       </c>
     </row>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -151,10 +151,10 @@
     <t>Magdeburg</t>
   </si>
   <si>
-    <t>Hansa Rostock</t>
+    <t>St Pauli</t>
   </si>
   <si>
-    <t>St Pauli</t>
+    <t>Hansa Rostock</t>
   </si>
   <si>
     <t>VfL Osnabruck</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC349"/>
+  <dimension ref="A1:AC348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -919,7 +919,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5173409</v>
+        <v>5173407</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2076,73 +2076,73 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
         <v>3.6</v>
       </c>
       <c r="M18">
+        <v>3.75</v>
+      </c>
+      <c r="N18">
         <v>1.95</v>
-      </c>
-      <c r="N18">
-        <v>4</v>
       </c>
       <c r="O18">
         <v>3.6</v>
       </c>
       <c r="P18">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
+        <v>1.9</v>
+      </c>
+      <c r="T18">
+        <v>2.5</v>
+      </c>
+      <c r="U18">
+        <v>1.875</v>
+      </c>
+      <c r="V18">
         <v>1.975</v>
       </c>
-      <c r="S18">
-        <v>1.875</v>
-      </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
-      <c r="U18">
-        <v>1.9</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2150,7 +2150,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5173407</v>
+        <v>5173409</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2165,73 +2165,73 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L19">
         <v>3.6</v>
       </c>
       <c r="M19">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N19">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="O19">
         <v>3.6</v>
       </c>
       <c r="P19">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
+        <v>1.975</v>
+      </c>
+      <c r="S19">
+        <v>1.875</v>
+      </c>
+      <c r="T19">
+        <v>2.75</v>
+      </c>
+      <c r="U19">
+        <v>1.9</v>
+      </c>
+      <c r="V19">
         <v>1.95</v>
       </c>
-      <c r="S19">
-        <v>1.9</v>
-      </c>
-      <c r="T19">
-        <v>2.5</v>
-      </c>
-      <c r="U19">
-        <v>1.875</v>
-      </c>
-      <c r="V19">
-        <v>1.975</v>
-      </c>
       <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>0.909</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>0.875</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.95</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>0.95</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
-      <c r="AC19">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2343,7 +2343,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>44969.39583333334</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
         <v>41</v>
@@ -3322,7 +3322,7 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3497,7 +3497,7 @@
         <v>44975.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -4565,10 +4565,10 @@
         <v>44983.39583333334</v>
       </c>
       <c r="F46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" t="s">
         <v>46</v>
-      </c>
-      <c r="G46" t="s">
-        <v>45</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -5277,7 +5277,7 @@
         <v>44990.39583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -5443,7 +5443,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5173459</v>
+        <v>5173453</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5455,76 +5455,76 @@
         <v>44995.60416666666</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K56">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O56">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X56">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5173453</v>
+        <v>5173459</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,76 +5544,76 @@
         <v>44995.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N57">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P57">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC57">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5722,7 +5722,7 @@
         <v>44996.375</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
         <v>43</v>
@@ -5992,7 +5992,7 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6778,7 +6778,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5173465</v>
+        <v>5173466</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6790,13 +6790,13 @@
         <v>45004.39583333334</v>
       </c>
       <c r="F71" t="s">
+        <v>38</v>
+      </c>
+      <c r="G71" t="s">
         <v>45</v>
       </c>
-      <c r="G71" t="s">
-        <v>30</v>
-      </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>5</v>
@@ -6805,40 +6805,40 @@
         <v>52</v>
       </c>
       <c r="K71">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="L71">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="N71">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O71">
         <v>3.5</v>
       </c>
       <c r="P71">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R71">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6847,16 +6847,16 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.15</v>
+        <v>0.909</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6867,7 +6867,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5173466</v>
+        <v>5173465</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6879,13 +6879,13 @@
         <v>45004.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>5</v>
@@ -6894,40 +6894,40 @@
         <v>52</v>
       </c>
       <c r="K72">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M72">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N72">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O72">
         <v>3.5</v>
       </c>
       <c r="P72">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6936,16 +6936,16 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.909</v>
+        <v>1.15</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB72">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7045,7 +7045,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5173471</v>
+        <v>5173473</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7057,76 +7057,76 @@
         <v>45016.5625</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K74">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N74">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O74">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y74">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7134,7 +7134,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5173473</v>
+        <v>5173471</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7146,76 +7146,76 @@
         <v>45016.5625</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K75">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N75">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P75">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7235,7 +7235,7 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
         <v>42</v>
@@ -7683,7 +7683,7 @@
         <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -8128,7 +8128,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5173483</v>
+        <v>5173478</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8214,73 +8214,73 @@
         <v>45025.35416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87" t="s">
+        <v>54</v>
+      </c>
+      <c r="K87">
         <v>3</v>
       </c>
-      <c r="J87" t="s">
-        <v>52</v>
-      </c>
-      <c r="K87">
-        <v>2.7</v>
-      </c>
       <c r="L87">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
+        <v>2.3</v>
+      </c>
+      <c r="N87">
         <v>2.6</v>
       </c>
-      <c r="N87">
-        <v>2.7</v>
-      </c>
       <c r="O87">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8291,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5173480</v>
+        <v>5173485</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8303,76 +8303,76 @@
         <v>45025.35416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K88">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB88">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8469,7 +8469,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5173478</v>
+        <v>5173480</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8481,76 +8481,76 @@
         <v>45025.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H90">
         <v>2</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K90">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N90">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X90">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8558,7 +8558,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5173485</v>
+        <v>5173483</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8570,40 +8570,40 @@
         <v>45025.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G91" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K91">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N91">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P91">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
         <v>1.95</v>
@@ -8615,28 +8615,28 @@
         <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8840,7 +8840,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -9181,7 +9181,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5173493</v>
+        <v>5173488</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9193,76 +9193,76 @@
         <v>45032.35416666666</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>52</v>
+      </c>
+      <c r="K98">
+        <v>1.533</v>
+      </c>
+      <c r="L98">
         <v>4</v>
       </c>
-      <c r="I98">
-        <v>2</v>
-      </c>
-      <c r="J98" t="s">
-        <v>53</v>
-      </c>
-      <c r="K98">
-        <v>1.909</v>
-      </c>
-      <c r="L98">
-        <v>3.6</v>
-      </c>
       <c r="M98">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="N98">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="O98">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P98">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
+        <v>1.8</v>
+      </c>
+      <c r="S98">
+        <v>2.05</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
+        <v>1.975</v>
+      </c>
+      <c r="V98">
         <v>1.875</v>
       </c>
-      <c r="S98">
-        <v>1.975</v>
-      </c>
-      <c r="T98">
-        <v>3</v>
-      </c>
-      <c r="U98">
-        <v>2</v>
-      </c>
-      <c r="V98">
-        <v>1.85</v>
-      </c>
       <c r="W98">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5173488</v>
+        <v>5173493</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9282,76 +9282,76 @@
         <v>45032.35416666666</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99" t="s">
+        <v>53</v>
+      </c>
+      <c r="K99">
+        <v>1.909</v>
+      </c>
+      <c r="L99">
+        <v>3.6</v>
+      </c>
+      <c r="M99">
+        <v>3.5</v>
+      </c>
+      <c r="N99">
+        <v>2.1</v>
+      </c>
+      <c r="O99">
+        <v>3.75</v>
+      </c>
+      <c r="P99">
+        <v>3.2</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.875</v>
+      </c>
+      <c r="S99">
+        <v>1.975</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
+        <v>1.85</v>
+      </c>
+      <c r="W99">
+        <v>1.1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>0.875</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>2</v>
-      </c>
-      <c r="J99" t="s">
-        <v>52</v>
-      </c>
-      <c r="K99">
-        <v>1.533</v>
-      </c>
-      <c r="L99">
-        <v>4</v>
-      </c>
-      <c r="M99">
-        <v>5.75</v>
-      </c>
-      <c r="N99">
-        <v>1.615</v>
-      </c>
-      <c r="O99">
-        <v>4</v>
-      </c>
-      <c r="P99">
-        <v>5</v>
-      </c>
-      <c r="Q99">
-        <v>-0.75</v>
-      </c>
-      <c r="R99">
-        <v>1.8</v>
-      </c>
-      <c r="S99">
-        <v>2.05</v>
-      </c>
-      <c r="T99">
-        <v>2.75</v>
-      </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
-      <c r="V99">
-        <v>1.875</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>4</v>
-      </c>
-      <c r="Z99">
-        <v>-1</v>
-      </c>
-      <c r="AA99">
-        <v>1.05</v>
-      </c>
-      <c r="AB99">
-        <v>0.4875</v>
-      </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9552,7 +9552,7 @@
         <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H102">
         <v>4</v>
@@ -9816,7 +9816,7 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G105" t="s">
         <v>43</v>
@@ -9982,7 +9982,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5173500</v>
+        <v>5173497</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9994,76 +9994,76 @@
         <v>45039.35416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K107">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="L107">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M107">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N107">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O107">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X107">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA107">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10160,7 +10160,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5173497</v>
+        <v>5173500</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10172,76 +10172,76 @@
         <v>45039.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K109">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="L109">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M109">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N109">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O109">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P109">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q109">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10439,7 +10439,7 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G112" t="s">
         <v>36</v>
@@ -10531,7 +10531,7 @@
         <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -11418,7 +11418,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G123" t="s">
         <v>42</v>
@@ -11510,7 +11510,7 @@
         <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11584,7 +11584,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5354748</v>
+        <v>5351753</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11596,76 +11596,76 @@
         <v>45053.35416666666</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K125">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M125">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="N125">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X125">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5354749</v>
+        <v>5354748</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,76 +11685,76 @@
         <v>45053.35416666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>54</v>
       </c>
       <c r="K126">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="N126">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O126">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.5249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5351753</v>
+        <v>5354749</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,73 +11774,73 @@
         <v>45053.35416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K127">
+        <v>2.2</v>
+      </c>
+      <c r="L127">
+        <v>3.2</v>
+      </c>
+      <c r="M127">
+        <v>3.25</v>
+      </c>
+      <c r="N127">
+        <v>2.05</v>
+      </c>
+      <c r="O127">
+        <v>3.3</v>
+      </c>
+      <c r="P127">
+        <v>3.75</v>
+      </c>
+      <c r="Q127">
+        <v>-0.25</v>
+      </c>
+      <c r="R127">
         <v>1.8</v>
       </c>
-      <c r="L127">
-        <v>3.6</v>
-      </c>
-      <c r="M127">
-        <v>4.2</v>
-      </c>
-      <c r="N127">
-        <v>1.909</v>
-      </c>
-      <c r="O127">
-        <v>3.5</v>
-      </c>
-      <c r="P127">
-        <v>4.333</v>
-      </c>
-      <c r="Q127">
+      <c r="S127">
+        <v>2.05</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>1.85</v>
+      </c>
+      <c r="V127">
+        <v>2</v>
+      </c>
+      <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
+        <v>2.3</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
         <v>-0.5</v>
       </c>
-      <c r="R127">
-        <v>1.9</v>
-      </c>
-      <c r="S127">
-        <v>1.95</v>
-      </c>
-      <c r="T127">
-        <v>2.5</v>
-      </c>
-      <c r="U127">
-        <v>2</v>
-      </c>
-      <c r="V127">
-        <v>1.85</v>
-      </c>
-      <c r="W127">
-        <v>0.909</v>
-      </c>
-      <c r="X127">
-        <v>-1</v>
-      </c>
-      <c r="Y127">
-        <v>-1</v>
-      </c>
-      <c r="Z127">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB127">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11866,7 +11866,7 @@
         <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12308,7 +12308,7 @@
         <v>45059.64583333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5427861</v>
+        <v>5427972</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,76 +12664,76 @@
         <v>45065.5625</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K137">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M137">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O137">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P137">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
         <v>3.25</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5427972</v>
+        <v>5427861</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12753,76 +12753,76 @@
         <v>45065.5625</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K138">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L138">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N138">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O138">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P138">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="Q138">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
         <v>3.25</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC138">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13290,7 +13290,7 @@
         <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13554,7 +13554,7 @@
         <v>45074.4375</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -14177,7 +14177,7 @@
         <v>45074.4375</v>
       </c>
       <c r="F154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G154" t="s">
         <v>40</v>
@@ -14358,7 +14358,7 @@
         <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14800,7 +14800,7 @@
         <v>45137.35416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
         <v>35</v>
@@ -15245,7 +15245,7 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G166" t="s">
         <v>30</v>
@@ -15426,7 +15426,7 @@
         <v>50</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15589,7 +15589,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6846743</v>
+        <v>6846741</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15601,76 +15601,76 @@
         <v>45144.35416666666</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K170">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L170">
         <v>3.75</v>
       </c>
       <c r="M170">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="N170">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="O170">
         <v>4</v>
       </c>
       <c r="P170">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R170">
+        <v>1.875</v>
+      </c>
+      <c r="S170">
+        <v>1.975</v>
+      </c>
+      <c r="T170">
+        <v>3.5</v>
+      </c>
+      <c r="U170">
+        <v>1.9</v>
+      </c>
+      <c r="V170">
         <v>1.95</v>
       </c>
-      <c r="S170">
-        <v>1.9</v>
-      </c>
-      <c r="T170">
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
         <v>3</v>
       </c>
-      <c r="U170">
-        <v>2.025</v>
-      </c>
-      <c r="V170">
-        <v>1.825</v>
-      </c>
-      <c r="W170">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB170">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC170">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15678,7 +15678,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6846741</v>
+        <v>6846743</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15690,76 +15690,76 @@
         <v>45144.35416666666</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K171">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L171">
         <v>3.75</v>
       </c>
       <c r="M171">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="N171">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="O171">
         <v>4</v>
       </c>
       <c r="P171">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q171">
+        <v>-0.75</v>
+      </c>
+      <c r="R171">
+        <v>1.95</v>
+      </c>
+      <c r="S171">
+        <v>1.9</v>
+      </c>
+      <c r="T171">
+        <v>3</v>
+      </c>
+      <c r="U171">
+        <v>2.025</v>
+      </c>
+      <c r="V171">
+        <v>1.825</v>
+      </c>
+      <c r="W171">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>-1</v>
+      </c>
+      <c r="Z171">
+        <v>0.475</v>
+      </c>
+      <c r="AA171">
+        <v>-0.5</v>
+      </c>
+      <c r="AB171">
         <v>0</v>
       </c>
-      <c r="R171">
-        <v>1.875</v>
-      </c>
-      <c r="S171">
-        <v>1.975</v>
-      </c>
-      <c r="T171">
-        <v>3.5</v>
-      </c>
-      <c r="U171">
-        <v>1.9</v>
-      </c>
-      <c r="V171">
-        <v>1.95</v>
-      </c>
-      <c r="W171">
-        <v>-1</v>
-      </c>
-      <c r="X171">
-        <v>3</v>
-      </c>
-      <c r="Y171">
-        <v>-1</v>
-      </c>
-      <c r="Z171">
-        <v>0</v>
-      </c>
-      <c r="AA171">
+      <c r="AC171">
         <v>-0</v>
-      </c>
-      <c r="AB171">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC171">
-        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6846176</v>
+        <v>6846750</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,58 +15868,58 @@
         <v>45156.5625</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G173" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
+        <v>3.5</v>
+      </c>
+      <c r="L173">
+        <v>3.4</v>
+      </c>
+      <c r="M173">
+        <v>1.95</v>
+      </c>
+      <c r="N173">
+        <v>2.8</v>
+      </c>
+      <c r="O173">
+        <v>3.4</v>
+      </c>
+      <c r="P173">
+        <v>2.4</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
         <v>2.1</v>
       </c>
-      <c r="L173">
-        <v>3.5</v>
-      </c>
-      <c r="M173">
-        <v>3.1</v>
-      </c>
-      <c r="N173">
-        <v>2.2</v>
-      </c>
-      <c r="O173">
-        <v>3.6</v>
-      </c>
-      <c r="P173">
-        <v>3.2</v>
-      </c>
-      <c r="Q173">
-        <v>-0.25</v>
-      </c>
-      <c r="R173">
-        <v>1.925</v>
-      </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W173">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15928,16 +15928,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6846750</v>
+        <v>6846176</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15957,58 +15957,58 @@
         <v>45156.5625</v>
       </c>
       <c r="F174" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
         <v>53</v>
       </c>
       <c r="K174">
+        <v>2.1</v>
+      </c>
+      <c r="L174">
         <v>3.5</v>
       </c>
-      <c r="L174">
-        <v>3.4</v>
-      </c>
       <c r="M174">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N174">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O174">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P174">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S174">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V174">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W174">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16017,16 +16017,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC174">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16138,7 +16138,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G177" t="s">
         <v>34</v>
@@ -17025,7 +17025,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G186" t="s">
         <v>47</v>
@@ -17203,7 +17203,7 @@
         <v>45165.35416666666</v>
       </c>
       <c r="F188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G188" t="s">
         <v>44</v>
@@ -17562,7 +17562,7 @@
         <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -18096,7 +18096,7 @@
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18449,7 +18449,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G202" t="s">
         <v>30</v>
@@ -18805,7 +18805,7 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G206" t="s">
         <v>31</v>
@@ -19517,7 +19517,7 @@
         <v>45192.64583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G214" t="s">
         <v>51</v>
@@ -19698,7 +19698,7 @@
         <v>41</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H216">
         <v>3</v>
@@ -20051,7 +20051,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G220" t="s">
         <v>40</v>
@@ -20321,7 +20321,7 @@
         <v>49</v>
       </c>
       <c r="G223" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6846784</v>
+        <v>6846785</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,76 +20852,76 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G229" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H229">
         <v>1</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K229">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="L229">
         <v>3.6</v>
       </c>
       <c r="M229">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P229">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
+        <v>1.975</v>
+      </c>
+      <c r="S229">
         <v>1.875</v>
       </c>
-      <c r="S229">
-        <v>1.975</v>
-      </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X229">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6846787</v>
+        <v>6846784</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,10 +20941,10 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -20956,25 +20956,25 @@
         <v>54</v>
       </c>
       <c r="K230">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="N230">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="O230">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="Q230">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R230">
         <v>1.875</v>
@@ -20983,34 +20983,34 @@
         <v>1.975</v>
       </c>
       <c r="T230">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21018,7 +21018,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6846785</v>
+        <v>6846787</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21030,49 +21030,49 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G231" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H231">
         <v>1</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K231">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M231">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="N231">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="O231">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P231">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R231">
+        <v>1.875</v>
+      </c>
+      <c r="S231">
         <v>1.975</v>
       </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
         <v>1.9</v>
@@ -21081,19 +21081,19 @@
         <v>1.95</v>
       </c>
       <c r="W231">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
         <v>-1</v>
@@ -21119,7 +21119,7 @@
         <v>45206.64583333334</v>
       </c>
       <c r="F232" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G232" t="s">
         <v>35</v>
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6846183</v>
+        <v>6846791</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,58 +21475,58 @@
         <v>45219.5625</v>
       </c>
       <c r="F236" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G236" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
         <v>53</v>
       </c>
       <c r="K236">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L236">
         <v>3.8</v>
       </c>
       <c r="M236">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N236">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O236">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P236">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U236">
+        <v>1.8</v>
+      </c>
+      <c r="V236">
         <v>2.05</v>
       </c>
-      <c r="V236">
-        <v>1.8</v>
-      </c>
       <c r="W236">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21535,16 +21535,16 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA236">
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC236">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21552,7 +21552,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6846791</v>
+        <v>6846183</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21564,58 +21564,58 @@
         <v>45219.5625</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G237" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
         <v>53</v>
       </c>
       <c r="K237">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L237">
         <v>3.8</v>
       </c>
       <c r="M237">
+        <v>3.8</v>
+      </c>
+      <c r="N237">
+        <v>1.727</v>
+      </c>
+      <c r="O237">
+        <v>4.2</v>
+      </c>
+      <c r="P237">
+        <v>4.2</v>
+      </c>
+      <c r="Q237">
+        <v>-0.75</v>
+      </c>
+      <c r="R237">
+        <v>1.975</v>
+      </c>
+      <c r="S237">
+        <v>1.875</v>
+      </c>
+      <c r="T237">
         <v>3.25</v>
       </c>
-      <c r="N237">
-        <v>2.15</v>
-      </c>
-      <c r="O237">
-        <v>3.75</v>
-      </c>
-      <c r="P237">
-        <v>3.1</v>
-      </c>
-      <c r="Q237">
-        <v>-0.25</v>
-      </c>
-      <c r="R237">
-        <v>1.9</v>
-      </c>
-      <c r="S237">
-        <v>1.95</v>
-      </c>
-      <c r="T237">
-        <v>3</v>
-      </c>
       <c r="U237">
+        <v>2.05</v>
+      </c>
+      <c r="V237">
         <v>1.8</v>
       </c>
-      <c r="V237">
-        <v>2.05</v>
-      </c>
       <c r="W237">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21624,16 +21624,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC237">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21656,7 +21656,7 @@
         <v>39</v>
       </c>
       <c r="G238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -22009,7 +22009,7 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F242" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G242" t="s">
         <v>31</v>
@@ -22543,7 +22543,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F248" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G248" t="s">
         <v>29</v>
@@ -22991,7 +22991,7 @@
         <v>48</v>
       </c>
       <c r="G253" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H253">
         <v>1</v>
@@ -23169,7 +23169,7 @@
         <v>50</v>
       </c>
       <c r="G255" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -23599,7 +23599,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6846802</v>
+        <v>6846804</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23611,76 +23611,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F260" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G260" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H260">
+        <v>2</v>
+      </c>
+      <c r="I260">
         <v>0</v>
       </c>
-      <c r="I260">
-        <v>3</v>
-      </c>
       <c r="J260" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K260">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L260">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M260">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N260">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O260">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P260">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R260">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S260">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T260">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U260">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V260">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA260">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC260">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23688,7 +23688,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6846804</v>
+        <v>6846802</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23700,76 +23700,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F261" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G261" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261">
+        <v>3</v>
+      </c>
+      <c r="J261" t="s">
+        <v>52</v>
+      </c>
+      <c r="K261">
+        <v>2.1</v>
+      </c>
+      <c r="L261">
+        <v>3.6</v>
+      </c>
+      <c r="M261">
+        <v>3</v>
+      </c>
+      <c r="N261">
+        <v>2.2</v>
+      </c>
+      <c r="O261">
+        <v>3.6</v>
+      </c>
+      <c r="P261">
+        <v>3.1</v>
+      </c>
+      <c r="Q261">
+        <v>-0.25</v>
+      </c>
+      <c r="R261">
+        <v>1.925</v>
+      </c>
+      <c r="S261">
+        <v>1.925</v>
+      </c>
+      <c r="T261">
+        <v>3</v>
+      </c>
+      <c r="U261">
+        <v>1.8</v>
+      </c>
+      <c r="V261">
+        <v>2.05</v>
+      </c>
+      <c r="W261">
+        <v>-1</v>
+      </c>
+      <c r="X261">
+        <v>-1</v>
+      </c>
+      <c r="Y261">
+        <v>2.1</v>
+      </c>
+      <c r="Z261">
+        <v>-1</v>
+      </c>
+      <c r="AA261">
+        <v>0.925</v>
+      </c>
+      <c r="AB261">
         <v>0</v>
       </c>
-      <c r="J261" t="s">
-        <v>53</v>
-      </c>
-      <c r="K261">
-        <v>1.6</v>
-      </c>
-      <c r="L261">
-        <v>4</v>
-      </c>
-      <c r="M261">
-        <v>4.5</v>
-      </c>
-      <c r="N261">
-        <v>1.55</v>
-      </c>
-      <c r="O261">
-        <v>4</v>
-      </c>
-      <c r="P261">
-        <v>6</v>
-      </c>
-      <c r="Q261">
-        <v>-1</v>
-      </c>
-      <c r="R261">
-        <v>1.9</v>
-      </c>
-      <c r="S261">
-        <v>1.95</v>
-      </c>
-      <c r="T261">
-        <v>2.75</v>
-      </c>
-      <c r="U261">
-        <v>1.95</v>
-      </c>
-      <c r="V261">
-        <v>1.9</v>
-      </c>
-      <c r="W261">
-        <v>0.55</v>
-      </c>
-      <c r="X261">
-        <v>-1</v>
-      </c>
-      <c r="Y261">
-        <v>-1</v>
-      </c>
-      <c r="Z261">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA261">
-        <v>-1</v>
-      </c>
-      <c r="AB261">
-        <v>-1</v>
-      </c>
       <c r="AC261">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23789,7 +23789,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F262" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G262" t="s">
         <v>49</v>
@@ -23866,7 +23866,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6846153</v>
+        <v>6846185</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23878,76 +23878,76 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G263" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K263">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L263">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M263">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N263">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="O263">
         <v>4</v>
       </c>
       <c r="P263">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q263">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R263">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S263">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T263">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U263">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V263">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC263">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23955,7 +23955,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6846185</v>
+        <v>6846153</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23967,76 +23967,76 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F264" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G264" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K264">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L264">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M264">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N264">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="O264">
         <v>4</v>
       </c>
       <c r="P264">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q264">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R264">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S264">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T264">
+        <v>2.75</v>
+      </c>
+      <c r="U264">
+        <v>1.975</v>
+      </c>
+      <c r="V264">
+        <v>1.875</v>
+      </c>
+      <c r="W264">
+        <v>-1</v>
+      </c>
+      <c r="X264">
         <v>3</v>
       </c>
-      <c r="U264">
-        <v>2.025</v>
-      </c>
-      <c r="V264">
-        <v>1.825</v>
-      </c>
-      <c r="W264">
-        <v>-1</v>
-      </c>
-      <c r="X264">
-        <v>-1</v>
-      </c>
       <c r="Y264">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
         <v>-1</v>
       </c>
       <c r="AA264">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24593,7 +24593,7 @@
         <v>44</v>
       </c>
       <c r="G271" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H271">
         <v>1</v>
@@ -24667,7 +24667,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6845842</v>
+        <v>6846813</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24679,76 +24679,76 @@
         <v>45254.60416666666</v>
       </c>
       <c r="F272" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G272" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H272">
         <v>2</v>
       </c>
       <c r="I272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K272">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L272">
+        <v>4.5</v>
+      </c>
+      <c r="M272">
+        <v>7</v>
+      </c>
+      <c r="N272">
+        <v>1.363</v>
+      </c>
+      <c r="O272">
+        <v>5.75</v>
+      </c>
+      <c r="P272">
+        <v>7</v>
+      </c>
+      <c r="Q272">
+        <v>-1.5</v>
+      </c>
+      <c r="R272">
+        <v>1.85</v>
+      </c>
+      <c r="S272">
+        <v>2</v>
+      </c>
+      <c r="T272">
         <v>3.5</v>
       </c>
-      <c r="M272">
-        <v>3</v>
-      </c>
-      <c r="N272">
-        <v>2.1</v>
-      </c>
-      <c r="O272">
-        <v>3.4</v>
-      </c>
-      <c r="P272">
-        <v>3.4</v>
-      </c>
-      <c r="Q272">
-        <v>-0.25</v>
-      </c>
-      <c r="R272">
+      <c r="U272">
+        <v>1.975</v>
+      </c>
+      <c r="V272">
         <v>1.875</v>
       </c>
-      <c r="S272">
-        <v>1.975</v>
-      </c>
-      <c r="T272">
-        <v>2.75</v>
-      </c>
-      <c r="U272">
-        <v>1.925</v>
-      </c>
-      <c r="V272">
-        <v>1.925</v>
-      </c>
       <c r="W272">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X272">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA272">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB272">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC272">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24756,7 +24756,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6846813</v>
+        <v>6845842</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24768,76 +24768,76 @@
         <v>45254.60416666666</v>
       </c>
       <c r="F273" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G273" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H273">
         <v>2</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J273" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K273">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L273">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M273">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N273">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O273">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P273">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q273">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R273">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S273">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T273">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U273">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V273">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W273">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X273">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y273">
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA273">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB273">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC273">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24857,10 +24857,10 @@
         <v>45255.375</v>
       </c>
       <c r="F274" t="s">
+        <v>46</v>
+      </c>
+      <c r="G274" t="s">
         <v>45</v>
-      </c>
-      <c r="G274" t="s">
-        <v>46</v>
       </c>
       <c r="H274">
         <v>2</v>
@@ -25480,7 +25480,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F281" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G281" t="s">
         <v>37</v>
@@ -26195,7 +26195,7 @@
         <v>29</v>
       </c>
       <c r="G289" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H289">
         <v>2</v>
@@ -26536,7 +26536,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6846829</v>
+        <v>6846826</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26548,49 +26548,49 @@
         <v>45269.375</v>
       </c>
       <c r="F293" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G293" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H293">
         <v>1</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K293">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L293">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M293">
+        <v>4.5</v>
+      </c>
+      <c r="N293">
+        <v>1.65</v>
+      </c>
+      <c r="O293">
+        <v>4.5</v>
+      </c>
+      <c r="P293">
+        <v>4.333</v>
+      </c>
+      <c r="Q293">
+        <v>-1</v>
+      </c>
+      <c r="R293">
+        <v>2.05</v>
+      </c>
+      <c r="S293">
+        <v>1.8</v>
+      </c>
+      <c r="T293">
         <v>3.5</v>
-      </c>
-      <c r="N293">
-        <v>1.95</v>
-      </c>
-      <c r="O293">
-        <v>3.6</v>
-      </c>
-      <c r="P293">
-        <v>3.75</v>
-      </c>
-      <c r="Q293">
-        <v>-0.5</v>
-      </c>
-      <c r="R293">
-        <v>2</v>
-      </c>
-      <c r="S293">
-        <v>1.85</v>
-      </c>
-      <c r="T293">
-        <v>2.75</v>
       </c>
       <c r="U293">
         <v>1.925</v>
@@ -26602,16 +26602,16 @@
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB293">
         <v>-1</v>
@@ -26625,7 +26625,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6846826</v>
+        <v>6846829</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26637,49 +26637,49 @@
         <v>45269.375</v>
       </c>
       <c r="F294" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G294" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H294">
         <v>1</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K294">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L294">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M294">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N294">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O294">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P294">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q294">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R294">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S294">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T294">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U294">
         <v>1.925</v>
@@ -26691,16 +26691,16 @@
         <v>-1</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y294">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB294">
         <v>-1</v>
@@ -26729,7 +26729,7 @@
         <v>47</v>
       </c>
       <c r="G295" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -26993,7 +26993,7 @@
         <v>45270.39583333334</v>
       </c>
       <c r="F298" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G298" t="s">
         <v>51</v>
@@ -27085,7 +27085,7 @@
         <v>39</v>
       </c>
       <c r="G299" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H299">
         <v>3</v>
@@ -27604,7 +27604,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6846157</v>
+        <v>6846188</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27616,76 +27616,76 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F305" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G305" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K305">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L305">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M305">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="N305">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="O305">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P305">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="Q305">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R305">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S305">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
         <v>3</v>
       </c>
       <c r="U305">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V305">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X305">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA305">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC305">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27693,7 +27693,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6846188</v>
+        <v>6846157</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27705,76 +27705,76 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F306" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G306" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H306">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K306">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L306">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M306">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N306">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="O306">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P306">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="Q306">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R306">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S306">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T306">
         <v>3</v>
       </c>
       <c r="U306">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V306">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W306">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
+        <v>-1</v>
+      </c>
+      <c r="AA306">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB306">
+        <v>-1</v>
+      </c>
+      <c r="AC306">
         <v>1.025</v>
-      </c>
-      <c r="AA306">
-        <v>-1</v>
-      </c>
-      <c r="AB306">
-        <v>0.925</v>
-      </c>
-      <c r="AC306">
-        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -28049,7 +28049,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7625866</v>
+        <v>7625887</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28061,13 +28061,13 @@
         <v>45311.375</v>
       </c>
       <c r="F310" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G310" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H310">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310">
         <v>0</v>
@@ -28076,43 +28076,43 @@
         <v>53</v>
       </c>
       <c r="K310">
+        <v>1.5</v>
+      </c>
+      <c r="L310">
+        <v>4.333</v>
+      </c>
+      <c r="M310">
+        <v>6.5</v>
+      </c>
+      <c r="N310">
+        <v>1.45</v>
+      </c>
+      <c r="O310">
+        <v>4.5</v>
+      </c>
+      <c r="P310">
+        <v>6.5</v>
+      </c>
+      <c r="Q310">
+        <v>-1.25</v>
+      </c>
+      <c r="R310">
+        <v>2.05</v>
+      </c>
+      <c r="S310">
         <v>1.8</v>
-      </c>
-      <c r="L310">
-        <v>3.75</v>
-      </c>
-      <c r="M310">
-        <v>4.333</v>
-      </c>
-      <c r="N310">
-        <v>1.95</v>
-      </c>
-      <c r="O310">
-        <v>3.75</v>
-      </c>
-      <c r="P310">
-        <v>3.8</v>
-      </c>
-      <c r="Q310">
-        <v>-0.5</v>
-      </c>
-      <c r="R310">
-        <v>1.925</v>
-      </c>
-      <c r="S310">
-        <v>1.925</v>
       </c>
       <c r="T310">
         <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V310">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W310">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="X310">
         <v>-1</v>
@@ -28121,16 +28121,16 @@
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA310">
         <v>-1</v>
       </c>
       <c r="AB310">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC310">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28138,7 +28138,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7625887</v>
+        <v>7625866</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28150,13 +28150,13 @@
         <v>45311.375</v>
       </c>
       <c r="F311" t="s">
+        <v>35</v>
+      </c>
+      <c r="G311" t="s">
         <v>46</v>
       </c>
-      <c r="G311" t="s">
-        <v>41</v>
-      </c>
       <c r="H311">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I311">
         <v>0</v>
@@ -28165,61 +28165,61 @@
         <v>53</v>
       </c>
       <c r="K311">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L311">
+        <v>3.75</v>
+      </c>
+      <c r="M311">
         <v>4.333</v>
       </c>
-      <c r="M311">
-        <v>6.5</v>
-      </c>
       <c r="N311">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O311">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P311">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q311">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R311">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S311">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T311">
         <v>2.75</v>
       </c>
       <c r="U311">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V311">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W311">
+        <v>0.95</v>
+      </c>
+      <c r="X311">
+        <v>-1</v>
+      </c>
+      <c r="Y311">
+        <v>-1</v>
+      </c>
+      <c r="Z311">
+        <v>0.925</v>
+      </c>
+      <c r="AA311">
+        <v>-1</v>
+      </c>
+      <c r="AB311">
         <v>0.45</v>
       </c>
-      <c r="X311">
-        <v>-1</v>
-      </c>
-      <c r="Y311">
-        <v>-1</v>
-      </c>
-      <c r="Z311">
-        <v>1.05</v>
-      </c>
-      <c r="AA311">
-        <v>-1</v>
-      </c>
-      <c r="AB311">
-        <v>-1</v>
-      </c>
       <c r="AC311">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28494,7 +28494,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6846842</v>
+        <v>6846839</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28506,40 +28506,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F315" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G315" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H315">
+        <v>0</v>
+      </c>
+      <c r="I315">
         <v>1</v>
       </c>
-      <c r="I315">
-        <v>0</v>
-      </c>
       <c r="J315" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K315">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L315">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M315">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N315">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O315">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P315">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q315">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R315">
         <v>2.05</v>
@@ -28551,31 +28551,31 @@
         <v>3</v>
       </c>
       <c r="U315">
+        <v>2.025</v>
+      </c>
+      <c r="V315">
         <v>1.825</v>
       </c>
-      <c r="V315">
-        <v>2.025</v>
-      </c>
       <c r="W315">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X315">
         <v>-1</v>
       </c>
       <c r="Y315">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB315">
         <v>-1</v>
       </c>
       <c r="AC315">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28583,7 +28583,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6846839</v>
+        <v>6846842</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28595,40 +28595,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F316" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G316" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H316">
+        <v>1</v>
+      </c>
+      <c r="I316">
         <v>0</v>
       </c>
-      <c r="I316">
-        <v>1</v>
-      </c>
       <c r="J316" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K316">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L316">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M316">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N316">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O316">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P316">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q316">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R316">
         <v>2.05</v>
@@ -28640,31 +28640,31 @@
         <v>3</v>
       </c>
       <c r="U316">
+        <v>1.825</v>
+      </c>
+      <c r="V316">
         <v>2.025</v>
       </c>
-      <c r="V316">
-        <v>1.825</v>
-      </c>
       <c r="W316">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X316">
         <v>-1</v>
       </c>
       <c r="Y316">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA316">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB316">
         <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28672,7 +28672,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6846845</v>
+        <v>6846846</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28684,58 +28684,58 @@
         <v>45317.60416666666</v>
       </c>
       <c r="F317" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G317" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H317">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" t="s">
         <v>53</v>
       </c>
       <c r="K317">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L317">
         <v>3.5</v>
       </c>
       <c r="M317">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N317">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O317">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P317">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q317">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S317">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T317">
         <v>2.75</v>
       </c>
       <c r="U317">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V317">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W317">
-        <v>1.6</v>
+        <v>0.833</v>
       </c>
       <c r="X317">
         <v>-1</v>
@@ -28744,16 +28744,16 @@
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA317">
         <v>-1</v>
       </c>
       <c r="AB317">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC317">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28761,7 +28761,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6846846</v>
+        <v>6846845</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28773,58 +28773,58 @@
         <v>45317.60416666666</v>
       </c>
       <c r="F318" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G318" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H318">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J318" t="s">
         <v>53</v>
       </c>
       <c r="K318">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L318">
         <v>3.5</v>
       </c>
       <c r="M318">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N318">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O318">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P318">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q318">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R318">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S318">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T318">
         <v>2.75</v>
       </c>
       <c r="U318">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V318">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W318">
-        <v>0.833</v>
+        <v>1.6</v>
       </c>
       <c r="X318">
         <v>-1</v>
@@ -28833,16 +28833,16 @@
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA318">
         <v>-1</v>
       </c>
       <c r="AB318">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC318">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28951,7 +28951,7 @@
         <v>45318.375</v>
       </c>
       <c r="F320" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G320" t="s">
         <v>50</v>
@@ -29132,7 +29132,7 @@
         <v>30</v>
       </c>
       <c r="G322" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H322">
         <v>1</v>
@@ -29206,7 +29206,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6846847</v>
+        <v>6846848</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29218,58 +29218,58 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F323" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G323" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
         <v>53</v>
       </c>
       <c r="K323">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L323">
         <v>3.7</v>
       </c>
       <c r="M323">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N323">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O323">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P323">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q323">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R323">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S323">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T323">
         <v>2.75</v>
       </c>
       <c r="U323">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V323">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W323">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="X323">
         <v>-1</v>
@@ -29278,16 +29278,16 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA323">
         <v>-1</v>
       </c>
       <c r="AB323">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC323">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29295,7 +29295,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6846844</v>
+        <v>6846847</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29307,76 +29307,76 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F324" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G324" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H324">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J324" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K324">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L324">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M324">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N324">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O324">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P324">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q324">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R324">
+        <v>1.975</v>
+      </c>
+      <c r="S324">
+        <v>1.875</v>
+      </c>
+      <c r="T324">
+        <v>2.75</v>
+      </c>
+      <c r="U324">
         <v>1.85</v>
       </c>
-      <c r="S324">
-        <v>2</v>
-      </c>
-      <c r="T324">
-        <v>3.5</v>
-      </c>
-      <c r="U324">
-        <v>1.95</v>
-      </c>
       <c r="V324">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W324">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA324">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC324">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29384,7 +29384,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6846848</v>
+        <v>6846844</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29396,76 +29396,76 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F325" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G325" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H325">
+        <v>3</v>
+      </c>
+      <c r="I325">
+        <v>4</v>
+      </c>
+      <c r="J325" t="s">
+        <v>52</v>
+      </c>
+      <c r="K325">
+        <v>1.6</v>
+      </c>
+      <c r="L325">
+        <v>4.2</v>
+      </c>
+      <c r="M325">
+        <v>4.75</v>
+      </c>
+      <c r="N325">
+        <v>1.533</v>
+      </c>
+      <c r="O325">
+        <v>4.5</v>
+      </c>
+      <c r="P325">
+        <v>5.75</v>
+      </c>
+      <c r="Q325">
+        <v>-1</v>
+      </c>
+      <c r="R325">
+        <v>1.85</v>
+      </c>
+      <c r="S325">
+        <v>2</v>
+      </c>
+      <c r="T325">
+        <v>3.5</v>
+      </c>
+      <c r="U325">
+        <v>1.95</v>
+      </c>
+      <c r="V325">
+        <v>1.9</v>
+      </c>
+      <c r="W325">
+        <v>-1</v>
+      </c>
+      <c r="X325">
+        <v>-1</v>
+      </c>
+      <c r="Y325">
+        <v>4.75</v>
+      </c>
+      <c r="Z325">
+        <v>-1</v>
+      </c>
+      <c r="AA325">
         <v>1</v>
       </c>
-      <c r="I325">
-        <v>0</v>
-      </c>
-      <c r="J325" t="s">
-        <v>53</v>
-      </c>
-      <c r="K325">
-        <v>2.75</v>
-      </c>
-      <c r="L325">
-        <v>3.7</v>
-      </c>
-      <c r="M325">
-        <v>2.3</v>
-      </c>
-      <c r="N325">
-        <v>2.3</v>
-      </c>
-      <c r="O325">
-        <v>3.6</v>
-      </c>
-      <c r="P325">
-        <v>2.875</v>
-      </c>
-      <c r="Q325">
-        <v>0</v>
-      </c>
-      <c r="R325">
-        <v>1.75</v>
-      </c>
-      <c r="S325">
-        <v>2.05</v>
-      </c>
-      <c r="T325">
-        <v>2.75</v>
-      </c>
-      <c r="U325">
-        <v>1.925</v>
-      </c>
-      <c r="V325">
-        <v>1.925</v>
-      </c>
-      <c r="W325">
-        <v>1.3</v>
-      </c>
-      <c r="X325">
-        <v>-1</v>
-      </c>
-      <c r="Y325">
-        <v>-1</v>
-      </c>
-      <c r="Z325">
-        <v>0.75</v>
-      </c>
-      <c r="AA325">
-        <v>-1</v>
-      </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC325">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29752,7 +29752,7 @@
         <v>45325.375</v>
       </c>
       <c r="F329" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G329" t="s">
         <v>43</v>
@@ -30007,7 +30007,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6846191</v>
+        <v>6846852</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30019,10 +30019,10 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F332" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G332" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H332">
         <v>2</v>
@@ -30034,43 +30034,43 @@
         <v>53</v>
       </c>
       <c r="K332">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L332">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M332">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="N332">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O332">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P332">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q332">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R332">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S332">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T332">
         <v>2.75</v>
       </c>
       <c r="U332">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V332">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W332">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="X332">
         <v>-1</v>
@@ -30079,13 +30079,13 @@
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB332">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
       <c r="AC332">
         <v>-0.5</v>
@@ -30096,7 +30096,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6846852</v>
+        <v>6846850</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30108,58 +30108,58 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F333" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G333" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I333">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J333" t="s">
         <v>53</v>
       </c>
       <c r="K333">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="L333">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M333">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N333">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O333">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P333">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q333">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R333">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S333">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T333">
         <v>2.75</v>
       </c>
       <c r="U333">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V333">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W333">
-        <v>0.5</v>
+        <v>1.55</v>
       </c>
       <c r="X333">
         <v>-1</v>
@@ -30168,16 +30168,16 @@
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA333">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AC333">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30185,7 +30185,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6846850</v>
+        <v>6846191</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30197,58 +30197,58 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F334" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G334" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H334">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I334">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J334" t="s">
         <v>53</v>
       </c>
       <c r="K334">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L334">
         <v>3.75</v>
       </c>
       <c r="M334">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N334">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O334">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P334">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q334">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R334">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S334">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T334">
         <v>2.75</v>
       </c>
       <c r="U334">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V334">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W334">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="X334">
         <v>-1</v>
@@ -30257,16 +30257,16 @@
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA334">
         <v>-1</v>
       </c>
       <c r="AB334">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC334">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30556,7 +30556,7 @@
         <v>44</v>
       </c>
       <c r="G338" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -31001,7 +31001,7 @@
         <v>47</v>
       </c>
       <c r="G343" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H343">
         <v>0</v>
@@ -31075,7 +31075,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6846865</v>
+        <v>6845834</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31087,16 +31087,16 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F344" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G344" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J344" t="s">
         <v>53</v>
@@ -31105,40 +31105,40 @@
         <v>2.15</v>
       </c>
       <c r="L344">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M344">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N344">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O344">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P344">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q344">
         <v>-0.25</v>
       </c>
       <c r="R344">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S344">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T344">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U344">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V344">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W344">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="X344">
         <v>-1</v>
@@ -31147,16 +31147,16 @@
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA344">
         <v>-1</v>
       </c>
       <c r="AB344">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC344">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31164,7 +31164,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6845834</v>
+        <v>6846865</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31176,16 +31176,16 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F345" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G345" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J345" t="s">
         <v>53</v>
@@ -31194,40 +31194,40 @@
         <v>2.15</v>
       </c>
       <c r="L345">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M345">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N345">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O345">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P345">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q345">
         <v>-0.25</v>
       </c>
       <c r="R345">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S345">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T345">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U345">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V345">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W345">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="X345">
         <v>-1</v>
@@ -31236,16 +31236,16 @@
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA345">
         <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC345">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31253,7 +31253,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6846864</v>
+        <v>6846867</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31262,49 +31262,49 @@
         <v>28</v>
       </c>
       <c r="E346" s="2">
-        <v>45339.6875</v>
+        <v>45340.39583333334</v>
       </c>
       <c r="F346" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G346" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K346">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L346">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M346">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N346">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O346">
         <v>3.6</v>
       </c>
       <c r="P346">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q346">
         <v>0</v>
       </c>
       <c r="R346">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S346">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T346">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U346">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V346">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W346">
         <v>0</v>
@@ -31327,7 +31327,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6846867</v>
+        <v>6846193</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31339,46 +31339,46 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F347" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G347" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K347">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L347">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M347">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="N347">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O347">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P347">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q347">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R347">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S347">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U347">
+        <v>2.025</v>
+      </c>
+      <c r="V347">
         <v>1.825</v>
-      </c>
-      <c r="V347">
-        <v>2.025</v>
       </c>
       <c r="W347">
         <v>0</v>
@@ -31401,7 +31401,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6846193</v>
+        <v>6846162</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31413,31 +31413,31 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F348" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G348" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K348">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="L348">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M348">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N348">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O348">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P348">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q348">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R348">
         <v>1.825</v>
@@ -31446,13 +31446,13 @@
         <v>2.025</v>
       </c>
       <c r="T348">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U348">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V348">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W348">
         <v>0</v>
@@ -31467,80 +31467,6 @@
         <v>0</v>
       </c>
       <c r="AA348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:29">
-      <c r="A349" s="1">
-        <v>347</v>
-      </c>
-      <c r="B349">
-        <v>6846162</v>
-      </c>
-      <c r="C349" t="s">
-        <v>28</v>
-      </c>
-      <c r="D349" t="s">
-        <v>28</v>
-      </c>
-      <c r="E349" s="2">
-        <v>45340.39583333334</v>
-      </c>
-      <c r="F349" t="s">
-        <v>46</v>
-      </c>
-      <c r="G349" t="s">
-        <v>40</v>
-      </c>
-      <c r="K349">
-        <v>1.45</v>
-      </c>
-      <c r="L349">
-        <v>4.5</v>
-      </c>
-      <c r="M349">
-        <v>6.5</v>
-      </c>
-      <c r="N349">
-        <v>1.363</v>
-      </c>
-      <c r="O349">
-        <v>4.75</v>
-      </c>
-      <c r="P349">
-        <v>8.5</v>
-      </c>
-      <c r="Q349">
-        <v>-1.25</v>
-      </c>
-      <c r="R349">
-        <v>1.8</v>
-      </c>
-      <c r="S349">
-        <v>2.05</v>
-      </c>
-      <c r="T349">
-        <v>2.75</v>
-      </c>
-      <c r="U349">
-        <v>1.925</v>
-      </c>
-      <c r="V349">
-        <v>1.925</v>
-      </c>
-      <c r="W349">
-        <v>0</v>
-      </c>
-      <c r="X349">
-        <v>0</v>
-      </c>
-      <c r="Y349">
-        <v>0</v>
-      </c>
-      <c r="Z349">
-        <v>0</v>
-      </c>
-      <c r="AA349">
         <v>0</v>
       </c>
     </row>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -26002,7 +26002,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6846821</v>
+        <v>6845841</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26014,73 +26014,73 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F287" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G287" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K287">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="L287">
+        <v>3.75</v>
+      </c>
+      <c r="M287">
+        <v>3.25</v>
+      </c>
+      <c r="N287">
+        <v>1.909</v>
+      </c>
+      <c r="O287">
+        <v>4</v>
+      </c>
+      <c r="P287">
         <v>3.6</v>
       </c>
-      <c r="M287">
-        <v>3.9</v>
-      </c>
-      <c r="N287">
-        <v>1.533</v>
-      </c>
-      <c r="O287">
-        <v>4.333</v>
-      </c>
-      <c r="P287">
-        <v>6</v>
-      </c>
       <c r="Q287">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R287">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S287">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T287">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U287">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V287">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X287">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA287">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC287">
         <v>-1</v>
@@ -26091,7 +26091,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6846820</v>
+        <v>6846821</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26103,76 +26103,76 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F288" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G288" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J288" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K288">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="L288">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M288">
-        <v>2.875</v>
+        <v>3.9</v>
       </c>
       <c r="N288">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="O288">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P288">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q288">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R288">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S288">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T288">
         <v>2.75</v>
       </c>
       <c r="U288">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V288">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W288">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC288">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26180,7 +26180,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6845841</v>
+        <v>6846820</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26192,58 +26192,58 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F289" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G289" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H289">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J289" t="s">
         <v>53</v>
       </c>
       <c r="K289">
+        <v>2.3</v>
+      </c>
+      <c r="L289">
+        <v>3.5</v>
+      </c>
+      <c r="M289">
+        <v>2.875</v>
+      </c>
+      <c r="N289">
+        <v>2.8</v>
+      </c>
+      <c r="O289">
+        <v>3.4</v>
+      </c>
+      <c r="P289">
+        <v>2.55</v>
+      </c>
+      <c r="Q289">
+        <v>0</v>
+      </c>
+      <c r="R289">
         <v>2.05</v>
       </c>
-      <c r="L289">
-        <v>3.75</v>
-      </c>
-      <c r="M289">
-        <v>3.25</v>
-      </c>
-      <c r="N289">
-        <v>1.909</v>
-      </c>
-      <c r="O289">
-        <v>4</v>
-      </c>
-      <c r="P289">
-        <v>3.6</v>
-      </c>
-      <c r="Q289">
-        <v>-0.5</v>
-      </c>
-      <c r="R289">
+      <c r="S289">
+        <v>1.8</v>
+      </c>
+      <c r="T289">
+        <v>2.75</v>
+      </c>
+      <c r="U289">
         <v>1.925</v>
       </c>
-      <c r="S289">
+      <c r="V289">
         <v>1.925</v>
       </c>
-      <c r="T289">
-        <v>3</v>
-      </c>
-      <c r="U289">
-        <v>1.875</v>
-      </c>
-      <c r="V289">
-        <v>1.975</v>
-      </c>
       <c r="W289">
-        <v>0.909</v>
+        <v>1.8</v>
       </c>
       <c r="X289">
         <v>-1</v>
@@ -26252,16 +26252,16 @@
         <v>-1</v>
       </c>
       <c r="Z289">
+        <v>1.05</v>
+      </c>
+      <c r="AA289">
+        <v>-1</v>
+      </c>
+      <c r="AB289">
+        <v>-1</v>
+      </c>
+      <c r="AC289">
         <v>0.925</v>
-      </c>
-      <c r="AA289">
-        <v>-1</v>
-      </c>
-      <c r="AB289">
-        <v>0.875</v>
-      </c>
-      <c r="AC289">
-        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26269,7 +26269,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6846831</v>
+        <v>6846828</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26281,73 +26281,73 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F290" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G290" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K290">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L290">
         <v>3.5</v>
       </c>
       <c r="M290">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N290">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O290">
         <v>3.5</v>
       </c>
       <c r="P290">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q290">
         <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S290">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T290">
         <v>2.5</v>
       </c>
       <c r="U290">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V290">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W290">
         <v>-1</v>
       </c>
       <c r="X290">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y290">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA290">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB290">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26358,7 +26358,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6846828</v>
+        <v>6846831</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26370,73 +26370,73 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G291" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J291" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K291">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L291">
         <v>3.5</v>
       </c>
       <c r="M291">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N291">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O291">
         <v>3.5</v>
       </c>
       <c r="P291">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q291">
         <v>-0.25</v>
       </c>
       <c r="R291">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S291">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T291">
         <v>2.5</v>
       </c>
       <c r="U291">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V291">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W291">
         <v>-1</v>
       </c>
       <c r="X291">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y291">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z291">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA291">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB291">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26447,7 +26447,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6845840</v>
+        <v>6846829</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26459,76 +26459,76 @@
         <v>45269.375</v>
       </c>
       <c r="F292" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G292" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H292">
         <v>1</v>
       </c>
       <c r="I292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K292">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L292">
+        <v>3.75</v>
+      </c>
+      <c r="M292">
+        <v>3.5</v>
+      </c>
+      <c r="N292">
+        <v>1.95</v>
+      </c>
+      <c r="O292">
         <v>3.6</v>
       </c>
-      <c r="M292">
-        <v>2.5</v>
-      </c>
-      <c r="N292">
-        <v>2.15</v>
-      </c>
-      <c r="O292">
-        <v>3.8</v>
-      </c>
       <c r="P292">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q292">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R292">
+        <v>2</v>
+      </c>
+      <c r="S292">
         <v>1.85</v>
       </c>
-      <c r="S292">
-        <v>2</v>
-      </c>
       <c r="T292">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U292">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V292">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W292">
         <v>-1</v>
       </c>
       <c r="X292">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y292">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB292">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC292">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26536,7 +26536,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6846826</v>
+        <v>6845840</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26548,10 +26548,10 @@
         <v>45269.375</v>
       </c>
       <c r="F293" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G293" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -26563,40 +26563,40 @@
         <v>52</v>
       </c>
       <c r="K293">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="L293">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M293">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N293">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O293">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P293">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q293">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S293">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T293">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U293">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V293">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W293">
         <v>-1</v>
@@ -26605,19 +26605,19 @@
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>3.333</v>
+        <v>2.1</v>
       </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC293">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26625,7 +26625,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6846829</v>
+        <v>6846826</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26637,49 +26637,49 @@
         <v>45269.375</v>
       </c>
       <c r="F294" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G294" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H294">
         <v>1</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K294">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L294">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M294">
+        <v>4.5</v>
+      </c>
+      <c r="N294">
+        <v>1.65</v>
+      </c>
+      <c r="O294">
+        <v>4.5</v>
+      </c>
+      <c r="P294">
+        <v>4.333</v>
+      </c>
+      <c r="Q294">
+        <v>-1</v>
+      </c>
+      <c r="R294">
+        <v>2.05</v>
+      </c>
+      <c r="S294">
+        <v>1.8</v>
+      </c>
+      <c r="T294">
         <v>3.5</v>
-      </c>
-      <c r="N294">
-        <v>1.95</v>
-      </c>
-      <c r="O294">
-        <v>3.6</v>
-      </c>
-      <c r="P294">
-        <v>3.75</v>
-      </c>
-      <c r="Q294">
-        <v>-0.5</v>
-      </c>
-      <c r="R294">
-        <v>2</v>
-      </c>
-      <c r="S294">
-        <v>1.85</v>
-      </c>
-      <c r="T294">
-        <v>2.75</v>
       </c>
       <c r="U294">
         <v>1.925</v>
@@ -26691,16 +26691,16 @@
         <v>-1</v>
       </c>
       <c r="X294">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB294">
         <v>-1</v>
@@ -27070,7 +27070,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6846833</v>
+        <v>6846832</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27082,76 +27082,76 @@
         <v>45275.60416666666</v>
       </c>
       <c r="F299" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G299" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H299">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J299" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K299">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L299">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M299">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N299">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O299">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P299">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q299">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R299">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S299">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T299">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U299">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V299">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W299">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X299">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA299">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB299">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC299">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27159,7 +27159,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6846832</v>
+        <v>6846833</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27171,76 +27171,76 @@
         <v>45275.60416666666</v>
       </c>
       <c r="F300" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G300" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I300">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K300">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L300">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M300">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N300">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O300">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P300">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R300">
+        <v>1.925</v>
+      </c>
+      <c r="S300">
+        <v>1.925</v>
+      </c>
+      <c r="T300">
+        <v>3</v>
+      </c>
+      <c r="U300">
+        <v>2</v>
+      </c>
+      <c r="V300">
         <v>1.85</v>
       </c>
-      <c r="S300">
-        <v>2</v>
-      </c>
-      <c r="T300">
-        <v>2.75</v>
-      </c>
-      <c r="U300">
-        <v>1.975</v>
-      </c>
-      <c r="V300">
-        <v>1.875</v>
-      </c>
       <c r="W300">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X300">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA300">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB300">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC300">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -28049,7 +28049,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7625866</v>
+        <v>6846189</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28061,76 +28061,76 @@
         <v>45311.375</v>
       </c>
       <c r="F310" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G310" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H310">
+        <v>2</v>
+      </c>
+      <c r="I310">
+        <v>2</v>
+      </c>
+      <c r="J310" t="s">
+        <v>54</v>
+      </c>
+      <c r="K310">
+        <v>2.25</v>
+      </c>
+      <c r="L310">
+        <v>3.6</v>
+      </c>
+      <c r="M310">
         <v>3</v>
       </c>
-      <c r="I310">
-        <v>0</v>
-      </c>
-      <c r="J310" t="s">
-        <v>53</v>
-      </c>
-      <c r="K310">
-        <v>1.8</v>
-      </c>
-      <c r="L310">
-        <v>3.75</v>
-      </c>
-      <c r="M310">
-        <v>4.333</v>
-      </c>
       <c r="N310">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O310">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P310">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q310">
         <v>-0.5</v>
       </c>
       <c r="R310">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S310">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T310">
         <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V310">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W310">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA310">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB310">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC310">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28138,7 +28138,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6846189</v>
+        <v>7625887</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28150,76 +28150,76 @@
         <v>45311.375</v>
       </c>
       <c r="F311" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G311" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H311">
         <v>2</v>
       </c>
       <c r="I311">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K311">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L311">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M311">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N311">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O311">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P311">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q311">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R311">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S311">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T311">
         <v>2.75</v>
       </c>
       <c r="U311">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V311">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X311">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA311">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28227,7 +28227,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7625887</v>
+        <v>7625866</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28239,13 +28239,13 @@
         <v>45311.375</v>
       </c>
       <c r="F312" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G312" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I312">
         <v>0</v>
@@ -28254,61 +28254,61 @@
         <v>53</v>
       </c>
       <c r="K312">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L312">
+        <v>3.75</v>
+      </c>
+      <c r="M312">
         <v>4.333</v>
       </c>
-      <c r="M312">
-        <v>6.5</v>
-      </c>
       <c r="N312">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O312">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P312">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q312">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R312">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S312">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T312">
         <v>2.75</v>
       </c>
       <c r="U312">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V312">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W312">
+        <v>0.95</v>
+      </c>
+      <c r="X312">
+        <v>-1</v>
+      </c>
+      <c r="Y312">
+        <v>-1</v>
+      </c>
+      <c r="Z312">
+        <v>0.925</v>
+      </c>
+      <c r="AA312">
+        <v>-1</v>
+      </c>
+      <c r="AB312">
         <v>0.45</v>
       </c>
-      <c r="X312">
-        <v>-1</v>
-      </c>
-      <c r="Y312">
-        <v>-1</v>
-      </c>
-      <c r="Z312">
-        <v>1.05</v>
-      </c>
-      <c r="AA312">
-        <v>-1</v>
-      </c>
-      <c r="AB312">
-        <v>-1</v>
-      </c>
       <c r="AC312">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28494,7 +28494,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6846839</v>
+        <v>6845838</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28506,40 +28506,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F315" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G315" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K315">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L315">
         <v>3.6</v>
       </c>
       <c r="M315">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N315">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O315">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P315">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q315">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R315">
         <v>2.05</v>
@@ -28551,31 +28551,31 @@
         <v>3</v>
       </c>
       <c r="U315">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V315">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W315">
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y315">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z315">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA315">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC315">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28583,7 +28583,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6845838</v>
+        <v>6846839</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28595,40 +28595,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F316" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G316" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K316">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L316">
         <v>3.6</v>
       </c>
       <c r="M316">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N316">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O316">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P316">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q316">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R316">
         <v>2.05</v>
@@ -28640,31 +28640,31 @@
         <v>3</v>
       </c>
       <c r="U316">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V316">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W316">
         <v>-1</v>
       </c>
       <c r="X316">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y316">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z316">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA316">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB316">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC316">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -30452,7 +30452,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6846192</v>
+        <v>6846161</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30464,76 +30464,76 @@
         <v>45332.375</v>
       </c>
       <c r="F337" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G337" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H337">
         <v>1</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K337">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="L337">
+        <v>3.75</v>
+      </c>
+      <c r="M337">
+        <v>1.833</v>
+      </c>
+      <c r="N337">
         <v>4.2</v>
       </c>
-      <c r="M337">
-        <v>4.5</v>
-      </c>
-      <c r="N337">
-        <v>1.85</v>
-      </c>
       <c r="O337">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P337">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q337">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R337">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S337">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T337">
         <v>2.75</v>
       </c>
       <c r="U337">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V337">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W337">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X337">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA337">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB337">
         <v>-1</v>
       </c>
       <c r="AC337">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30541,7 +30541,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>6846859</v>
+        <v>6846192</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30553,46 +30553,46 @@
         <v>45332.375</v>
       </c>
       <c r="F338" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G338" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J338" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K338">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="L338">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M338">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N338">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O338">
         <v>3.8</v>
       </c>
       <c r="P338">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q338">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R338">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S338">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T338">
         <v>2.75</v>
@@ -30604,19 +30604,19 @@
         <v>2.05</v>
       </c>
       <c r="W338">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X338">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y338">
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA338">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB338">
         <v>-1</v>
@@ -30630,7 +30630,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6846161</v>
+        <v>6846859</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30642,13 +30642,13 @@
         <v>45332.375</v>
       </c>
       <c r="F339" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G339" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339">
         <v>0</v>
@@ -30657,43 +30657,43 @@
         <v>53</v>
       </c>
       <c r="K339">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="L339">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M339">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="N339">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="O339">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P339">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q339">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R339">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S339">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T339">
         <v>2.75</v>
       </c>
       <c r="U339">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V339">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W339">
-        <v>3.2</v>
+        <v>1.375</v>
       </c>
       <c r="X339">
         <v>-1</v>
@@ -30702,7 +30702,7 @@
         <v>-1</v>
       </c>
       <c r="Z339">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA339">
         <v>-1</v>
@@ -30711,7 +30711,7 @@
         <v>-1</v>
       </c>
       <c r="AC339">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30808,7 +30808,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>6846860</v>
+        <v>6846857</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30820,49 +30820,49 @@
         <v>45333.39583333334</v>
       </c>
       <c r="F341" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G341" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I341">
         <v>0</v>
       </c>
       <c r="J341" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K341">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L341">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M341">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N341">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O341">
         <v>3.6</v>
       </c>
       <c r="P341">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q341">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R341">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S341">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T341">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U341">
         <v>1.85</v>
@@ -30871,19 +30871,19 @@
         <v>2</v>
       </c>
       <c r="W341">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X341">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y341">
         <v>-1</v>
       </c>
       <c r="Z341">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA341">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB341">
         <v>-1</v>
@@ -30897,7 +30897,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>6846857</v>
+        <v>6845835</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30909,19 +30909,19 @@
         <v>45333.39583333334</v>
       </c>
       <c r="F342" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G342" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H342">
         <v>1</v>
       </c>
       <c r="I342">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J342" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K342">
         <v>2.15</v>
@@ -30933,52 +30933,52 @@
         <v>3</v>
       </c>
       <c r="N342">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O342">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P342">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="Q342">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R342">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S342">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T342">
         <v>2.75</v>
       </c>
       <c r="U342">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V342">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W342">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X342">
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z342">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA342">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB342">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC342">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -30986,7 +30986,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6845835</v>
+        <v>6846860</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30998,76 +30998,76 @@
         <v>45333.39583333334</v>
       </c>
       <c r="F343" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G343" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J343" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K343">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L343">
+        <v>3.6</v>
+      </c>
+      <c r="M343">
+        <v>2.7</v>
+      </c>
+      <c r="N343">
+        <v>1.95</v>
+      </c>
+      <c r="O343">
+        <v>3.6</v>
+      </c>
+      <c r="P343">
         <v>3.8</v>
-      </c>
-      <c r="M343">
-        <v>3</v>
-      </c>
-      <c r="N343">
-        <v>2.05</v>
-      </c>
-      <c r="O343">
-        <v>3.8</v>
-      </c>
-      <c r="P343">
-        <v>3.25</v>
       </c>
       <c r="Q343">
         <v>-0.5</v>
       </c>
       <c r="R343">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S343">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T343">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U343">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V343">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W343">
         <v>-1</v>
       </c>
       <c r="X343">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y343">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z343">
         <v>-1</v>
       </c>
       <c r="AA343">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB343">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC343">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31075,7 +31075,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6846865</v>
+        <v>6845834</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31087,16 +31087,16 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F344" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G344" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J344" t="s">
         <v>53</v>
@@ -31105,40 +31105,40 @@
         <v>2.15</v>
       </c>
       <c r="L344">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M344">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N344">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O344">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P344">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q344">
         <v>-0.25</v>
       </c>
       <c r="R344">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S344">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T344">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U344">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V344">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W344">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="X344">
         <v>-1</v>
@@ -31147,16 +31147,16 @@
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA344">
         <v>-1</v>
       </c>
       <c r="AB344">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC344">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31164,7 +31164,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6845834</v>
+        <v>6846865</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31176,16 +31176,16 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F345" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G345" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J345" t="s">
         <v>53</v>
@@ -31194,40 +31194,40 @@
         <v>2.15</v>
       </c>
       <c r="L345">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M345">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N345">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O345">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P345">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q345">
         <v>-0.25</v>
       </c>
       <c r="R345">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S345">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T345">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U345">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V345">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W345">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="X345">
         <v>-1</v>
@@ -31236,16 +31236,16 @@
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA345">
         <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC345">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -32437,13 +32437,13 @@
         <v>4.75</v>
       </c>
       <c r="N359">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="O359">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P359">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q359">
         <v>-1</v>
@@ -32532,10 +32532,10 @@
         <v>2.75</v>
       </c>
       <c r="U360">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V360">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W360">
         <v>0</v>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -106,10 +106,10 @@
     <t>Hamburg</t>
   </si>
   <si>
-    <t>Hannover 96</t>
+    <t>Kaiserslautern</t>
   </si>
   <si>
-    <t>Kaiserslautern</t>
+    <t>Hannover 96</t>
   </si>
   <si>
     <t>VfL Osnabruck</t>
@@ -139,19 +139,19 @@
     <t>Elversberg</t>
   </si>
   <si>
-    <t>St Pauli</t>
+    <t>Holstein Kiel</t>
   </si>
   <si>
-    <t>Holstein Kiel</t>
+    <t>St Pauli</t>
   </si>
   <si>
     <t>Schalke</t>
   </si>
   <si>
-    <t>Karlsruhe</t>
+    <t>Magdeburg</t>
   </si>
   <si>
-    <t>Magdeburg</t>
+    <t>Karlsruhe</t>
   </si>
   <si>
     <t>Nurnberg</t>
@@ -160,10 +160,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6846174</v>
+        <v>6846142</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -738,58 +738,58 @@
         <v>48</v>
       </c>
       <c r="K3">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="N3">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O3">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6846142</v>
+        <v>6846174</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,10 +815,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -827,58 +827,58 @@
         <v>49</v>
       </c>
       <c r="K4">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="N4">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y4">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>2.6</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>2.9</v>
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>2.7</v>
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>1.6</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
         <v>1.615</v>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>2.25</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6846143</v>
+        <v>6846742</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L14">
         <v>3.6</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N14">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P14">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X14">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6846742</v>
+        <v>6846143</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L15">
         <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O15">
+        <v>3.6</v>
+      </c>
+      <c r="P15">
         <v>3.8</v>
       </c>
-      <c r="P15">
-        <v>2.375</v>
-      </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W15">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6846741</v>
+        <v>6846743</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1972,73 +1972,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L17">
         <v>3.75</v>
       </c>
       <c r="M17">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="O17">
         <v>4</v>
       </c>
       <c r="P17">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X17">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA17">
+        <v>-0.5</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
         <v>-0</v>
-      </c>
-      <c r="AB17">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC17">
-        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6846743</v>
+        <v>6846741</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,73 +2061,73 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>3.75</v>
       </c>
       <c r="M18">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="N18">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="O18">
         <v>4</v>
       </c>
       <c r="P18">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R18">
+        <v>1.875</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>3.5</v>
+      </c>
+      <c r="U18">
+        <v>1.9</v>
+      </c>
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="S18">
-        <v>1.9</v>
-      </c>
-      <c r="T18">
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
         <v>3</v>
       </c>
-      <c r="U18">
-        <v>2.025</v>
-      </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
-      <c r="W18">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2150,7 +2150,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2159,7 +2159,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>2.15</v>
@@ -2239,7 +2239,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2325,7 +2325,7 @@
         <v>45156.5625</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>40</v>
@@ -2417,7 +2417,7 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22">
         <v>2.375</v>
@@ -2506,7 +2506,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>2.7</v>
@@ -2604,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>2.1</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6846746</v>
+        <v>6846748</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,40 +2770,40 @@
         <v>45158.35416666666</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
         <v>4</v>
       </c>
-      <c r="J26" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26">
-        <v>2.15</v>
-      </c>
       <c r="L26">
+        <v>3.75</v>
+      </c>
+      <c r="M26">
+        <v>1.75</v>
+      </c>
+      <c r="N26">
+        <v>3.4</v>
+      </c>
+      <c r="O26">
         <v>3.5</v>
       </c>
-      <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="N26">
-        <v>2.3</v>
-      </c>
-      <c r="O26">
-        <v>4</v>
-      </c>
       <c r="P26">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
         <v>2.05</v>
@@ -2812,34 +2812,34 @@
         <v>1.8</v>
       </c>
       <c r="T26">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
+        <v>1.825</v>
+      </c>
+      <c r="V26">
         <v>2.025</v>
       </c>
-      <c r="V26">
-        <v>1.825</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
+        <v>-1</v>
+      </c>
+      <c r="AC26">
         <v>1.025</v>
-      </c>
-      <c r="AC26">
-        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6846748</v>
+        <v>6846746</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,40 +2859,40 @@
         <v>45158.35416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
+        <v>2.15</v>
+      </c>
+      <c r="L27">
+        <v>3.5</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>2.3</v>
+      </c>
+      <c r="O27">
         <v>4</v>
       </c>
-      <c r="L27">
-        <v>3.75</v>
-      </c>
-      <c r="M27">
-        <v>1.75</v>
-      </c>
-      <c r="N27">
-        <v>3.4</v>
-      </c>
-      <c r="O27">
-        <v>3.5</v>
-      </c>
       <c r="P27">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
         <v>2.05</v>
@@ -2901,34 +2901,34 @@
         <v>1.8</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U27">
+        <v>2.025</v>
+      </c>
+      <c r="V27">
         <v>1.825</v>
       </c>
-      <c r="V27">
-        <v>2.025</v>
-      </c>
       <c r="W27">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z27">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC27">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2960,7 +2960,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>2.45</v>
@@ -3040,7 +3040,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3049,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>1.95</v>
@@ -3129,7 +3129,7 @@
         <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>1.65</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6846177</v>
+        <v>6845857</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,40 +3304,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
+        <v>3.4</v>
+      </c>
+      <c r="N32">
         <v>2.3</v>
       </c>
-      <c r="N32">
-        <v>2.7</v>
-      </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
         <v>2.05</v>
@@ -3346,31 +3346,31 @@
         <v>1.8</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
+        <v>1.95</v>
+      </c>
+      <c r="V32">
         <v>1.9</v>
       </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6845857</v>
+        <v>6846177</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,40 +3393,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>5</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L33">
+        <v>3.5</v>
+      </c>
+      <c r="M33">
+        <v>2.3</v>
+      </c>
+      <c r="N33">
+        <v>2.7</v>
+      </c>
+      <c r="O33">
         <v>3.6</v>
       </c>
-      <c r="M33">
-        <v>3.4</v>
-      </c>
-      <c r="N33">
-        <v>2.3</v>
-      </c>
-      <c r="O33">
-        <v>3.4</v>
-      </c>
       <c r="P33">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R33">
         <v>2.05</v>
@@ -3435,31 +3435,31 @@
         <v>1.8</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U33">
+        <v>1.9</v>
+      </c>
+      <c r="V33">
         <v>1.95</v>
       </c>
-      <c r="V33">
-        <v>1.9</v>
-      </c>
       <c r="W33">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z33">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB33">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3482,7 +3482,7 @@
         <v>45164.64583333334</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>29</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>3.25</v>
@@ -3660,10 +3660,10 @@
         <v>45165.35416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>1.75</v>
@@ -3749,7 +3749,7 @@
         <v>45165.35416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
         <v>37</v>
@@ -3841,7 +3841,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
         <v>3.6</v>
@@ -4028,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
         <v>3.4</v>
@@ -4105,7 +4105,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -4194,7 +4194,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -4283,7 +4283,7 @@
         <v>45171.64583333334</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4384,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>2.3</v>
@@ -4553,7 +4553,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4562,7 +4562,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46">
         <v>1.85</v>
@@ -4740,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
         <v>2.6</v>
@@ -4829,7 +4829,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -4906,10 +4906,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5087,7 +5087,7 @@
         <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -5262,7 +5262,7 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -5351,10 +5351,10 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s">
         <v>41</v>
-      </c>
-      <c r="G55" t="s">
-        <v>42</v>
       </c>
       <c r="H55">
         <v>5</v>
@@ -5529,7 +5529,7 @@
         <v>45191.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
         <v>39</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5630,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K58">
         <v>2.4</v>
@@ -5710,7 +5710,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -5808,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K60">
         <v>2.5</v>
@@ -5885,7 +5885,7 @@
         <v>45192.64583333334</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
         <v>43</v>
@@ -5974,7 +5974,7 @@
         <v>45193.35416666666</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>35</v>
@@ -6066,7 +6066,7 @@
         <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>1.85</v>
@@ -6152,7 +6152,7 @@
         <v>45193.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -6164,7 +6164,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6846776</v>
+        <v>6846775</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,58 +6241,58 @@
         <v>45198.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>47</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O65">
         <v>4</v>
       </c>
       <c r="P65">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
         <v>3.25</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6301,16 +6301,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6846775</v>
+        <v>6846776</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,58 +6330,58 @@
         <v>45198.5625</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
         <v>1</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
       </c>
       <c r="K66">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M66">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O66">
         <v>4</v>
       </c>
       <c r="P66">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
         <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6390,16 +6390,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6419,10 +6419,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6431,7 +6431,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K67">
         <v>1.909</v>
@@ -6508,7 +6508,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
@@ -6689,7 +6689,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6698,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>2.55</v>
@@ -6778,7 +6778,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
         <v>2.625</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6846780</v>
+        <v>6846181</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45200.35416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L72">
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N72">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q72">
         <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T72">
         <v>3</v>
       </c>
       <c r="U72">
+        <v>2.025</v>
+      </c>
+      <c r="V72">
         <v>1.825</v>
       </c>
-      <c r="V72">
-        <v>2.025</v>
-      </c>
       <c r="W72">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6846181</v>
+        <v>6846780</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45200.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N73">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O73">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q73">
         <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
         <v>3</v>
       </c>
       <c r="U73">
+        <v>1.825</v>
+      </c>
+      <c r="V73">
         <v>2.025</v>
       </c>
-      <c r="V73">
-        <v>1.825</v>
-      </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X73">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA73">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,10 +7042,10 @@
         <v>45205.5625</v>
       </c>
       <c r="F74" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
         <v>31</v>
-      </c>
-      <c r="G74" t="s">
-        <v>30</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7232,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K76">
         <v>5.5</v>
@@ -7309,10 +7309,10 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" t="s">
         <v>45</v>
-      </c>
-      <c r="G77" t="s">
-        <v>44</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7321,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77">
         <v>2.1</v>
@@ -7487,7 +7487,7 @@
         <v>45206.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s">
         <v>46</v>
@@ -7588,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>2.25</v>
@@ -7665,7 +7665,7 @@
         <v>45207.35416666666</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
         <v>40</v>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -7766,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>3.1</v>
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6846183</v>
+        <v>6846791</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,58 +7843,58 @@
         <v>45219.5625</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>47</v>
       </c>
       <c r="K83">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L83">
         <v>3.8</v>
       </c>
       <c r="M83">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N83">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U83">
+        <v>1.8</v>
+      </c>
+      <c r="V83">
         <v>2.05</v>
       </c>
-      <c r="V83">
-        <v>1.8</v>
-      </c>
       <c r="W83">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7903,16 +7903,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6846791</v>
+        <v>6846183</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,58 +7932,58 @@
         <v>45219.5625</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>47</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L84">
         <v>3.8</v>
       </c>
       <c r="M84">
+        <v>3.8</v>
+      </c>
+      <c r="N84">
+        <v>1.727</v>
+      </c>
+      <c r="O84">
+        <v>4.2</v>
+      </c>
+      <c r="P84">
+        <v>4.2</v>
+      </c>
+      <c r="Q84">
+        <v>-0.75</v>
+      </c>
+      <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
+        <v>1.875</v>
+      </c>
+      <c r="T84">
         <v>3.25</v>
       </c>
-      <c r="N84">
-        <v>2.15</v>
-      </c>
-      <c r="O84">
-        <v>3.75</v>
-      </c>
-      <c r="P84">
-        <v>3.1</v>
-      </c>
-      <c r="Q84">
-        <v>-0.25</v>
-      </c>
-      <c r="R84">
-        <v>1.9</v>
-      </c>
-      <c r="S84">
-        <v>1.95</v>
-      </c>
-      <c r="T84">
-        <v>3</v>
-      </c>
       <c r="U84">
+        <v>2.05</v>
+      </c>
+      <c r="V84">
         <v>1.8</v>
       </c>
-      <c r="V84">
-        <v>2.05</v>
-      </c>
       <c r="W84">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7992,16 +7992,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC84">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6846788</v>
+        <v>6846150</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,76 +8021,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K85">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L85">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N85">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="O85">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6846150</v>
+        <v>6846788</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M86">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="N86">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P86">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="Q86">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X86">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8211,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K87">
         <v>2.25</v>
@@ -8291,7 +8291,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845851</v>
+        <v>6846792</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,37 +8377,37 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
         <v>3</v>
       </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L89">
         <v>3.5</v>
       </c>
       <c r="M89">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N89">
         <v>2.5</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -8419,31 +8419,31 @@
         <v>2.025</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB89">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8466,7 +8466,7 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G90" t="s">
         <v>43</v>
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6846792</v>
+        <v>6845851</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,37 +8555,37 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
         <v>1</v>
       </c>
-      <c r="I91">
-        <v>3</v>
-      </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L91">
         <v>3.5</v>
       </c>
       <c r="M91">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N91">
         <v>2.5</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -8597,31 +8597,31 @@
         <v>2.025</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6846798</v>
+        <v>6846797</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,46 +8644,46 @@
         <v>45226.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M92">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P92">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T92">
         <v>3</v>
@@ -8695,19 +8695,19 @@
         <v>1.825</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
         <v>1.025</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6846797</v>
+        <v>6846798</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,46 +8733,46 @@
         <v>45226.5625</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>4</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="L93">
+        <v>3.5</v>
+      </c>
+      <c r="M93">
+        <v>2.1</v>
+      </c>
+      <c r="N93">
         <v>3.75</v>
       </c>
-      <c r="M93">
-        <v>4.5</v>
-      </c>
-      <c r="N93">
-        <v>1.65</v>
-      </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
         <v>3</v>
@@ -8784,19 +8784,19 @@
         <v>1.825</v>
       </c>
       <c r="W93">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB93">
         <v>1.025</v>
@@ -8825,7 +8825,7 @@
         <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8911,10 +8911,10 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9089,7 +9089,7 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9101,7 +9101,7 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>2.8</v>
@@ -9178,7 +9178,7 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G98" t="s">
         <v>40</v>
@@ -9190,7 +9190,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
         <v>1.909</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6846799</v>
+        <v>6846795</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K99">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L99">
         <v>3.4</v>
       </c>
       <c r="M99">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N99">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q99">
         <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z99">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6846795</v>
+        <v>6846799</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
         <v>3.4</v>
       </c>
       <c r="M100">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q100">
         <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9457,7 +9457,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>1.55</v>
@@ -9537,7 +9537,7 @@
         <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>3.4</v>
@@ -9626,7 +9626,7 @@
         <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9635,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K103">
         <v>2.6</v>
@@ -9724,7 +9724,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K104">
         <v>2.2</v>
@@ -9801,7 +9801,7 @@
         <v>45234.375</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
         <v>36</v>
@@ -9813,7 +9813,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>2.2</v>
@@ -9893,7 +9893,7 @@
         <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>2.7</v>
@@ -10068,7 +10068,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10080,7 +10080,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K108">
         <v>2.1</v>
@@ -10157,7 +10157,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10246,10 +10246,10 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K110">
         <v>1.75</v>
@@ -10347,7 +10347,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -10436,7 +10436,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>2.05</v>
@@ -10513,7 +10513,7 @@
         <v>45241.375</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
         <v>29</v>
@@ -10694,7 +10694,7 @@
         <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10703,7 +10703,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K115">
         <v>2.05</v>
@@ -10872,7 +10872,7 @@
         <v>33</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>45242.39583333334</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
         <v>35</v>
@@ -10970,7 +10970,7 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K118">
         <v>1.75</v>
@@ -11136,7 +11136,7 @@
         <v>45254.60416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
         <v>38</v>
@@ -11148,7 +11148,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>2.1</v>
@@ -11228,7 +11228,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11237,7 +11237,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K121">
         <v>3.6</v>
@@ -11406,7 +11406,7 @@
         <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11415,7 +11415,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K123">
         <v>2.55</v>
@@ -11581,7 +11581,7 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
         <v>46</v>
@@ -11759,10 +11759,10 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11771,7 +11771,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>2.1</v>
@@ -11848,7 +11848,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
         <v>29</v>
@@ -11860,7 +11860,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K128">
         <v>2.3</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6846825</v>
+        <v>6846822</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45262.375</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K130">
+        <v>1.8</v>
+      </c>
+      <c r="L130">
+        <v>3.6</v>
+      </c>
+      <c r="M130">
+        <v>4.333</v>
+      </c>
+      <c r="N130">
+        <v>1.8</v>
+      </c>
+      <c r="O130">
+        <v>4</v>
+      </c>
+      <c r="P130">
+        <v>4</v>
+      </c>
+      <c r="Q130">
+        <v>-0.5</v>
+      </c>
+      <c r="R130">
+        <v>1.825</v>
+      </c>
+      <c r="S130">
+        <v>2.025</v>
+      </c>
+      <c r="T130">
         <v>3.25</v>
       </c>
-      <c r="L130">
-        <v>3.5</v>
-      </c>
-      <c r="M130">
-        <v>2.1</v>
-      </c>
-      <c r="N130">
-        <v>3.3</v>
-      </c>
-      <c r="O130">
-        <v>3.5</v>
-      </c>
-      <c r="P130">
-        <v>2.15</v>
-      </c>
-      <c r="Q130">
-        <v>0.25</v>
-      </c>
-      <c r="R130">
-        <v>1.975</v>
-      </c>
-      <c r="S130">
-        <v>1.875</v>
-      </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6846822</v>
+        <v>6846824</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,73 +12115,73 @@
         <v>45262.375</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>5</v>
+      </c>
+      <c r="J131" t="s">
+        <v>48</v>
+      </c>
+      <c r="K131">
+        <v>2.6</v>
+      </c>
+      <c r="L131">
+        <v>3.5</v>
+      </c>
+      <c r="M131">
+        <v>2.5</v>
+      </c>
+      <c r="N131">
+        <v>2.6</v>
+      </c>
+      <c r="O131">
+        <v>3.75</v>
+      </c>
+      <c r="P131">
+        <v>2.5</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>1.85</v>
+      </c>
+      <c r="T131">
         <v>3</v>
       </c>
-      <c r="I131">
-        <v>2</v>
-      </c>
-      <c r="J131" t="s">
-        <v>47</v>
-      </c>
-      <c r="K131">
-        <v>1.8</v>
-      </c>
-      <c r="L131">
-        <v>3.6</v>
-      </c>
-      <c r="M131">
-        <v>4.333</v>
-      </c>
-      <c r="N131">
-        <v>1.8</v>
-      </c>
-      <c r="O131">
-        <v>4</v>
-      </c>
-      <c r="P131">
-        <v>4</v>
-      </c>
-      <c r="Q131">
-        <v>-0.5</v>
-      </c>
-      <c r="R131">
-        <v>1.825</v>
-      </c>
-      <c r="S131">
-        <v>2.025</v>
-      </c>
-      <c r="T131">
-        <v>3.25</v>
-      </c>
       <c r="U131">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB131">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6846824</v>
+        <v>6846825</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,55 +12204,55 @@
         <v>45262.375</v>
       </c>
       <c r="F132" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L132">
         <v>3.5</v>
       </c>
       <c r="M132">
+        <v>2.1</v>
+      </c>
+      <c r="N132">
+        <v>3.3</v>
+      </c>
+      <c r="O132">
+        <v>3.5</v>
+      </c>
+      <c r="P132">
+        <v>2.15</v>
+      </c>
+      <c r="Q132">
+        <v>0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.975</v>
+      </c>
+      <c r="S132">
+        <v>1.875</v>
+      </c>
+      <c r="T132">
         <v>2.5</v>
       </c>
-      <c r="N132">
-        <v>2.6</v>
-      </c>
-      <c r="O132">
-        <v>3.75</v>
-      </c>
-      <c r="P132">
-        <v>2.5</v>
-      </c>
-      <c r="Q132">
-        <v>0</v>
-      </c>
-      <c r="R132">
-        <v>2</v>
-      </c>
-      <c r="S132">
+      <c r="U132">
         <v>1.85</v>
       </c>
-      <c r="T132">
-        <v>3</v>
-      </c>
-      <c r="U132">
-        <v>1.95</v>
-      </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,19 +12261,19 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12293,10 +12293,10 @@
         <v>45262.6875</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -12382,7 +12382,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G134" t="s">
         <v>35</v>
@@ -12394,7 +12394,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K134">
         <v>1.9</v>
@@ -12474,7 +12474,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12649,10 +12649,10 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12661,7 +12661,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>2.2</v>
@@ -12750,7 +12750,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -12827,7 +12827,7 @@
         <v>45269.375</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
         <v>38</v>
@@ -12839,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
         <v>2.45</v>
@@ -12928,7 +12928,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
         <v>1.615</v>
@@ -13008,7 +13008,7 @@
         <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13017,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
         <v>1.909</v>
@@ -13097,7 +13097,7 @@
         <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13106,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K142">
         <v>6</v>
@@ -13195,7 +13195,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K143">
         <v>2.375</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6846830</v>
+        <v>6846827</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,55 +13272,55 @@
         <v>45270.39583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N144">
+        <v>1.8</v>
+      </c>
+      <c r="O144">
+        <v>3.8</v>
+      </c>
+      <c r="P144">
+        <v>4.2</v>
+      </c>
+      <c r="Q144">
+        <v>-0.75</v>
+      </c>
+      <c r="R144">
+        <v>2.025</v>
+      </c>
+      <c r="S144">
+        <v>1.825</v>
+      </c>
+      <c r="T144">
         <v>3</v>
       </c>
-      <c r="O144">
-        <v>3.6</v>
-      </c>
-      <c r="P144">
-        <v>2.25</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.875</v>
-      </c>
-      <c r="S144">
-        <v>1.975</v>
-      </c>
-      <c r="T144">
-        <v>2.5</v>
-      </c>
       <c r="U144">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13329,19 +13329,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6846827</v>
+        <v>6846830</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,56 +13361,56 @@
         <v>45270.39583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N145">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
+        <v>1.875</v>
+      </c>
+      <c r="S145">
+        <v>1.975</v>
+      </c>
+      <c r="T145">
+        <v>2.5</v>
+      </c>
+      <c r="U145">
+        <v>1.825</v>
+      </c>
+      <c r="V145">
         <v>2.025</v>
       </c>
-      <c r="S145">
-        <v>1.825</v>
-      </c>
-      <c r="T145">
-        <v>3</v>
-      </c>
-      <c r="U145">
-        <v>1.925</v>
-      </c>
-      <c r="V145">
-        <v>1.925</v>
-      </c>
       <c r="W145">
         <v>-1</v>
       </c>
@@ -13418,19 +13418,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>3.2</v>
+        <v>1.25</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13551,7 +13551,7 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K147">
         <v>2.2</v>
@@ -13640,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K148">
         <v>1.45</v>
@@ -13729,7 +13729,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>3</v>
@@ -13806,7 +13806,7 @@
         <v>45276.375</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s">
         <v>34</v>
@@ -13818,7 +13818,7 @@
         <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K150">
         <v>2.45</v>
@@ -13895,10 +13895,10 @@
         <v>45276.6875</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -13987,7 +13987,7 @@
         <v>37</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14073,7 +14073,7 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G153" t="s">
         <v>40</v>
@@ -14162,7 +14162,7 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G154" t="s">
         <v>33</v>
@@ -14174,7 +14174,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K154">
         <v>1.363</v>
@@ -14251,7 +14251,7 @@
         <v>45310.60416666666</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
         <v>37</v>
@@ -14263,7 +14263,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K155">
         <v>1.571</v>
@@ -14340,7 +14340,7 @@
         <v>45310.60416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G156" t="s">
         <v>32</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6846189</v>
+        <v>7625887</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,7 +14429,7 @@
         <v>45311.375</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
         <v>30</v>
@@ -14438,67 +14438,67 @@
         <v>2</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N157">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P157">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T157">
         <v>2.75</v>
       </c>
       <c r="U157">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X157">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7625887</v>
+        <v>6846189</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,7 +14607,7 @@
         <v>45311.375</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
         <v>31</v>
@@ -14616,67 +14616,67 @@
         <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K159">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L159">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M159">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N159">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O159">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q159">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S159">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T159">
         <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14708,7 +14708,7 @@
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K160">
         <v>2.8</v>
@@ -14785,7 +14785,7 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6846839</v>
+        <v>6845838</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,40 +14874,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>49</v>
       </c>
       <c r="K162">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L162">
         <v>3.6</v>
       </c>
       <c r="M162">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N162">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O162">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P162">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R162">
         <v>2.05</v>
@@ -14919,31 +14919,31 @@
         <v>3</v>
       </c>
       <c r="U162">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y162">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA162">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC162">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6845838</v>
+        <v>6846839</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,40 +14963,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>48</v>
       </c>
       <c r="K163">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L163">
         <v>3.6</v>
       </c>
       <c r="M163">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N163">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O163">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P163">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
         <v>2.05</v>
@@ -15008,31 +15008,31 @@
         <v>3</v>
       </c>
       <c r="U163">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB163">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6846845</v>
+        <v>6846846</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15055,55 +15055,55 @@
         <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>47</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
         <v>3.5</v>
       </c>
       <c r="M164">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N164">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O164">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P164">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W164">
-        <v>1.6</v>
+        <v>0.833</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15112,16 +15112,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6846846</v>
+        <v>6846845</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15144,55 +15144,55 @@
         <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
         <v>47</v>
       </c>
       <c r="K165">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L165">
         <v>3.5</v>
       </c>
       <c r="M165">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N165">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>0.833</v>
+        <v>1.6</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15201,16 +15201,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6845837</v>
+        <v>6846849</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45318.375</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166" t="s">
+        <v>49</v>
+      </c>
+      <c r="K166">
+        <v>3.5</v>
+      </c>
+      <c r="L166">
+        <v>3.8</v>
+      </c>
+      <c r="M166">
+        <v>1.909</v>
+      </c>
+      <c r="N166">
+        <v>3.3</v>
+      </c>
+      <c r="O166">
+        <v>3.75</v>
+      </c>
+      <c r="P166">
+        <v>2.05</v>
+      </c>
+      <c r="Q166">
+        <v>0.5</v>
+      </c>
+      <c r="R166">
+        <v>1.825</v>
+      </c>
+      <c r="S166">
+        <v>2.025</v>
+      </c>
+      <c r="T166">
         <v>3</v>
       </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-      <c r="J166" t="s">
-        <v>47</v>
-      </c>
-      <c r="K166">
-        <v>2.875</v>
-      </c>
-      <c r="L166">
-        <v>3.7</v>
-      </c>
-      <c r="M166">
-        <v>2.2</v>
-      </c>
-      <c r="N166">
+      <c r="U166">
+        <v>2.025</v>
+      </c>
+      <c r="V166">
+        <v>1.825</v>
+      </c>
+      <c r="W166">
+        <v>-1</v>
+      </c>
+      <c r="X166">
         <v>2.75</v>
       </c>
-      <c r="O166">
-        <v>3.4</v>
-      </c>
-      <c r="P166">
-        <v>2.55</v>
-      </c>
-      <c r="Q166">
-        <v>0</v>
-      </c>
-      <c r="R166">
-        <v>2.025</v>
-      </c>
-      <c r="S166">
-        <v>1.825</v>
-      </c>
-      <c r="T166">
-        <v>2.5</v>
-      </c>
-      <c r="U166">
-        <v>1.875</v>
-      </c>
-      <c r="V166">
-        <v>1.975</v>
-      </c>
-      <c r="W166">
-        <v>1.75</v>
-      </c>
-      <c r="X166">
-        <v>-1</v>
-      </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6846190</v>
+        <v>6845837</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,13 +15319,13 @@
         <v>45318.375</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -15334,43 +15334,43 @@
         <v>47</v>
       </c>
       <c r="K167">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="M167">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N167">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15379,13 +15379,13 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6846849</v>
+        <v>6846190</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45318.375</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K168">
+        <v>2.625</v>
+      </c>
+      <c r="L168">
         <v>3.5</v>
       </c>
-      <c r="L168">
-        <v>3.8</v>
-      </c>
       <c r="M168">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N168">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O168">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P168">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Q168">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T168">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X168">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15509,7 +15509,7 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>3.1</v>
@@ -15589,7 +15589,7 @@
         <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6846847</v>
+        <v>6846844</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,76 +15675,76 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G171" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I171">
+        <v>4</v>
+      </c>
+      <c r="J171" t="s">
+        <v>48</v>
+      </c>
+      <c r="K171">
+        <v>1.6</v>
+      </c>
+      <c r="L171">
+        <v>4.2</v>
+      </c>
+      <c r="M171">
+        <v>4.75</v>
+      </c>
+      <c r="N171">
+        <v>1.533</v>
+      </c>
+      <c r="O171">
+        <v>4.5</v>
+      </c>
+      <c r="P171">
+        <v>5.75</v>
+      </c>
+      <c r="Q171">
+        <v>-1</v>
+      </c>
+      <c r="R171">
+        <v>1.85</v>
+      </c>
+      <c r="S171">
+        <v>2</v>
+      </c>
+      <c r="T171">
+        <v>3.5</v>
+      </c>
+      <c r="U171">
+        <v>1.95</v>
+      </c>
+      <c r="V171">
+        <v>1.9</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>4.75</v>
+      </c>
+      <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
         <v>1</v>
       </c>
-      <c r="J171" t="s">
-        <v>47</v>
-      </c>
-      <c r="K171">
-        <v>2.1</v>
-      </c>
-      <c r="L171">
-        <v>3.7</v>
-      </c>
-      <c r="M171">
-        <v>3.1</v>
-      </c>
-      <c r="N171">
-        <v>1.95</v>
-      </c>
-      <c r="O171">
-        <v>3.75</v>
-      </c>
-      <c r="P171">
-        <v>3.75</v>
-      </c>
-      <c r="Q171">
-        <v>-0.5</v>
-      </c>
-      <c r="R171">
-        <v>1.975</v>
-      </c>
-      <c r="S171">
-        <v>1.875</v>
-      </c>
-      <c r="T171">
-        <v>2.75</v>
-      </c>
-      <c r="U171">
-        <v>1.85</v>
-      </c>
-      <c r="V171">
-        <v>2</v>
-      </c>
-      <c r="W171">
+      <c r="AB171">
         <v>0.95</v>
       </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>-1</v>
-      </c>
-      <c r="Z171">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
-      <c r="AB171">
-        <v>0.425</v>
-      </c>
       <c r="AC171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6846844</v>
+        <v>6846847</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,76 +15764,76 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K172">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L172">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M172">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N172">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O172">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P172">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
+        <v>1.975</v>
+      </c>
+      <c r="S172">
+        <v>1.875</v>
+      </c>
+      <c r="T172">
+        <v>2.75</v>
+      </c>
+      <c r="U172">
         <v>1.85</v>
       </c>
-      <c r="S172">
-        <v>2</v>
-      </c>
-      <c r="T172">
-        <v>3.5</v>
-      </c>
-      <c r="U172">
-        <v>1.95</v>
-      </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA172">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>45324.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G173" t="s">
         <v>33</v>
@@ -15865,7 +15865,7 @@
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K173">
         <v>1.727</v>
@@ -15942,10 +15942,10 @@
         <v>45324.60416666666</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G174" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K174">
         <v>2.15</v>
@@ -16031,7 +16031,7 @@
         <v>45325.375</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
         <v>36</v>
@@ -16132,7 +16132,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K176">
         <v>1.75</v>
@@ -16310,7 +16310,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K178">
         <v>2.8</v>
@@ -16390,7 +16390,7 @@
         <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16476,7 +16476,7 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
         <v>35</v>
@@ -16657,7 +16657,7 @@
         <v>29</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H182">
         <v>3</v>
@@ -16666,7 +16666,7 @@
         <v>4</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>1.7</v>
@@ -16755,7 +16755,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K183">
         <v>2.35</v>
@@ -16835,7 +16835,7 @@
         <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16933,7 +16933,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K185">
         <v>1.65</v>
@@ -17010,10 +17010,10 @@
         <v>45332.375</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>45332.6875</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
         <v>39</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>2.3</v>
@@ -17200,7 +17200,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K188">
         <v>2.15</v>
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K189">
         <v>2.4</v>
@@ -17366,7 +17366,7 @@
         <v>45333.39583333334</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
         <v>43</v>
@@ -17455,7 +17455,7 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
         <v>36</v>
@@ -17547,7 +17547,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H192">
         <v>3</v>
@@ -17734,7 +17734,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K194">
         <v>4.5</v>
@@ -17814,7 +17814,7 @@
         <v>39</v>
       </c>
       <c r="G195" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -17823,7 +17823,7 @@
         <v>4</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K195">
         <v>2.15</v>
@@ -17900,7 +17900,7 @@
         <v>45339.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G196" t="s">
         <v>34</v>
@@ -17912,7 +17912,7 @@
         <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
         <v>2.35</v>
@@ -18078,7 +18078,7 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G198" t="s">
         <v>37</v>
@@ -18170,7 +18170,7 @@
         <v>46</v>
       </c>
       <c r="G199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18179,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K199">
         <v>2.4</v>
@@ -18268,7 +18268,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K200">
         <v>2.7</v>
@@ -18345,10 +18345,10 @@
         <v>45345.60416666666</v>
       </c>
       <c r="F201" t="s">
+        <v>41</v>
+      </c>
+      <c r="G201" t="s">
         <v>42</v>
-      </c>
-      <c r="G201" t="s">
-        <v>41</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -18357,7 +18357,7 @@
         <v>4</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K201">
         <v>3.1</v>
@@ -18437,7 +18437,7 @@
         <v>32</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18523,10 +18523,10 @@
         <v>45346.375</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18535,7 +18535,7 @@
         <v>4</v>
       </c>
       <c r="J203" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K203">
         <v>2.25</v>
@@ -18624,7 +18624,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K204">
         <v>2.5</v>
@@ -18701,7 +18701,7 @@
         <v>45346.6875</v>
       </c>
       <c r="F205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G205" t="s">
         <v>43</v>
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6846868</v>
+        <v>6846194</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,13 +18790,13 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -18805,43 +18805,43 @@
         <v>47</v>
       </c>
       <c r="K206">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="L206">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M206">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N206">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O206">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P206">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q206">
         <v>-1.25</v>
       </c>
       <c r="R206">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>0.444</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18850,16 +18850,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6846871</v>
+        <v>6846868</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,58 +18879,58 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H207">
         <v>2</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>47</v>
       </c>
       <c r="K207">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L207">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M207">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N207">
-        <v>1.6</v>
+        <v>1.444</v>
       </c>
       <c r="O207">
         <v>4.5</v>
       </c>
       <c r="P207">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S207">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T207">
         <v>3</v>
       </c>
       <c r="U207">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W207">
-        <v>0.6000000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,16 +18939,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA207">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6846194</v>
+        <v>6846871</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,40 +18968,40 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
         <v>1</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>47</v>
       </c>
       <c r="K208">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L208">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M208">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N208">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O208">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P208">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q208">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R208">
         <v>2</v>
@@ -19010,16 +19010,16 @@
         <v>1.85</v>
       </c>
       <c r="T208">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U208">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19028,16 +19028,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19060,7 +19060,7 @@
         <v>38</v>
       </c>
       <c r="G209" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -19069,7 +19069,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K209">
         <v>2.35</v>
@@ -19149,7 +19149,7 @@
         <v>43</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H210">
         <v>3</v>
@@ -19327,7 +19327,7 @@
         <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19336,7 +19336,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>3.25</v>
@@ -19413,7 +19413,7 @@
         <v>45353.375</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G213" t="s">
         <v>34</v>
@@ -19425,7 +19425,7 @@
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K213">
         <v>2.45</v>
@@ -19502,7 +19502,7 @@
         <v>45353.6875</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G214" t="s">
         <v>36</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6846195</v>
+        <v>6846875</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,76 +19591,76 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H215">
         <v>0</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>49</v>
       </c>
       <c r="K215">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M215">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N215">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O215">
         <v>3.8</v>
       </c>
       <c r="P215">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q215">
         <v>-0.5</v>
       </c>
       <c r="R215">
+        <v>2.025</v>
+      </c>
+      <c r="S215">
+        <v>1.825</v>
+      </c>
+      <c r="T215">
+        <v>3.25</v>
+      </c>
+      <c r="U215">
+        <v>1.875</v>
+      </c>
+      <c r="V215">
         <v>1.975</v>
       </c>
-      <c r="S215">
-        <v>1.875</v>
-      </c>
-      <c r="T215">
-        <v>3</v>
-      </c>
-      <c r="U215">
-        <v>1.85</v>
-      </c>
-      <c r="V215">
-        <v>2</v>
-      </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y215">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6846875</v>
+        <v>6846195</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,76 +19680,76 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L216">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M216">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N216">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O216">
         <v>3.8</v>
       </c>
       <c r="P216">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q216">
         <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T216">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U216">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC216">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19781,7 +19781,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K217">
         <v>1.4</v>
@@ -19870,7 +19870,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K218">
         <v>1.75</v>
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6846882</v>
+        <v>6846889</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20036,76 @@
         <v>45360.375</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L220">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M220">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="N220">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O220">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V220">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W220">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20137,7 +20137,7 @@
         <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K221">
         <v>2.05</v>
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6846889</v>
+        <v>6846882</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45360.375</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G222" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K222">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M222">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="N222">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="O222">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S222">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T222">
         <v>2.75</v>
       </c>
       <c r="U222">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X222">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20303,7 +20303,7 @@
         <v>45360.6875</v>
       </c>
       <c r="F223" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G223" t="s">
         <v>46</v>
@@ -20315,7 +20315,7 @@
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
         <v>1.666</v>
@@ -20392,7 +20392,7 @@
         <v>45361.39583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
         <v>32</v>
@@ -20481,7 +20481,7 @@
         <v>45361.39583333334</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G225" t="s">
         <v>38</v>
@@ -20582,7 +20582,7 @@
         <v>4</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K226">
         <v>1.909</v>
@@ -20671,7 +20671,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K227">
         <v>1.85</v>
@@ -20760,7 +20760,7 @@
         <v>4</v>
       </c>
       <c r="J228" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K228">
         <v>3.75</v>
@@ -20840,7 +20840,7 @@
         <v>46</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20849,7 +20849,7 @@
         <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K229">
         <v>4.75</v>
@@ -21018,7 +21018,7 @@
         <v>40</v>
       </c>
       <c r="G231" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -21027,7 +21027,7 @@
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K231">
         <v>2.6</v>
@@ -21104,10 +21104,10 @@
         <v>45367.6875</v>
       </c>
       <c r="F232" t="s">
+        <v>31</v>
+      </c>
+      <c r="G232" t="s">
         <v>30</v>
-      </c>
-      <c r="G232" t="s">
-        <v>31</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21116,7 +21116,7 @@
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K232">
         <v>1.95</v>
@@ -21193,10 +21193,10 @@
         <v>45368.39583333334</v>
       </c>
       <c r="F233" t="s">
+        <v>45</v>
+      </c>
+      <c r="G233" t="s">
         <v>44</v>
-      </c>
-      <c r="G233" t="s">
-        <v>45</v>
       </c>
       <c r="H233">
         <v>7</v>
@@ -21460,7 +21460,7 @@
         <v>45381.375</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G236" t="s">
         <v>34</v>
@@ -21534,7 +21534,7 @@
         <v>45381.375</v>
       </c>
       <c r="F237" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G237" t="s">
         <v>35</v>
@@ -21570,10 +21570,10 @@
         <v>3</v>
       </c>
       <c r="U237">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V237">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21833,7 +21833,7 @@
         <v>43</v>
       </c>
       <c r="G241" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K241">
         <v>2.25</v>
@@ -21978,10 +21978,10 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F243" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G243" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K243">
         <v>2.375</v>
@@ -22052,7 +22052,7 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G244" t="s">
         <v>39</v>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC244"/>
+  <dimension ref="A1:AC240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6846748</v>
+        <v>6846746</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,40 +2770,40 @@
         <v>45158.35416666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
+        <v>2.15</v>
+      </c>
+      <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>2.3</v>
+      </c>
+      <c r="O26">
         <v>4</v>
       </c>
-      <c r="L26">
-        <v>3.75</v>
-      </c>
-      <c r="M26">
-        <v>1.75</v>
-      </c>
-      <c r="N26">
-        <v>3.4</v>
-      </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
       <c r="P26">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
         <v>2.05</v>
@@ -2812,34 +2812,34 @@
         <v>1.8</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U26">
+        <v>2.025</v>
+      </c>
+      <c r="V26">
         <v>1.825</v>
       </c>
-      <c r="V26">
-        <v>2.025</v>
-      </c>
       <c r="W26">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z26">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC26">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6846746</v>
+        <v>6846749</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,55 +2859,55 @@
         <v>45158.35416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
         <v>48</v>
       </c>
       <c r="K27">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L27">
+        <v>3.4</v>
+      </c>
+      <c r="M27">
+        <v>2.55</v>
+      </c>
+      <c r="N27">
+        <v>2.25</v>
+      </c>
+      <c r="O27">
         <v>3.5</v>
       </c>
-      <c r="M27">
-        <v>3</v>
-      </c>
-      <c r="N27">
-        <v>2.3</v>
-      </c>
-      <c r="O27">
-        <v>4</v>
-      </c>
       <c r="P27">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
         <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2916,16 +2916,16 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6846749</v>
+        <v>6846748</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45158.35416666666</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="L28">
+        <v>3.75</v>
+      </c>
+      <c r="M28">
+        <v>1.75</v>
+      </c>
+      <c r="N28">
         <v>3.4</v>
-      </c>
-      <c r="M28">
-        <v>2.55</v>
-      </c>
-      <c r="N28">
-        <v>2.25</v>
       </c>
       <c r="O28">
         <v>3.5</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
         <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6846758</v>
+        <v>6846146</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,76 +3838,76 @@
         <v>45170.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L38">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P38">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>1</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6846146</v>
+        <v>6846758</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45170.5625</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K39">
+        <v>1.95</v>
+      </c>
+      <c r="L39">
+        <v>3.8</v>
+      </c>
+      <c r="M39">
+        <v>3.4</v>
+      </c>
+      <c r="N39">
+        <v>2.3</v>
+      </c>
+      <c r="O39">
         <v>3.6</v>
       </c>
-      <c r="L39">
-        <v>3.75</v>
-      </c>
-      <c r="M39">
-        <v>1.909</v>
-      </c>
-      <c r="N39">
-        <v>4</v>
-      </c>
-      <c r="O39">
-        <v>3.75</v>
-      </c>
       <c r="P39">
+        <v>2.8</v>
+      </c>
+      <c r="Q39">
+        <v>-0.25</v>
+      </c>
+      <c r="R39">
+        <v>2.05</v>
+      </c>
+      <c r="S39">
+        <v>1.8</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="Q39">
-        <v>0.5</v>
-      </c>
-      <c r="R39">
-        <v>2</v>
-      </c>
-      <c r="S39">
-        <v>1.85</v>
-      </c>
-      <c r="T39">
-        <v>2.5</v>
-      </c>
-      <c r="U39">
-        <v>1.85</v>
-      </c>
-      <c r="V39">
-        <v>2</v>
-      </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X39">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>1.05</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>1</v>
       </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6846178</v>
+        <v>6846757</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,76 +4372,76 @@
         <v>45172.35416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N44">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O44">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P44">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
         <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6846757</v>
+        <v>6846761</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,76 +4461,76 @@
         <v>45172.35416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L45">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N45">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O45">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P45">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q45">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6846761</v>
+        <v>6846178</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,56 +4550,56 @@
         <v>45172.35416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>1</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
       </c>
       <c r="J46" t="s">
         <v>48</v>
       </c>
       <c r="K46">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N46">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O46">
         <v>3.8</v>
       </c>
       <c r="P46">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
+        <v>1.95</v>
+      </c>
+      <c r="V46">
         <v>1.9</v>
       </c>
-      <c r="V46">
-        <v>1.95</v>
-      </c>
       <c r="W46">
         <v>-1</v>
       </c>
@@ -4607,19 +4607,19 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC46">
-        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6846775</v>
+        <v>6846776</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,58 +6241,58 @@
         <v>45198.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
         <v>1</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>47</v>
       </c>
       <c r="K65">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O65">
         <v>4</v>
       </c>
       <c r="P65">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
         <v>3.25</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6301,16 +6301,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6846776</v>
+        <v>6846775</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,58 +6330,58 @@
         <v>45198.5625</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L66">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N66">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O66">
         <v>4</v>
       </c>
       <c r="P66">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
         <v>3.25</v>
       </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6390,16 +6390,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6846181</v>
+        <v>6846780</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45200.35416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L72">
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N72">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O72">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q72">
         <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
         <v>3</v>
       </c>
       <c r="U72">
+        <v>1.825</v>
+      </c>
+      <c r="V72">
         <v>2.025</v>
       </c>
-      <c r="V72">
-        <v>1.825</v>
-      </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X72">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA72">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6846780</v>
+        <v>6846181</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45200.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N73">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q73">
         <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
         <v>3</v>
       </c>
       <c r="U73">
+        <v>2.025</v>
+      </c>
+      <c r="V73">
         <v>1.825</v>
       </c>
-      <c r="V73">
-        <v>2.025</v>
-      </c>
       <c r="W73">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6846791</v>
+        <v>6846183</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,58 +7843,58 @@
         <v>45219.5625</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>47</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L83">
         <v>3.8</v>
       </c>
       <c r="M83">
+        <v>3.8</v>
+      </c>
+      <c r="N83">
+        <v>1.727</v>
+      </c>
+      <c r="O83">
+        <v>4.2</v>
+      </c>
+      <c r="P83">
+        <v>4.2</v>
+      </c>
+      <c r="Q83">
+        <v>-0.75</v>
+      </c>
+      <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
+        <v>1.875</v>
+      </c>
+      <c r="T83">
         <v>3.25</v>
       </c>
-      <c r="N83">
-        <v>2.15</v>
-      </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
-      <c r="P83">
-        <v>3.1</v>
-      </c>
-      <c r="Q83">
-        <v>-0.25</v>
-      </c>
-      <c r="R83">
-        <v>1.9</v>
-      </c>
-      <c r="S83">
-        <v>1.95</v>
-      </c>
-      <c r="T83">
-        <v>3</v>
-      </c>
       <c r="U83">
+        <v>2.05</v>
+      </c>
+      <c r="V83">
         <v>1.8</v>
       </c>
-      <c r="V83">
-        <v>2.05</v>
-      </c>
       <c r="W83">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7903,16 +7903,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC83">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6846183</v>
+        <v>6846791</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,58 +7932,58 @@
         <v>45219.5625</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>47</v>
       </c>
       <c r="K84">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L84">
         <v>3.8</v>
       </c>
       <c r="M84">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N84">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U84">
+        <v>1.8</v>
+      </c>
+      <c r="V84">
         <v>2.05</v>
       </c>
-      <c r="V84">
-        <v>1.8</v>
-      </c>
       <c r="W84">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7992,16 +7992,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC84">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6846150</v>
+        <v>6846788</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,76 +8021,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M85">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="N85">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P85">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="Q85">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6846788</v>
+        <v>6846150</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K86">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L86">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N86">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="O86">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T86">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6846792</v>
+        <v>6845851</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,37 +8377,37 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
         <v>1</v>
       </c>
-      <c r="I89">
-        <v>3</v>
-      </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L89">
         <v>3.5</v>
       </c>
       <c r="M89">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N89">
         <v>2.5</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -8419,31 +8419,31 @@
         <v>2.025</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6845851</v>
+        <v>6846792</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,37 +8555,37 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
         <v>3</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
         <v>3.5</v>
       </c>
       <c r="M91">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N91">
         <v>2.5</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -8597,31 +8597,31 @@
         <v>2.025</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6846797</v>
+        <v>6846798</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,46 +8644,46 @@
         <v>45226.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
         <v>4</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="L92">
+        <v>3.5</v>
+      </c>
+      <c r="M92">
+        <v>2.1</v>
+      </c>
+      <c r="N92">
         <v>3.75</v>
       </c>
-      <c r="M92">
-        <v>4.5</v>
-      </c>
-      <c r="N92">
-        <v>1.65</v>
-      </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
         <v>3</v>
@@ -8695,19 +8695,19 @@
         <v>1.825</v>
       </c>
       <c r="W92">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
         <v>1.025</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6846798</v>
+        <v>6846797</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,46 +8733,46 @@
         <v>45226.5625</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N93">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P93">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q93">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T93">
         <v>3</v>
@@ -8784,19 +8784,19 @@
         <v>1.825</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
         <v>1.025</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6846795</v>
+        <v>6846799</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>2</v>
-      </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
         <v>3.4</v>
       </c>
       <c r="M99">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q99">
         <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6846799</v>
+        <v>6846795</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K100">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L100">
         <v>3.4</v>
       </c>
       <c r="M100">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N100">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O100">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q100">
         <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z100">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6846153</v>
+        <v>6846185</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K110">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N110">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="O110">
         <v>4</v>
       </c>
       <c r="P110">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6846185</v>
+        <v>6846153</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,76 +10335,76 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L111">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M111">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N111">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="O111">
         <v>4</v>
       </c>
       <c r="P111">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T111">
+        <v>2.75</v>
+      </c>
+      <c r="U111">
+        <v>1.975</v>
+      </c>
+      <c r="V111">
+        <v>1.875</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
         <v>3</v>
       </c>
-      <c r="U111">
-        <v>2.025</v>
-      </c>
-      <c r="V111">
-        <v>1.825</v>
-      </c>
-      <c r="W111">
-        <v>-1</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
       <c r="Y111">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6846827</v>
+        <v>6846830</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,56 +13272,56 @@
         <v>45270.39583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>48</v>
       </c>
       <c r="K144">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N144">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q144">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
+        <v>1.875</v>
+      </c>
+      <c r="S144">
+        <v>1.975</v>
+      </c>
+      <c r="T144">
+        <v>2.5</v>
+      </c>
+      <c r="U144">
+        <v>1.825</v>
+      </c>
+      <c r="V144">
         <v>2.025</v>
       </c>
-      <c r="S144">
-        <v>1.825</v>
-      </c>
-      <c r="T144">
-        <v>3</v>
-      </c>
-      <c r="U144">
-        <v>1.925</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
       <c r="W144">
         <v>-1</v>
       </c>
@@ -13329,19 +13329,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>3.2</v>
+        <v>1.25</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6846830</v>
+        <v>6846827</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,55 +13361,55 @@
         <v>45270.39583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>48</v>
       </c>
       <c r="K145">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N145">
+        <v>1.8</v>
+      </c>
+      <c r="O145">
+        <v>3.8</v>
+      </c>
+      <c r="P145">
+        <v>4.2</v>
+      </c>
+      <c r="Q145">
+        <v>-0.75</v>
+      </c>
+      <c r="R145">
+        <v>2.025</v>
+      </c>
+      <c r="S145">
+        <v>1.825</v>
+      </c>
+      <c r="T145">
         <v>3</v>
       </c>
-      <c r="O145">
-        <v>3.6</v>
-      </c>
-      <c r="P145">
-        <v>2.25</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.875</v>
-      </c>
-      <c r="S145">
-        <v>1.975</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
       <c r="U145">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13418,19 +13418,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6846836</v>
+        <v>6846835</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,55 +13717,55 @@
         <v>45276.375</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J149" t="s">
         <v>48</v>
       </c>
       <c r="K149">
+        <v>2.45</v>
+      </c>
+      <c r="L149">
+        <v>3.6</v>
+      </c>
+      <c r="M149">
+        <v>2.45</v>
+      </c>
+      <c r="N149">
+        <v>2.6</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>2.5</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>1.925</v>
+      </c>
+      <c r="S149">
+        <v>1.925</v>
+      </c>
+      <c r="T149">
         <v>3</v>
       </c>
-      <c r="L149">
-        <v>3.75</v>
-      </c>
-      <c r="M149">
-        <v>2.1</v>
-      </c>
-      <c r="N149">
-        <v>3.25</v>
-      </c>
-      <c r="O149">
-        <v>4.2</v>
-      </c>
-      <c r="P149">
-        <v>1.95</v>
-      </c>
-      <c r="Q149">
-        <v>0.5</v>
-      </c>
-      <c r="R149">
-        <v>1.85</v>
-      </c>
-      <c r="S149">
-        <v>2</v>
-      </c>
-      <c r="T149">
-        <v>3.25</v>
-      </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13774,19 +13774,19 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.95</v>
+        <v>1.5</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC149">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6846835</v>
+        <v>6846836</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,56 +13806,56 @@
         <v>45276.375</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
         <v>48</v>
       </c>
       <c r="K150">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M150">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="N150">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="O150">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P150">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R150">
+        <v>1.85</v>
+      </c>
+      <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
+        <v>3.25</v>
+      </c>
+      <c r="U150">
         <v>1.925</v>
       </c>
-      <c r="S150">
+      <c r="V150">
         <v>1.925</v>
       </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.975</v>
-      </c>
-      <c r="V150">
-        <v>1.875</v>
-      </c>
       <c r="W150">
         <v>-1</v>
       </c>
@@ -13863,19 +13863,19 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
+        <v>1</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
         <v>0.925</v>
-      </c>
-      <c r="AB150">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC150">
-        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6845838</v>
+        <v>6846839</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,40 +14874,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L162">
         <v>3.6</v>
       </c>
       <c r="M162">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N162">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O162">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P162">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
         <v>2.05</v>
@@ -14919,31 +14919,31 @@
         <v>3</v>
       </c>
       <c r="U162">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V162">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB162">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6846839</v>
+        <v>6845838</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,40 +14963,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L163">
         <v>3.6</v>
       </c>
       <c r="M163">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N163">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O163">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P163">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R163">
         <v>2.05</v>
@@ -15008,31 +15008,31 @@
         <v>3</v>
       </c>
       <c r="U163">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y163">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA163">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC163">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6846846</v>
+        <v>6846845</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,58 +15052,58 @@
         <v>45317.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
         <v>47</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L164">
         <v>3.5</v>
       </c>
       <c r="M164">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N164">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O164">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P164">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W164">
-        <v>0.833</v>
+        <v>1.6</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15112,16 +15112,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6846845</v>
+        <v>6846846</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,58 +15141,58 @@
         <v>45317.60416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
         <v>47</v>
       </c>
       <c r="K165">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L165">
         <v>3.5</v>
       </c>
       <c r="M165">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N165">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O165">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W165">
-        <v>1.6</v>
+        <v>0.833</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15201,16 +15201,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6846849</v>
+        <v>6845837</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45318.375</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H166">
+        <v>3</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="s">
+        <v>47</v>
+      </c>
+      <c r="K166">
+        <v>2.875</v>
+      </c>
+      <c r="L166">
+        <v>3.7</v>
+      </c>
+      <c r="M166">
+        <v>2.2</v>
+      </c>
+      <c r="N166">
+        <v>2.75</v>
+      </c>
+      <c r="O166">
+        <v>3.4</v>
+      </c>
+      <c r="P166">
+        <v>2.55</v>
+      </c>
+      <c r="Q166">
         <v>0</v>
       </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166" t="s">
-        <v>49</v>
-      </c>
-      <c r="K166">
-        <v>3.5</v>
-      </c>
-      <c r="L166">
-        <v>3.8</v>
-      </c>
-      <c r="M166">
-        <v>1.909</v>
-      </c>
-      <c r="N166">
-        <v>3.3</v>
-      </c>
-      <c r="O166">
-        <v>3.75</v>
-      </c>
-      <c r="P166">
-        <v>2.05</v>
-      </c>
-      <c r="Q166">
-        <v>0.5</v>
-      </c>
       <c r="R166">
+        <v>2.025</v>
+      </c>
+      <c r="S166">
         <v>1.825</v>
       </c>
-      <c r="S166">
-        <v>2.025</v>
-      </c>
       <c r="T166">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X166">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6845837</v>
+        <v>6846190</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,13 +15319,13 @@
         <v>45318.375</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -15334,43 +15334,43 @@
         <v>47</v>
       </c>
       <c r="K167">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="L167">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M167">
+        <v>2.45</v>
+      </c>
+      <c r="N167">
+        <v>3.2</v>
+      </c>
+      <c r="O167">
+        <v>3.5</v>
+      </c>
+      <c r="P167">
         <v>2.2</v>
       </c>
-      <c r="N167">
-        <v>2.75</v>
-      </c>
-      <c r="O167">
-        <v>3.4</v>
-      </c>
-      <c r="P167">
-        <v>2.55</v>
-      </c>
       <c r="Q167">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15379,13 +15379,13 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6846190</v>
+        <v>6846849</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45318.375</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M168">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N168">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O168">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P168">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q168">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6846844</v>
+        <v>6846847</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,76 +15675,76 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K171">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L171">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M171">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N171">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O171">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P171">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
+        <v>1.975</v>
+      </c>
+      <c r="S171">
+        <v>1.875</v>
+      </c>
+      <c r="T171">
+        <v>2.75</v>
+      </c>
+      <c r="U171">
         <v>1.85</v>
       </c>
-      <c r="S171">
-        <v>2</v>
-      </c>
-      <c r="T171">
-        <v>3.5</v>
-      </c>
-      <c r="U171">
-        <v>1.95</v>
-      </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA171">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6846847</v>
+        <v>6846844</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,76 +15764,76 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I172">
+        <v>4</v>
+      </c>
+      <c r="J172" t="s">
+        <v>48</v>
+      </c>
+      <c r="K172">
+        <v>1.6</v>
+      </c>
+      <c r="L172">
+        <v>4.2</v>
+      </c>
+      <c r="M172">
+        <v>4.75</v>
+      </c>
+      <c r="N172">
+        <v>1.533</v>
+      </c>
+      <c r="O172">
+        <v>4.5</v>
+      </c>
+      <c r="P172">
+        <v>5.75</v>
+      </c>
+      <c r="Q172">
+        <v>-1</v>
+      </c>
+      <c r="R172">
+        <v>1.85</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
+        <v>3.5</v>
+      </c>
+      <c r="U172">
+        <v>1.95</v>
+      </c>
+      <c r="V172">
+        <v>1.9</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
+        <v>4.75</v>
+      </c>
+      <c r="Z172">
+        <v>-1</v>
+      </c>
+      <c r="AA172">
         <v>1</v>
       </c>
-      <c r="J172" t="s">
-        <v>47</v>
-      </c>
-      <c r="K172">
-        <v>2.1</v>
-      </c>
-      <c r="L172">
-        <v>3.7</v>
-      </c>
-      <c r="M172">
-        <v>3.1</v>
-      </c>
-      <c r="N172">
-        <v>1.95</v>
-      </c>
-      <c r="O172">
-        <v>3.75</v>
-      </c>
-      <c r="P172">
-        <v>3.75</v>
-      </c>
-      <c r="Q172">
-        <v>-0.5</v>
-      </c>
-      <c r="R172">
-        <v>1.975</v>
-      </c>
-      <c r="S172">
-        <v>1.875</v>
-      </c>
-      <c r="T172">
-        <v>2.75</v>
-      </c>
-      <c r="U172">
-        <v>1.85</v>
-      </c>
-      <c r="V172">
-        <v>2</v>
-      </c>
-      <c r="W172">
+      <c r="AB172">
         <v>0.95</v>
       </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
-      <c r="Z172">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA172">
-        <v>-1</v>
-      </c>
-      <c r="AB172">
-        <v>0.425</v>
-      </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6846856</v>
+        <v>6846861</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45331.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K182">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M182">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N182">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O182">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P182">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q182">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T182">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y182">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6846861</v>
+        <v>6846856</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45331.60416666666</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K183">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="L183">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M183">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N183">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S183">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V183">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC183">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6846865</v>
+        <v>6845834</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,16 +17455,16 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J191" t="s">
         <v>47</v>
@@ -17473,40 +17473,40 @@
         <v>2.15</v>
       </c>
       <c r="L191">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M191">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N191">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P191">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q191">
         <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T191">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U191">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W191">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17515,16 +17515,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC191">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6845834</v>
+        <v>6846865</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,16 +17544,16 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>47</v>
@@ -17562,40 +17562,40 @@
         <v>2.15</v>
       </c>
       <c r="L192">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M192">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N192">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O192">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q192">
         <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V192">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17604,16 +17604,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6846889</v>
+        <v>6846882</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20036,76 @@
         <v>45360.375</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G220" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K220">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L220">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M220">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="N220">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="O220">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P220">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V220">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X220">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6846882</v>
+        <v>6846889</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45360.375</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L222">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="N222">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O222">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P222">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S222">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T222">
         <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V222">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W222">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6846895</v>
+        <v>6846894</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21457,49 +21457,49 @@
         <v>28</v>
       </c>
       <c r="E236" s="2">
-        <v>45381.375</v>
+        <v>45382.35416666666</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G236" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K236">
+        <v>1.571</v>
+      </c>
+      <c r="L236">
+        <v>4.333</v>
+      </c>
+      <c r="M236">
+        <v>5</v>
+      </c>
+      <c r="N236">
+        <v>1.6</v>
+      </c>
+      <c r="O236">
+        <v>4.5</v>
+      </c>
+      <c r="P236">
+        <v>4.75</v>
+      </c>
+      <c r="Q236">
+        <v>-1</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>1.85</v>
+      </c>
+      <c r="T236">
         <v>3</v>
       </c>
-      <c r="L236">
-        <v>3.6</v>
-      </c>
-      <c r="M236">
-        <v>2.2</v>
-      </c>
-      <c r="N236">
-        <v>2.875</v>
-      </c>
-      <c r="O236">
-        <v>3.75</v>
-      </c>
-      <c r="P236">
-        <v>2.375</v>
-      </c>
-      <c r="Q236">
-        <v>0.25</v>
-      </c>
-      <c r="R236">
-        <v>1.8</v>
-      </c>
-      <c r="S236">
-        <v>2.05</v>
-      </c>
-      <c r="T236">
-        <v>2.75</v>
-      </c>
       <c r="U236">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V236">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W236">
         <v>0</v>
@@ -21522,7 +21522,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6878838</v>
+        <v>6885137</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21531,49 +21531,49 @@
         <v>28</v>
       </c>
       <c r="E237" s="2">
-        <v>45381.375</v>
+        <v>45382.35416666666</v>
       </c>
       <c r="F237" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K237">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="L237">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M237">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N237">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="O237">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q237">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
+        <v>1.825</v>
+      </c>
+      <c r="V237">
         <v>2.025</v>
-      </c>
-      <c r="V237">
-        <v>1.825</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21596,7 +21596,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6915425</v>
+        <v>6875646</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21605,49 +21605,49 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45381.375</v>
+        <v>45382.35416666666</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L238">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N238">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O238">
         <v>3.75</v>
       </c>
       <c r="P238">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R238">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T238">
         <v>3</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21670,7 +21670,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6869758</v>
+        <v>6846897</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21679,49 +21679,49 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45381.6875</v>
+        <v>45382.35416666666</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K239">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L239">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N239">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O239">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P239">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T239">
         <v>3</v>
       </c>
       <c r="U239">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21744,7 +21744,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6885137</v>
+        <v>6846896</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21756,46 +21756,46 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G240" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K240">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L240">
+        <v>3.6</v>
+      </c>
+      <c r="M240">
+        <v>2.75</v>
+      </c>
+      <c r="N240">
+        <v>2.3</v>
+      </c>
+      <c r="O240">
         <v>3.75</v>
       </c>
-      <c r="M240">
-        <v>3.5</v>
-      </c>
-      <c r="N240">
-        <v>2.05</v>
-      </c>
-      <c r="O240">
-        <v>3.6</v>
-      </c>
       <c r="P240">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T240">
         <v>2.75</v>
       </c>
       <c r="U240">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V240">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21810,302 +21810,6 @@
         <v>0</v>
       </c>
       <c r="AA240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241">
-        <v>6875646</v>
-      </c>
-      <c r="C241" t="s">
-        <v>28</v>
-      </c>
-      <c r="D241" t="s">
-        <v>28</v>
-      </c>
-      <c r="E241" s="2">
-        <v>45382.35416666666</v>
-      </c>
-      <c r="F241" t="s">
-        <v>43</v>
-      </c>
-      <c r="G241" t="s">
-        <v>45</v>
-      </c>
-      <c r="K241">
-        <v>2.25</v>
-      </c>
-      <c r="L241">
-        <v>3.75</v>
-      </c>
-      <c r="M241">
-        <v>2.8</v>
-      </c>
-      <c r="N241">
-        <v>2.3</v>
-      </c>
-      <c r="O241">
-        <v>3.75</v>
-      </c>
-      <c r="P241">
-        <v>2.8</v>
-      </c>
-      <c r="Q241">
-        <v>-0.25</v>
-      </c>
-      <c r="R241">
-        <v>2.025</v>
-      </c>
-      <c r="S241">
-        <v>1.825</v>
-      </c>
-      <c r="T241">
-        <v>3</v>
-      </c>
-      <c r="U241">
-        <v>2</v>
-      </c>
-      <c r="V241">
-        <v>1.85</v>
-      </c>
-      <c r="W241">
-        <v>0</v>
-      </c>
-      <c r="X241">
-        <v>0</v>
-      </c>
-      <c r="Y241">
-        <v>0</v>
-      </c>
-      <c r="Z241">
-        <v>0</v>
-      </c>
-      <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242">
-        <v>6846897</v>
-      </c>
-      <c r="C242" t="s">
-        <v>28</v>
-      </c>
-      <c r="D242" t="s">
-        <v>28</v>
-      </c>
-      <c r="E242" s="2">
-        <v>45382.35416666666</v>
-      </c>
-      <c r="F242" t="s">
-        <v>36</v>
-      </c>
-      <c r="G242" t="s">
-        <v>29</v>
-      </c>
-      <c r="K242">
-        <v>3</v>
-      </c>
-      <c r="L242">
-        <v>3.75</v>
-      </c>
-      <c r="M242">
-        <v>2.2</v>
-      </c>
-      <c r="N242">
-        <v>3</v>
-      </c>
-      <c r="O242">
-        <v>3.75</v>
-      </c>
-      <c r="P242">
-        <v>2.25</v>
-      </c>
-      <c r="Q242">
-        <v>0.25</v>
-      </c>
-      <c r="R242">
-        <v>1.875</v>
-      </c>
-      <c r="S242">
-        <v>1.975</v>
-      </c>
-      <c r="T242">
-        <v>3.25</v>
-      </c>
-      <c r="U242">
-        <v>2.05</v>
-      </c>
-      <c r="V242">
-        <v>1.8</v>
-      </c>
-      <c r="W242">
-        <v>0</v>
-      </c>
-      <c r="X242">
-        <v>0</v>
-      </c>
-      <c r="Y242">
-        <v>0</v>
-      </c>
-      <c r="Z242">
-        <v>0</v>
-      </c>
-      <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>6846896</v>
-      </c>
-      <c r="C243" t="s">
-        <v>28</v>
-      </c>
-      <c r="D243" t="s">
-        <v>28</v>
-      </c>
-      <c r="E243" s="2">
-        <v>45382.35416666666</v>
-      </c>
-      <c r="F243" t="s">
-        <v>44</v>
-      </c>
-      <c r="G243" t="s">
-        <v>31</v>
-      </c>
-      <c r="K243">
-        <v>2.375</v>
-      </c>
-      <c r="L243">
-        <v>3.6</v>
-      </c>
-      <c r="M243">
-        <v>2.75</v>
-      </c>
-      <c r="N243">
-        <v>2.45</v>
-      </c>
-      <c r="O243">
-        <v>3.75</v>
-      </c>
-      <c r="P243">
-        <v>2.8</v>
-      </c>
-      <c r="Q243">
-        <v>0</v>
-      </c>
-      <c r="R243">
-        <v>1.8</v>
-      </c>
-      <c r="S243">
-        <v>2.05</v>
-      </c>
-      <c r="T243">
-        <v>3</v>
-      </c>
-      <c r="U243">
-        <v>2</v>
-      </c>
-      <c r="V243">
-        <v>1.85</v>
-      </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243">
-        <v>0</v>
-      </c>
-      <c r="Y243">
-        <v>0</v>
-      </c>
-      <c r="Z243">
-        <v>0</v>
-      </c>
-      <c r="AA243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:27">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244">
-        <v>6846894</v>
-      </c>
-      <c r="C244" t="s">
-        <v>28</v>
-      </c>
-      <c r="D244" t="s">
-        <v>28</v>
-      </c>
-      <c r="E244" s="2">
-        <v>45382.35416666666</v>
-      </c>
-      <c r="F244" t="s">
-        <v>42</v>
-      </c>
-      <c r="G244" t="s">
-        <v>39</v>
-      </c>
-      <c r="K244">
-        <v>1.571</v>
-      </c>
-      <c r="L244">
-        <v>4.333</v>
-      </c>
-      <c r="M244">
-        <v>5</v>
-      </c>
-      <c r="N244">
-        <v>1.6</v>
-      </c>
-      <c r="O244">
-        <v>4.5</v>
-      </c>
-      <c r="P244">
-        <v>4.75</v>
-      </c>
-      <c r="Q244">
-        <v>-1</v>
-      </c>
-      <c r="R244">
-        <v>2</v>
-      </c>
-      <c r="S244">
-        <v>1.85</v>
-      </c>
-      <c r="T244">
-        <v>3</v>
-      </c>
-      <c r="U244">
-        <v>2</v>
-      </c>
-      <c r="V244">
-        <v>1.85</v>
-      </c>
-      <c r="W244">
-        <v>0</v>
-      </c>
-      <c r="X244">
-        <v>0</v>
-      </c>
-      <c r="Y244">
-        <v>0</v>
-      </c>
-      <c r="Z244">
-        <v>0</v>
-      </c>
-      <c r="AA244">
         <v>0</v>
       </c>
     </row>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6846818</v>
+        <v>6846186</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45255.375</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N122">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="O122">
         <v>3.75</v>
       </c>
       <c r="P122">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6846186</v>
+        <v>6846818</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45255.375</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K123">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N123">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O123">
         <v>3.75</v>
       </c>
       <c r="P123">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z123">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6846817</v>
+        <v>6846816</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N125">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O125">
         <v>3.75</v>
       </c>
       <c r="P125">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6846816</v>
+        <v>6846817</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M126">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N126">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O126">
         <v>3.75</v>
       </c>
       <c r="P126">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6846821</v>
+        <v>6846820</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="N134">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="O134">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P134">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
+        <v>1.925</v>
+      </c>
+      <c r="V134">
+        <v>1.925</v>
+      </c>
+      <c r="W134">
         <v>1.8</v>
       </c>
-      <c r="V134">
-        <v>2.05</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
       <c r="X134">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6846820</v>
+        <v>6845841</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,58 +12471,58 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H135">
+        <v>5</v>
+      </c>
+      <c r="I135">
         <v>1</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
       </c>
       <c r="J135" t="s">
         <v>47</v>
       </c>
       <c r="K135">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="N135">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O135">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P135">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
-        <v>1.8</v>
+        <v>0.909</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12531,16 +12531,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6845841</v>
+        <v>6846821</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K136">
+        <v>1.9</v>
+      </c>
+      <c r="L136">
+        <v>3.6</v>
+      </c>
+      <c r="M136">
+        <v>3.9</v>
+      </c>
+      <c r="N136">
+        <v>1.533</v>
+      </c>
+      <c r="O136">
+        <v>4.333</v>
+      </c>
+      <c r="P136">
+        <v>6</v>
+      </c>
+      <c r="Q136">
+        <v>-1</v>
+      </c>
+      <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
+        <v>1.95</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>1.8</v>
+      </c>
+      <c r="V136">
         <v>2.05</v>
       </c>
-      <c r="L136">
-        <v>3.75</v>
-      </c>
-      <c r="M136">
-        <v>3.25</v>
-      </c>
-      <c r="N136">
-        <v>1.909</v>
-      </c>
-      <c r="O136">
-        <v>4</v>
-      </c>
-      <c r="P136">
-        <v>3.6</v>
-      </c>
-      <c r="Q136">
-        <v>-0.5</v>
-      </c>
-      <c r="R136">
-        <v>1.925</v>
-      </c>
-      <c r="S136">
-        <v>1.925</v>
-      </c>
-      <c r="T136">
-        <v>3</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
       <c r="W136">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6846831</v>
+        <v>6846828</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,73 +12649,73 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L137">
         <v>3.5</v>
       </c>
       <c r="M137">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N137">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O137">
         <v>3.5</v>
       </c>
       <c r="P137">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q137">
         <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y137">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6846828</v>
+        <v>6846831</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,73 +12738,73 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K138">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>3.5</v>
       </c>
       <c r="M138">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N138">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O138">
         <v>3.5</v>
       </c>
       <c r="P138">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB138">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6846837</v>
+        <v>6846188</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,40 +13984,40 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
         <v>47</v>
       </c>
       <c r="K152">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N152">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O152">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P152">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
         <v>2.025</v>
@@ -14026,7 +14026,7 @@
         <v>1.825</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U152">
         <v>1.925</v>
@@ -14035,7 +14035,7 @@
         <v>1.925</v>
       </c>
       <c r="W152">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6846188</v>
+        <v>6846837</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,40 +14073,40 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>47</v>
       </c>
       <c r="K153">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L153">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N153">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O153">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R153">
         <v>2.025</v>
@@ -14115,7 +14115,7 @@
         <v>1.825</v>
       </c>
       <c r="T153">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
         <v>1.925</v>
@@ -14124,7 +14124,7 @@
         <v>1.925</v>
       </c>
       <c r="W153">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7625887</v>
+        <v>7625866</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,13 +14429,13 @@
         <v>45311.375</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -14444,61 +14444,61 @@
         <v>47</v>
       </c>
       <c r="K157">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L157">
+        <v>3.75</v>
+      </c>
+      <c r="M157">
         <v>4.333</v>
       </c>
-      <c r="M157">
-        <v>6.5</v>
-      </c>
       <c r="N157">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O157">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q157">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
         <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
+        <v>0.95</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
+        <v>0.925</v>
+      </c>
+      <c r="AA157">
+        <v>-1</v>
+      </c>
+      <c r="AB157">
         <v>0.45</v>
       </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>1.05</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
-      <c r="AB157">
-        <v>-1</v>
-      </c>
       <c r="AC157">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7625866</v>
+        <v>7625887</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,13 +14518,13 @@
         <v>45311.375</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -14533,43 +14533,43 @@
         <v>47</v>
       </c>
       <c r="K158">
+        <v>1.5</v>
+      </c>
+      <c r="L158">
+        <v>4.333</v>
+      </c>
+      <c r="M158">
+        <v>6.5</v>
+      </c>
+      <c r="N158">
+        <v>1.45</v>
+      </c>
+      <c r="O158">
+        <v>4.5</v>
+      </c>
+      <c r="P158">
+        <v>6.5</v>
+      </c>
+      <c r="Q158">
+        <v>-1.25</v>
+      </c>
+      <c r="R158">
+        <v>2.05</v>
+      </c>
+      <c r="S158">
         <v>1.8</v>
-      </c>
-      <c r="L158">
-        <v>3.75</v>
-      </c>
-      <c r="M158">
-        <v>4.333</v>
-      </c>
-      <c r="N158">
-        <v>1.95</v>
-      </c>
-      <c r="O158">
-        <v>3.75</v>
-      </c>
-      <c r="P158">
-        <v>3.8</v>
-      </c>
-      <c r="Q158">
-        <v>-0.5</v>
-      </c>
-      <c r="R158">
-        <v>1.925</v>
-      </c>
-      <c r="S158">
-        <v>1.925</v>
       </c>
       <c r="T158">
         <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W158">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14578,16 +14578,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6846839</v>
+        <v>6845838</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,40 +14785,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K161">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L161">
         <v>3.6</v>
       </c>
       <c r="M161">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N161">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O161">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P161">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R161">
         <v>2.05</v>
@@ -14830,31 +14830,31 @@
         <v>3</v>
       </c>
       <c r="U161">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y161">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6845838</v>
+        <v>6846839</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,40 +14874,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L162">
         <v>3.6</v>
       </c>
       <c r="M162">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N162">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O162">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P162">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
         <v>2.05</v>
@@ -14919,31 +14919,31 @@
         <v>3</v>
       </c>
       <c r="U162">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V162">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB162">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6846160</v>
+        <v>6846855</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,58 +16031,58 @@
         <v>45325.375</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>47</v>
       </c>
       <c r="K175">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
+        <v>4</v>
+      </c>
+      <c r="M175">
         <v>4.2</v>
       </c>
-      <c r="M175">
-        <v>4.333</v>
-      </c>
       <c r="N175">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O175">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T175">
         <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>0.6000000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16091,16 +16091,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA175">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6846854</v>
+        <v>6846160</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,49 +16120,49 @@
         <v>45325.375</v>
       </c>
       <c r="F176" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M176">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N176">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O176">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P176">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R176">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
         <v>1.85</v>
@@ -16171,19 +16171,19 @@
         <v>2</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X176">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA176">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB176">
         <v>0.8500000000000001</v>
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6846855</v>
+        <v>6846854</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>45325.375</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K177">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N177">
         <v>1.95</v>
       </c>
       <c r="O177">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P177">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6846861</v>
+        <v>6846856</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45331.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G182" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K182">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="L182">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M182">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N182">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O182">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P182">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R182">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S182">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6846856</v>
+        <v>6846861</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45331.60416666666</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M183">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N183">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O183">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P183">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T183">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y183">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB183">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6846871</v>
+        <v>6846194</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,40 +18790,40 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>47</v>
       </c>
       <c r="K206">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L206">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M206">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N206">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O206">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P206">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q206">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R206">
         <v>2</v>
@@ -18832,16 +18832,16 @@
         <v>1.85</v>
       </c>
       <c r="T206">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U206">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V206">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>0.6000000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18850,16 +18850,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA206">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6846868</v>
+        <v>6846871</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,58 +18879,58 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H207">
         <v>2</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
         <v>47</v>
       </c>
       <c r="K207">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="L207">
+        <v>3.8</v>
+      </c>
+      <c r="M207">
         <v>4.333</v>
       </c>
-      <c r="M207">
-        <v>6</v>
-      </c>
       <c r="N207">
-        <v>1.444</v>
+        <v>1.6</v>
       </c>
       <c r="O207">
         <v>4.5</v>
       </c>
       <c r="P207">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q207">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R207">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S207">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T207">
         <v>3</v>
       </c>
       <c r="U207">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V207">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W207">
-        <v>0.444</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,16 +18939,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC207">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6846194</v>
+        <v>6846868</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,13 +18968,13 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -18983,43 +18983,43 @@
         <v>47</v>
       </c>
       <c r="K208">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="L208">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M208">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N208">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O208">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P208">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q208">
         <v>-1.25</v>
       </c>
       <c r="R208">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S208">
+        <v>1.95</v>
+      </c>
+      <c r="T208">
+        <v>3</v>
+      </c>
+      <c r="U208">
+        <v>2</v>
+      </c>
+      <c r="V208">
         <v>1.85</v>
       </c>
-      <c r="T208">
-        <v>3.75</v>
-      </c>
-      <c r="U208">
-        <v>2.025</v>
-      </c>
-      <c r="V208">
-        <v>1.825</v>
-      </c>
       <c r="W208">
-        <v>0.5329999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19028,16 +19028,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA208">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6846195</v>
+        <v>6846874</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,55 +19591,55 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M215">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="N215">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O215">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P215">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T215">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19648,19 +19648,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6846874</v>
+        <v>6846195</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,55 +19680,55 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G216" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L216">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M216">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="N216">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O216">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P216">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T216">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U216">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19737,19 +19737,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC216">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6846882</v>
+        <v>6846889</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20036,76 @@
         <v>45360.375</v>
       </c>
       <c r="F220" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L220">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M220">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="N220">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O220">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V220">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W220">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6846889</v>
+        <v>6846880</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,55 +20125,55 @@
         <v>45360.375</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G221" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J221" t="s">
         <v>49</v>
       </c>
       <c r="K221">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M221">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N221">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O221">
         <v>3.6</v>
       </c>
       <c r="P221">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
+        <v>1.825</v>
+      </c>
+      <c r="V221">
         <v>2.025</v>
-      </c>
-      <c r="V221">
-        <v>1.825</v>
       </c>
       <c r="W221">
         <v>-1</v>
@@ -20185,16 +20185,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA221">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC221">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6846880</v>
+        <v>6846882</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45360.375</v>
       </c>
       <c r="F222" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K222">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L222">
         <v>3.75</v>
       </c>
       <c r="M222">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N222">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O222">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q222">
         <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S222">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T222">
         <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X222">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA222">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6846890</v>
+        <v>6855319</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,56 +20659,56 @@
         <v>45366.60416666666</v>
       </c>
       <c r="F227" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J227" t="s">
         <v>48</v>
       </c>
       <c r="K227">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L227">
         <v>3.75</v>
       </c>
       <c r="M227">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N227">
+        <v>3.4</v>
+      </c>
+      <c r="O227">
+        <v>3.6</v>
+      </c>
+      <c r="P227">
+        <v>2.05</v>
+      </c>
+      <c r="Q227">
+        <v>0.5</v>
+      </c>
+      <c r="R227">
+        <v>1.8</v>
+      </c>
+      <c r="S227">
+        <v>2.05</v>
+      </c>
+      <c r="T227">
+        <v>3</v>
+      </c>
+      <c r="U227">
+        <v>2</v>
+      </c>
+      <c r="V227">
         <v>1.85</v>
       </c>
-      <c r="O227">
-        <v>3.75</v>
-      </c>
-      <c r="P227">
-        <v>4</v>
-      </c>
-      <c r="Q227">
-        <v>-0.5</v>
-      </c>
-      <c r="R227">
-        <v>1.925</v>
-      </c>
-      <c r="S227">
-        <v>1.925</v>
-      </c>
-      <c r="T227">
-        <v>2.75</v>
-      </c>
-      <c r="U227">
-        <v>1.975</v>
-      </c>
-      <c r="V227">
-        <v>1.875</v>
-      </c>
       <c r="W227">
         <v>-1</v>
       </c>
@@ -20716,19 +20716,19 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB227">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AC227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20736,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6855319</v>
+        <v>6846890</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20748,76 +20748,76 @@
         <v>45366.60416666666</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G228" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
         <v>48</v>
       </c>
       <c r="K228">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="L228">
         <v>3.75</v>
       </c>
       <c r="M228">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N228">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O228">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P228">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q228">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S228">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T228">
+        <v>2.75</v>
+      </c>
+      <c r="U228">
+        <v>1.975</v>
+      </c>
+      <c r="V228">
+        <v>1.875</v>
+      </c>
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
+        <v>-1</v>
+      </c>
+      <c r="Y228">
         <v>3</v>
       </c>
-      <c r="U228">
-        <v>2</v>
-      </c>
-      <c r="V228">
-        <v>1.85</v>
-      </c>
-      <c r="W228">
-        <v>-1</v>
-      </c>
-      <c r="X228">
-        <v>-1</v>
-      </c>
-      <c r="Y228">
-        <v>1.05</v>
-      </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB228">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6846896</v>
+        <v>6885137</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,40 +21905,40 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F241" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H241">
         <v>0</v>
       </c>
       <c r="I241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>48</v>
       </c>
       <c r="K241">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L241">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M241">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N241">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O241">
         <v>3.6</v>
       </c>
       <c r="P241">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
         <v>1.925</v>
@@ -21950,10 +21950,10 @@
         <v>2.75</v>
       </c>
       <c r="U241">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V241">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21962,7 +21962,7 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="Z241">
         <v>-1</v>
@@ -21971,10 +21971,10 @@
         <v>0.925</v>
       </c>
       <c r="AB241">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6846894</v>
+        <v>6846896</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,40 +21994,40 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F242" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G242" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J242" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K242">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L242">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M242">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N242">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O242">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P242">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="Q242">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R242">
         <v>1.925</v>
@@ -22039,28 +22039,28 @@
         <v>2.75</v>
       </c>
       <c r="U242">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V242">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W242">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z242">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB242">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AC242">
         <v>-0.5</v>
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6875646</v>
+        <v>6846894</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,76 +22083,76 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F243" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G243" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K243">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L243">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M243">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N243">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O243">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P243">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R243">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S243">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T243">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U243">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V243">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X243">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA243">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC243">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6885137</v>
+        <v>6875646</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,76 +22172,76 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G244" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H244">
         <v>0</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L244">
         <v>3.75</v>
       </c>
       <c r="M244">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N244">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O244">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P244">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q244">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R244">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S244">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T244">
+        <v>3</v>
+      </c>
+      <c r="U244">
+        <v>1.85</v>
+      </c>
+      <c r="V244">
+        <v>2</v>
+      </c>
+      <c r="W244">
+        <v>-1</v>
+      </c>
+      <c r="X244">
         <v>2.75</v>
       </c>
-      <c r="U244">
-        <v>1.875</v>
-      </c>
-      <c r="V244">
-        <v>1.975</v>
-      </c>
-      <c r="W244">
-        <v>-1</v>
-      </c>
-      <c r="X244">
-        <v>-1</v>
-      </c>
       <c r="Y244">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA244">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB244">
         <v>-1</v>
       </c>
       <c r="AC244">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22276,31 +22276,31 @@
         <v>2.8</v>
       </c>
       <c r="N245">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O245">
         <v>3.25</v>
       </c>
       <c r="P245">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R245">
+        <v>1.775</v>
+      </c>
+      <c r="S245">
         <v>2.1</v>
-      </c>
-      <c r="S245">
-        <v>1.775</v>
       </c>
       <c r="T245">
         <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V245">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22350,31 +22350,31 @@
         <v>3</v>
       </c>
       <c r="N246">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O246">
         <v>3.75</v>
       </c>
       <c r="P246">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q246">
         <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T246">
         <v>3.25</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V246">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22424,31 +22424,31 @@
         <v>2.75</v>
       </c>
       <c r="N247">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O247">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P247">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R247">
+        <v>1.8</v>
+      </c>
+      <c r="S247">
         <v>2.05</v>
-      </c>
-      <c r="S247">
-        <v>1.8</v>
       </c>
       <c r="T247">
         <v>3</v>
       </c>
       <c r="U247">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V247">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22498,31 +22498,31 @@
         <v>2.2</v>
       </c>
       <c r="N248">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O248">
         <v>3.6</v>
       </c>
       <c r="P248">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q248">
         <v>0.25</v>
       </c>
       <c r="R248">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S248">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T248">
         <v>3</v>
       </c>
       <c r="U248">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V248">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22578,16 +22578,16 @@
         <v>4.333</v>
       </c>
       <c r="P249">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q249">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R249">
+        <v>2.05</v>
+      </c>
+      <c r="S249">
         <v>1.8</v>
-      </c>
-      <c r="S249">
-        <v>2.05</v>
       </c>
       <c r="T249">
         <v>3.25</v>
@@ -22658,19 +22658,19 @@
         <v>0.25</v>
       </c>
       <c r="R250">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S250">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T250">
         <v>2.75</v>
       </c>
       <c r="U250">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V250">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22732,10 +22732,10 @@
         <v>-0.75</v>
       </c>
       <c r="R251">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T251">
         <v>2.75</v>
@@ -22767,7 +22767,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6861718</v>
+        <v>6921567</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22779,46 +22779,46 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F252" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G252" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K252">
+        <v>1.909</v>
+      </c>
+      <c r="L252">
+        <v>3.75</v>
+      </c>
+      <c r="M252">
+        <v>3.6</v>
+      </c>
+      <c r="N252">
+        <v>1.909</v>
+      </c>
+      <c r="O252">
+        <v>3.75</v>
+      </c>
+      <c r="P252">
+        <v>3.6</v>
+      </c>
+      <c r="Q252">
+        <v>-0.5</v>
+      </c>
+      <c r="R252">
+        <v>1.975</v>
+      </c>
+      <c r="S252">
+        <v>1.875</v>
+      </c>
+      <c r="T252">
         <v>3</v>
       </c>
-      <c r="L252">
-        <v>3.5</v>
-      </c>
-      <c r="M252">
-        <v>2.25</v>
-      </c>
-      <c r="N252">
-        <v>3</v>
-      </c>
-      <c r="O252">
-        <v>3.5</v>
-      </c>
-      <c r="P252">
-        <v>2.25</v>
-      </c>
-      <c r="Q252">
-        <v>0.25</v>
-      </c>
-      <c r="R252">
-        <v>1.85</v>
-      </c>
-      <c r="S252">
-        <v>2</v>
-      </c>
-      <c r="T252">
-        <v>2.75</v>
-      </c>
       <c r="U252">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V252">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W252">
         <v>0</v>
@@ -22841,7 +22841,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6921567</v>
+        <v>6861718</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22853,46 +22853,46 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G253" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K253">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L253">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M253">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N253">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O253">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P253">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q253">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R253">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S253">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T253">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U253">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V253">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W253">
         <v>0</v>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6846186</v>
+        <v>6846818</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45255.375</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N122">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O122">
         <v>3.75</v>
       </c>
       <c r="P122">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6846818</v>
+        <v>6846186</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45255.375</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N123">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="O123">
         <v>3.75</v>
       </c>
       <c r="P123">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6846816</v>
+        <v>6846817</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M125">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N125">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O125">
         <v>3.75</v>
       </c>
       <c r="P125">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6846817</v>
+        <v>6846816</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N126">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O126">
         <v>3.75</v>
       </c>
       <c r="P126">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S126">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6846820</v>
+        <v>6846821</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2.875</v>
+        <v>3.9</v>
       </c>
       <c r="N134">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W134">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6845841</v>
+        <v>6846820</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,58 +12471,58 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
         <v>47</v>
       </c>
       <c r="K135">
+        <v>2.3</v>
+      </c>
+      <c r="L135">
+        <v>3.5</v>
+      </c>
+      <c r="M135">
+        <v>2.875</v>
+      </c>
+      <c r="N135">
+        <v>2.8</v>
+      </c>
+      <c r="O135">
+        <v>3.4</v>
+      </c>
+      <c r="P135">
+        <v>2.55</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
         <v>2.05</v>
       </c>
-      <c r="L135">
-        <v>3.75</v>
-      </c>
-      <c r="M135">
-        <v>3.25</v>
-      </c>
-      <c r="N135">
-        <v>1.909</v>
-      </c>
-      <c r="O135">
-        <v>4</v>
-      </c>
-      <c r="P135">
-        <v>3.6</v>
-      </c>
-      <c r="Q135">
-        <v>-0.5</v>
-      </c>
-      <c r="R135">
+      <c r="S135">
+        <v>1.8</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
         <v>1.925</v>
       </c>
-      <c r="S135">
+      <c r="V135">
         <v>1.925</v>
       </c>
-      <c r="T135">
-        <v>3</v>
-      </c>
-      <c r="U135">
-        <v>1.875</v>
-      </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
-        <v>0.909</v>
+        <v>1.8</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12531,16 +12531,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>1.05</v>
+      </c>
+      <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>0.925</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>0.875</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6846821</v>
+        <v>6845841</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="L136">
+        <v>3.75</v>
+      </c>
+      <c r="M136">
+        <v>3.25</v>
+      </c>
+      <c r="N136">
+        <v>1.909</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
         <v>3.6</v>
       </c>
-      <c r="M136">
-        <v>3.9</v>
-      </c>
-      <c r="N136">
-        <v>1.533</v>
-      </c>
-      <c r="O136">
-        <v>4.333</v>
-      </c>
-      <c r="P136">
-        <v>6</v>
-      </c>
       <c r="Q136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X136">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6846828</v>
+        <v>6846831</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,73 +12649,73 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L137">
         <v>3.5</v>
       </c>
       <c r="M137">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N137">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O137">
         <v>3.5</v>
       </c>
       <c r="P137">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q137">
         <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB137">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6846831</v>
+        <v>6846828</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,73 +12738,73 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L138">
         <v>3.5</v>
       </c>
       <c r="M138">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N138">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O138">
         <v>3.5</v>
       </c>
       <c r="P138">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y138">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6846188</v>
+        <v>6846837</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,40 +13984,40 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>47</v>
       </c>
       <c r="K152">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L152">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N152">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O152">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R152">
         <v>2.025</v>
@@ -14026,7 +14026,7 @@
         <v>1.825</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
         <v>1.925</v>
@@ -14035,7 +14035,7 @@
         <v>1.925</v>
       </c>
       <c r="W152">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6846837</v>
+        <v>6846188</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,40 +14073,40 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
         <v>47</v>
       </c>
       <c r="K153">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M153">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N153">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P153">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q153">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
         <v>2.025</v>
@@ -14115,7 +14115,7 @@
         <v>1.825</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U153">
         <v>1.925</v>
@@ -14124,7 +14124,7 @@
         <v>1.925</v>
       </c>
       <c r="W153">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7625866</v>
+        <v>7625887</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,13 +14429,13 @@
         <v>45311.375</v>
       </c>
       <c r="F157" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -14444,43 +14444,43 @@
         <v>47</v>
       </c>
       <c r="K157">
+        <v>1.5</v>
+      </c>
+      <c r="L157">
+        <v>4.333</v>
+      </c>
+      <c r="M157">
+        <v>6.5</v>
+      </c>
+      <c r="N157">
+        <v>1.45</v>
+      </c>
+      <c r="O157">
+        <v>4.5</v>
+      </c>
+      <c r="P157">
+        <v>6.5</v>
+      </c>
+      <c r="Q157">
+        <v>-1.25</v>
+      </c>
+      <c r="R157">
+        <v>2.05</v>
+      </c>
+      <c r="S157">
         <v>1.8</v>
-      </c>
-      <c r="L157">
-        <v>3.75</v>
-      </c>
-      <c r="M157">
-        <v>4.333</v>
-      </c>
-      <c r="N157">
-        <v>1.95</v>
-      </c>
-      <c r="O157">
-        <v>3.75</v>
-      </c>
-      <c r="P157">
-        <v>3.8</v>
-      </c>
-      <c r="Q157">
-        <v>-0.5</v>
-      </c>
-      <c r="R157">
-        <v>1.925</v>
-      </c>
-      <c r="S157">
-        <v>1.925</v>
       </c>
       <c r="T157">
         <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14489,16 +14489,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7625887</v>
+        <v>7625866</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,13 +14518,13 @@
         <v>45311.375</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -14533,61 +14533,61 @@
         <v>47</v>
       </c>
       <c r="K158">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L158">
+        <v>3.75</v>
+      </c>
+      <c r="M158">
         <v>4.333</v>
       </c>
-      <c r="M158">
-        <v>6.5</v>
-      </c>
       <c r="N158">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O158">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P158">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q158">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T158">
         <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
+        <v>0.95</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>0.925</v>
+      </c>
+      <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
         <v>0.45</v>
       </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>1.05</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>-1</v>
-      </c>
       <c r="AC158">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6845838</v>
+        <v>6846839</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,40 +14785,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K161">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L161">
         <v>3.6</v>
       </c>
       <c r="M161">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N161">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O161">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P161">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
         <v>2.05</v>
@@ -14830,31 +14830,31 @@
         <v>3</v>
       </c>
       <c r="U161">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V161">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6846839</v>
+        <v>6845838</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,40 +14874,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K162">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L162">
         <v>3.6</v>
       </c>
       <c r="M162">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N162">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O162">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P162">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R162">
         <v>2.05</v>
@@ -14919,31 +14919,31 @@
         <v>3</v>
       </c>
       <c r="U162">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y162">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA162">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC162">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6846855</v>
+        <v>6846160</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,58 +16031,58 @@
         <v>45325.375</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>47</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M175">
+        <v>4.333</v>
+      </c>
+      <c r="N175">
+        <v>1.6</v>
+      </c>
+      <c r="O175">
         <v>4.2</v>
       </c>
-      <c r="N175">
-        <v>1.95</v>
-      </c>
-      <c r="O175">
-        <v>3.5</v>
-      </c>
       <c r="P175">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T175">
         <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>0.95</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16091,16 +16091,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6846160</v>
+        <v>6846854</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,49 +16120,49 @@
         <v>45325.375</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L176">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M176">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N176">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O176">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P176">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
         <v>1.85</v>
@@ -16171,19 +16171,19 @@
         <v>2</v>
       </c>
       <c r="W176">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB176">
         <v>0.8500000000000001</v>
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6846854</v>
+        <v>6846855</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>45325.375</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N177">
         <v>1.95</v>
       </c>
       <c r="O177">
+        <v>3.5</v>
+      </c>
+      <c r="P177">
         <v>3.8</v>
-      </c>
-      <c r="P177">
-        <v>3.6</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X177">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6846856</v>
+        <v>6846861</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45331.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K182">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M182">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N182">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O182">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P182">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q182">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T182">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y182">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6846861</v>
+        <v>6846856</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45331.60416666666</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K183">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="L183">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M183">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N183">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S183">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V183">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC183">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6846194</v>
+        <v>6846871</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,40 +18790,40 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G206" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
         <v>1</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>47</v>
       </c>
       <c r="K206">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L206">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M206">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N206">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O206">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P206">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q206">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R206">
         <v>2</v>
@@ -18832,16 +18832,16 @@
         <v>1.85</v>
       </c>
       <c r="T206">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U206">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V206">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W206">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18850,16 +18850,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA206">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC206">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6846871</v>
+        <v>6846868</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,58 +18879,58 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H207">
         <v>2</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>47</v>
       </c>
       <c r="K207">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L207">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M207">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N207">
-        <v>1.6</v>
+        <v>1.444</v>
       </c>
       <c r="O207">
         <v>4.5</v>
       </c>
       <c r="P207">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S207">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T207">
         <v>3</v>
       </c>
       <c r="U207">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W207">
-        <v>0.6000000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,16 +18939,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA207">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6846868</v>
+        <v>6846194</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,13 +18968,13 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -18983,43 +18983,43 @@
         <v>47</v>
       </c>
       <c r="K208">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="L208">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M208">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N208">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O208">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P208">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q208">
         <v>-1.25</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S208">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T208">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U208">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W208">
-        <v>0.444</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19028,16 +19028,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6846874</v>
+        <v>6846195</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,55 +19591,55 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L215">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M215">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="N215">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O215">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P215">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q215">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T215">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U215">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19648,19 +19648,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC215">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6846195</v>
+        <v>6846874</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,55 +19680,55 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L216">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M216">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="N216">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O216">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P216">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q216">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S216">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T216">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19737,19 +19737,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6846889</v>
+        <v>6846882</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20036,76 @@
         <v>45360.375</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K220">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L220">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M220">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="N220">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="O220">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P220">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V220">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X220">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6846880</v>
+        <v>6846889</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,55 +20125,55 @@
         <v>45360.375</v>
       </c>
       <c r="F221" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
         <v>49</v>
       </c>
       <c r="K221">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L221">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
+        <v>2.25</v>
+      </c>
+      <c r="N221">
         <v>3.1</v>
-      </c>
-      <c r="N221">
-        <v>2.2</v>
       </c>
       <c r="O221">
         <v>3.6</v>
       </c>
       <c r="P221">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S221">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
+        <v>2.025</v>
+      </c>
+      <c r="V221">
         <v>1.825</v>
-      </c>
-      <c r="V221">
-        <v>2.025</v>
       </c>
       <c r="W221">
         <v>-1</v>
@@ -20185,16 +20185,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
+        <v>0.45</v>
+      </c>
+      <c r="AA221">
         <v>-0.5</v>
       </c>
-      <c r="AA221">
-        <v>0.4875</v>
-      </c>
       <c r="AB221">
+        <v>-1</v>
+      </c>
+      <c r="AC221">
         <v>0.825</v>
-      </c>
-      <c r="AC221">
-        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6846882</v>
+        <v>6846880</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45360.375</v>
       </c>
       <c r="F222" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G222" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L222">
         <v>3.75</v>
       </c>
       <c r="M222">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N222">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O222">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P222">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q222">
         <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S222">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T222">
         <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W222">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC222">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6855319</v>
+        <v>6846890</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45366.60416666666</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G227" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
         <v>48</v>
       </c>
       <c r="K227">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="L227">
         <v>3.75</v>
       </c>
       <c r="M227">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N227">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O227">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P227">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q227">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S227">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T227">
+        <v>2.75</v>
+      </c>
+      <c r="U227">
+        <v>1.975</v>
+      </c>
+      <c r="V227">
+        <v>1.875</v>
+      </c>
+      <c r="W227">
+        <v>-1</v>
+      </c>
+      <c r="X227">
+        <v>-1</v>
+      </c>
+      <c r="Y227">
         <v>3</v>
       </c>
-      <c r="U227">
-        <v>2</v>
-      </c>
-      <c r="V227">
-        <v>1.85</v>
-      </c>
-      <c r="W227">
-        <v>-1</v>
-      </c>
-      <c r="X227">
-        <v>-1</v>
-      </c>
-      <c r="Y227">
-        <v>1.05</v>
-      </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB227">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20736,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6846890</v>
+        <v>6855319</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20748,56 +20748,56 @@
         <v>45366.60416666666</v>
       </c>
       <c r="F228" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J228" t="s">
         <v>48</v>
       </c>
       <c r="K228">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L228">
         <v>3.75</v>
       </c>
       <c r="M228">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N228">
+        <v>3.4</v>
+      </c>
+      <c r="O228">
+        <v>3.6</v>
+      </c>
+      <c r="P228">
+        <v>2.05</v>
+      </c>
+      <c r="Q228">
+        <v>0.5</v>
+      </c>
+      <c r="R228">
+        <v>1.8</v>
+      </c>
+      <c r="S228">
+        <v>2.05</v>
+      </c>
+      <c r="T228">
+        <v>3</v>
+      </c>
+      <c r="U228">
+        <v>2</v>
+      </c>
+      <c r="V228">
         <v>1.85</v>
       </c>
-      <c r="O228">
-        <v>3.75</v>
-      </c>
-      <c r="P228">
-        <v>4</v>
-      </c>
-      <c r="Q228">
-        <v>-0.5</v>
-      </c>
-      <c r="R228">
-        <v>1.925</v>
-      </c>
-      <c r="S228">
-        <v>1.925</v>
-      </c>
-      <c r="T228">
-        <v>2.75</v>
-      </c>
-      <c r="U228">
-        <v>1.975</v>
-      </c>
-      <c r="V228">
-        <v>1.875</v>
-      </c>
       <c r="W228">
         <v>-1</v>
       </c>
@@ -20805,19 +20805,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB228">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AC228">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6885137</v>
+        <v>6846896</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,40 +21905,40 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H241">
         <v>0</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J241" t="s">
         <v>48</v>
       </c>
       <c r="K241">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L241">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M241">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N241">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O241">
         <v>3.6</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R241">
         <v>1.925</v>
@@ -21950,10 +21950,10 @@
         <v>2.75</v>
       </c>
       <c r="U241">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V241">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21962,7 +21962,7 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="Z241">
         <v>-1</v>
@@ -21971,10 +21971,10 @@
         <v>0.925</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC241">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6846896</v>
+        <v>6846894</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,40 +21994,40 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F242" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G242" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K242">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L242">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M242">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N242">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O242">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P242">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q242">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R242">
         <v>1.925</v>
@@ -22039,28 +22039,28 @@
         <v>2.75</v>
       </c>
       <c r="U242">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W242">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA242">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB242">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AC242">
         <v>-0.5</v>
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6846894</v>
+        <v>6875646</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,76 +22083,76 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G243" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243" t="s">
+        <v>49</v>
+      </c>
+      <c r="K243">
+        <v>2.25</v>
+      </c>
+      <c r="L243">
+        <v>3.75</v>
+      </c>
+      <c r="M243">
+        <v>2.8</v>
+      </c>
+      <c r="N243">
+        <v>2.375</v>
+      </c>
+      <c r="O243">
+        <v>3.75</v>
+      </c>
+      <c r="P243">
+        <v>2.7</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>1.825</v>
+      </c>
+      <c r="S243">
+        <v>2.025</v>
+      </c>
+      <c r="T243">
+        <v>3</v>
+      </c>
+      <c r="U243">
+        <v>1.85</v>
+      </c>
+      <c r="V243">
+        <v>2</v>
+      </c>
+      <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
+        <v>2.75</v>
+      </c>
+      <c r="Y243">
+        <v>-1</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>-0</v>
+      </c>
+      <c r="AB243">
+        <v>-1</v>
+      </c>
+      <c r="AC243">
         <v>1</v>
-      </c>
-      <c r="J243" t="s">
-        <v>47</v>
-      </c>
-      <c r="K243">
-        <v>1.571</v>
-      </c>
-      <c r="L243">
-        <v>4.333</v>
-      </c>
-      <c r="M243">
-        <v>5</v>
-      </c>
-      <c r="N243">
-        <v>1.7</v>
-      </c>
-      <c r="O243">
-        <v>4.2</v>
-      </c>
-      <c r="P243">
-        <v>4.333</v>
-      </c>
-      <c r="Q243">
-        <v>-0.75</v>
-      </c>
-      <c r="R243">
-        <v>1.925</v>
-      </c>
-      <c r="S243">
-        <v>1.925</v>
-      </c>
-      <c r="T243">
-        <v>2.75</v>
-      </c>
-      <c r="U243">
-        <v>1.875</v>
-      </c>
-      <c r="V243">
-        <v>1.975</v>
-      </c>
-      <c r="W243">
-        <v>0.7</v>
-      </c>
-      <c r="X243">
-        <v>-1</v>
-      </c>
-      <c r="Y243">
-        <v>-1</v>
-      </c>
-      <c r="Z243">
-        <v>0.4625</v>
-      </c>
-      <c r="AA243">
-        <v>-0.5</v>
-      </c>
-      <c r="AB243">
-        <v>0.4375</v>
-      </c>
-      <c r="AC243">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6875646</v>
+        <v>6885137</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,76 +22172,76 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F244" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G244" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H244">
         <v>0</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K244">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L244">
         <v>3.75</v>
       </c>
       <c r="M244">
+        <v>3.5</v>
+      </c>
+      <c r="N244">
+        <v>1.95</v>
+      </c>
+      <c r="O244">
+        <v>3.6</v>
+      </c>
+      <c r="P244">
+        <v>3.8</v>
+      </c>
+      <c r="Q244">
+        <v>-0.5</v>
+      </c>
+      <c r="R244">
+        <v>1.925</v>
+      </c>
+      <c r="S244">
+        <v>1.925</v>
+      </c>
+      <c r="T244">
+        <v>2.75</v>
+      </c>
+      <c r="U244">
+        <v>1.875</v>
+      </c>
+      <c r="V244">
+        <v>1.975</v>
+      </c>
+      <c r="W244">
+        <v>-1</v>
+      </c>
+      <c r="X244">
+        <v>-1</v>
+      </c>
+      <c r="Y244">
         <v>2.8</v>
       </c>
-      <c r="N244">
-        <v>2.375</v>
-      </c>
-      <c r="O244">
-        <v>3.75</v>
-      </c>
-      <c r="P244">
-        <v>2.7</v>
-      </c>
-      <c r="Q244">
-        <v>0</v>
-      </c>
-      <c r="R244">
-        <v>1.825</v>
-      </c>
-      <c r="S244">
-        <v>2.025</v>
-      </c>
-      <c r="T244">
-        <v>3</v>
-      </c>
-      <c r="U244">
-        <v>1.85</v>
-      </c>
-      <c r="V244">
-        <v>2</v>
-      </c>
-      <c r="W244">
-        <v>-1</v>
-      </c>
-      <c r="X244">
-        <v>2.75</v>
-      </c>
-      <c r="Y244">
-        <v>-1</v>
-      </c>
       <c r="Z244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA244">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB244">
         <v>-1</v>
       </c>
       <c r="AC244">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22276,31 +22276,31 @@
         <v>2.8</v>
       </c>
       <c r="N245">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O245">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P245">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q245">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
+        <v>2.1</v>
+      </c>
+      <c r="S245">
         <v>1.775</v>
-      </c>
-      <c r="S245">
-        <v>2.1</v>
       </c>
       <c r="T245">
         <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V245">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22353,7 +22353,7 @@
         <v>2.1</v>
       </c>
       <c r="O246">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P246">
         <v>3.2</v>
@@ -22362,19 +22362,19 @@
         <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S246">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T246">
         <v>3.25</v>
       </c>
       <c r="U246">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22424,22 +22424,22 @@
         <v>2.75</v>
       </c>
       <c r="N247">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O247">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P247">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
+        <v>2.05</v>
+      </c>
+      <c r="S247">
         <v>1.8</v>
-      </c>
-      <c r="S247">
-        <v>2.05</v>
       </c>
       <c r="T247">
         <v>3</v>
@@ -22498,22 +22498,22 @@
         <v>2.2</v>
       </c>
       <c r="N248">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O248">
         <v>3.6</v>
       </c>
       <c r="P248">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q248">
         <v>0.25</v>
       </c>
       <c r="R248">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S248">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T248">
         <v>3</v>
@@ -22593,10 +22593,10 @@
         <v>3.25</v>
       </c>
       <c r="U249">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V249">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22646,31 +22646,31 @@
         <v>2.25</v>
       </c>
       <c r="N250">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O250">
         <v>3.5</v>
       </c>
       <c r="P250">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q250">
         <v>0.25</v>
       </c>
       <c r="R250">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S250">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T250">
         <v>2.75</v>
       </c>
       <c r="U250">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V250">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22720,31 +22720,31 @@
         <v>5</v>
       </c>
       <c r="N251">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O251">
         <v>3.8</v>
       </c>
       <c r="P251">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q251">
         <v>-0.75</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T251">
         <v>2.75</v>
       </c>
       <c r="U251">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V251">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22794,13 +22794,13 @@
         <v>3.6</v>
       </c>
       <c r="N252">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P252">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q252">
         <v>-0.5</v>
@@ -22868,7 +22868,7 @@
         <v>2.25</v>
       </c>
       <c r="N253">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O253">
         <v>3.5</v>
@@ -22889,10 +22889,10 @@
         <v>2.75</v>
       </c>
       <c r="U253">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V253">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W253">
         <v>0</v>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC253"/>
+  <dimension ref="A1:AC250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6846748</v>
+        <v>6846746</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,40 +2859,40 @@
         <v>45158.35416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K27">
+        <v>2.15</v>
+      </c>
+      <c r="L27">
+        <v>3.5</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>2.3</v>
+      </c>
+      <c r="O27">
         <v>4</v>
       </c>
-      <c r="L27">
-        <v>3.75</v>
-      </c>
-      <c r="M27">
-        <v>1.75</v>
-      </c>
-      <c r="N27">
-        <v>3.4</v>
-      </c>
-      <c r="O27">
-        <v>3.5</v>
-      </c>
       <c r="P27">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
         <v>2.05</v>
@@ -2901,34 +2901,34 @@
         <v>1.8</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U27">
+        <v>2.025</v>
+      </c>
+      <c r="V27">
         <v>1.825</v>
       </c>
-      <c r="V27">
-        <v>2.025</v>
-      </c>
       <c r="W27">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z27">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC27">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6846746</v>
+        <v>6846748</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,40 +2948,40 @@
         <v>45158.35416666666</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28">
         <v>4</v>
       </c>
-      <c r="J28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28">
-        <v>2.15</v>
-      </c>
       <c r="L28">
+        <v>3.75</v>
+      </c>
+      <c r="M28">
+        <v>1.75</v>
+      </c>
+      <c r="N28">
+        <v>3.4</v>
+      </c>
+      <c r="O28">
         <v>3.5</v>
       </c>
-      <c r="M28">
-        <v>3</v>
-      </c>
-      <c r="N28">
-        <v>2.3</v>
-      </c>
-      <c r="O28">
-        <v>4</v>
-      </c>
       <c r="P28">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
         <v>2.05</v>
@@ -2990,34 +2990,34 @@
         <v>1.8</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
+        <v>1.825</v>
+      </c>
+      <c r="V28">
         <v>2.025</v>
       </c>
-      <c r="V28">
-        <v>1.825</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA28">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>1.025</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6846759</v>
+        <v>6846762</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N40">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6846762</v>
+        <v>6846759</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P41">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X41">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6845855</v>
+        <v>6846147</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,58 +5173,58 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>47</v>
       </c>
       <c r="K53">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L53">
         <v>4</v>
       </c>
       <c r="M53">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N53">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O53">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q53">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
         <v>3</v>
       </c>
       <c r="U53">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5233,16 +5233,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6846147</v>
+        <v>6845855</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,58 +5262,58 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>47</v>
       </c>
       <c r="K54">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L54">
         <v>4</v>
       </c>
       <c r="M54">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P54">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T54">
         <v>3</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W54">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5322,16 +5322,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6846779</v>
+        <v>6846778</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,13 +6419,13 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -6434,43 +6434,43 @@
         <v>47</v>
       </c>
       <c r="K67">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N67">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O67">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P67">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>1.15</v>
+        <v>0.7</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6479,7 +6479,7 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA67">
         <v>-1</v>
@@ -6488,7 +6488,7 @@
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6846778</v>
+        <v>6846779</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,13 +6508,13 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -6523,43 +6523,43 @@
         <v>47</v>
       </c>
       <c r="K68">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N68">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6568,7 +6568,7 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA68">
         <v>-1</v>
@@ -6577,7 +6577,7 @@
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6846782</v>
+        <v>6846783</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,40 +7042,40 @@
         <v>45205.5625</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O74">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
         <v>1.95</v>
@@ -7084,34 +7084,34 @@
         <v>1.9</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X74">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
+        <v>-1</v>
+      </c>
+      <c r="AB74">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6846783</v>
+        <v>6846782</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,40 +7131,40 @@
         <v>45205.5625</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N75">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R75">
         <v>1.95</v>
@@ -7173,34 +7173,34 @@
         <v>1.9</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6846183</v>
+        <v>6846791</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,58 +7843,58 @@
         <v>45219.5625</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>47</v>
       </c>
       <c r="K83">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L83">
         <v>3.8</v>
       </c>
       <c r="M83">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N83">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U83">
+        <v>1.8</v>
+      </c>
+      <c r="V83">
         <v>2.05</v>
       </c>
-      <c r="V83">
-        <v>1.8</v>
-      </c>
       <c r="W83">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7903,16 +7903,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6846791</v>
+        <v>6846183</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,58 +7932,58 @@
         <v>45219.5625</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>47</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L84">
         <v>3.8</v>
       </c>
       <c r="M84">
+        <v>3.8</v>
+      </c>
+      <c r="N84">
+        <v>1.727</v>
+      </c>
+      <c r="O84">
+        <v>4.2</v>
+      </c>
+      <c r="P84">
+        <v>4.2</v>
+      </c>
+      <c r="Q84">
+        <v>-0.75</v>
+      </c>
+      <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
+        <v>1.875</v>
+      </c>
+      <c r="T84">
         <v>3.25</v>
       </c>
-      <c r="N84">
-        <v>2.15</v>
-      </c>
-      <c r="O84">
-        <v>3.75</v>
-      </c>
-      <c r="P84">
-        <v>3.1</v>
-      </c>
-      <c r="Q84">
-        <v>-0.25</v>
-      </c>
-      <c r="R84">
-        <v>1.9</v>
-      </c>
-      <c r="S84">
-        <v>1.95</v>
-      </c>
-      <c r="T84">
-        <v>3</v>
-      </c>
       <c r="U84">
+        <v>2.05</v>
+      </c>
+      <c r="V84">
         <v>1.8</v>
       </c>
-      <c r="V84">
-        <v>2.05</v>
-      </c>
       <c r="W84">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7992,16 +7992,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC84">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6846799</v>
+        <v>6846795</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L98">
         <v>3.4</v>
       </c>
       <c r="M98">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N98">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q98">
         <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z98">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6846795</v>
+        <v>6846184</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,13 +9267,13 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -9282,40 +9282,40 @@
         <v>49</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O99">
         <v>3.8</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9324,19 +9324,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6846184</v>
+        <v>6846799</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N100">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
         <v>2.05</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6846801</v>
+        <v>6846152</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,55 +9445,55 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>49</v>
       </c>
       <c r="K101">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L101">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N101">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O101">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9502,19 +9502,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>4.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6846152</v>
+        <v>6846801</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,55 +9534,55 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J102" t="s">
         <v>49</v>
       </c>
       <c r="K102">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="L102">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M102">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N102">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P102">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9591,19 +9591,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.15</v>
+        <v>4.75</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6846804</v>
+        <v>6846802</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
+        <v>3</v>
+      </c>
+      <c r="J107" t="s">
+        <v>49</v>
+      </c>
+      <c r="K107">
+        <v>2.1</v>
+      </c>
+      <c r="L107">
+        <v>3.6</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+      <c r="N107">
+        <v>2.2</v>
+      </c>
+      <c r="O107">
+        <v>3.6</v>
+      </c>
+      <c r="P107">
+        <v>3.1</v>
+      </c>
+      <c r="Q107">
+        <v>-0.25</v>
+      </c>
+      <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
+        <v>3</v>
+      </c>
+      <c r="U107">
+        <v>1.8</v>
+      </c>
+      <c r="V107">
+        <v>2.05</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>2.1</v>
+      </c>
+      <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
+        <v>0.925</v>
+      </c>
+      <c r="AB107">
         <v>0</v>
       </c>
-      <c r="J107" t="s">
-        <v>47</v>
-      </c>
-      <c r="K107">
-        <v>1.6</v>
-      </c>
-      <c r="L107">
-        <v>4</v>
-      </c>
-      <c r="M107">
-        <v>4.5</v>
-      </c>
-      <c r="N107">
-        <v>1.55</v>
-      </c>
-      <c r="O107">
-        <v>4</v>
-      </c>
-      <c r="P107">
-        <v>6</v>
-      </c>
-      <c r="Q107">
-        <v>-1</v>
-      </c>
-      <c r="R107">
-        <v>1.9</v>
-      </c>
-      <c r="S107">
-        <v>1.95</v>
-      </c>
-      <c r="T107">
-        <v>2.75</v>
-      </c>
-      <c r="U107">
-        <v>1.95</v>
-      </c>
-      <c r="V107">
-        <v>1.9</v>
-      </c>
-      <c r="W107">
-        <v>0.55</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>-1</v>
-      </c>
-      <c r="Z107">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>-1</v>
-      </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6846802</v>
+        <v>6845849</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L108">
         <v>3.6</v>
       </c>
       <c r="M108">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N108">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O108">
         <v>3.6</v>
       </c>
       <c r="P108">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
         <v>3</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V108">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y108">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6845849</v>
+        <v>6846804</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K109">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N109">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P109">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X109">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6846187</v>
+        <v>6846830</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,55 +13272,55 @@
         <v>45270.39583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>49</v>
       </c>
       <c r="K144">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L144">
         <v>3.6</v>
       </c>
       <c r="M144">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N144">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13329,19 +13329,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6846830</v>
+        <v>6846187</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,55 +13361,55 @@
         <v>45270.39583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>49</v>
       </c>
       <c r="K145">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L145">
         <v>3.6</v>
       </c>
       <c r="M145">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N145">
+        <v>1.833</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>4</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>1.85</v>
+      </c>
+      <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
         <v>3</v>
       </c>
-      <c r="O145">
-        <v>3.6</v>
-      </c>
-      <c r="P145">
-        <v>2.25</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.875</v>
-      </c>
-      <c r="S145">
-        <v>1.975</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
       <c r="U145">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13418,19 +13418,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6846832</v>
+        <v>6846833</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45275.60416666666</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N146">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O146">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P146">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R146">
+        <v>1.925</v>
+      </c>
+      <c r="S146">
+        <v>1.925</v>
+      </c>
+      <c r="T146">
+        <v>3</v>
+      </c>
+      <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
         <v>1.85</v>
       </c>
-      <c r="S146">
-        <v>2</v>
-      </c>
-      <c r="T146">
-        <v>2.75</v>
-      </c>
-      <c r="U146">
-        <v>1.975</v>
-      </c>
-      <c r="V146">
-        <v>1.875</v>
-      </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X146">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA146">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6846833</v>
+        <v>6846832</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45275.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K147">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N147">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O147">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P147">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7625887</v>
+        <v>7625866</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,13 +14429,13 @@
         <v>45311.375</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -14444,61 +14444,61 @@
         <v>47</v>
       </c>
       <c r="K157">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L157">
+        <v>3.75</v>
+      </c>
+      <c r="M157">
         <v>4.333</v>
       </c>
-      <c r="M157">
-        <v>6.5</v>
-      </c>
       <c r="N157">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O157">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q157">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
         <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
+        <v>0.95</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
+        <v>0.925</v>
+      </c>
+      <c r="AA157">
+        <v>-1</v>
+      </c>
+      <c r="AB157">
         <v>0.45</v>
       </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>1.05</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
-      <c r="AB157">
-        <v>-1</v>
-      </c>
       <c r="AC157">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7625866</v>
+        <v>6846189</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45311.375</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158" t="s">
+        <v>48</v>
+      </c>
+      <c r="K158">
+        <v>2.25</v>
+      </c>
+      <c r="L158">
+        <v>3.6</v>
+      </c>
+      <c r="M158">
         <v>3</v>
       </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158" t="s">
-        <v>47</v>
-      </c>
-      <c r="K158">
-        <v>1.8</v>
-      </c>
-      <c r="L158">
-        <v>3.75</v>
-      </c>
-      <c r="M158">
-        <v>4.333</v>
-      </c>
       <c r="N158">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O158">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q158">
         <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T158">
         <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB158">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6846189</v>
+        <v>7625887</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,76 +14607,76 @@
         <v>45311.375</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>2</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K159">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L159">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M159">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N159">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O159">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P159">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S159">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T159">
         <v>2.75</v>
       </c>
       <c r="U159">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X159">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6845838</v>
+        <v>6846842</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,40 +14874,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K162">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L162">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M162">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N162">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O162">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P162">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R162">
         <v>2.05</v>
@@ -14919,16 +14919,16 @@
         <v>3</v>
       </c>
       <c r="U162">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X162">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -14940,10 +14940,10 @@
         <v>-0</v>
       </c>
       <c r="AB162">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6846842</v>
+        <v>6845838</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,40 +14963,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163" t="s">
+        <v>48</v>
+      </c>
+      <c r="K163">
+        <v>2.2</v>
+      </c>
+      <c r="L163">
+        <v>3.6</v>
+      </c>
+      <c r="M163">
+        <v>3.1</v>
+      </c>
+      <c r="N163">
+        <v>2.8</v>
+      </c>
+      <c r="O163">
+        <v>3.5</v>
+      </c>
+      <c r="P163">
+        <v>2.45</v>
+      </c>
+      <c r="Q163">
         <v>0</v>
-      </c>
-      <c r="J163" t="s">
-        <v>47</v>
-      </c>
-      <c r="K163">
-        <v>1.727</v>
-      </c>
-      <c r="L163">
-        <v>4</v>
-      </c>
-      <c r="M163">
-        <v>4.333</v>
-      </c>
-      <c r="N163">
-        <v>1.615</v>
-      </c>
-      <c r="O163">
-        <v>4.5</v>
-      </c>
-      <c r="P163">
-        <v>4.75</v>
-      </c>
-      <c r="Q163">
-        <v>-1</v>
       </c>
       <c r="R163">
         <v>2.05</v>
@@ -15008,16 +15008,16 @@
         <v>3</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V163">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W163">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y163">
         <v>-1</v>
@@ -15029,10 +15029,10 @@
         <v>-0</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC163">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6846860</v>
+        <v>6846857</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,49 +17277,49 @@
         <v>45333.39583333334</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M189">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N189">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O189">
         <v>3.6</v>
       </c>
       <c r="P189">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R189">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
         <v>1.85</v>
@@ -17328,19 +17328,19 @@
         <v>2</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X189">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA189">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
         <v>-1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6846857</v>
+        <v>6846860</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,49 +17366,49 @@
         <v>45333.39583333334</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K190">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L190">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M190">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N190">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O190">
         <v>3.6</v>
       </c>
       <c r="P190">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
         <v>1.85</v>
@@ -17417,19 +17417,19 @@
         <v>2</v>
       </c>
       <c r="W190">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB190">
         <v>-1</v>
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6846865</v>
+        <v>6845834</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,16 +17455,16 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G191" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J191" t="s">
         <v>47</v>
@@ -17473,40 +17473,40 @@
         <v>2.15</v>
       </c>
       <c r="L191">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M191">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N191">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P191">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q191">
         <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T191">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U191">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W191">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17515,16 +17515,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC191">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6845834</v>
+        <v>6846865</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,16 +17544,16 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>47</v>
@@ -17562,40 +17562,40 @@
         <v>2.15</v>
       </c>
       <c r="L192">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M192">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N192">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O192">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q192">
         <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V192">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17604,16 +17604,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6846868</v>
+        <v>6846194</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,13 +18790,13 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -18805,43 +18805,43 @@
         <v>47</v>
       </c>
       <c r="K206">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="L206">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M206">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N206">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O206">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P206">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q206">
         <v>-1.25</v>
       </c>
       <c r="R206">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>0.444</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18850,16 +18850,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6846871</v>
+        <v>6846868</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,58 +18879,58 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H207">
         <v>2</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>47</v>
       </c>
       <c r="K207">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L207">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M207">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N207">
-        <v>1.6</v>
+        <v>1.444</v>
       </c>
       <c r="O207">
         <v>4.5</v>
       </c>
       <c r="P207">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S207">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T207">
         <v>3</v>
       </c>
       <c r="U207">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W207">
-        <v>0.6000000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,16 +18939,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA207">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6846194</v>
+        <v>6846871</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,40 +18968,40 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
         <v>1</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>47</v>
       </c>
       <c r="K208">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L208">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M208">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N208">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O208">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P208">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q208">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R208">
         <v>2</v>
@@ -19010,16 +19010,16 @@
         <v>1.85</v>
       </c>
       <c r="T208">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U208">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19028,16 +19028,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6846195</v>
+        <v>6846874</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,55 +19591,55 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>49</v>
       </c>
       <c r="K215">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M215">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="N215">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O215">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P215">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T215">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19648,19 +19648,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6846874</v>
+        <v>6846875</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,76 +19680,76 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K216">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L216">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M216">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N216">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="O216">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P216">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T216">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V216">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y216">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6846875</v>
+        <v>6846195</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,76 +19769,76 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K217">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L217">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M217">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N217">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O217">
         <v>3.8</v>
       </c>
       <c r="P217">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q217">
         <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T217">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U217">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC217">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6846898</v>
+        <v>6865693</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22436,49 +22436,49 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45388.33333333334</v>
+        <v>45388.64583333334</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G247" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K247">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L247">
         <v>3.5</v>
       </c>
       <c r="M247">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N247">
+        <v>3.1</v>
+      </c>
+      <c r="O247">
+        <v>3.4</v>
+      </c>
+      <c r="P247">
         <v>2.375</v>
       </c>
-      <c r="O247">
-        <v>3.75</v>
-      </c>
-      <c r="P247">
-        <v>2.8</v>
-      </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R247">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S247">
+        <v>2.05</v>
+      </c>
+      <c r="T247">
+        <v>2.5</v>
+      </c>
+      <c r="U247">
         <v>1.85</v>
       </c>
-      <c r="T247">
-        <v>3</v>
-      </c>
-      <c r="U247">
-        <v>1.825</v>
-      </c>
       <c r="V247">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22501,7 +22501,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6921566</v>
+        <v>6931135</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22510,49 +22510,49 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45388.33333333334</v>
+        <v>45389.35416666666</v>
       </c>
       <c r="F248" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G248" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K248">
         <v>1.615</v>
       </c>
       <c r="L248">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M248">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N248">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O248">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P248">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q248">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R248">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S248">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T248">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V248">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22575,7 +22575,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6912174</v>
+        <v>6921567</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22584,49 +22584,49 @@
         <v>28</v>
       </c>
       <c r="E249" s="2">
-        <v>45388.33333333334</v>
+        <v>45389.35416666666</v>
       </c>
       <c r="F249" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K249">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L249">
+        <v>3.75</v>
+      </c>
+      <c r="M249">
         <v>3.6</v>
       </c>
-      <c r="M249">
-        <v>2.2</v>
-      </c>
       <c r="N249">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="O249">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P249">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q249">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R249">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S249">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T249">
         <v>3</v>
       </c>
       <c r="U249">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V249">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22649,7 +22649,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6865693</v>
+        <v>6861718</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22658,13 +22658,13 @@
         <v>28</v>
       </c>
       <c r="E250" s="2">
-        <v>45388.64583333334</v>
+        <v>45389.35416666666</v>
       </c>
       <c r="F250" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G250" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K250">
         <v>3</v>
@@ -22676,31 +22676,31 @@
         <v>2.25</v>
       </c>
       <c r="N250">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O250">
         <v>3.5</v>
       </c>
       <c r="P250">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R250">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S250">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T250">
         <v>2.75</v>
       </c>
       <c r="U250">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V250">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22715,228 +22715,6 @@
         <v>0</v>
       </c>
       <c r="AA250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:29">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251">
-        <v>6931135</v>
-      </c>
-      <c r="C251" t="s">
-        <v>28</v>
-      </c>
-      <c r="D251" t="s">
-        <v>28</v>
-      </c>
-      <c r="E251" s="2">
-        <v>45389.35416666666</v>
-      </c>
-      <c r="F251" t="s">
-        <v>34</v>
-      </c>
-      <c r="G251" t="s">
-        <v>36</v>
-      </c>
-      <c r="K251">
-        <v>1.615</v>
-      </c>
-      <c r="L251">
-        <v>4</v>
-      </c>
-      <c r="M251">
-        <v>5</v>
-      </c>
-      <c r="N251">
-        <v>1.7</v>
-      </c>
-      <c r="O251">
-        <v>3.8</v>
-      </c>
-      <c r="P251">
-        <v>5</v>
-      </c>
-      <c r="Q251">
-        <v>-0.75</v>
-      </c>
-      <c r="R251">
-        <v>1.825</v>
-      </c>
-      <c r="S251">
-        <v>2.025</v>
-      </c>
-      <c r="T251">
-        <v>2.75</v>
-      </c>
-      <c r="U251">
-        <v>1.925</v>
-      </c>
-      <c r="V251">
-        <v>1.925</v>
-      </c>
-      <c r="W251">
-        <v>0</v>
-      </c>
-      <c r="X251">
-        <v>0</v>
-      </c>
-      <c r="Y251">
-        <v>0</v>
-      </c>
-      <c r="Z251">
-        <v>0</v>
-      </c>
-      <c r="AA251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:29">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252">
-        <v>6921567</v>
-      </c>
-      <c r="C252" t="s">
-        <v>28</v>
-      </c>
-      <c r="D252" t="s">
-        <v>28</v>
-      </c>
-      <c r="E252" s="2">
-        <v>45389.35416666666</v>
-      </c>
-      <c r="F252" t="s">
-        <v>31</v>
-      </c>
-      <c r="G252" t="s">
-        <v>43</v>
-      </c>
-      <c r="K252">
-        <v>1.909</v>
-      </c>
-      <c r="L252">
-        <v>3.75</v>
-      </c>
-      <c r="M252">
-        <v>3.6</v>
-      </c>
-      <c r="N252">
-        <v>1.95</v>
-      </c>
-      <c r="O252">
-        <v>3.8</v>
-      </c>
-      <c r="P252">
-        <v>3.5</v>
-      </c>
-      <c r="Q252">
-        <v>-0.5</v>
-      </c>
-      <c r="R252">
-        <v>1.975</v>
-      </c>
-      <c r="S252">
-        <v>1.875</v>
-      </c>
-      <c r="T252">
-        <v>3</v>
-      </c>
-      <c r="U252">
-        <v>2</v>
-      </c>
-      <c r="V252">
-        <v>1.85</v>
-      </c>
-      <c r="W252">
-        <v>0</v>
-      </c>
-      <c r="X252">
-        <v>0</v>
-      </c>
-      <c r="Y252">
-        <v>0</v>
-      </c>
-      <c r="Z252">
-        <v>0</v>
-      </c>
-      <c r="AA252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:29">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253">
-        <v>6861718</v>
-      </c>
-      <c r="C253" t="s">
-        <v>28</v>
-      </c>
-      <c r="D253" t="s">
-        <v>28</v>
-      </c>
-      <c r="E253" s="2">
-        <v>45389.35416666666</v>
-      </c>
-      <c r="F253" t="s">
-        <v>33</v>
-      </c>
-      <c r="G253" t="s">
-        <v>37</v>
-      </c>
-      <c r="K253">
-        <v>3</v>
-      </c>
-      <c r="L253">
-        <v>3.5</v>
-      </c>
-      <c r="M253">
-        <v>2.25</v>
-      </c>
-      <c r="N253">
-        <v>2.9</v>
-      </c>
-      <c r="O253">
-        <v>3.5</v>
-      </c>
-      <c r="P253">
-        <v>2.375</v>
-      </c>
-      <c r="Q253">
-        <v>0.25</v>
-      </c>
-      <c r="R253">
-        <v>1.8</v>
-      </c>
-      <c r="S253">
-        <v>2.05</v>
-      </c>
-      <c r="T253">
-        <v>2.75</v>
-      </c>
-      <c r="U253">
-        <v>1.825</v>
-      </c>
-      <c r="V253">
-        <v>2.025</v>
-      </c>
-      <c r="W253">
-        <v>0</v>
-      </c>
-      <c r="X253">
-        <v>0</v>
-      </c>
-      <c r="Y253">
-        <v>0</v>
-      </c>
-      <c r="Z253">
-        <v>0</v>
-      </c>
-      <c r="AA253">
         <v>0</v>
       </c>
     </row>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -109,22 +109,22 @@
     <t>Wehen SV</t>
   </si>
   <si>
-    <t>VfL Osnabruck</t>
-  </si>
-  <si>
     <t>Kaiserslautern</t>
   </si>
   <si>
     <t>Hannover 96</t>
   </si>
   <si>
+    <t>VfL Osnabruck</t>
+  </si>
+  <si>
     <t>Fortuna Dusseldorf</t>
   </si>
   <si>
-    <t>Hansa Rostock</t>
+    <t>Greuther Furth</t>
   </si>
   <si>
-    <t>Greuther Furth</t>
+    <t>Hansa Rostock</t>
   </si>
   <si>
     <t>Eintracht Braunschweig</t>
@@ -151,10 +151,10 @@
     <t>Nurnberg</t>
   </si>
   <si>
-    <t>Karlsruhe</t>
+    <t>Magdeburg</t>
   </si>
   <si>
-    <t>Magdeburg</t>
+    <t>Karlsruhe</t>
   </si>
   <si>
     <t>H</t>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6846737</v>
+        <v>6846142</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,52 +815,52 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N4">
         <v>3.1</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="Q4">
         <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -869,16 +869,16 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6846142</v>
+        <v>6846174</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,70 +904,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="L5">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="N5">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O5">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y5">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6846174</v>
+        <v>6846737</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,70 +993,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N6">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
+        <v>1.95</v>
+      </c>
+      <c r="V6">
         <v>1.9</v>
       </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6846735</v>
+        <v>6846734</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,10 +1171,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1183,43 +1183,43 @@
         <v>47</v>
       </c>
       <c r="K8">
+        <v>2.6</v>
+      </c>
+      <c r="L8">
+        <v>3.4</v>
+      </c>
+      <c r="M8">
         <v>2.4</v>
       </c>
-      <c r="L8">
-        <v>3.3</v>
-      </c>
-      <c r="M8">
-        <v>2.7</v>
-      </c>
       <c r="N8">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O8">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
+        <v>1.875</v>
+      </c>
+      <c r="S8">
         <v>1.975</v>
       </c>
-      <c r="S8">
-        <v>1.875</v>
-      </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1228,16 +1228,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC8">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6846734</v>
+        <v>6846735</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,10 +1260,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1272,43 +1272,43 @@
         <v>47</v>
       </c>
       <c r="K9">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M9">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N9">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P9">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
         <v>1.875</v>
       </c>
-      <c r="S9">
-        <v>1.975</v>
-      </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1794,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1972,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6846741</v>
+        <v>6846743</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,73 +2061,73 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
         <v>3.75</v>
       </c>
       <c r="M18">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="N18">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="O18">
         <v>4</v>
       </c>
       <c r="P18">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA18">
+        <v>-0.5</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
         <v>-0</v>
-      </c>
-      <c r="AB18">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6846743</v>
+        <v>6846741</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2150,73 +2150,73 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="N19">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="O19">
         <v>4</v>
       </c>
       <c r="P19">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R19">
+        <v>1.875</v>
+      </c>
+      <c r="S19">
+        <v>1.975</v>
+      </c>
+      <c r="T19">
+        <v>3.5</v>
+      </c>
+      <c r="U19">
+        <v>1.9</v>
+      </c>
+      <c r="V19">
         <v>1.95</v>
       </c>
-      <c r="S19">
-        <v>1.9</v>
-      </c>
-      <c r="T19">
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
         <v>3</v>
       </c>
-      <c r="U19">
-        <v>2.025</v>
-      </c>
-      <c r="V19">
-        <v>1.825</v>
-      </c>
-      <c r="W19">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6846750</v>
+        <v>6846176</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,58 +2236,58 @@
         <v>45156.5625</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
+        <v>2.1</v>
+      </c>
+      <c r="L20">
         <v>3.5</v>
       </c>
-      <c r="L20">
-        <v>3.4</v>
-      </c>
       <c r="M20">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N20">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2296,16 +2296,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6846176</v>
+        <v>6846750</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,58 +2325,58 @@
         <v>45156.5625</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
       <c r="K21">
+        <v>3.5</v>
+      </c>
+      <c r="L21">
+        <v>3.4</v>
+      </c>
+      <c r="M21">
+        <v>1.95</v>
+      </c>
+      <c r="N21">
+        <v>2.8</v>
+      </c>
+      <c r="O21">
+        <v>3.4</v>
+      </c>
+      <c r="P21">
+        <v>2.4</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>2.1</v>
       </c>
-      <c r="L21">
-        <v>3.5</v>
-      </c>
-      <c r="M21">
-        <v>3.1</v>
-      </c>
-      <c r="N21">
-        <v>2.2</v>
-      </c>
-      <c r="O21">
-        <v>3.6</v>
-      </c>
-      <c r="P21">
-        <v>3.2</v>
-      </c>
-      <c r="Q21">
-        <v>-0.25</v>
-      </c>
-      <c r="R21">
-        <v>1.925</v>
-      </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V21">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2385,16 +2385,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -2592,10 +2592,10 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2948,7 +2948,7 @@
         <v>45158.35416666666</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -3040,7 +3040,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3304,10 +3304,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3396,7 +3396,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -3482,7 +3482,7 @@
         <v>45164.64583333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>29</v>
@@ -3660,7 +3660,7 @@
         <v>45165.35416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -3752,7 +3752,7 @@
         <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4194,7 +4194,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -4283,7 +4283,7 @@
         <v>45171.64583333334</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>44</v>
@@ -4372,10 +4372,10 @@
         <v>45172.35416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4461,7 +4461,7 @@
         <v>45172.35416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>42</v>
@@ -4553,7 +4553,7 @@
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6846768</v>
+        <v>6846764</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,76 +4639,76 @@
         <v>45184.5625</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>4.75</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>3.8</v>
+      </c>
+      <c r="P47">
         <v>3.5</v>
       </c>
-      <c r="M47">
-        <v>2.5</v>
-      </c>
-      <c r="N47">
-        <v>2.45</v>
-      </c>
-      <c r="O47">
-        <v>3.6</v>
-      </c>
-      <c r="P47">
-        <v>2.75</v>
-      </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
         <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X47">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6846764</v>
+        <v>6846768</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>45184.5625</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O48">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T48">
         <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -4906,10 +4906,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5087,7 +5087,7 @@
         <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -5262,10 +5262,10 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
         <v>33</v>
-      </c>
-      <c r="G54" t="s">
-        <v>31</v>
       </c>
       <c r="H54">
         <v>7</v>
@@ -5440,7 +5440,7 @@
         <v>45191.5625</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
@@ -5529,7 +5529,7 @@
         <v>45191.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>29</v>
@@ -5618,10 +5618,10 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6846180</v>
+        <v>6846773</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,49 +5707,49 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K59">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
+        <v>2.625</v>
+      </c>
+      <c r="N59">
         <v>2.7</v>
       </c>
-      <c r="N59">
-        <v>2.55</v>
-      </c>
       <c r="O59">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
         <v>1.9</v>
       </c>
-      <c r="S59">
-        <v>1.95</v>
-      </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
         <v>1.925</v>
@@ -5761,22 +5761,22 @@
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y59">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6846773</v>
+        <v>6846180</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,49 +5796,49 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
+        <v>2.7</v>
+      </c>
+      <c r="N60">
+        <v>2.55</v>
+      </c>
+      <c r="O60">
+        <v>3.6</v>
+      </c>
+      <c r="P60">
         <v>2.625</v>
       </c>
-      <c r="N60">
-        <v>2.7</v>
-      </c>
-      <c r="O60">
-        <v>3.5</v>
-      </c>
-      <c r="P60">
-        <v>2.5</v>
-      </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
+        <v>1.9</v>
+      </c>
+      <c r="S60">
         <v>1.95</v>
       </c>
-      <c r="S60">
-        <v>1.9</v>
-      </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U60">
         <v>1.925</v>
@@ -5850,22 +5850,22 @@
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB60">
+        <v>-1</v>
+      </c>
+      <c r="AC60">
         <v>0.925</v>
-      </c>
-      <c r="AC60">
-        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6066,7 +6066,7 @@
         <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6152,10 +6152,10 @@
         <v>45193.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6846776</v>
+        <v>6846775</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,58 +6241,58 @@
         <v>45198.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>47</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O65">
         <v>4</v>
       </c>
       <c r="P65">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
         <v>3.25</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6301,16 +6301,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6846775</v>
+        <v>6846776</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,58 +6330,58 @@
         <v>45198.5625</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
         <v>1</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
       </c>
       <c r="K66">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M66">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O66">
         <v>4</v>
       </c>
       <c r="P66">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
         <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6390,16 +6390,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6419,7 +6419,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
         <v>37</v>
@@ -6508,7 +6508,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>30</v>
@@ -6597,7 +6597,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G69" t="s">
         <v>41</v>
@@ -6778,7 +6778,7 @@
         <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6864,10 +6864,10 @@
         <v>45200.35416666666</v>
       </c>
       <c r="F72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" t="s">
         <v>31</v>
-      </c>
-      <c r="G72" t="s">
-        <v>32</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6956,7 +6956,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6846782</v>
+        <v>6846783</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,40 +7042,40 @@
         <v>45205.5625</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O74">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
         <v>1.95</v>
@@ -7084,34 +7084,34 @@
         <v>1.9</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X74">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
+        <v>-1</v>
+      </c>
+      <c r="AB74">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6846783</v>
+        <v>6846782</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,40 +7131,40 @@
         <v>45205.5625</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>33</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N75">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R75">
         <v>1.95</v>
@@ -7173,34 +7173,34 @@
         <v>1.9</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6846784</v>
+        <v>6846787</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,10 +7220,10 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7235,25 +7235,25 @@
         <v>48</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="N76">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R76">
         <v>1.875</v>
@@ -7262,34 +7262,34 @@
         <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6846787</v>
+        <v>6846785</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,49 +7309,49 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="L77">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="N77">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="O77">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="Q77">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
+        <v>1.975</v>
+      </c>
+      <c r="S77">
         <v>1.875</v>
       </c>
-      <c r="S77">
-        <v>1.975</v>
-      </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
         <v>1.9</v>
@@ -7360,19 +7360,19 @@
         <v>1.95</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X77">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6846785</v>
+        <v>6846784</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="L78">
         <v>3.6</v>
       </c>
       <c r="M78">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N78">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R78">
+        <v>1.875</v>
+      </c>
+      <c r="S78">
         <v>1.975</v>
       </c>
-      <c r="S78">
-        <v>1.875</v>
-      </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7932,10 +7932,10 @@
         <v>45219.5625</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8024,7 +8024,7 @@
         <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8110,7 +8110,7 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>30</v>
@@ -8291,7 +8291,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -8466,7 +8466,7 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G90" t="s">
         <v>43</v>
@@ -8555,7 +8555,7 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
         <v>41</v>
@@ -8733,10 +8733,10 @@
         <v>45226.5625</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -8825,7 +8825,7 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8914,7 +8914,7 @@
         <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9089,7 +9089,7 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9181,7 +9181,7 @@
         <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9267,7 +9267,7 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
         <v>42</v>
@@ -9623,7 +9623,7 @@
         <v>45234.375</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
         <v>41</v>
@@ -9801,10 +9801,10 @@
         <v>45234.375</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>38</v>
@@ -10068,7 +10068,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10157,7 +10157,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10338,7 +10338,7 @@
         <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10516,7 +10516,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -10694,7 +10694,7 @@
         <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10783,7 +10783,7 @@
         <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10869,10 +10869,10 @@
         <v>45242.39583333334</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10958,7 +10958,7 @@
         <v>45242.39583333334</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6845842</v>
+        <v>6846813</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45254.60416666666</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L119">
+        <v>4.5</v>
+      </c>
+      <c r="M119">
+        <v>7</v>
+      </c>
+      <c r="N119">
+        <v>1.363</v>
+      </c>
+      <c r="O119">
+        <v>5.75</v>
+      </c>
+      <c r="P119">
+        <v>7</v>
+      </c>
+      <c r="Q119">
+        <v>-1.5</v>
+      </c>
+      <c r="R119">
+        <v>1.85</v>
+      </c>
+      <c r="S119">
+        <v>2</v>
+      </c>
+      <c r="T119">
         <v>3.5</v>
       </c>
-      <c r="M119">
-        <v>3</v>
-      </c>
-      <c r="N119">
-        <v>2.1</v>
-      </c>
-      <c r="O119">
-        <v>3.4</v>
-      </c>
-      <c r="P119">
-        <v>3.4</v>
-      </c>
-      <c r="Q119">
-        <v>-0.25</v>
-      </c>
-      <c r="R119">
+      <c r="U119">
+        <v>1.975</v>
+      </c>
+      <c r="V119">
         <v>1.875</v>
       </c>
-      <c r="S119">
-        <v>1.975</v>
-      </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
-      <c r="U119">
-        <v>1.925</v>
-      </c>
-      <c r="V119">
-        <v>1.925</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X119">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6846813</v>
+        <v>6845842</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45254.60416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N120">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O120">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T120">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC120">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11225,10 +11225,10 @@
         <v>45255.375</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6846154</v>
+        <v>6846186</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,73 +11314,73 @@
         <v>45255.375</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N122">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O122">
         <v>3.75</v>
       </c>
       <c r="P122">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q122">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U122">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA122">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6846186</v>
+        <v>6846154</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,73 +11403,73 @@
         <v>45255.375</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N123">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O123">
         <v>3.75</v>
       </c>
       <c r="P123">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R123">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z123">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB123">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11581,7 +11581,7 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G125" t="s">
         <v>44</v>
@@ -11670,7 +11670,7 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
         <v>41</v>
@@ -11759,7 +11759,7 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>30</v>
@@ -11851,7 +11851,7 @@
         <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -12207,7 +12207,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12293,10 +12293,10 @@
         <v>45262.6875</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6846820</v>
+        <v>6846821</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2.875</v>
+        <v>3.9</v>
       </c>
       <c r="N134">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W134">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6846821</v>
+        <v>6846820</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="N135">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="O135">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
         <v>2.75</v>
       </c>
       <c r="U135">
+        <v>1.925</v>
+      </c>
+      <c r="V135">
+        <v>1.925</v>
+      </c>
+      <c r="W135">
         <v>1.8</v>
       </c>
-      <c r="V135">
-        <v>2.05</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
       <c r="X135">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12649,10 +12649,10 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12916,7 +12916,7 @@
         <v>45269.375</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
         <v>38</v>
@@ -13005,10 +13005,10 @@
         <v>45269.375</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13094,7 +13094,7 @@
         <v>45269.6875</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13183,7 +13183,7 @@
         <v>45270.39583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G143" t="s">
         <v>43</v>
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6846832</v>
+        <v>6846833</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45275.60416666666</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
         <v>36</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N146">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O146">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P146">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R146">
+        <v>1.925</v>
+      </c>
+      <c r="S146">
+        <v>1.925</v>
+      </c>
+      <c r="T146">
+        <v>3</v>
+      </c>
+      <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
         <v>1.85</v>
       </c>
-      <c r="S146">
-        <v>2</v>
-      </c>
-      <c r="T146">
-        <v>2.75</v>
-      </c>
-      <c r="U146">
-        <v>1.975</v>
-      </c>
-      <c r="V146">
-        <v>1.875</v>
-      </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X146">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA146">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6846833</v>
+        <v>6846832</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45275.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
         <v>35</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K147">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N147">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O147">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P147">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13631,7 +13631,7 @@
         <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13717,7 +13717,7 @@
         <v>45276.375</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G149" t="s">
         <v>34</v>
@@ -13898,7 +13898,7 @@
         <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -13984,7 +13984,7 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G152" t="s">
         <v>42</v>
@@ -14076,7 +14076,7 @@
         <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14340,10 +14340,10 @@
         <v>45310.60416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14432,7 +14432,7 @@
         <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14521,7 +14521,7 @@
         <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14610,7 +14610,7 @@
         <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6846839</v>
+        <v>6845838</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,40 +14785,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K161">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L161">
         <v>3.6</v>
       </c>
       <c r="M161">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N161">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O161">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P161">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R161">
         <v>2.05</v>
@@ -14830,31 +14830,31 @@
         <v>3</v>
       </c>
       <c r="U161">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y161">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6845838</v>
+        <v>6846842</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,40 +14874,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K162">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L162">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M162">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N162">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O162">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P162">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R162">
         <v>2.05</v>
@@ -14919,16 +14919,16 @@
         <v>3</v>
       </c>
       <c r="U162">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X162">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -14940,10 +14940,10 @@
         <v>-0</v>
       </c>
       <c r="AB162">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6846842</v>
+        <v>6846839</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,40 +14963,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
         <v>1</v>
       </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M163">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N163">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O163">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P163">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q163">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
         <v>2.05</v>
@@ -15008,31 +15008,31 @@
         <v>3</v>
       </c>
       <c r="U163">
+        <v>2.025</v>
+      </c>
+      <c r="V163">
         <v>1.825</v>
       </c>
-      <c r="V163">
-        <v>2.025</v>
-      </c>
       <c r="W163">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6846846</v>
+        <v>6846845</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,58 +15052,58 @@
         <v>45317.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
         <v>47</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L164">
         <v>3.5</v>
       </c>
       <c r="M164">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N164">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O164">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P164">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W164">
-        <v>0.833</v>
+        <v>1.6</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15112,16 +15112,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6846845</v>
+        <v>6846846</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15144,55 +15144,55 @@
         <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
         <v>47</v>
       </c>
       <c r="K165">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L165">
         <v>3.5</v>
       </c>
       <c r="M165">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N165">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O165">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W165">
-        <v>1.6</v>
+        <v>0.833</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15201,16 +15201,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6846190</v>
+        <v>6845837</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,13 +15230,13 @@
         <v>45318.375</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -15245,43 +15245,43 @@
         <v>47</v>
       </c>
       <c r="K166">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="L166">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="M166">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N166">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W166">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15290,13 +15290,13 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6845837</v>
+        <v>6846190</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,13 +15319,13 @@
         <v>45318.375</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -15334,43 +15334,43 @@
         <v>47</v>
       </c>
       <c r="K167">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="L167">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M167">
+        <v>2.45</v>
+      </c>
+      <c r="N167">
+        <v>3.2</v>
+      </c>
+      <c r="O167">
+        <v>3.5</v>
+      </c>
+      <c r="P167">
         <v>2.2</v>
       </c>
-      <c r="N167">
-        <v>2.75</v>
-      </c>
-      <c r="O167">
-        <v>3.4</v>
-      </c>
-      <c r="P167">
-        <v>2.55</v>
-      </c>
       <c r="Q167">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15379,13 +15379,13 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15408,7 +15408,7 @@
         <v>45318.375</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
         <v>39</v>
@@ -15589,7 +15589,7 @@
         <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H170">
         <v>3</v>
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6846847</v>
+        <v>6846848</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,58 +15675,58 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>47</v>
       </c>
       <c r="K171">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L171">
         <v>3.7</v>
       </c>
       <c r="M171">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N171">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O171">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q171">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S171">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T171">
         <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15735,16 +15735,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6846848</v>
+        <v>6846847</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,58 +15764,58 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
         <v>1</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L172">
         <v>3.7</v>
       </c>
       <c r="M172">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N172">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P172">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S172">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T172">
         <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V172">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W172">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15824,16 +15824,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC172">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>45324.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G173" t="s">
         <v>30</v>
@@ -15942,7 +15942,7 @@
         <v>45324.60416666666</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G174" t="s">
         <v>41</v>
@@ -16034,7 +16034,7 @@
         <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H175">
         <v>3</v>
@@ -16123,7 +16123,7 @@
         <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16390,7 +16390,7 @@
         <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16565,10 +16565,10 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6846856</v>
+        <v>6846861</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45331.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K182">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M182">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N182">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O182">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P182">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q182">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T182">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y182">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6846861</v>
+        <v>6846856</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45331.60416666666</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="L183">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M183">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N183">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S183">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V183">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC183">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16835,7 +16835,7 @@
         <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17010,7 +17010,7 @@
         <v>45332.375</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G186" t="s">
         <v>40</v>
@@ -17099,7 +17099,7 @@
         <v>45332.6875</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
         <v>39</v>
@@ -17188,7 +17188,7 @@
         <v>45333.39583333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
         <v>38</v>
@@ -17366,10 +17366,10 @@
         <v>45333.39583333334</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17455,10 +17455,10 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17547,7 +17547,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H192">
         <v>3</v>
@@ -17633,7 +17633,7 @@
         <v>45339.375</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G193" t="s">
         <v>29</v>
@@ -17900,7 +17900,7 @@
         <v>45339.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G196" t="s">
         <v>34</v>
@@ -18081,7 +18081,7 @@
         <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18170,7 +18170,7 @@
         <v>42</v>
       </c>
       <c r="G199" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>3</v>
@@ -18434,10 +18434,10 @@
         <v>45346.375</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18612,10 +18612,10 @@
         <v>45346.375</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18701,7 +18701,7 @@
         <v>45346.6875</v>
       </c>
       <c r="F205" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G205" t="s">
         <v>43</v>
@@ -18793,7 +18793,7 @@
         <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18968,7 +18968,7 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
         <v>44</v>
@@ -19235,7 +19235,7 @@
         <v>45353.375</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
         <v>34</v>
@@ -19324,10 +19324,10 @@
         <v>45353.375</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19502,10 +19502,10 @@
         <v>45353.6875</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>4</v>
@@ -19594,7 +19594,7 @@
         <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19772,7 +19772,7 @@
         <v>39</v>
       </c>
       <c r="G217" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19861,7 +19861,7 @@
         <v>37</v>
       </c>
       <c r="G218" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -20039,7 +20039,7 @@
         <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20128,7 +20128,7 @@
         <v>41</v>
       </c>
       <c r="G221" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20303,7 +20303,7 @@
         <v>45360.6875</v>
       </c>
       <c r="F223" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G223" t="s">
         <v>44</v>
@@ -20380,7 +20380,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6845831</v>
+        <v>6846887</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20392,76 +20392,76 @@
         <v>45361.39583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J224" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K224">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="L224">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N224">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O224">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P224">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
+        <v>1.825</v>
+      </c>
+      <c r="S224">
         <v>2.025</v>
-      </c>
-      <c r="S224">
-        <v>1.825</v>
       </c>
       <c r="T224">
         <v>3</v>
       </c>
       <c r="U224">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V224">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W224">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z224">
+        <v>-1</v>
+      </c>
+      <c r="AA224">
         <v>1.025</v>
       </c>
-      <c r="AA224">
-        <v>-1</v>
-      </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC224">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20469,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6846887</v>
+        <v>6845831</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,76 +20481,76 @@
         <v>45361.39583333334</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K225">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="L225">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M225">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N225">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="O225">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P225">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R225">
+        <v>2.025</v>
+      </c>
+      <c r="S225">
         <v>1.825</v>
-      </c>
-      <c r="S225">
-        <v>2.025</v>
       </c>
       <c r="T225">
         <v>3</v>
       </c>
       <c r="U225">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V225">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA225">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20570,10 +20570,10 @@
         <v>45361.39583333334</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H226">
         <v>3</v>
@@ -20748,7 +20748,7 @@
         <v>45366.60416666666</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G228" t="s">
         <v>34</v>
@@ -21015,10 +21015,10 @@
         <v>45367.375</v>
       </c>
       <c r="F231" t="s">
+        <v>36</v>
+      </c>
+      <c r="G231" t="s">
         <v>35</v>
-      </c>
-      <c r="G231" t="s">
-        <v>36</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21104,10 +21104,10 @@
         <v>45367.6875</v>
       </c>
       <c r="F232" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21193,10 +21193,10 @@
         <v>45368.39583333334</v>
       </c>
       <c r="F233" t="s">
+        <v>46</v>
+      </c>
+      <c r="G233" t="s">
         <v>45</v>
-      </c>
-      <c r="G233" t="s">
-        <v>46</v>
       </c>
       <c r="H233">
         <v>7</v>
@@ -21460,7 +21460,7 @@
         <v>45381.375</v>
       </c>
       <c r="F236" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
         <v>34</v>
@@ -21552,7 +21552,7 @@
         <v>41</v>
       </c>
       <c r="G237" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H237">
         <v>2</v>
@@ -21804,7 +21804,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6885137</v>
+        <v>6875646</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21816,76 +21816,76 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F240" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G240" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H240">
         <v>0</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K240">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L240">
         <v>3.75</v>
       </c>
       <c r="M240">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N240">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O240">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R240">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S240">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T240">
+        <v>3</v>
+      </c>
+      <c r="U240">
+        <v>1.85</v>
+      </c>
+      <c r="V240">
+        <v>2</v>
+      </c>
+      <c r="W240">
+        <v>-1</v>
+      </c>
+      <c r="X240">
         <v>2.75</v>
       </c>
-      <c r="U240">
-        <v>1.875</v>
-      </c>
-      <c r="V240">
-        <v>1.975</v>
-      </c>
-      <c r="W240">
-        <v>-1</v>
-      </c>
-      <c r="X240">
-        <v>-1</v>
-      </c>
       <c r="Y240">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA240">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6875646</v>
+        <v>6846897</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,55 +21905,55 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G241" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>48</v>
       </c>
       <c r="K241">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L241">
         <v>3.75</v>
       </c>
       <c r="M241">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N241">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O241">
         <v>3.75</v>
       </c>
       <c r="P241">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S241">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T241">
         <v>3</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V241">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21965,16 +21965,16 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA241">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB241">
         <v>-1</v>
       </c>
       <c r="AC241">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6846897</v>
+        <v>6885137</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,40 +21994,40 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F242" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G242" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242">
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K242">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="L242">
         <v>3.75</v>
       </c>
       <c r="M242">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N242">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O242">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P242">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q242">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
         <v>1.925</v>
@@ -22036,34 +22036,34 @@
         <v>1.925</v>
       </c>
       <c r="T242">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U242">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V242">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z242">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB242">
         <v>-1</v>
       </c>
       <c r="AC242">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22083,10 +22083,10 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F243" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G243" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -22350,7 +22350,7 @@
         <v>45387.5625</v>
       </c>
       <c r="F246" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G246" t="s">
         <v>30</v>
@@ -22442,7 +22442,7 @@
         <v>29</v>
       </c>
       <c r="G247" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H247">
         <v>2</v>
@@ -22620,7 +22620,7 @@
         <v>42</v>
       </c>
       <c r="G249" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -22706,7 +22706,7 @@
         <v>45388.64583333334</v>
       </c>
       <c r="F250" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G250" t="s">
         <v>40</v>
@@ -22795,7 +22795,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G251" t="s">
         <v>43</v>
@@ -22884,10 +22884,10 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F252" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -23062,10 +23062,10 @@
         <v>45394.5625</v>
       </c>
       <c r="F254" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G254" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K254">
         <v>2.2</v>
@@ -23077,22 +23077,22 @@
         <v>3</v>
       </c>
       <c r="N254">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O254">
         <v>3.5</v>
       </c>
       <c r="P254">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q254">
         <v>0</v>
       </c>
       <c r="R254">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S254">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T254">
         <v>2.75</v>
@@ -23139,7 +23139,7 @@
         <v>38</v>
       </c>
       <c r="G255" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K255">
         <v>1.666</v>
@@ -23151,31 +23151,31 @@
         <v>4.5</v>
       </c>
       <c r="N255">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="O255">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P255">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q255">
         <v>-0.75</v>
       </c>
       <c r="R255">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S255">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T255">
         <v>3</v>
       </c>
       <c r="U255">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V255">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W255">
         <v>0</v>
@@ -23198,7 +23198,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6956520</v>
+        <v>6953231</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23210,46 +23210,46 @@
         <v>45395.33333333334</v>
       </c>
       <c r="F256" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G256" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K256">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="L256">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M256">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="N256">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="O256">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P256">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q256">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R256">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S256">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T256">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U256">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V256">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23287,7 +23287,7 @@
         <v>39</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K257">
         <v>2.3</v>
@@ -23299,31 +23299,31 @@
         <v>2.75</v>
       </c>
       <c r="N257">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O257">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P257">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q257">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R257">
+        <v>2.025</v>
+      </c>
+      <c r="S257">
         <v>1.825</v>
       </c>
-      <c r="S257">
-        <v>2.025</v>
-      </c>
       <c r="T257">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U257">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V257">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W257">
         <v>0</v>
@@ -23346,7 +23346,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6953231</v>
+        <v>6956520</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23358,46 +23358,46 @@
         <v>45395.33333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G258" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K258">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="L258">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M258">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="N258">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="O258">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P258">
-        <v>1.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q258">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R258">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S258">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T258">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U258">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V258">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W258">
         <v>0</v>
@@ -23447,13 +23447,13 @@
         <v>4.333</v>
       </c>
       <c r="N259">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O259">
         <v>4</v>
       </c>
       <c r="P259">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q259">
         <v>-0.75</v>
@@ -23509,7 +23509,7 @@
         <v>37</v>
       </c>
       <c r="G260" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K260">
         <v>2.875</v>
@@ -23527,7 +23527,7 @@
         <v>3.3</v>
       </c>
       <c r="P260">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q260">
         <v>0.25</v>
@@ -23601,16 +23601,16 @@
         <v>4.5</v>
       </c>
       <c r="P261">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="Q261">
         <v>-1.25</v>
       </c>
       <c r="R261">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S261">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T261">
         <v>3</v>
@@ -23654,7 +23654,7 @@
         <v>45396.35416666666</v>
       </c>
       <c r="F262" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G262" t="s">
         <v>29</v>
@@ -23669,7 +23669,7 @@
         <v>2</v>
       </c>
       <c r="N262">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O262">
         <v>3.75</v>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Hamburg</t>
   </si>
   <si>
-    <t>Hannover 96</t>
+    <t>Kaiserslautern</t>
   </si>
   <si>
-    <t>Kaiserslautern</t>
+    <t>Hannover 96</t>
   </si>
   <si>
     <t>Wehen SV</t>
@@ -121,10 +121,10 @@
     <t>Fortuna Dusseldorf</t>
   </si>
   <si>
-    <t>Eintracht Braunschweig</t>
+    <t>Greuther Furth</t>
   </si>
   <si>
-    <t>Greuther Furth</t>
+    <t>Eintracht Braunschweig</t>
   </si>
   <si>
     <t>Hansa Rostock</t>
@@ -160,10 +160,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC271"/>
+  <dimension ref="A1:AC264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6846174</v>
+        <v>6846142</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -738,58 +738,58 @@
         <v>48</v>
       </c>
       <c r="K3">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="N3">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O3">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6846142</v>
+        <v>6846174</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,10 +815,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -827,58 +827,58 @@
         <v>49</v>
       </c>
       <c r="K4">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="N4">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y4">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>2.9</v>
@@ -1002,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>2.6</v>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6846736</v>
+        <v>6846734</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,43 +1171,43 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S8">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
         <v>3</v>
@@ -1219,25 +1219,25 @@
         <v>1.8</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6846734</v>
+        <v>6846736</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,43 +1260,43 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L9">
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N9">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P9">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S9">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T9">
         <v>3</v>
@@ -1308,25 +1308,25 @@
         <v>1.8</v>
       </c>
       <c r="W9">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB9">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>1.615</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>1.6</v>
@@ -1616,7 +1616,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14">
         <v>2.25</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>1.833</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1972,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2070,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2150,7 +2150,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2159,7 +2159,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>2.15</v>
@@ -2325,7 +2325,7 @@
         <v>45156.5625</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
@@ -2414,7 +2414,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>2.7</v>
@@ -2506,7 +2506,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2515,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
         <v>2.375</v>
@@ -2604,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>2.1</v>
@@ -2782,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>2.15</v>
@@ -2859,7 +2859,7 @@
         <v>45158.35416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>43</v>
@@ -2960,7 +2960,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>2.45</v>
@@ -3049,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>1.65</v>
@@ -3129,7 +3129,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>1.95</v>
@@ -3227,7 +3227,7 @@
         <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>2.875</v>
@@ -3396,7 +3396,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -3482,7 +3482,7 @@
         <v>45164.64583333334</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>29</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>3.25</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
         <v>1.75</v>
@@ -3752,7 +3752,7 @@
         <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3838,7 +3838,7 @@
         <v>45170.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>3.6</v>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>3.4</v>
@@ -4283,7 +4283,7 @@
         <v>45171.64583333334</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4372,10 +4372,10 @@
         <v>45172.35416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4384,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>1.85</v>
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46">
         <v>2.3</v>
@@ -4642,7 +4642,7 @@
         <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47">
         <v>2.6</v>
@@ -4820,7 +4820,7 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -5007,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -5262,7 +5262,7 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
         <v>33</v>
@@ -5354,7 +5354,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6846773</v>
+        <v>6846180</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,13 +5618,13 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>2</v>
@@ -5633,34 +5633,34 @@
         <v>48</v>
       </c>
       <c r="K58">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
+        <v>2.7</v>
+      </c>
+      <c r="N58">
+        <v>2.55</v>
+      </c>
+      <c r="O58">
+        <v>3.6</v>
+      </c>
+      <c r="P58">
         <v>2.625</v>
-      </c>
-      <c r="N58">
-        <v>2.7</v>
-      </c>
-      <c r="O58">
-        <v>3.5</v>
-      </c>
-      <c r="P58">
-        <v>2.5</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
+        <v>1.9</v>
+      </c>
+      <c r="S58">
         <v>1.95</v>
       </c>
-      <c r="S58">
-        <v>1.9</v>
-      </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U58">
         <v>1.925</v>
@@ -5672,22 +5672,22 @@
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
+        <v>-1</v>
+      </c>
+      <c r="AC58">
         <v>0.925</v>
-      </c>
-      <c r="AC58">
-        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6846180</v>
+        <v>6846773</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,13 +5707,13 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>2</v>
@@ -5722,34 +5722,34 @@
         <v>49</v>
       </c>
       <c r="K59">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
+        <v>2.625</v>
+      </c>
+      <c r="N59">
         <v>2.7</v>
       </c>
-      <c r="N59">
-        <v>2.55</v>
-      </c>
       <c r="O59">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
         <v>1.9</v>
       </c>
-      <c r="S59">
-        <v>1.95</v>
-      </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
         <v>1.925</v>
@@ -5761,22 +5761,22 @@
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y59">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5796,7 +5796,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -5974,7 +5974,7 @@
         <v>45193.35416666666</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>37</v>
@@ -6075,7 +6075,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
         <v>2.5</v>
@@ -6155,7 +6155,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K64">
         <v>1.85</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6846775</v>
+        <v>6846776</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,58 +6241,58 @@
         <v>45198.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
         <v>1</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>47</v>
       </c>
       <c r="K65">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O65">
         <v>4</v>
       </c>
       <c r="P65">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
         <v>3.25</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6301,16 +6301,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6846776</v>
+        <v>6846775</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,58 +6330,58 @@
         <v>45198.5625</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L66">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N66">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O66">
         <v>4</v>
       </c>
       <c r="P66">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
         <v>3.25</v>
       </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6390,16 +6390,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6422,7 +6422,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6520,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>1.909</v>
@@ -6597,7 +6597,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6698,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>2.55</v>
@@ -6778,7 +6778,7 @@
         <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
         <v>2.55</v>
@@ -6956,7 +6956,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6965,7 +6965,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K73">
         <v>2.625</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6846782</v>
+        <v>6846783</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,40 +7042,40 @@
         <v>45205.5625</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O74">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
         <v>1.95</v>
@@ -7084,34 +7084,34 @@
         <v>1.9</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X74">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
+        <v>-1</v>
+      </c>
+      <c r="AB74">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6846783</v>
+        <v>6846782</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,40 +7131,40 @@
         <v>45205.5625</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N75">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R75">
         <v>1.95</v>
@@ -7173,34 +7173,34 @@
         <v>1.9</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7232,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K76">
         <v>2.1</v>
@@ -7309,7 +7309,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
         <v>37</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78">
         <v>5.5</v>
@@ -7588,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>2.25</v>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -7754,7 +7754,7 @@
         <v>45207.35416666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -7766,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>3.1</v>
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6846791</v>
+        <v>6846183</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,58 +7843,58 @@
         <v>45219.5625</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>47</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L83">
         <v>3.8</v>
       </c>
       <c r="M83">
+        <v>3.8</v>
+      </c>
+      <c r="N83">
+        <v>1.727</v>
+      </c>
+      <c r="O83">
+        <v>4.2</v>
+      </c>
+      <c r="P83">
+        <v>4.2</v>
+      </c>
+      <c r="Q83">
+        <v>-0.75</v>
+      </c>
+      <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
+        <v>1.875</v>
+      </c>
+      <c r="T83">
         <v>3.25</v>
       </c>
-      <c r="N83">
-        <v>2.15</v>
-      </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
-      <c r="P83">
-        <v>3.1</v>
-      </c>
-      <c r="Q83">
-        <v>-0.25</v>
-      </c>
-      <c r="R83">
-        <v>1.9</v>
-      </c>
-      <c r="S83">
-        <v>1.95</v>
-      </c>
-      <c r="T83">
-        <v>3</v>
-      </c>
       <c r="U83">
+        <v>2.05</v>
+      </c>
+      <c r="V83">
         <v>1.8</v>
       </c>
-      <c r="V83">
-        <v>2.05</v>
-      </c>
       <c r="W83">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7903,16 +7903,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC83">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6846183</v>
+        <v>6846791</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,58 +7932,58 @@
         <v>45219.5625</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>47</v>
       </c>
       <c r="K84">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L84">
         <v>3.8</v>
       </c>
       <c r="M84">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N84">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U84">
+        <v>1.8</v>
+      </c>
+      <c r="V84">
         <v>2.05</v>
       </c>
-      <c r="V84">
-        <v>1.8</v>
-      </c>
       <c r="W84">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7992,16 +7992,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC84">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6846788</v>
+        <v>6846793</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,76 +8021,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K85">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L85">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N85">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
+        <v>2.025</v>
+      </c>
+      <c r="S85">
         <v>1.825</v>
       </c>
-      <c r="S85">
-        <v>2.025</v>
-      </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.825</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6846793</v>
+        <v>6846788</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>2</v>
-      </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P86">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
+        <v>1.825</v>
+      </c>
+      <c r="S86">
         <v>2.025</v>
       </c>
-      <c r="S86">
-        <v>1.825</v>
-      </c>
       <c r="T86">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8211,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K87">
         <v>2.875</v>
@@ -8291,7 +8291,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -8478,7 +8478,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>2.4</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6846798</v>
+        <v>6846797</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,43 +8647,43 @@
         <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M92">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P92">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T92">
         <v>3</v>
@@ -8695,19 +8695,19 @@
         <v>1.825</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
         <v>1.025</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6846797</v>
+        <v>6846798</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,43 +8736,43 @@
         <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>4</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="L93">
+        <v>3.5</v>
+      </c>
+      <c r="M93">
+        <v>2.1</v>
+      </c>
+      <c r="N93">
         <v>3.75</v>
       </c>
-      <c r="M93">
-        <v>4.5</v>
-      </c>
-      <c r="N93">
-        <v>1.65</v>
-      </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
         <v>3</v>
@@ -8784,19 +8784,19 @@
         <v>1.825</v>
       </c>
       <c r="W93">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB93">
         <v>1.025</v>
@@ -9003,7 +9003,7 @@
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9089,7 +9089,7 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9101,7 +9101,7 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>2.8</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6846795</v>
+        <v>6846799</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>2</v>
-      </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
         <v>3.4</v>
       </c>
       <c r="M98">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N98">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q98">
         <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6846799</v>
+        <v>6846795</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45228.39583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K99">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L99">
         <v>3.4</v>
       </c>
       <c r="M99">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N99">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q99">
         <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z99">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9368,7 +9368,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9457,7 +9457,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>1.55</v>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>3.4</v>
@@ -9635,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K103">
         <v>2.6</v>
@@ -9724,7 +9724,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K104">
         <v>2.2</v>
@@ -9801,10 +9801,10 @@
         <v>45234.375</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9813,7 +9813,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>2.2</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>2.7</v>
@@ -10080,7 +10080,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K108">
         <v>2.1</v>
@@ -10157,10 +10157,10 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6846185</v>
+        <v>6846153</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>49</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L110">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M110">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N110">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="O110">
         <v>4</v>
       </c>
       <c r="P110">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q110">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T110">
+        <v>2.75</v>
+      </c>
+      <c r="U110">
+        <v>1.975</v>
+      </c>
+      <c r="V110">
+        <v>1.875</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
         <v>3</v>
       </c>
-      <c r="U110">
-        <v>2.025</v>
-      </c>
-      <c r="V110">
-        <v>1.825</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
       <c r="Y110">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6846153</v>
+        <v>6846185</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,76 +10335,76 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
         <v>48</v>
       </c>
       <c r="K111">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L111">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M111">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N111">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="O111">
         <v>4</v>
       </c>
       <c r="P111">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q111">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10424,7 +10424,7 @@
         <v>45241.375</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10525,7 +10525,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K113">
         <v>2.05</v>
@@ -10703,7 +10703,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K115">
         <v>2.05</v>
@@ -10783,7 +10783,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10869,7 +10869,7 @@
         <v>45242.39583333334</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
         <v>34</v>
@@ -10970,7 +10970,7 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K118">
         <v>1.75</v>
@@ -11050,7 +11050,7 @@
         <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11136,7 +11136,7 @@
         <v>45254.60416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11148,7 +11148,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>2.1</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6846186</v>
+        <v>6846154</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,73 +11225,73 @@
         <v>45255.375</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N121">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O121">
         <v>3.75</v>
       </c>
       <c r="P121">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V121">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W121">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z121">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB121">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6846154</v>
+        <v>6846818</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,55 +11314,55 @@
         <v>45255.375</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K122">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N122">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="O122">
         <v>3.75</v>
       </c>
       <c r="P122">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q122">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11371,19 +11371,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6846818</v>
+        <v>6846186</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45255.375</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N123">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="O123">
         <v>3.75</v>
       </c>
       <c r="P123">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11581,7 +11581,7 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>32</v>
@@ -11759,7 +11759,7 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -11771,7 +11771,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>2.1</v>
@@ -11860,7 +11860,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K128">
         <v>2.3</v>
@@ -12127,7 +12127,7 @@
         <v>5</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
         <v>2.6</v>
@@ -12204,10 +12204,10 @@
         <v>45262.375</v>
       </c>
       <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
         <v>35</v>
-      </c>
-      <c r="G132" t="s">
-        <v>36</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
         <v>3.25</v>
@@ -12296,7 +12296,7 @@
         <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6846820</v>
+        <v>6846821</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2.875</v>
+        <v>3.9</v>
       </c>
       <c r="N134">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W134">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6846821</v>
+        <v>6846820</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="N136">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="O136">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
         <v>2.75</v>
       </c>
       <c r="U136">
+        <v>1.925</v>
+      </c>
+      <c r="V136">
+        <v>1.925</v>
+      </c>
+      <c r="W136">
         <v>1.8</v>
       </c>
-      <c r="V136">
-        <v>2.05</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
       <c r="X136">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>45268.60416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>45</v>
@@ -12661,7 +12661,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>2.2</v>
@@ -12741,7 +12741,7 @@
         <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12750,7 +12750,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -12839,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
         <v>1.615</v>
@@ -12916,7 +12916,7 @@
         <v>45269.375</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>44</v>
@@ -12928,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
         <v>1.909</v>
@@ -13005,7 +13005,7 @@
         <v>45269.375</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
         <v>39</v>
@@ -13017,7 +13017,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
         <v>2.45</v>
@@ -13106,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K142">
         <v>6</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6846827</v>
+        <v>6846187</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,10 +13183,10 @@
         <v>45270.39583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13195,34 +13195,34 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N143">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O143">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q143">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T143">
         <v>3</v>
@@ -13240,13 +13240,13 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6846187</v>
+        <v>6846827</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,10 +13272,10 @@
         <v>45270.39583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13284,34 +13284,34 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="N144">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P144">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T144">
         <v>3</v>
@@ -13329,13 +13329,13 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB144">
         <v>-1</v>
@@ -13373,7 +13373,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>2.8</v>
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6846832</v>
+        <v>6846833</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45275.60416666666</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N146">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O146">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P146">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R146">
+        <v>1.925</v>
+      </c>
+      <c r="S146">
+        <v>1.925</v>
+      </c>
+      <c r="T146">
+        <v>3</v>
+      </c>
+      <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
         <v>1.85</v>
       </c>
-      <c r="S146">
-        <v>2</v>
-      </c>
-      <c r="T146">
-        <v>2.75</v>
-      </c>
-      <c r="U146">
-        <v>1.975</v>
-      </c>
-      <c r="V146">
-        <v>1.875</v>
-      </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X146">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA146">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6846833</v>
+        <v>6846832</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45275.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K147">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N147">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O147">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P147">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6846836</v>
+        <v>6846835</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,55 +13628,55 @@
         <v>45276.375</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
+        <v>3</v>
+      </c>
+      <c r="J148" t="s">
+        <v>48</v>
+      </c>
+      <c r="K148">
+        <v>2.45</v>
+      </c>
+      <c r="L148">
+        <v>3.6</v>
+      </c>
+      <c r="M148">
+        <v>2.45</v>
+      </c>
+      <c r="N148">
+        <v>2.6</v>
+      </c>
+      <c r="O148">
+        <v>3.75</v>
+      </c>
+      <c r="P148">
+        <v>2.5</v>
+      </c>
+      <c r="Q148">
         <v>0</v>
       </c>
-      <c r="I148">
-        <v>2</v>
-      </c>
-      <c r="J148" t="s">
-        <v>49</v>
-      </c>
-      <c r="K148">
+      <c r="R148">
+        <v>1.925</v>
+      </c>
+      <c r="S148">
+        <v>1.925</v>
+      </c>
+      <c r="T148">
         <v>3</v>
       </c>
-      <c r="L148">
-        <v>3.75</v>
-      </c>
-      <c r="M148">
-        <v>2.1</v>
-      </c>
-      <c r="N148">
-        <v>3.25</v>
-      </c>
-      <c r="O148">
-        <v>4.2</v>
-      </c>
-      <c r="P148">
-        <v>1.95</v>
-      </c>
-      <c r="Q148">
-        <v>0.5</v>
-      </c>
-      <c r="R148">
-        <v>1.85</v>
-      </c>
-      <c r="S148">
-        <v>2</v>
-      </c>
-      <c r="T148">
-        <v>3.25</v>
-      </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13685,19 +13685,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.95</v>
+        <v>1.5</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC148">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6846835</v>
+        <v>6845839</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45276.375</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>49</v>
       </c>
       <c r="K149">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M149">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="N149">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="O149">
+        <v>4.75</v>
+      </c>
+      <c r="P149">
+        <v>5.25</v>
+      </c>
+      <c r="Q149">
+        <v>-1</v>
+      </c>
+      <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
+        <v>2.05</v>
+      </c>
+      <c r="T149">
+        <v>3.25</v>
+      </c>
+      <c r="U149">
+        <v>1.925</v>
+      </c>
+      <c r="V149">
+        <v>1.925</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
         <v>3.75</v>
       </c>
-      <c r="P149">
-        <v>2.5</v>
-      </c>
-      <c r="Q149">
-        <v>0</v>
-      </c>
-      <c r="R149">
-        <v>1.925</v>
-      </c>
-      <c r="S149">
-        <v>1.925</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.975</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
       <c r="Y149">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
+        <v>1.05</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
         <v>0.925</v>
-      </c>
-      <c r="AB149">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC149">
-        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6845839</v>
+        <v>6846836</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,46 +13806,46 @@
         <v>45276.375</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
         <v>48</v>
       </c>
       <c r="K150">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="L150">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M150">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="N150">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O150">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P150">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T150">
         <v>3.25</v>
@@ -13860,16 +13860,16 @@
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB150">
         <v>-1</v>
@@ -13898,7 +13898,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6846157</v>
+        <v>6846188</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L152">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="N152">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="O152">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P152">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="Q152">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T152">
         <v>3</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X152">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC152">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14073,10 +14073,10 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6846188</v>
+        <v>6846157</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,76 +14162,76 @@
         <v>45277.39583333334</v>
       </c>
       <c r="F154" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K154">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L154">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N154">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="O154">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P154">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R154">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S154">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T154">
         <v>3</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W154">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>1.025</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0.925</v>
-      </c>
-      <c r="AC154">
-        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14254,7 +14254,7 @@
         <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14263,7 +14263,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K155">
         <v>1.571</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7625887</v>
+        <v>6846189</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,7 +14429,7 @@
         <v>45311.375</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G157" t="s">
         <v>31</v>
@@ -14438,67 +14438,67 @@
         <v>2</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K157">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L157">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N157">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O157">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q157">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
         <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V157">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W157">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC157">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6846189</v>
+        <v>7625887</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,7 +14518,7 @@
         <v>45311.375</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
         <v>30</v>
@@ -14527,67 +14527,67 @@
         <v>2</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K158">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M158">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N158">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O158">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P158">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S158">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T158">
         <v>2.75</v>
       </c>
       <c r="U158">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X158">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14708,7 +14708,7 @@
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K160">
         <v>2.8</v>
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6846839</v>
+        <v>6846842</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,40 +14785,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
         <v>0</v>
       </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K161">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N161">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O161">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P161">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R161">
         <v>2.05</v>
@@ -14830,31 +14830,31 @@
         <v>3</v>
       </c>
       <c r="U161">
+        <v>1.825</v>
+      </c>
+      <c r="V161">
         <v>2.025</v>
       </c>
-      <c r="V161">
-        <v>1.825</v>
-      </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
         <v>-1</v>
       </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6846842</v>
+        <v>6846839</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,40 +14874,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
         <v>1</v>
       </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K162">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M162">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N162">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O162">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P162">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q162">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
         <v>2.05</v>
@@ -14919,31 +14919,31 @@
         <v>3</v>
       </c>
       <c r="U162">
+        <v>2.025</v>
+      </c>
+      <c r="V162">
         <v>1.825</v>
       </c>
-      <c r="V162">
-        <v>2.025</v>
-      </c>
       <c r="W162">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14975,7 +14975,7 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K163">
         <v>2.2</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6846845</v>
+        <v>6846846</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15055,55 +15055,55 @@
         <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>47</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
         <v>3.5</v>
       </c>
       <c r="M164">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N164">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O164">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P164">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W164">
-        <v>1.6</v>
+        <v>0.833</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15112,16 +15112,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6846846</v>
+        <v>6846845</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15144,55 +15144,55 @@
         <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
         <v>47</v>
       </c>
       <c r="K165">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L165">
         <v>3.5</v>
       </c>
       <c r="M165">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N165">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>0.833</v>
+        <v>1.6</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15201,16 +15201,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15420,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15509,7 +15509,7 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>3.1</v>
@@ -15586,7 +15586,7 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
         <v>40</v>
@@ -15687,7 +15687,7 @@
         <v>4</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>1.6</v>
@@ -15764,7 +15764,7 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
         <v>44</v>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K173">
         <v>2.15</v>
@@ -15954,7 +15954,7 @@
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K174">
         <v>1.727</v>
@@ -16034,7 +16034,7 @@
         <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16123,7 +16123,7 @@
         <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16221,7 +16221,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K177">
         <v>1.75</v>
@@ -16310,7 +16310,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K178">
         <v>2.8</v>
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6846191</v>
+        <v>6846852</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,10 +16387,10 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16402,43 +16402,43 @@
         <v>47</v>
       </c>
       <c r="K179">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L179">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="N179">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O179">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W179">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16447,13 +16447,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB179">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
       <c r="AC179">
         <v>-0.5</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6846852</v>
+        <v>6846191</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,10 +16476,10 @@
         <v>45326.39583333334</v>
       </c>
       <c r="F180" t="s">
+        <v>41</v>
+      </c>
+      <c r="G180" t="s">
         <v>30</v>
-      </c>
-      <c r="G180" t="s">
-        <v>37</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16491,43 +16491,43 @@
         <v>47</v>
       </c>
       <c r="K180">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O180">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P180">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
         <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16536,13 +16536,13 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
       <c r="AC180">
         <v>-0.5</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6846856</v>
+        <v>6846861</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45331.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
         <v>49</v>
       </c>
       <c r="K182">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M182">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N182">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O182">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P182">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q182">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T182">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y182">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6846861</v>
+        <v>6846856</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45331.60416666666</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J183" t="s">
         <v>48</v>
       </c>
       <c r="K183">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="L183">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M183">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N183">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S183">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V183">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC183">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16844,7 +16844,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K184">
         <v>1.65</v>
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6846161</v>
+        <v>6846859</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,13 +16921,13 @@
         <v>45332.375</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -16936,43 +16936,43 @@
         <v>47</v>
       </c>
       <c r="K185">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="L185">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M185">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="N185">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="O185">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P185">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S185">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T185">
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V185">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W185">
-        <v>3.2</v>
+        <v>1.375</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16981,7 +16981,7 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA185">
         <v>-1</v>
@@ -16990,7 +16990,7 @@
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6846859</v>
+        <v>6846161</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,13 +17010,13 @@
         <v>45332.375</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G186" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -17025,43 +17025,43 @@
         <v>47</v>
       </c>
       <c r="K186">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="L186">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M186">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="N186">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="O186">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S186">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V186">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W186">
-        <v>1.375</v>
+        <v>3.2</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17070,7 +17070,7 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA186">
         <v>-1</v>
@@ -17079,7 +17079,7 @@
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>45332.6875</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
         <v>38</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>2.3</v>
@@ -17188,7 +17188,7 @@
         <v>45333.39583333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
         <v>39</v>
@@ -17200,7 +17200,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K188">
         <v>2.15</v>
@@ -17378,7 +17378,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K190">
         <v>2.4</v>
@@ -17544,10 +17544,10 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6846866</v>
+        <v>6846862</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45339.375</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K193">
+        <v>1.7</v>
+      </c>
+      <c r="L193">
+        <v>4</v>
+      </c>
+      <c r="M193">
         <v>4.5</v>
       </c>
-      <c r="L193">
-        <v>4.2</v>
-      </c>
-      <c r="M193">
-        <v>1.65</v>
-      </c>
       <c r="N193">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="O193">
+        <v>4</v>
+      </c>
+      <c r="P193">
         <v>4.5</v>
       </c>
-      <c r="P193">
-        <v>1.615</v>
-      </c>
       <c r="Q193">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T193">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X193">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB193">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6846862</v>
+        <v>6846866</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45339.375</v>
       </c>
       <c r="F194" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G194" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194" t="s">
+        <v>49</v>
+      </c>
+      <c r="K194">
+        <v>4.5</v>
+      </c>
+      <c r="L194">
+        <v>4.2</v>
+      </c>
+      <c r="M194">
+        <v>1.65</v>
+      </c>
+      <c r="N194">
+        <v>4.75</v>
+      </c>
+      <c r="O194">
+        <v>4.5</v>
+      </c>
+      <c r="P194">
+        <v>1.615</v>
+      </c>
+      <c r="Q194">
         <v>1</v>
       </c>
-      <c r="I194">
-        <v>0</v>
-      </c>
-      <c r="J194" t="s">
-        <v>47</v>
-      </c>
-      <c r="K194">
-        <v>1.7</v>
-      </c>
-      <c r="L194">
-        <v>4</v>
-      </c>
-      <c r="M194">
-        <v>4.5</v>
-      </c>
-      <c r="N194">
-        <v>1.7</v>
-      </c>
-      <c r="O194">
-        <v>4</v>
-      </c>
-      <c r="P194">
-        <v>4.5</v>
-      </c>
-      <c r="Q194">
-        <v>-0.75</v>
-      </c>
       <c r="R194">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U194">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W194">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA194">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC194">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17823,7 +17823,7 @@
         <v>4</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K195">
         <v>2.15</v>
@@ -17912,7 +17912,7 @@
         <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
         <v>2.35</v>
@@ -17992,7 +17992,7 @@
         <v>42</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18170,7 +18170,7 @@
         <v>46</v>
       </c>
       <c r="G199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18179,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K199">
         <v>2.4</v>
@@ -18268,7 +18268,7 @@
         <v>4</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K200">
         <v>3.1</v>
@@ -18357,7 +18357,7 @@
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K201">
         <v>2.7</v>
@@ -18437,7 +18437,7 @@
         <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18523,7 +18523,7 @@
         <v>45346.375</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>39</v>
@@ -18535,7 +18535,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K203">
         <v>2.5</v>
@@ -18612,7 +18612,7 @@
         <v>45346.375</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
         <v>45</v>
@@ -18624,7 +18624,7 @@
         <v>4</v>
       </c>
       <c r="J204" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K204">
         <v>2.25</v>
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6846868</v>
+        <v>6846871</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,58 +18790,58 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G206" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H206">
         <v>2</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
         <v>47</v>
       </c>
       <c r="K206">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="L206">
+        <v>3.8</v>
+      </c>
+      <c r="M206">
         <v>4.333</v>
       </c>
-      <c r="M206">
-        <v>6</v>
-      </c>
       <c r="N206">
-        <v>1.444</v>
+        <v>1.6</v>
       </c>
       <c r="O206">
         <v>4.5</v>
       </c>
       <c r="P206">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q206">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R206">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
         <v>3</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W206">
-        <v>0.444</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18850,16 +18850,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC206">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6846871</v>
+        <v>6846194</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,40 +18879,40 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G207" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>47</v>
       </c>
       <c r="K207">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L207">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M207">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N207">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O207">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P207">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R207">
         <v>2</v>
@@ -18921,16 +18921,16 @@
         <v>1.85</v>
       </c>
       <c r="T207">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U207">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V207">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W207">
-        <v>0.6000000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,16 +18939,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA207">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6846194</v>
+        <v>6846868</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,13 +18968,13 @@
         <v>45347.39583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -18983,43 +18983,43 @@
         <v>47</v>
       </c>
       <c r="K208">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="L208">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M208">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N208">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O208">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P208">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q208">
         <v>-1.25</v>
       </c>
       <c r="R208">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S208">
+        <v>1.95</v>
+      </c>
+      <c r="T208">
+        <v>3</v>
+      </c>
+      <c r="U208">
+        <v>2</v>
+      </c>
+      <c r="V208">
         <v>1.85</v>
       </c>
-      <c r="T208">
-        <v>3.75</v>
-      </c>
-      <c r="U208">
-        <v>2.025</v>
-      </c>
-      <c r="V208">
-        <v>1.825</v>
-      </c>
       <c r="W208">
-        <v>0.5329999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19028,16 +19028,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA208">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19158,7 +19158,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K210">
         <v>2.35</v>
@@ -19238,7 +19238,7 @@
         <v>46</v>
       </c>
       <c r="G211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19327,7 +19327,7 @@
         <v>37</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19336,7 +19336,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>3.25</v>
@@ -19413,7 +19413,7 @@
         <v>45353.375</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G213" t="s">
         <v>34</v>
@@ -19425,7 +19425,7 @@
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K213">
         <v>2.45</v>
@@ -19505,7 +19505,7 @@
         <v>45</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>4</v>
@@ -19603,7 +19603,7 @@
         <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K215">
         <v>1.8</v>
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6846874</v>
+        <v>6846875</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,76 +19680,76 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L216">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M216">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N216">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="O216">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P216">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T216">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V216">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y216">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6846875</v>
+        <v>6846874</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,76 +19769,76 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>48</v>
       </c>
       <c r="K217">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L217">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M217">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N217">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="O217">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P217">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q217">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U217">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V217">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB217">
         <v>-1</v>
       </c>
       <c r="AC217">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19947,7 +19947,7 @@
         <v>45359.60416666666</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
         <v>37</v>
@@ -19959,7 +19959,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K219">
         <v>1.75</v>
@@ -20048,7 +20048,7 @@
         <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K220">
         <v>2.05</v>
@@ -20217,7 +20217,7 @@
         <v>32</v>
       </c>
       <c r="G222" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20226,7 +20226,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
         <v>2.8</v>
@@ -20315,7 +20315,7 @@
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
         <v>1.666</v>
@@ -20481,7 +20481,7 @@
         <v>45361.39583333334</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G225" t="s">
         <v>33</v>
@@ -20570,7 +20570,7 @@
         <v>45361.39583333334</v>
       </c>
       <c r="F226" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
         <v>41</v>
@@ -20582,7 +20582,7 @@
         <v>4</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K226">
         <v>1.909</v>
@@ -20671,7 +20671,7 @@
         <v>4</v>
       </c>
       <c r="J227" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K227">
         <v>3.75</v>
@@ -20751,7 +20751,7 @@
         <v>38</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -20760,7 +20760,7 @@
         <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K228">
         <v>1.85</v>
@@ -20849,7 +20849,7 @@
         <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K229">
         <v>2.6</v>
@@ -20929,7 +20929,7 @@
         <v>37</v>
       </c>
       <c r="G230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -21027,7 +21027,7 @@
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K231">
         <v>4.75</v>
@@ -21104,10 +21104,10 @@
         <v>45367.6875</v>
       </c>
       <c r="F232" t="s">
+        <v>31</v>
+      </c>
+      <c r="G232" t="s">
         <v>30</v>
-      </c>
-      <c r="G232" t="s">
-        <v>31</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21116,7 +21116,7 @@
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K232">
         <v>1.95</v>
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6846891</v>
+        <v>6852502</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,73 +21193,73 @@
         <v>45368.39583333334</v>
       </c>
       <c r="F233" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G233" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H233">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="L233">
+        <v>3.5</v>
+      </c>
+      <c r="M233">
+        <v>2.875</v>
+      </c>
+      <c r="N233">
+        <v>2.3</v>
+      </c>
+      <c r="O233">
         <v>3.6</v>
       </c>
-      <c r="M233">
-        <v>3.25</v>
-      </c>
-      <c r="N233">
+      <c r="P233">
+        <v>2.9</v>
+      </c>
+      <c r="Q233">
+        <v>-0.25</v>
+      </c>
+      <c r="R233">
         <v>2.05</v>
       </c>
-      <c r="O233">
-        <v>3.8</v>
-      </c>
-      <c r="P233">
-        <v>3.3</v>
-      </c>
-      <c r="Q233">
-        <v>-0.5</v>
-      </c>
-      <c r="R233">
-        <v>2.025</v>
-      </c>
       <c r="S233">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T233">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W233">
+        <v>1.3</v>
+      </c>
+      <c r="X233">
+        <v>-1</v>
+      </c>
+      <c r="Y233">
+        <v>-1</v>
+      </c>
+      <c r="Z233">
         <v>1.05</v>
       </c>
-      <c r="X233">
-        <v>-1</v>
-      </c>
-      <c r="Y233">
-        <v>-1</v>
-      </c>
-      <c r="Z233">
-        <v>1.025</v>
-      </c>
       <c r="AA233">
         <v>-1</v>
       </c>
       <c r="AB233">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6852502</v>
+        <v>6846891</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,58 +21282,58 @@
         <v>45368.39583333334</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G234" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H234">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>47</v>
       </c>
       <c r="K234">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="L234">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M234">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="N234">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O234">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P234">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S234">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T234">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V234">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W234">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21342,13 +21342,13 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA234">
         <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -21460,7 +21460,7 @@
         <v>45381.375</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
         <v>41</v>
@@ -21638,7 +21638,7 @@
         <v>45381.375</v>
       </c>
       <c r="F238" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G238" t="s">
         <v>34</v>
@@ -21650,7 +21650,7 @@
         <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K238">
         <v>3</v>
@@ -21739,7 +21739,7 @@
         <v>3</v>
       </c>
       <c r="J239" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K239">
         <v>1.727</v>
@@ -21908,7 +21908,7 @@
         <v>44</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -21917,7 +21917,7 @@
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K241">
         <v>2.375</v>
@@ -21994,7 +21994,7 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G242" t="s">
         <v>29</v>
@@ -22006,7 +22006,7 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K242">
         <v>3</v>
@@ -22095,7 +22095,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K243">
         <v>2.25</v>
@@ -22184,7 +22184,7 @@
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K244">
         <v>1.95</v>
@@ -22362,7 +22362,7 @@
         <v>3</v>
       </c>
       <c r="J246" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K246">
         <v>2.2</v>
@@ -22442,7 +22442,7 @@
         <v>29</v>
       </c>
       <c r="G247" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H247">
         <v>2</v>
@@ -22540,7 +22540,7 @@
         <v>4</v>
       </c>
       <c r="J248" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K248">
         <v>3.1</v>
@@ -22629,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K249">
         <v>2.4</v>
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6861718</v>
+        <v>6931135</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,7 +22795,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
         <v>36</v>
@@ -22810,43 +22810,43 @@
         <v>47</v>
       </c>
       <c r="K251">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="L251">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M251">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N251">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O251">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R251">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S251">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>2.75</v>
       </c>
       <c r="U251">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V251">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W251">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="X251">
         <v>-1</v>
@@ -22855,7 +22855,7 @@
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA251">
         <v>-1</v>
@@ -22864,7 +22864,7 @@
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22884,7 +22884,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F252" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G252" t="s">
         <v>43</v>
@@ -22896,7 +22896,7 @@
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K252">
         <v>1.909</v>
@@ -22961,7 +22961,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6931135</v>
+        <v>6861718</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22973,7 +22973,7 @@
         <v>45389.35416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G253" t="s">
         <v>35</v>
@@ -22988,43 +22988,43 @@
         <v>47</v>
       </c>
       <c r="K253">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="L253">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M253">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N253">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O253">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P253">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q253">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R253">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S253">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T253">
         <v>2.75</v>
       </c>
       <c r="U253">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V253">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W253">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="X253">
         <v>-1</v>
@@ -23033,16 +23033,16 @@
         <v>-1</v>
       </c>
       <c r="Z253">
+        <v>0.95</v>
+      </c>
+      <c r="AA253">
+        <v>-1</v>
+      </c>
+      <c r="AB253">
+        <v>-1</v>
+      </c>
+      <c r="AC253">
         <v>0.875</v>
-      </c>
-      <c r="AA253">
-        <v>-1</v>
-      </c>
-      <c r="AB253">
-        <v>-1</v>
-      </c>
-      <c r="AC253">
-        <v>1.025</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23151,10 +23151,10 @@
         <v>45394.5625</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G255" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H255">
         <v>2</v>
@@ -23252,7 +23252,7 @@
         <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K256">
         <v>2.3</v>
@@ -23341,7 +23341,7 @@
         <v>2</v>
       </c>
       <c r="J257" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K257">
         <v>3.8</v>
@@ -23596,10 +23596,10 @@
         <v>45396.35416666666</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G260" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -23608,7 +23608,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K260">
         <v>2.875</v>
@@ -23697,7 +23697,7 @@
         <v>4</v>
       </c>
       <c r="J261" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K261">
         <v>1.45</v>
@@ -23786,7 +23786,7 @@
         <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K262">
         <v>3.3</v>
@@ -23875,7 +23875,7 @@
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K263">
         <v>2.5</v>
@@ -23964,7 +23964,7 @@
         <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K264">
         <v>3.1</v>
@@ -24022,524 +24022,6 @@
       </c>
       <c r="AC264">
         <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:29">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
-      <c r="B265">
-        <v>6994451</v>
-      </c>
-      <c r="C265" t="s">
-        <v>28</v>
-      </c>
-      <c r="D265" t="s">
-        <v>28</v>
-      </c>
-      <c r="E265" s="2">
-        <v>45402.33333333334</v>
-      </c>
-      <c r="F265" t="s">
-        <v>31</v>
-      </c>
-      <c r="G265" t="s">
-        <v>32</v>
-      </c>
-      <c r="K265">
-        <v>1.8</v>
-      </c>
-      <c r="L265">
-        <v>3.8</v>
-      </c>
-      <c r="M265">
-        <v>3.8</v>
-      </c>
-      <c r="N265">
-        <v>1.75</v>
-      </c>
-      <c r="O265">
-        <v>3.8</v>
-      </c>
-      <c r="P265">
-        <v>4.2</v>
-      </c>
-      <c r="Q265">
-        <v>-0.75</v>
-      </c>
-      <c r="R265">
-        <v>2</v>
-      </c>
-      <c r="S265">
-        <v>1.85</v>
-      </c>
-      <c r="T265">
-        <v>3</v>
-      </c>
-      <c r="U265">
-        <v>2.025</v>
-      </c>
-      <c r="V265">
-        <v>1.825</v>
-      </c>
-      <c r="W265">
-        <v>0</v>
-      </c>
-      <c r="X265">
-        <v>0</v>
-      </c>
-      <c r="Y265">
-        <v>0</v>
-      </c>
-      <c r="Z265">
-        <v>0</v>
-      </c>
-      <c r="AA265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:29">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266">
-        <v>6994449</v>
-      </c>
-      <c r="C266" t="s">
-        <v>28</v>
-      </c>
-      <c r="D266" t="s">
-        <v>28</v>
-      </c>
-      <c r="E266" s="2">
-        <v>45402.33333333334</v>
-      </c>
-      <c r="F266" t="s">
-        <v>33</v>
-      </c>
-      <c r="G266" t="s">
-        <v>35</v>
-      </c>
-      <c r="K266">
-        <v>2.875</v>
-      </c>
-      <c r="L266">
-        <v>3.5</v>
-      </c>
-      <c r="M266">
-        <v>2.3</v>
-      </c>
-      <c r="N266">
-        <v>2.5</v>
-      </c>
-      <c r="O266">
-        <v>3.5</v>
-      </c>
-      <c r="P266">
-        <v>2.625</v>
-      </c>
-      <c r="Q266">
-        <v>0</v>
-      </c>
-      <c r="R266">
-        <v>1.825</v>
-      </c>
-      <c r="S266">
-        <v>2.025</v>
-      </c>
-      <c r="T266">
-        <v>2.75</v>
-      </c>
-      <c r="U266">
-        <v>2.025</v>
-      </c>
-      <c r="V266">
-        <v>1.825</v>
-      </c>
-      <c r="W266">
-        <v>0</v>
-      </c>
-      <c r="X266">
-        <v>0</v>
-      </c>
-      <c r="Y266">
-        <v>0</v>
-      </c>
-      <c r="Z266">
-        <v>0</v>
-      </c>
-      <c r="AA266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:29">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267">
-        <v>6994928</v>
-      </c>
-      <c r="C267" t="s">
-        <v>28</v>
-      </c>
-      <c r="D267" t="s">
-        <v>28</v>
-      </c>
-      <c r="E267" s="2">
-        <v>45402.33333333334</v>
-      </c>
-      <c r="F267" t="s">
-        <v>34</v>
-      </c>
-      <c r="G267" t="s">
-        <v>36</v>
-      </c>
-      <c r="K267">
-        <v>1.55</v>
-      </c>
-      <c r="L267">
-        <v>4.333</v>
-      </c>
-      <c r="M267">
-        <v>5.5</v>
-      </c>
-      <c r="N267">
-        <v>1.571</v>
-      </c>
-      <c r="O267">
-        <v>4.5</v>
-      </c>
-      <c r="P267">
-        <v>5.5</v>
-      </c>
-      <c r="Q267">
-        <v>-1</v>
-      </c>
-      <c r="R267">
-        <v>1.9</v>
-      </c>
-      <c r="S267">
-        <v>1.95</v>
-      </c>
-      <c r="T267">
-        <v>3</v>
-      </c>
-      <c r="U267">
-        <v>1.85</v>
-      </c>
-      <c r="V267">
-        <v>2</v>
-      </c>
-      <c r="W267">
-        <v>0</v>
-      </c>
-      <c r="X267">
-        <v>0</v>
-      </c>
-      <c r="Y267">
-        <v>0</v>
-      </c>
-      <c r="Z267">
-        <v>0</v>
-      </c>
-      <c r="AA267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:29">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268">
-        <v>6990386</v>
-      </c>
-      <c r="C268" t="s">
-        <v>28</v>
-      </c>
-      <c r="D268" t="s">
-        <v>28</v>
-      </c>
-      <c r="E268" s="2">
-        <v>45402.64583333334</v>
-      </c>
-      <c r="F268" t="s">
-        <v>29</v>
-      </c>
-      <c r="G268" t="s">
-        <v>40</v>
-      </c>
-      <c r="K268">
-        <v>2</v>
-      </c>
-      <c r="L268">
-        <v>3.8</v>
-      </c>
-      <c r="M268">
-        <v>3.3</v>
-      </c>
-      <c r="N268">
-        <v>2</v>
-      </c>
-      <c r="O268">
-        <v>3.75</v>
-      </c>
-      <c r="P268">
-        <v>3.4</v>
-      </c>
-      <c r="Q268">
-        <v>-0.5</v>
-      </c>
-      <c r="R268">
-        <v>2.025</v>
-      </c>
-      <c r="S268">
-        <v>1.825</v>
-      </c>
-      <c r="T268">
-        <v>3.25</v>
-      </c>
-      <c r="U268">
-        <v>1.875</v>
-      </c>
-      <c r="V268">
-        <v>1.975</v>
-      </c>
-      <c r="W268">
-        <v>0</v>
-      </c>
-      <c r="X268">
-        <v>0</v>
-      </c>
-      <c r="Y268">
-        <v>0</v>
-      </c>
-      <c r="Z268">
-        <v>0</v>
-      </c>
-      <c r="AA268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:29">
-      <c r="A269" s="1">
-        <v>267</v>
-      </c>
-      <c r="B269">
-        <v>6994452</v>
-      </c>
-      <c r="C269" t="s">
-        <v>28</v>
-      </c>
-      <c r="D269" t="s">
-        <v>28</v>
-      </c>
-      <c r="E269" s="2">
-        <v>45403.35416666666</v>
-      </c>
-      <c r="F269" t="s">
-        <v>37</v>
-      </c>
-      <c r="G269" t="s">
-        <v>44</v>
-      </c>
-      <c r="K269">
-        <v>2.7</v>
-      </c>
-      <c r="L269">
-        <v>3.5</v>
-      </c>
-      <c r="M269">
-        <v>2.5</v>
-      </c>
-      <c r="N269">
-        <v>2.8</v>
-      </c>
-      <c r="O269">
-        <v>3.5</v>
-      </c>
-      <c r="P269">
-        <v>2.45</v>
-      </c>
-      <c r="Q269">
-        <v>0</v>
-      </c>
-      <c r="R269">
-        <v>2.05</v>
-      </c>
-      <c r="S269">
-        <v>1.8</v>
-      </c>
-      <c r="T269">
-        <v>2.75</v>
-      </c>
-      <c r="U269">
-        <v>1.875</v>
-      </c>
-      <c r="V269">
-        <v>1.975</v>
-      </c>
-      <c r="W269">
-        <v>0</v>
-      </c>
-      <c r="X269">
-        <v>0</v>
-      </c>
-      <c r="Y269">
-        <v>0</v>
-      </c>
-      <c r="Z269">
-        <v>0</v>
-      </c>
-      <c r="AA269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:29">
-      <c r="A270" s="1">
-        <v>268</v>
-      </c>
-      <c r="B270">
-        <v>6994448</v>
-      </c>
-      <c r="C270" t="s">
-        <v>28</v>
-      </c>
-      <c r="D270" t="s">
-        <v>28</v>
-      </c>
-      <c r="E270" s="2">
-        <v>45403.35416666666</v>
-      </c>
-      <c r="F270" t="s">
-        <v>30</v>
-      </c>
-      <c r="G270" t="s">
-        <v>42</v>
-      </c>
-      <c r="K270">
-        <v>2.9</v>
-      </c>
-      <c r="L270">
-        <v>3.4</v>
-      </c>
-      <c r="M270">
-        <v>2.375</v>
-      </c>
-      <c r="N270">
-        <v>3.1</v>
-      </c>
-      <c r="O270">
-        <v>3.4</v>
-      </c>
-      <c r="P270">
-        <v>2.375</v>
-      </c>
-      <c r="Q270">
-        <v>0.25</v>
-      </c>
-      <c r="R270">
-        <v>1.825</v>
-      </c>
-      <c r="S270">
-        <v>2.025</v>
-      </c>
-      <c r="T270">
-        <v>2.75</v>
-      </c>
-      <c r="U270">
-        <v>2.025</v>
-      </c>
-      <c r="V270">
-        <v>1.825</v>
-      </c>
-      <c r="W270">
-        <v>0</v>
-      </c>
-      <c r="X270">
-        <v>0</v>
-      </c>
-      <c r="Y270">
-        <v>0</v>
-      </c>
-      <c r="Z270">
-        <v>0</v>
-      </c>
-      <c r="AA270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:29">
-      <c r="A271" s="1">
-        <v>269</v>
-      </c>
-      <c r="B271">
-        <v>6994447</v>
-      </c>
-      <c r="C271" t="s">
-        <v>28</v>
-      </c>
-      <c r="D271" t="s">
-        <v>28</v>
-      </c>
-      <c r="E271" s="2">
-        <v>45403.35416666666</v>
-      </c>
-      <c r="F271" t="s">
-        <v>45</v>
-      </c>
-      <c r="G271" t="s">
-        <v>39</v>
-      </c>
-      <c r="K271">
-        <v>2</v>
-      </c>
-      <c r="L271">
-        <v>3.75</v>
-      </c>
-      <c r="M271">
-        <v>3.4</v>
-      </c>
-      <c r="N271">
-        <v>1.909</v>
-      </c>
-      <c r="O271">
-        <v>3.8</v>
-      </c>
-      <c r="P271">
-        <v>3.75</v>
-      </c>
-      <c r="Q271">
-        <v>-0.5</v>
-      </c>
-      <c r="R271">
-        <v>1.95</v>
-      </c>
-      <c r="S271">
-        <v>1.9</v>
-      </c>
-      <c r="T271">
-        <v>3.25</v>
-      </c>
-      <c r="U271">
-        <v>1.925</v>
-      </c>
-      <c r="V271">
-        <v>1.925</v>
-      </c>
-      <c r="W271">
-        <v>0</v>
-      </c>
-      <c r="X271">
-        <v>0</v>
-      </c>
-      <c r="Y271">
-        <v>0</v>
-      </c>
-      <c r="Z271">
-        <v>0</v>
-      </c>
-      <c r="AA271">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -97,19 +97,19 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7060567</t>
+  </si>
+  <si>
     <t>7059358</t>
   </si>
   <si>
-    <t>7060567</t>
+    <t>7055069</t>
   </si>
   <si>
     <t>7055068</t>
   </si>
   <si>
     <t>7055070</t>
-  </si>
-  <si>
-    <t>7055069</t>
   </si>
   <si>
     <t>7066113</t>
@@ -7609,7 +7609,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6846183</v>
+        <v>6846791</v>
       </c>
       <c r="C83" t="s">
         <v>36</v>
@@ -7618,58 +7618,58 @@
         <v>45219.5625</v>
       </c>
       <c r="E83" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
         <v>55</v>
       </c>
       <c r="J83">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="K83">
         <v>3.8</v>
       </c>
       <c r="L83">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M83">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N83">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P83">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T83">
+        <v>1.8</v>
+      </c>
+      <c r="U83">
         <v>2.05</v>
       </c>
-      <c r="U83">
-        <v>1.8</v>
-      </c>
       <c r="V83">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7678,16 +7678,16 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB83">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7695,7 +7695,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6846791</v>
+        <v>6846183</v>
       </c>
       <c r="C84" t="s">
         <v>36</v>
@@ -7704,58 +7704,58 @@
         <v>45219.5625</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F84" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
         <v>55</v>
       </c>
       <c r="J84">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="K84">
         <v>3.8</v>
       </c>
       <c r="L84">
+        <v>3.8</v>
+      </c>
+      <c r="M84">
+        <v>1.727</v>
+      </c>
+      <c r="N84">
+        <v>4.2</v>
+      </c>
+      <c r="O84">
+        <v>4.2</v>
+      </c>
+      <c r="P84">
+        <v>-0.75</v>
+      </c>
+      <c r="Q84">
+        <v>1.975</v>
+      </c>
+      <c r="R84">
+        <v>1.875</v>
+      </c>
+      <c r="S84">
         <v>3.25</v>
       </c>
-      <c r="M84">
-        <v>2.15</v>
-      </c>
-      <c r="N84">
-        <v>3.75</v>
-      </c>
-      <c r="O84">
-        <v>3.1</v>
-      </c>
-      <c r="P84">
-        <v>-0.25</v>
-      </c>
-      <c r="Q84">
-        <v>1.9</v>
-      </c>
-      <c r="R84">
-        <v>1.95</v>
-      </c>
-      <c r="S84">
-        <v>3</v>
-      </c>
       <c r="T84">
+        <v>2.05</v>
+      </c>
+      <c r="U84">
         <v>1.8</v>
       </c>
-      <c r="U84">
-        <v>2.05</v>
-      </c>
       <c r="V84">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7764,16 +7764,16 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7781,7 +7781,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6846788</v>
+        <v>6846793</v>
       </c>
       <c r="C85" t="s">
         <v>36</v>
@@ -7790,76 +7790,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J85">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="K85">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L85">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="M85">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="N85">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q85">
+        <v>2.025</v>
+      </c>
+      <c r="R85">
         <v>1.825</v>
       </c>
-      <c r="R85">
-        <v>2.025</v>
-      </c>
       <c r="S85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T85">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
         <v>0.825</v>
       </c>
-      <c r="Z85">
-        <v>-1</v>
-      </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7867,7 +7867,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6846793</v>
+        <v>6846150</v>
       </c>
       <c r="C86" t="s">
         <v>36</v>
@@ -7876,76 +7876,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J86">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="K86">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L86">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N86">
         <v>3.8</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="P86">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q86">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S86">
         <v>3</v>
       </c>
       <c r="T86">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
         <v>-1</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7953,7 +7953,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6846150</v>
+        <v>6846788</v>
       </c>
       <c r="C87" t="s">
         <v>36</v>
@@ -7962,76 +7962,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>2</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J87">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="K87">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L87">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="M87">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="N87">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O87">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="P87">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S87">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W87">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8383,7 +8383,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6846797</v>
+        <v>6846798</v>
       </c>
       <c r="C92" t="s">
         <v>36</v>
@@ -8392,46 +8392,46 @@
         <v>45226.5625</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
         <v>4</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
       <c r="I92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J92">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="K92">
+        <v>3.5</v>
+      </c>
+      <c r="L92">
+        <v>2.1</v>
+      </c>
+      <c r="M92">
         <v>3.75</v>
       </c>
-      <c r="L92">
-        <v>4.5</v>
-      </c>
-      <c r="M92">
-        <v>1.65</v>
-      </c>
       <c r="N92">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O92">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="P92">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q92">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R92">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
         <v>3</v>
@@ -8443,19 +8443,19 @@
         <v>1.825</v>
       </c>
       <c r="V92">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
         <v>1.025</v>
@@ -8469,7 +8469,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6846798</v>
+        <v>6846797</v>
       </c>
       <c r="C93" t="s">
         <v>36</v>
@@ -8478,46 +8478,46 @@
         <v>45226.5625</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J93">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="K93">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L93">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="M93">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="N93">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O93">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="P93">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q93">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S93">
         <v>3</v>
@@ -8529,19 +8529,19 @@
         <v>1.825</v>
       </c>
       <c r="V93">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
         <v>1.025</v>
@@ -12253,7 +12253,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6846828</v>
+        <v>6846831</v>
       </c>
       <c r="C137" t="s">
         <v>36</v>
@@ -12262,73 +12262,73 @@
         <v>45268.60416666666</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J137">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K137">
         <v>3.5</v>
       </c>
       <c r="L137">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N137">
         <v>3.5</v>
       </c>
       <c r="O137">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P137">
         <v>-0.25</v>
       </c>
       <c r="Q137">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
         <v>2.5</v>
       </c>
       <c r="T137">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V137">
         <v>-1</v>
       </c>
       <c r="W137">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB137">
         <v>-1</v>
@@ -12339,7 +12339,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6846831</v>
+        <v>6846828</v>
       </c>
       <c r="C138" t="s">
         <v>36</v>
@@ -12348,73 +12348,73 @@
         <v>45268.60416666666</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F138" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J138">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K138">
         <v>3.5</v>
       </c>
       <c r="L138">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M138">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N138">
         <v>3.5</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P138">
         <v>-0.25</v>
       </c>
       <c r="Q138">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S138">
         <v>2.5</v>
       </c>
       <c r="T138">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V138">
         <v>-1</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X138">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z138">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AA138">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
         <v>-1</v>
@@ -12425,7 +12425,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6846826</v>
+        <v>6845840</v>
       </c>
       <c r="C139" t="s">
         <v>36</v>
@@ -12434,10 +12434,10 @@
         <v>45269.375</v>
       </c>
       <c r="E139" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12449,40 +12449,40 @@
         <v>56</v>
       </c>
       <c r="J139">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="K139">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L139">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M139">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="N139">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O139">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q139">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T139">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U139">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
         <v>-1</v>
@@ -12491,19 +12491,19 @@
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>3.333</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB139">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12597,7 +12597,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6845840</v>
+        <v>6846826</v>
       </c>
       <c r="C141" t="s">
         <v>36</v>
@@ -12606,10 +12606,10 @@
         <v>45269.375</v>
       </c>
       <c r="E141" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12621,40 +12621,40 @@
         <v>56</v>
       </c>
       <c r="J141">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="K141">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L141">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M141">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="N141">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q141">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T141">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
         <v>-1</v>
@@ -12663,19 +12663,19 @@
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.1</v>
+        <v>3.333</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12769,7 +12769,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6846830</v>
+        <v>6846827</v>
       </c>
       <c r="C143" t="s">
         <v>36</v>
@@ -12778,55 +12778,55 @@
         <v>45270.39583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F143" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="s">
         <v>56</v>
       </c>
       <c r="J143">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="K143">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L143">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="M143">
+        <v>1.8</v>
+      </c>
+      <c r="N143">
+        <v>3.8</v>
+      </c>
+      <c r="O143">
+        <v>4.2</v>
+      </c>
+      <c r="P143">
+        <v>-0.75</v>
+      </c>
+      <c r="Q143">
+        <v>2.025</v>
+      </c>
+      <c r="R143">
+        <v>1.825</v>
+      </c>
+      <c r="S143">
         <v>3</v>
       </c>
-      <c r="N143">
-        <v>3.6</v>
-      </c>
-      <c r="O143">
-        <v>2.25</v>
-      </c>
-      <c r="P143">
-        <v>0.25</v>
-      </c>
-      <c r="Q143">
-        <v>1.875</v>
-      </c>
-      <c r="R143">
-        <v>1.975</v>
-      </c>
-      <c r="S143">
-        <v>2.5</v>
-      </c>
       <c r="T143">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
         <v>-1</v>
@@ -12835,19 +12835,19 @@
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12941,7 +12941,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6846827</v>
+        <v>6846830</v>
       </c>
       <c r="C145" t="s">
         <v>36</v>
@@ -12950,56 +12950,56 @@
         <v>45270.39583333334</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F145" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="s">
         <v>56</v>
       </c>
       <c r="J145">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="K145">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L145">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="M145">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N145">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O145">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="P145">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q145">
+        <v>1.875</v>
+      </c>
+      <c r="R145">
+        <v>1.975</v>
+      </c>
+      <c r="S145">
+        <v>2.5</v>
+      </c>
+      <c r="T145">
+        <v>1.825</v>
+      </c>
+      <c r="U145">
         <v>2.025</v>
       </c>
-      <c r="R145">
-        <v>1.825</v>
-      </c>
-      <c r="S145">
-        <v>3</v>
-      </c>
-      <c r="T145">
-        <v>1.925</v>
-      </c>
-      <c r="U145">
-        <v>1.925</v>
-      </c>
       <c r="V145">
         <v>-1</v>
       </c>
@@ -13007,19 +13007,19 @@
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>3.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13801,7 +13801,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7625865</v>
+        <v>7625888</v>
       </c>
       <c r="C155" t="s">
         <v>36</v>
@@ -13810,40 +13810,40 @@
         <v>45310.60416666666</v>
       </c>
       <c r="E155" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J155">
         <v>1.571</v>
       </c>
       <c r="K155">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L155">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M155">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="N155">
+        <v>3.8</v>
+      </c>
+      <c r="O155">
         <v>4.333</v>
       </c>
-      <c r="O155">
-        <v>5.25</v>
-      </c>
       <c r="P155">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -13852,34 +13852,34 @@
         <v>1.85</v>
       </c>
       <c r="S155">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T155">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U155">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA155">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -13887,7 +13887,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7625888</v>
+        <v>7625865</v>
       </c>
       <c r="C156" t="s">
         <v>36</v>
@@ -13896,40 +13896,40 @@
         <v>45310.60416666666</v>
       </c>
       <c r="E156" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G156">
+        <v>2</v>
+      </c>
+      <c r="H156">
         <v>1</v>
       </c>
-      <c r="H156">
-        <v>2</v>
-      </c>
       <c r="I156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J156">
         <v>1.571</v>
       </c>
       <c r="K156">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L156">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M156">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="N156">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O156">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P156">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q156">
         <v>2</v>
@@ -13938,34 +13938,34 @@
         <v>1.85</v>
       </c>
       <c r="S156">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T156">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z156">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AB156">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -19219,7 +19219,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6846881</v>
+        <v>6846888</v>
       </c>
       <c r="C218" t="s">
         <v>36</v>
@@ -19228,40 +19228,40 @@
         <v>45359.60416666666</v>
       </c>
       <c r="E218" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J218">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="K218">
         <v>3.6</v>
       </c>
       <c r="L218">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="M218">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="N218">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O218">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="P218">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q218">
         <v>1.85</v>
@@ -19270,34 +19270,34 @@
         <v>2</v>
       </c>
       <c r="S218">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T218">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U218">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y218">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA218">
         <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19305,7 +19305,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6846888</v>
+        <v>6846881</v>
       </c>
       <c r="C219" t="s">
         <v>36</v>
@@ -19314,40 +19314,40 @@
         <v>45359.60416666666</v>
       </c>
       <c r="E219" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J219">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="K219">
         <v>3.6</v>
       </c>
       <c r="L219">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="M219">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="N219">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O219">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="P219">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q219">
         <v>1.85</v>
@@ -19356,34 +19356,34 @@
         <v>2</v>
       </c>
       <c r="S219">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T219">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U219">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V219">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W219">
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z219">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -21541,7 +21541,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6925419</v>
+        <v>6921568</v>
       </c>
       <c r="C245" t="s">
         <v>36</v>
@@ -21550,73 +21550,73 @@
         <v>45387.5625</v>
       </c>
       <c r="E245" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F245" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245" t="s">
+        <v>55</v>
+      </c>
+      <c r="J245">
+        <v>2.55</v>
+      </c>
+      <c r="K245">
+        <v>3.25</v>
+      </c>
+      <c r="L245">
+        <v>2.8</v>
+      </c>
+      <c r="M245">
+        <v>2.4</v>
+      </c>
+      <c r="N245">
+        <v>3.3</v>
+      </c>
+      <c r="O245">
         <v>3</v>
-      </c>
-      <c r="I245" t="s">
-        <v>56</v>
-      </c>
-      <c r="J245">
-        <v>2.2</v>
-      </c>
-      <c r="K245">
-        <v>3.75</v>
-      </c>
-      <c r="L245">
-        <v>3</v>
-      </c>
-      <c r="M245">
-        <v>2.1</v>
-      </c>
-      <c r="N245">
-        <v>3.8</v>
-      </c>
-      <c r="O245">
-        <v>3.25</v>
       </c>
       <c r="P245">
         <v>-0.25</v>
       </c>
       <c r="Q245">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R245">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S245">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T245">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U245">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V245">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z245">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB245">
         <v>-1</v>
@@ -21627,7 +21627,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6921568</v>
+        <v>6925419</v>
       </c>
       <c r="C246" t="s">
         <v>36</v>
@@ -21636,73 +21636,73 @@
         <v>45387.5625</v>
       </c>
       <c r="E246" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F246" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G246">
+        <v>2</v>
+      </c>
+      <c r="H246">
         <v>3</v>
       </c>
-      <c r="H246">
-        <v>1</v>
-      </c>
       <c r="I246" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J246">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="K246">
+        <v>3.75</v>
+      </c>
+      <c r="L246">
+        <v>3</v>
+      </c>
+      <c r="M246">
+        <v>2.1</v>
+      </c>
+      <c r="N246">
+        <v>3.8</v>
+      </c>
+      <c r="O246">
         <v>3.25</v>
-      </c>
-      <c r="L246">
-        <v>2.8</v>
-      </c>
-      <c r="M246">
-        <v>2.4</v>
-      </c>
-      <c r="N246">
-        <v>3.3</v>
-      </c>
-      <c r="O246">
-        <v>3</v>
       </c>
       <c r="P246">
         <v>-0.25</v>
       </c>
       <c r="Q246">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R246">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S246">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T246">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U246">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V246">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y246">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA246">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB246">
         <v>-1</v>
@@ -23261,7 +23261,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6994928</v>
+        <v>6994449</v>
       </c>
       <c r="C265" t="s">
         <v>36</v>
@@ -23270,76 +23270,76 @@
         <v>45402.33333333334</v>
       </c>
       <c r="E265" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F265" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I265" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J265">
-        <v>1.55</v>
+        <v>2.875</v>
       </c>
       <c r="K265">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="L265">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="M265">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N265">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O265">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="P265">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q265">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R265">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S265">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T265">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U265">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V265">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB265">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="266" spans="1:28">
@@ -23433,7 +23433,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6994449</v>
+        <v>6994928</v>
       </c>
       <c r="C267" t="s">
         <v>36</v>
@@ -23442,76 +23442,76 @@
         <v>45402.33333333334</v>
       </c>
       <c r="E267" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F267" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267" t="s">
+        <v>55</v>
+      </c>
+      <c r="J267">
+        <v>1.55</v>
+      </c>
+      <c r="K267">
+        <v>4.333</v>
+      </c>
+      <c r="L267">
+        <v>5.5</v>
+      </c>
+      <c r="M267">
+        <v>1.533</v>
+      </c>
+      <c r="N267">
+        <v>4.5</v>
+      </c>
+      <c r="O267">
+        <v>5.75</v>
+      </c>
+      <c r="P267">
+        <v>-1</v>
+      </c>
+      <c r="Q267">
+        <v>1.85</v>
+      </c>
+      <c r="R267">
+        <v>2</v>
+      </c>
+      <c r="S267">
         <v>3</v>
       </c>
-      <c r="I267" t="s">
-        <v>56</v>
-      </c>
-      <c r="J267">
-        <v>2.875</v>
-      </c>
-      <c r="K267">
-        <v>3.5</v>
-      </c>
-      <c r="L267">
-        <v>2.3</v>
-      </c>
-      <c r="M267">
-        <v>2.8</v>
-      </c>
-      <c r="N267">
-        <v>3.5</v>
-      </c>
-      <c r="O267">
-        <v>2.375</v>
-      </c>
-      <c r="P267">
-        <v>0.25</v>
-      </c>
-      <c r="Q267">
-        <v>1.75</v>
-      </c>
-      <c r="R267">
-        <v>2.05</v>
-      </c>
-      <c r="S267">
-        <v>2.75</v>
-      </c>
       <c r="T267">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U267">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V267">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z267">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA267">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="268" spans="1:28">
@@ -23863,7 +23863,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7023403</v>
+        <v>7021853</v>
       </c>
       <c r="C272" t="s">
         <v>36</v>
@@ -23872,76 +23872,76 @@
         <v>45408.5625</v>
       </c>
       <c r="E272" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F272" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G272">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J272">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="K272">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L272">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="M272">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="N272">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="O272">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="P272">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q272">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R272">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S272">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T272">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U272">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V272">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W272">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z272">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="273" spans="1:28">
@@ -23949,7 +23949,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7021853</v>
+        <v>7023403</v>
       </c>
       <c r="C273" t="s">
         <v>36</v>
@@ -23958,76 +23958,76 @@
         <v>45408.5625</v>
       </c>
       <c r="E273" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F273" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G273">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J273">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="K273">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L273">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="M273">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="N273">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="O273">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="P273">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q273">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R273">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S273">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T273">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U273">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V273">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W273">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA273">
         <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="274" spans="1:28">
@@ -24465,7 +24465,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7027647</v>
+        <v>7021855</v>
       </c>
       <c r="C279" t="s">
         <v>36</v>
@@ -24474,49 +24474,49 @@
         <v>45410.35416666666</v>
       </c>
       <c r="E279" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F279" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G279">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I279" t="s">
         <v>56</v>
       </c>
       <c r="J279">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="K279">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L279">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="M279">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="N279">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O279">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="P279">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q279">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R279">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S279">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T279">
         <v>1.85</v>
@@ -24531,19 +24531,19 @@
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB279">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:28">
@@ -24551,7 +24551,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7021855</v>
+        <v>7027647</v>
       </c>
       <c r="C280" t="s">
         <v>36</v>
@@ -24560,49 +24560,49 @@
         <v>45410.35416666666</v>
       </c>
       <c r="E280" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F280" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G280">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H280">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I280" t="s">
         <v>56</v>
       </c>
       <c r="J280">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="K280">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L280">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="M280">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N280">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O280">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="P280">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q280">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R280">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S280">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T280">
         <v>1.85</v>
@@ -24617,19 +24617,19 @@
         <v>-1</v>
       </c>
       <c r="X280">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA280">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:28">
@@ -24646,46 +24646,46 @@
         <v>45415.5625</v>
       </c>
       <c r="E281" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F281" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J281">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="K281">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L281">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="M281">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N281">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O281">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="P281">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q281">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R281">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="S281">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T281">
+        <v>1.975</v>
+      </c>
+      <c r="U281">
         <v>1.875</v>
-      </c>
-      <c r="U281">
-        <v>1.975</v>
       </c>
       <c r="V281">
         <v>0</v>
@@ -24711,46 +24711,46 @@
         <v>45415.5625</v>
       </c>
       <c r="E282" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F282" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J282">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="K282">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="L282">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="M282">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N282">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O282">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="P282">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q282">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R282">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S282">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U282">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V282">
         <v>0</v>
@@ -24776,46 +24776,46 @@
         <v>45416.33333333334</v>
       </c>
       <c r="E283" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F283" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J283">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="K283">
         <v>3.75</v>
       </c>
       <c r="L283">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="M283">
+        <v>2.9</v>
+      </c>
+      <c r="N283">
+        <v>3.8</v>
+      </c>
+      <c r="O283">
         <v>2.25</v>
       </c>
-      <c r="N283">
-        <v>3.75</v>
-      </c>
-      <c r="O283">
-        <v>2.8</v>
-      </c>
       <c r="P283">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q283">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R283">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S283">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T283">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U283">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V283">
         <v>0</v>
@@ -24841,40 +24841,40 @@
         <v>45416.33333333334</v>
       </c>
       <c r="E284" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F284" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J284">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="K284">
         <v>3.75</v>
       </c>
       <c r="L284">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M284">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N284">
         <v>3.75</v>
       </c>
       <c r="O284">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="P284">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q284">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R284">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S284">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T284">
         <v>1.875</v>
@@ -24906,46 +24906,46 @@
         <v>45416.33333333334</v>
       </c>
       <c r="E285" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F285" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J285">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="K285">
         <v>3.75</v>
       </c>
       <c r="L285">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="M285">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N285">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O285">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="P285">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q285">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R285">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S285">
         <v>3</v>
       </c>
       <c r="T285">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U285">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V285">
         <v>0</v>
@@ -24992,7 +24992,7 @@
         <v>3.75</v>
       </c>
       <c r="O286">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P286">
         <v>-0.5</v>
@@ -25007,10 +25007,10 @@
         <v>3</v>
       </c>
       <c r="T286">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U286">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V286">
         <v>0</v>
@@ -25057,7 +25057,7 @@
         <v>3.75</v>
       </c>
       <c r="O287">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="P287">
         <v>0.5</v>
@@ -25072,10 +25072,10 @@
         <v>3</v>
       </c>
       <c r="T287">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U287">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V287">
         <v>0</v>
@@ -25116,31 +25116,31 @@
         <v>2.4</v>
       </c>
       <c r="M288">
+        <v>2.5</v>
+      </c>
+      <c r="N288">
+        <v>3.75</v>
+      </c>
+      <c r="O288">
         <v>2.6</v>
       </c>
-      <c r="N288">
-        <v>3.6</v>
-      </c>
-      <c r="O288">
-        <v>2.5</v>
-      </c>
       <c r="P288">
         <v>0</v>
       </c>
       <c r="Q288">
+        <v>1.875</v>
+      </c>
+      <c r="R288">
         <v>1.975</v>
-      </c>
-      <c r="R288">
-        <v>1.875</v>
       </c>
       <c r="S288">
         <v>3.25</v>
       </c>
       <c r="T288">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U288">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V288">
         <v>0</v>
@@ -25181,22 +25181,22 @@
         <v>3.4</v>
       </c>
       <c r="M289">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="N289">
         <v>3.75</v>
       </c>
       <c r="O289">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P289">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q289">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R289">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S289">
         <v>3</v>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -97,13 +97,13 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7055070</t>
-  </si>
-  <si>
     <t>7091760</t>
   </si>
   <si>
     <t>7091753</t>
+  </si>
+  <si>
+    <t>7091751</t>
   </si>
   <si>
     <t>7089050</t>
@@ -115,10 +115,13 @@
     <t>7091754</t>
   </si>
   <si>
+    <t>7089049</t>
+  </si>
+  <si>
     <t>7095779</t>
   </si>
   <si>
-    <t>7089049</t>
+    <t>7091752</t>
   </si>
   <si>
     <t>Germany Bundesliga II</t>
@@ -546,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB296"/>
+  <dimension ref="A1:AB297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,16 +646,16 @@
         <v>6846733</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -661,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2">
         <v>2.3</v>
@@ -729,16 +732,16 @@
         <v>6846738</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2">
         <v>45136.33333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -747,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3">
         <v>2.9</v>
@@ -815,16 +818,16 @@
         <v>6846142</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2">
         <v>45136.33333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -833,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4">
         <v>2.65</v>
@@ -901,16 +904,16 @@
         <v>6846174</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
         <v>45136.33333333334</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -919,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5">
         <v>1.95</v>
@@ -987,16 +990,16 @@
         <v>6846737</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2">
         <v>45136.33333333334</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1005,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6">
         <v>2.6</v>
@@ -1073,16 +1076,16 @@
         <v>6878156</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2">
         <v>45136.64583333334</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1091,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7">
         <v>2.35</v>
@@ -1159,16 +1162,16 @@
         <v>6846736</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2">
         <v>45137.35416666666</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1177,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8">
         <v>2.7</v>
@@ -1245,16 +1248,16 @@
         <v>6846735</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2">
         <v>45137.35416666666</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1263,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9">
         <v>2.4</v>
@@ -1331,16 +1334,16 @@
         <v>6846734</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2">
         <v>45137.35416666666</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1349,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J10">
         <v>2.6</v>
@@ -1417,16 +1420,16 @@
         <v>6845859</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2">
         <v>45142.5625</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1435,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <v>1.6</v>
@@ -1503,16 +1506,16 @@
         <v>6846740</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2">
         <v>45142.5625</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1521,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J12">
         <v>1.615</v>
@@ -1589,16 +1592,16 @@
         <v>6846143</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2">
         <v>45143.33333333334</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1607,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1675,16 +1678,16 @@
         <v>6846742</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2">
         <v>45143.33333333334</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1693,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <v>2.375</v>
@@ -1761,16 +1764,16 @@
         <v>6846175</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2">
         <v>45143.33333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1779,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15">
         <v>2.25</v>
@@ -1847,16 +1850,16 @@
         <v>6846739</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2">
         <v>45143.64583333334</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1865,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J16">
         <v>1.666</v>
@@ -1933,16 +1936,16 @@
         <v>6846744</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2">
         <v>45144.35416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1951,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J17">
         <v>2.15</v>
@@ -2019,16 +2022,16 @@
         <v>6846743</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2">
         <v>45144.35416666666</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2037,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J18">
         <v>1.909</v>
@@ -2105,16 +2108,16 @@
         <v>6846741</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2">
         <v>45144.35416666666</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2123,7 +2126,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -2191,16 +2194,16 @@
         <v>6846176</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2">
         <v>45156.5625</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2209,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J20">
         <v>2.1</v>
@@ -2277,16 +2280,16 @@
         <v>6846750</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2">
         <v>45156.5625</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2295,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2363,16 +2366,16 @@
         <v>6846747</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2">
         <v>45157.33333333334</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2381,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J22">
         <v>2.375</v>
@@ -2449,16 +2452,16 @@
         <v>6846745</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2">
         <v>45157.33333333334</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2467,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J23">
         <v>2.1</v>
@@ -2535,16 +2538,16 @@
         <v>6846144</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2">
         <v>45157.33333333334</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2553,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J24">
         <v>2.7</v>
@@ -2621,16 +2624,16 @@
         <v>6845858</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" s="2">
         <v>45157.64583333334</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2639,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J25">
         <v>1.95</v>
@@ -2707,16 +2710,16 @@
         <v>6846749</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2">
         <v>45158.35416666666</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2725,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J26">
         <v>2.45</v>
@@ -2793,16 +2796,16 @@
         <v>6846748</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2">
         <v>45158.35416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2811,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -2879,16 +2882,16 @@
         <v>6846746</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2">
         <v>45158.35416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2897,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J28">
         <v>2.15</v>
@@ -2965,16 +2968,16 @@
         <v>6846751</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2">
         <v>45163.5625</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2983,7 +2986,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J29">
         <v>1.65</v>
@@ -3051,16 +3054,16 @@
         <v>6846752</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2">
         <v>45163.5625</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3069,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J30">
         <v>1.95</v>
@@ -3137,16 +3140,16 @@
         <v>6845857</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2">
         <v>45164.33333333334</v>
       </c>
       <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
         <v>45</v>
-      </c>
-      <c r="F31" t="s">
-        <v>44</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -3155,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3223,16 +3226,16 @@
         <v>6846177</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2">
         <v>45164.33333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3241,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J32">
         <v>2.875</v>
@@ -3309,16 +3312,16 @@
         <v>6846755</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" s="2">
         <v>45164.33333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3327,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J33">
         <v>2.2</v>
@@ -3395,16 +3398,16 @@
         <v>6846754</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" s="2">
         <v>45164.64583333334</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3413,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J34">
         <v>3.25</v>
@@ -3481,16 +3484,16 @@
         <v>6846756</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2">
         <v>45165.35416666666</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3499,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J35">
         <v>2.1</v>
@@ -3567,16 +3570,16 @@
         <v>6846145</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2">
         <v>45165.35416666666</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3585,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J36">
         <v>1.75</v>
@@ -3653,16 +3656,16 @@
         <v>6846753</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2">
         <v>45165.35416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3671,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J37">
         <v>1.75</v>
@@ -3739,16 +3742,16 @@
         <v>6846758</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2">
         <v>45170.5625</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3757,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J38">
         <v>1.95</v>
@@ -3825,16 +3828,16 @@
         <v>6846146</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2">
         <v>45170.5625</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3843,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J39">
         <v>3.6</v>
@@ -3911,16 +3914,16 @@
         <v>6846762</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2">
         <v>45171.33333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3929,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J40">
         <v>3.4</v>
@@ -3997,16 +4000,16 @@
         <v>6845856</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2">
         <v>45171.33333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -4015,7 +4018,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J41">
         <v>2.2</v>
@@ -4083,16 +4086,16 @@
         <v>6846759</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2">
         <v>45171.33333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4101,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J42">
         <v>2.3</v>
@@ -4169,16 +4172,16 @@
         <v>6846760</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2">
         <v>45171.64583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4187,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J43">
         <v>2.05</v>
@@ -4255,16 +4258,16 @@
         <v>6846761</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2">
         <v>45172.35416666666</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4273,7 +4276,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J44">
         <v>1.85</v>
@@ -4341,16 +4344,16 @@
         <v>6846178</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2">
         <v>45172.35416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4359,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J45">
         <v>2.3</v>
@@ -4427,16 +4430,16 @@
         <v>6846757</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2">
         <v>45172.35416666666</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4445,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J46">
         <v>1.5</v>
@@ -4513,16 +4516,16 @@
         <v>6846768</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" s="2">
         <v>45184.5625</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4531,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J47">
         <v>2.6</v>
@@ -4599,16 +4602,16 @@
         <v>6846764</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D48" s="2">
         <v>45184.5625</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4617,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J48">
         <v>1.666</v>
@@ -4685,16 +4688,16 @@
         <v>6846179</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" s="2">
         <v>45185.33333333334</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4703,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -4771,16 +4774,16 @@
         <v>6846767</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D50" s="2">
         <v>45185.33333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4789,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J50">
         <v>3</v>
@@ -4857,16 +4860,16 @@
         <v>6846765</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D51" s="2">
         <v>45185.33333333334</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4875,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -4943,16 +4946,16 @@
         <v>6846763</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2">
         <v>45185.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4961,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J52">
         <v>2.1</v>
@@ -5029,16 +5032,16 @@
         <v>6845855</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D53" s="2">
         <v>45186.35416666666</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5047,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J53">
         <v>1.615</v>
@@ -5115,16 +5118,16 @@
         <v>6846147</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2">
         <v>45186.35416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G54">
         <v>5</v>
@@ -5133,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J54">
         <v>1.7</v>
@@ -5201,16 +5204,16 @@
         <v>6846766</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" s="2">
         <v>45186.35416666666</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G55">
         <v>7</v>
@@ -5219,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5287,16 +5290,16 @@
         <v>6846771</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D56" s="2">
         <v>45191.5625</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5305,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J56">
         <v>2.1</v>
@@ -5373,16 +5376,16 @@
         <v>6846774</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D57" s="2">
         <v>45191.5625</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5391,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J57">
         <v>4.2</v>
@@ -5459,16 +5462,16 @@
         <v>6846180</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D58" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5477,7 +5480,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J58">
         <v>2.4</v>
@@ -5545,16 +5548,16 @@
         <v>6846772</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D59" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -5563,7 +5566,7 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J59">
         <v>2.15</v>
@@ -5631,16 +5634,16 @@
         <v>6846773</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D60" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5649,7 +5652,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5717,16 +5720,16 @@
         <v>6846148</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D61" s="2">
         <v>45192.64583333334</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5735,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J61">
         <v>1.909</v>
@@ -5803,16 +5806,16 @@
         <v>6846769</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2">
         <v>45193.35416666666</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5821,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J62">
         <v>1.85</v>
@@ -5889,16 +5892,16 @@
         <v>6845854</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D63" s="2">
         <v>45193.35416666666</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5907,7 +5910,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J63">
         <v>2.5</v>
@@ -5975,16 +5978,16 @@
         <v>6846770</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D64" s="2">
         <v>45193.35416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5993,7 +5996,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6061,16 +6064,16 @@
         <v>6846776</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D65" s="2">
         <v>45198.5625</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6079,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J65">
         <v>2.4</v>
@@ -6147,16 +6150,16 @@
         <v>6846775</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D66" s="2">
         <v>45198.5625</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6165,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J66">
         <v>1.85</v>
@@ -6233,16 +6236,16 @@
         <v>6846779</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D67" s="2">
         <v>45199.33333333334</v>
       </c>
       <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
         <v>43</v>
-      </c>
-      <c r="F67" t="s">
-        <v>42</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6251,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6319,16 +6322,16 @@
         <v>6846778</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D68" s="2">
         <v>45199.33333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6337,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J68">
         <v>1.7</v>
@@ -6405,16 +6408,16 @@
         <v>6846777</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D69" s="2">
         <v>45199.33333333334</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6423,7 +6426,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J69">
         <v>1.909</v>
@@ -6491,16 +6494,16 @@
         <v>6845853</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D70" s="2">
         <v>45199.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6509,7 +6512,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J70">
         <v>2.55</v>
@@ -6577,16 +6580,16 @@
         <v>6846181</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D71" s="2">
         <v>45200.35416666666</v>
       </c>
       <c r="E71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6595,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J71">
         <v>2.55</v>
@@ -6663,16 +6666,16 @@
         <v>6846781</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D72" s="2">
         <v>45200.35416666666</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6681,7 +6684,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J72">
         <v>2.625</v>
@@ -6749,16 +6752,16 @@
         <v>6846780</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D73" s="2">
         <v>45200.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6767,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J73">
         <v>2.4</v>
@@ -6835,16 +6838,16 @@
         <v>6846783</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74" s="2">
         <v>45205.5625</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6853,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J74">
         <v>2.3</v>
@@ -6921,16 +6924,16 @@
         <v>6846782</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" s="2">
         <v>45205.5625</v>
       </c>
       <c r="E75" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s">
         <v>41</v>
-      </c>
-      <c r="F75" t="s">
-        <v>40</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6939,7 +6942,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J75">
         <v>1.533</v>
@@ -7007,16 +7010,16 @@
         <v>6846787</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D76" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E76" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" t="s">
         <v>37</v>
-      </c>
-      <c r="F76" t="s">
-        <v>36</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7025,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J76">
         <v>5.5</v>
@@ -7093,16 +7096,16 @@
         <v>6846785</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D77" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" t="s">
         <v>44</v>
-      </c>
-      <c r="F77" t="s">
-        <v>43</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7111,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J77">
         <v>1.9</v>
@@ -7179,16 +7182,16 @@
         <v>6846784</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D78" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7197,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J78">
         <v>2.1</v>
@@ -7265,16 +7268,16 @@
         <v>6846149</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D79" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G79">
         <v>5</v>
@@ -7283,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J79">
         <v>1.7</v>
@@ -7351,16 +7354,16 @@
         <v>6846786</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D80" s="2">
         <v>45207.35416666666</v>
       </c>
       <c r="E80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7369,7 +7372,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J80">
         <v>3.1</v>
@@ -7437,16 +7440,16 @@
         <v>6845852</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D81" s="2">
         <v>45207.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7455,7 +7458,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J81">
         <v>2.25</v>
@@ -7523,16 +7526,16 @@
         <v>6846182</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D82" s="2">
         <v>45207.35416666666</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7541,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J82">
         <v>2</v>
@@ -7609,16 +7612,16 @@
         <v>6846791</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D83" s="2">
         <v>45219.5625</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7627,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -7695,16 +7698,16 @@
         <v>6846183</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D84" s="2">
         <v>45219.5625</v>
       </c>
       <c r="E84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7713,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J84">
         <v>1.85</v>
@@ -7781,16 +7784,16 @@
         <v>6846150</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D85" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7799,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J85">
         <v>2.875</v>
@@ -7867,16 +7870,16 @@
         <v>6846788</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D86" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7885,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J86">
         <v>1.666</v>
@@ -7953,16 +7956,16 @@
         <v>6846793</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D87" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -7971,7 +7974,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -8039,16 +8042,16 @@
         <v>6846789</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D88" s="2">
         <v>45220.64583333334</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8057,7 +8060,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J88">
         <v>1.85</v>
@@ -8125,16 +8128,16 @@
         <v>6846792</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D89" s="2">
         <v>45221.35416666666</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8143,7 +8146,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J89">
         <v>2.4</v>
@@ -8211,16 +8214,16 @@
         <v>6846790</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D90" s="2">
         <v>45221.35416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8229,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J90">
         <v>2.2</v>
@@ -8297,16 +8300,16 @@
         <v>6845851</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D91" s="2">
         <v>45221.35416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8315,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J91">
         <v>2.7</v>
@@ -8383,16 +8386,16 @@
         <v>6846798</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D92" s="2">
         <v>45226.5625</v>
       </c>
       <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
         <v>42</v>
-      </c>
-      <c r="F92" t="s">
-        <v>41</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8401,7 +8404,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J92">
         <v>3.2</v>
@@ -8469,16 +8472,16 @@
         <v>6846797</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D93" s="2">
         <v>45226.5625</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8487,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J93">
         <v>1.7</v>
@@ -8555,16 +8558,16 @@
         <v>6846794</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D94" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8573,7 +8576,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -8641,16 +8644,16 @@
         <v>6846151</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D95" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8659,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J95">
         <v>1.7</v>
@@ -8727,16 +8730,16 @@
         <v>6845850</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D96" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8745,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J96">
         <v>2.05</v>
@@ -8813,16 +8816,16 @@
         <v>6846796</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D97" s="2">
         <v>45227.64583333334</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8831,7 +8834,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J97">
         <v>2.8</v>
@@ -8899,16 +8902,16 @@
         <v>6846184</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D98" s="2">
         <v>45228.39583333334</v>
       </c>
       <c r="E98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8917,7 +8920,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8985,16 +8988,16 @@
         <v>6846795</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D99" s="2">
         <v>45228.39583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -9003,7 +9006,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9071,16 +9074,16 @@
         <v>6846799</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D100" s="2">
         <v>45228.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9089,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9157,16 +9160,16 @@
         <v>6846801</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D101" s="2">
         <v>45233.60416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9175,7 +9178,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J101">
         <v>1.55</v>
@@ -9243,16 +9246,16 @@
         <v>6846152</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D102" s="2">
         <v>45233.60416666666</v>
       </c>
       <c r="E102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9261,7 +9264,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J102">
         <v>3.4</v>
@@ -9329,16 +9332,16 @@
         <v>6846806</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D103" s="2">
         <v>45234.375</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9347,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J103">
         <v>2.6</v>
@@ -9415,16 +9418,16 @@
         <v>6846805</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D104" s="2">
         <v>45234.375</v>
       </c>
       <c r="E104" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" t="s">
         <v>51</v>
-      </c>
-      <c r="F104" t="s">
-        <v>50</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9433,7 +9436,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J104">
         <v>2.2</v>
@@ -9501,16 +9504,16 @@
         <v>6846803</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D105" s="2">
         <v>45234.375</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9519,7 +9522,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J105">
         <v>2.2</v>
@@ -9587,16 +9590,16 @@
         <v>6846800</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D106" s="2">
         <v>45234.6875</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9605,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J106">
         <v>1.6</v>
@@ -9673,16 +9676,16 @@
         <v>6846804</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D107" s="2">
         <v>45235.39583333334</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9691,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J107">
         <v>1.6</v>
@@ -9759,16 +9762,16 @@
         <v>6846802</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D108" s="2">
         <v>45235.39583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9777,7 +9780,7 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J108">
         <v>2.1</v>
@@ -9845,16 +9848,16 @@
         <v>6845849</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D109" s="2">
         <v>45235.39583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9863,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J109">
         <v>2.7</v>
@@ -9931,16 +9934,16 @@
         <v>6846153</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D110" s="2">
         <v>45240.60416666666</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9949,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J110">
         <v>1.75</v>
@@ -10017,16 +10020,16 @@
         <v>6846185</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D111" s="2">
         <v>45240.60416666666</v>
       </c>
       <c r="E111" t="s">
+        <v>51</v>
+      </c>
+      <c r="F111" t="s">
         <v>50</v>
-      </c>
-      <c r="F111" t="s">
-        <v>49</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10035,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10103,16 +10106,16 @@
         <v>6846811</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D112" s="2">
         <v>45241.375</v>
       </c>
       <c r="E112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10121,7 +10124,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J112">
         <v>2.2</v>
@@ -10189,16 +10192,16 @@
         <v>6846808</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D113" s="2">
         <v>45241.375</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>4</v>
@@ -10207,7 +10210,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -10275,16 +10278,16 @@
         <v>6846807</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D114" s="2">
         <v>45241.375</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10293,7 +10296,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J114">
         <v>2.05</v>
@@ -10361,16 +10364,16 @@
         <v>6845848</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D115" s="2">
         <v>45241.6875</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10379,7 +10382,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J115">
         <v>2.05</v>
@@ -10447,16 +10450,16 @@
         <v>6846812</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D116" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10465,7 +10468,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J116">
         <v>2.7</v>
@@ -10533,16 +10536,16 @@
         <v>6846809</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D117" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E117" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10551,7 +10554,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J117">
         <v>1.75</v>
@@ -10619,16 +10622,16 @@
         <v>6846810</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D118" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10637,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J118">
         <v>2.5</v>
@@ -10705,16 +10708,16 @@
         <v>6845842</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D119" s="2">
         <v>45254.60416666666</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10723,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J119">
         <v>2.1</v>
@@ -10791,16 +10794,16 @@
         <v>6846813</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D120" s="2">
         <v>45254.60416666666</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10809,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J120">
         <v>1.4</v>
@@ -10877,16 +10880,16 @@
         <v>6846154</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D121" s="2">
         <v>45255.375</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10895,7 +10898,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J121">
         <v>3.6</v>
@@ -10963,16 +10966,16 @@
         <v>6846186</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D122" s="2">
         <v>45255.375</v>
       </c>
       <c r="E122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G122">
         <v>4</v>
@@ -10981,7 +10984,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J122">
         <v>2.1</v>
@@ -11049,16 +11052,16 @@
         <v>6846818</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D123" s="2">
         <v>45255.375</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11067,7 +11070,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J123">
         <v>2.55</v>
@@ -11135,16 +11138,16 @@
         <v>6846814</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D124" s="2">
         <v>45255.6875</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G124">
         <v>5</v>
@@ -11153,7 +11156,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J124">
         <v>1.85</v>
@@ -11221,16 +11224,16 @@
         <v>6846816</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D125" s="2">
         <v>45256.39583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11239,7 +11242,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J125">
         <v>2.1</v>
@@ -11307,16 +11310,16 @@
         <v>6846815</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D126" s="2">
         <v>45256.39583333334</v>
       </c>
       <c r="E126" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F126" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11325,7 +11328,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J126">
         <v>2.05</v>
@@ -11393,16 +11396,16 @@
         <v>6846817</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D127" s="2">
         <v>45256.39583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11411,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J127">
         <v>1.65</v>
@@ -11479,16 +11482,16 @@
         <v>6846155</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D128" s="2">
         <v>45261.60416666666</v>
       </c>
       <c r="E128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11497,7 +11500,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J128">
         <v>2.3</v>
@@ -11565,16 +11568,16 @@
         <v>6846819</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D129" s="2">
         <v>45261.60416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G129">
         <v>4</v>
@@ -11583,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J129">
         <v>1.85</v>
@@ -11651,16 +11654,16 @@
         <v>6846825</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D130" s="2">
         <v>45262.375</v>
       </c>
       <c r="E130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11669,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J130">
         <v>3.25</v>
@@ -11737,16 +11740,16 @@
         <v>6846824</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D131" s="2">
         <v>45262.375</v>
       </c>
       <c r="E131" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11755,7 +11758,7 @@
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J131">
         <v>2.6</v>
@@ -11823,16 +11826,16 @@
         <v>6846822</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D132" s="2">
         <v>45262.375</v>
       </c>
       <c r="E132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G132">
         <v>3</v>
@@ -11841,7 +11844,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J132">
         <v>1.8</v>
@@ -11909,16 +11912,16 @@
         <v>6846823</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D133" s="2">
         <v>45262.6875</v>
       </c>
       <c r="E133" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11927,7 +11930,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J133">
         <v>2.25</v>
@@ -11995,16 +11998,16 @@
         <v>6845841</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D134" s="2">
         <v>45263.39583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G134">
         <v>5</v>
@@ -12013,7 +12016,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J134">
         <v>2.05</v>
@@ -12081,16 +12084,16 @@
         <v>6846820</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D135" s="2">
         <v>45263.39583333334</v>
       </c>
       <c r="E135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12099,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J135">
         <v>2.3</v>
@@ -12167,16 +12170,16 @@
         <v>6846821</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D136" s="2">
         <v>45263.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12185,7 +12188,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J136">
         <v>1.9</v>
@@ -12253,16 +12256,16 @@
         <v>6846828</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D137" s="2">
         <v>45268.60416666666</v>
       </c>
       <c r="E137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12271,7 +12274,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J137">
         <v>2.2</v>
@@ -12339,16 +12342,16 @@
         <v>6846831</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D138" s="2">
         <v>45268.60416666666</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12357,7 +12360,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J138">
         <v>2</v>
@@ -12425,16 +12428,16 @@
         <v>6846829</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D139" s="2">
         <v>45269.375</v>
       </c>
       <c r="E139" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F139" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12443,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J139">
         <v>1.909</v>
@@ -12511,16 +12514,16 @@
         <v>6846826</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D140" s="2">
         <v>45269.375</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12529,7 +12532,7 @@
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J140">
         <v>1.615</v>
@@ -12597,16 +12600,16 @@
         <v>6845840</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D141" s="2">
         <v>45269.375</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12615,7 +12618,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J141">
         <v>2.45</v>
@@ -12683,16 +12686,16 @@
         <v>6846156</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D142" s="2">
         <v>45269.6875</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12701,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J142">
         <v>6</v>
@@ -12769,16 +12772,16 @@
         <v>6846827</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D143" s="2">
         <v>45270.39583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12787,7 +12790,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J143">
         <v>2</v>
@@ -12855,16 +12858,16 @@
         <v>6846187</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D144" s="2">
         <v>45270.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F144" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12873,7 +12876,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J144">
         <v>2.375</v>
@@ -12941,16 +12944,16 @@
         <v>6846830</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D145" s="2">
         <v>45270.39583333334</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F145" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12959,7 +12962,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J145">
         <v>2.8</v>
@@ -13027,16 +13030,16 @@
         <v>6846833</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D146" s="2">
         <v>45275.60416666666</v>
       </c>
       <c r="E146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13045,7 +13048,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J146">
         <v>1.727</v>
@@ -13113,16 +13116,16 @@
         <v>6846832</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D147" s="2">
         <v>45275.60416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13131,7 +13134,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13199,16 +13202,16 @@
         <v>6845839</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D148" s="2">
         <v>45276.375</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13217,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J148">
         <v>1.45</v>
@@ -13285,16 +13288,16 @@
         <v>6846836</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D149" s="2">
         <v>45276.375</v>
       </c>
       <c r="E149" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13303,7 +13306,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J149">
         <v>3</v>
@@ -13371,16 +13374,16 @@
         <v>6846835</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D150" s="2">
         <v>45276.375</v>
       </c>
       <c r="E150" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13389,7 +13392,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J150">
         <v>2.45</v>
@@ -13457,16 +13460,16 @@
         <v>6846834</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D151" s="2">
         <v>45276.6875</v>
       </c>
       <c r="E151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G151">
         <v>3</v>
@@ -13475,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J151">
         <v>2.3</v>
@@ -13543,16 +13546,16 @@
         <v>6846188</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D152" s="2">
         <v>45277.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13561,7 +13564,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J152">
         <v>2.15</v>
@@ -13629,16 +13632,16 @@
         <v>6846837</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D153" s="2">
         <v>45277.39583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13647,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J153">
         <v>2.625</v>
@@ -13715,16 +13718,16 @@
         <v>6846157</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D154" s="2">
         <v>45277.39583333334</v>
       </c>
       <c r="E154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13733,7 +13736,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J154">
         <v>1.363</v>
@@ -13801,16 +13804,16 @@
         <v>7625865</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D155" s="2">
         <v>45310.60416666666</v>
       </c>
       <c r="E155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13819,7 +13822,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J155">
         <v>1.571</v>
@@ -13887,16 +13890,16 @@
         <v>7625888</v>
       </c>
       <c r="C156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D156" s="2">
         <v>45310.60416666666</v>
       </c>
       <c r="E156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13905,7 +13908,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J156">
         <v>1.571</v>
@@ -13973,16 +13976,16 @@
         <v>7625887</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D157" s="2">
         <v>45311.375</v>
       </c>
       <c r="E157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13991,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J157">
         <v>1.5</v>
@@ -14059,16 +14062,16 @@
         <v>7625866</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D158" s="2">
         <v>45311.375</v>
       </c>
       <c r="E158" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14077,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J158">
         <v>1.8</v>
@@ -14145,16 +14148,16 @@
         <v>6846189</v>
       </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D159" s="2">
         <v>45311.375</v>
       </c>
       <c r="E159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14163,7 +14166,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J159">
         <v>2.25</v>
@@ -14231,16 +14234,16 @@
         <v>7625867</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D160" s="2">
         <v>45311.6875</v>
       </c>
       <c r="E160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14249,7 +14252,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J160">
         <v>2.8</v>
@@ -14317,16 +14320,16 @@
         <v>6845838</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D161" s="2">
         <v>45312.39583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14335,7 +14338,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J161">
         <v>2.2</v>
@@ -14403,16 +14406,16 @@
         <v>6846839</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D162" s="2">
         <v>45312.39583333334</v>
       </c>
       <c r="E162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14421,7 +14424,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14489,16 +14492,16 @@
         <v>6846842</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D163" s="2">
         <v>45312.39583333334</v>
       </c>
       <c r="E163" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14507,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J163">
         <v>1.727</v>
@@ -14575,16 +14578,16 @@
         <v>6846846</v>
       </c>
       <c r="C164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D164" s="2">
         <v>45317.60416666666</v>
       </c>
       <c r="E164" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G164">
         <v>3</v>
@@ -14593,7 +14596,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J164">
         <v>1.909</v>
@@ -14661,16 +14664,16 @@
         <v>6846845</v>
       </c>
       <c r="C165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D165" s="2">
         <v>45317.60416666666</v>
       </c>
       <c r="E165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F165" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G165">
         <v>4</v>
@@ -14679,7 +14682,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J165">
         <v>2.4</v>
@@ -14747,16 +14750,16 @@
         <v>6846190</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D166" s="2">
         <v>45318.375</v>
       </c>
       <c r="E166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F166" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14765,7 +14768,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J166">
         <v>2.625</v>
@@ -14833,16 +14836,16 @@
         <v>6845837</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D167" s="2">
         <v>45318.375</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -14851,7 +14854,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J167">
         <v>2.875</v>
@@ -14919,16 +14922,16 @@
         <v>6846849</v>
       </c>
       <c r="C168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D168" s="2">
         <v>45318.375</v>
       </c>
       <c r="E168" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14937,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J168">
         <v>3.5</v>
@@ -15005,16 +15008,16 @@
         <v>6846159</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D169" s="2">
         <v>45318.6875</v>
       </c>
       <c r="E169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15023,7 +15026,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J169">
         <v>3.1</v>
@@ -15091,16 +15094,16 @@
         <v>6846844</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D170" s="2">
         <v>45319.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15109,7 +15112,7 @@
         <v>4</v>
       </c>
       <c r="I170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J170">
         <v>1.6</v>
@@ -15177,16 +15180,16 @@
         <v>6846847</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D171" s="2">
         <v>45319.39583333334</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15195,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J171">
         <v>2.1</v>
@@ -15263,16 +15266,16 @@
         <v>6846848</v>
       </c>
       <c r="C172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D172" s="2">
         <v>45319.39583333334</v>
       </c>
       <c r="E172" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F172" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15281,7 +15284,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J172">
         <v>2.75</v>
@@ -15349,16 +15352,16 @@
         <v>6846851</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D173" s="2">
         <v>45324.60416666666</v>
       </c>
       <c r="E173" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15367,7 +15370,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15435,16 +15438,16 @@
         <v>6846853</v>
       </c>
       <c r="C174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D174" s="2">
         <v>45324.60416666666</v>
       </c>
       <c r="E174" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15453,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J174">
         <v>2.15</v>
@@ -15521,16 +15524,16 @@
         <v>6846855</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D175" s="2">
         <v>45325.375</v>
       </c>
       <c r="E175" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15539,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J175">
         <v>1.727</v>
@@ -15607,16 +15610,16 @@
         <v>6846854</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D176" s="2">
         <v>45325.375</v>
       </c>
       <c r="E176" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -15625,7 +15628,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J176">
         <v>1.75</v>
@@ -15693,16 +15696,16 @@
         <v>6846160</v>
       </c>
       <c r="C177" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D177" s="2">
         <v>45325.375</v>
       </c>
       <c r="E177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G177">
         <v>3</v>
@@ -15711,7 +15714,7 @@
         <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J177">
         <v>1.65</v>
@@ -15779,16 +15782,16 @@
         <v>6845836</v>
       </c>
       <c r="C178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D178" s="2">
         <v>45325.6875</v>
       </c>
       <c r="E178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15797,7 +15800,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J178">
         <v>2.8</v>
@@ -15865,16 +15868,16 @@
         <v>6846852</v>
       </c>
       <c r="C179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D179" s="2">
         <v>45326.39583333334</v>
       </c>
       <c r="E179" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15883,7 +15886,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J179">
         <v>1.6</v>
@@ -15951,16 +15954,16 @@
         <v>6846850</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D180" s="2">
         <v>45326.39583333334</v>
       </c>
       <c r="E180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G180">
         <v>4</v>
@@ -15969,7 +15972,7 @@
         <v>3</v>
       </c>
       <c r="I180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J180">
         <v>2.45</v>
@@ -16037,16 +16040,16 @@
         <v>6846191</v>
       </c>
       <c r="C181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D181" s="2">
         <v>45326.39583333334</v>
       </c>
       <c r="E181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16055,7 +16058,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J181">
         <v>2</v>
@@ -16123,16 +16126,16 @@
         <v>6846861</v>
       </c>
       <c r="C182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D182" s="2">
         <v>45331.60416666666</v>
       </c>
       <c r="E182" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F182" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16141,7 +16144,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J182">
         <v>2.35</v>
@@ -16209,16 +16212,16 @@
         <v>6846856</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D183" s="2">
         <v>45331.60416666666</v>
       </c>
       <c r="E183" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -16227,7 +16230,7 @@
         <v>4</v>
       </c>
       <c r="I183" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J183">
         <v>1.7</v>
@@ -16295,16 +16298,16 @@
         <v>6846192</v>
       </c>
       <c r="C184" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D184" s="2">
         <v>45332.375</v>
       </c>
       <c r="E184" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F184" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16313,7 +16316,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J184">
         <v>1.65</v>
@@ -16381,16 +16384,16 @@
         <v>6846161</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D185" s="2">
         <v>45332.375</v>
       </c>
       <c r="E185" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16399,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J185">
         <v>4</v>
@@ -16467,16 +16470,16 @@
         <v>6846859</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D186" s="2">
         <v>45332.375</v>
       </c>
       <c r="E186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F186" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -16485,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J186">
         <v>2.6</v>
@@ -16553,16 +16556,16 @@
         <v>6846858</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D187" s="2">
         <v>45332.6875</v>
       </c>
       <c r="E187" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16571,7 +16574,7 @@
         <v>2</v>
       </c>
       <c r="I187" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J187">
         <v>2.3</v>
@@ -16639,16 +16642,16 @@
         <v>6845835</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D188" s="2">
         <v>45333.39583333334</v>
       </c>
       <c r="E188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16657,7 +16660,7 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J188">
         <v>2.15</v>
@@ -16725,16 +16728,16 @@
         <v>6846860</v>
       </c>
       <c r="C189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D189" s="2">
         <v>45333.39583333334</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16743,7 +16746,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J189">
         <v>2.4</v>
@@ -16811,16 +16814,16 @@
         <v>6846857</v>
       </c>
       <c r="C190" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D190" s="2">
         <v>45333.39583333334</v>
       </c>
       <c r="E190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F190" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16829,7 +16832,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J190">
         <v>2.15</v>
@@ -16897,16 +16900,16 @@
         <v>6846865</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D191" s="2">
         <v>45338.60416666666</v>
       </c>
       <c r="E191" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -16915,7 +16918,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J191">
         <v>2.15</v>
@@ -16983,16 +16986,16 @@
         <v>6845834</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D192" s="2">
         <v>45338.60416666666</v>
       </c>
       <c r="E192" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F192" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G192">
         <v>3</v>
@@ -17001,7 +17004,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J192">
         <v>2.15</v>
@@ -17069,16 +17072,16 @@
         <v>6846866</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D193" s="2">
         <v>45339.375</v>
       </c>
       <c r="E193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17087,7 +17090,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J193">
         <v>4.5</v>
@@ -17155,16 +17158,16 @@
         <v>6846863</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D194" s="2">
         <v>45339.375</v>
       </c>
       <c r="E194" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -17173,7 +17176,7 @@
         <v>4</v>
       </c>
       <c r="I194" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J194">
         <v>2.15</v>
@@ -17241,16 +17244,16 @@
         <v>6846862</v>
       </c>
       <c r="C195" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D195" s="2">
         <v>45339.375</v>
       </c>
       <c r="E195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17259,7 +17262,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J195">
         <v>1.7</v>
@@ -17327,16 +17330,16 @@
         <v>6846864</v>
       </c>
       <c r="C196" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D196" s="2">
         <v>45339.6875</v>
       </c>
       <c r="E196" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17345,7 +17348,7 @@
         <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J196">
         <v>2.35</v>
@@ -17413,16 +17416,16 @@
         <v>6846867</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D197" s="2">
         <v>45340.39583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17431,7 +17434,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J197">
         <v>2.4</v>
@@ -17499,16 +17502,16 @@
         <v>6846193</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D198" s="2">
         <v>45340.39583333334</v>
       </c>
       <c r="E198" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G198">
         <v>3</v>
@@ -17517,7 +17520,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J198">
         <v>1.65</v>
@@ -17585,16 +17588,16 @@
         <v>6846162</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D199" s="2">
         <v>45340.39583333334</v>
       </c>
       <c r="E199" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17603,7 +17606,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J199">
         <v>1.45</v>
@@ -17671,16 +17674,16 @@
         <v>6846163</v>
       </c>
       <c r="C200" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D200" s="2">
         <v>45345.60416666666</v>
       </c>
       <c r="E200" t="s">
+        <v>49</v>
+      </c>
+      <c r="F200" t="s">
         <v>48</v>
-      </c>
-      <c r="F200" t="s">
-        <v>47</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -17689,7 +17692,7 @@
         <v>4</v>
       </c>
       <c r="I200" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J200">
         <v>3.1</v>
@@ -17757,16 +17760,16 @@
         <v>6846873</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D201" s="2">
         <v>45345.60416666666</v>
       </c>
       <c r="E201" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17775,7 +17778,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J201">
         <v>2.7</v>
@@ -17843,16 +17846,16 @@
         <v>6845833</v>
       </c>
       <c r="C202" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D202" s="2">
         <v>45346.375</v>
       </c>
       <c r="E202" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17861,7 +17864,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J202">
         <v>2.5</v>
@@ -17929,16 +17932,16 @@
         <v>6846869</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D203" s="2">
         <v>45346.375</v>
       </c>
       <c r="E203" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F203" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -17947,7 +17950,7 @@
         <v>4</v>
       </c>
       <c r="I203" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J203">
         <v>2.25</v>
@@ -18015,16 +18018,16 @@
         <v>6846872</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D204" s="2">
         <v>45346.375</v>
       </c>
       <c r="E204" t="s">
+        <v>41</v>
+      </c>
+      <c r="F204" t="s">
         <v>40</v>
-      </c>
-      <c r="F204" t="s">
-        <v>39</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18033,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J204">
         <v>3.6</v>
@@ -18101,16 +18104,16 @@
         <v>6846870</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D205" s="2">
         <v>45346.6875</v>
       </c>
       <c r="E205" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F205" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18119,7 +18122,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J205">
         <v>2.25</v>
@@ -18187,16 +18190,16 @@
         <v>6846871</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D206" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E206" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F206" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18205,7 +18208,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J206">
         <v>1.75</v>
@@ -18273,16 +18276,16 @@
         <v>6846194</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D207" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E207" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18291,7 +18294,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J207">
         <v>1.615</v>
@@ -18359,16 +18362,16 @@
         <v>6846868</v>
       </c>
       <c r="C208" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D208" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -18377,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J208">
         <v>1.5</v>
@@ -18445,16 +18448,16 @@
         <v>6846164</v>
       </c>
       <c r="C209" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D209" s="2">
         <v>45352.60416666666</v>
       </c>
       <c r="E209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G209">
         <v>3</v>
@@ -18463,7 +18466,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J209">
         <v>4.2</v>
@@ -18531,16 +18534,16 @@
         <v>6845832</v>
       </c>
       <c r="C210" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D210" s="2">
         <v>45352.60416666666</v>
       </c>
       <c r="E210" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18549,7 +18552,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J210">
         <v>2.35</v>
@@ -18617,16 +18620,16 @@
         <v>6846878</v>
       </c>
       <c r="C211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D211" s="2">
         <v>45353.375</v>
       </c>
       <c r="E211" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F211" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -18635,7 +18638,7 @@
         <v>3</v>
       </c>
       <c r="I211" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J211">
         <v>3.25</v>
@@ -18703,16 +18706,16 @@
         <v>6846877</v>
       </c>
       <c r="C212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D212" s="2">
         <v>45353.375</v>
       </c>
       <c r="E212" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18721,7 +18724,7 @@
         <v>2</v>
       </c>
       <c r="I212" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J212">
         <v>2.45</v>
@@ -18789,16 +18792,16 @@
         <v>6846879</v>
       </c>
       <c r="C213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D213" s="2">
         <v>45353.375</v>
       </c>
       <c r="E213" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18807,7 +18810,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J213">
         <v>2.35</v>
@@ -18875,16 +18878,16 @@
         <v>6846876</v>
       </c>
       <c r="C214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D214" s="2">
         <v>45353.6875</v>
       </c>
       <c r="E214" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G214">
         <v>4</v>
@@ -18893,7 +18896,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J214">
         <v>2.35</v>
@@ -18961,16 +18964,16 @@
         <v>6846874</v>
       </c>
       <c r="C215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D215" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E215" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -18979,7 +18982,7 @@
         <v>2</v>
       </c>
       <c r="I215" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J215">
         <v>1.4</v>
@@ -19047,16 +19050,16 @@
         <v>6846195</v>
       </c>
       <c r="C216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D216" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E216" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19065,7 +19068,7 @@
         <v>3</v>
       </c>
       <c r="I216" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J216">
         <v>1.8</v>
@@ -19133,16 +19136,16 @@
         <v>6846875</v>
       </c>
       <c r="C217" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D217" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E217" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F217" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -19151,7 +19154,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J217">
         <v>2.1</v>
@@ -19219,16 +19222,16 @@
         <v>6846881</v>
       </c>
       <c r="C218" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D218" s="2">
         <v>45359.60416666666</v>
       </c>
       <c r="E218" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19237,7 +19240,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J218">
         <v>2.45</v>
@@ -19305,16 +19308,16 @@
         <v>6846888</v>
       </c>
       <c r="C219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D219" s="2">
         <v>45359.60416666666</v>
       </c>
       <c r="E219" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F219" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -19323,7 +19326,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J219">
         <v>1.75</v>
@@ -19391,16 +19394,16 @@
         <v>6846882</v>
       </c>
       <c r="C220" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D220" s="2">
         <v>45360.375</v>
       </c>
       <c r="E220" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F220" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -19409,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J220">
         <v>2</v>
@@ -19477,16 +19480,16 @@
         <v>6846880</v>
       </c>
       <c r="C221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D221" s="2">
         <v>45360.375</v>
       </c>
       <c r="E221" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F221" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G221">
         <v>3</v>
@@ -19495,7 +19498,7 @@
         <v>3</v>
       </c>
       <c r="I221" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J221">
         <v>2.05</v>
@@ -19563,16 +19566,16 @@
         <v>6846889</v>
       </c>
       <c r="C222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D222" s="2">
         <v>45360.375</v>
       </c>
       <c r="E222" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F222" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19581,7 +19584,7 @@
         <v>1</v>
       </c>
       <c r="I222" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J222">
         <v>2.8</v>
@@ -19649,16 +19652,16 @@
         <v>6846886</v>
       </c>
       <c r="C223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D223" s="2">
         <v>45360.6875</v>
       </c>
       <c r="E223" t="s">
+        <v>53</v>
+      </c>
+      <c r="F223" t="s">
         <v>52</v>
-      </c>
-      <c r="F223" t="s">
-        <v>51</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -19667,7 +19670,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J223">
         <v>1.666</v>
@@ -19735,16 +19738,16 @@
         <v>6846885</v>
       </c>
       <c r="C224" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D224" s="2">
         <v>45361.39583333334</v>
       </c>
       <c r="E224" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G224">
         <v>3</v>
@@ -19753,7 +19756,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J224">
         <v>1.727</v>
@@ -19821,16 +19824,16 @@
         <v>6845831</v>
       </c>
       <c r="C225" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D225" s="2">
         <v>45361.39583333334</v>
       </c>
       <c r="E225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F225" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19839,7 +19842,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J225">
         <v>1.55</v>
@@ -19907,16 +19910,16 @@
         <v>6846887</v>
       </c>
       <c r="C226" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D226" s="2">
         <v>45361.39583333334</v>
       </c>
       <c r="E226" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F226" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19925,7 +19928,7 @@
         <v>4</v>
       </c>
       <c r="I226" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J226">
         <v>1.909</v>
@@ -19993,16 +19996,16 @@
         <v>6855319</v>
       </c>
       <c r="C227" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D227" s="2">
         <v>45366.60416666666</v>
       </c>
       <c r="E227" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -20011,7 +20014,7 @@
         <v>4</v>
       </c>
       <c r="I227" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J227">
         <v>3.75</v>
@@ -20079,16 +20082,16 @@
         <v>6846890</v>
       </c>
       <c r="C228" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D228" s="2">
         <v>45366.60416666666</v>
       </c>
       <c r="E228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F228" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -20097,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J228">
         <v>1.85</v>
@@ -20165,16 +20168,16 @@
         <v>6846165</v>
       </c>
       <c r="C229" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D229" s="2">
         <v>45367.375</v>
       </c>
       <c r="E229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -20183,7 +20186,7 @@
         <v>2</v>
       </c>
       <c r="I229" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J229">
         <v>4.75</v>
@@ -20251,16 +20254,16 @@
         <v>6846893</v>
       </c>
       <c r="C230" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D230" s="2">
         <v>45367.375</v>
       </c>
       <c r="E230" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20269,7 +20272,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J230">
         <v>3.7</v>
@@ -20337,17 +20340,17 @@
         <v>6852488</v>
       </c>
       <c r="C231" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D231" s="2">
         <v>45367.375</v>
       </c>
       <c r="E231" t="s">
+        <v>50</v>
+      </c>
+      <c r="F231" t="s">
         <v>49</v>
       </c>
-      <c r="F231" t="s">
-        <v>48</v>
-      </c>
       <c r="G231">
         <v>0</v>
       </c>
@@ -20355,7 +20358,7 @@
         <v>2</v>
       </c>
       <c r="I231" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J231">
         <v>2.6</v>
@@ -20423,16 +20426,16 @@
         <v>6846892</v>
       </c>
       <c r="C232" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D232" s="2">
         <v>45367.6875</v>
       </c>
       <c r="E232" t="s">
+        <v>40</v>
+      </c>
+      <c r="F232" t="s">
         <v>39</v>
-      </c>
-      <c r="F232" t="s">
-        <v>38</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -20441,7 +20444,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J232">
         <v>1.95</v>
@@ -20509,16 +20512,16 @@
         <v>6852487</v>
       </c>
       <c r="C233" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D233" s="2">
         <v>45368.39583333334</v>
       </c>
       <c r="E233" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F233" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G233">
         <v>3</v>
@@ -20527,7 +20530,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J233">
         <v>1.55</v>
@@ -20595,16 +20598,16 @@
         <v>6852502</v>
       </c>
       <c r="C234" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D234" s="2">
         <v>45368.39583333334</v>
       </c>
       <c r="E234" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F234" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G234">
         <v>5</v>
@@ -20613,7 +20616,7 @@
         <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J234">
         <v>2.35</v>
@@ -20681,16 +20684,16 @@
         <v>6846891</v>
       </c>
       <c r="C235" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D235" s="2">
         <v>45368.39583333334</v>
       </c>
       <c r="E235" t="s">
+        <v>54</v>
+      </c>
+      <c r="F235" t="s">
         <v>53</v>
-      </c>
-      <c r="F235" t="s">
-        <v>52</v>
       </c>
       <c r="G235">
         <v>7</v>
@@ -20699,7 +20702,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J235">
         <v>2.1</v>
@@ -20767,16 +20770,16 @@
         <v>6846895</v>
       </c>
       <c r="C236" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D236" s="2">
         <v>45381.375</v>
       </c>
       <c r="E236" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F236" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -20785,7 +20788,7 @@
         <v>3</v>
       </c>
       <c r="I236" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J236">
         <v>3</v>
@@ -20853,16 +20856,16 @@
         <v>6915425</v>
       </c>
       <c r="C237" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D237" s="2">
         <v>45381.375</v>
       </c>
       <c r="E237" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F237" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G237">
         <v>5</v>
@@ -20871,7 +20874,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J237">
         <v>2.2</v>
@@ -20939,16 +20942,16 @@
         <v>6878838</v>
       </c>
       <c r="C238" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D238" s="2">
         <v>45381.375</v>
       </c>
       <c r="E238" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -20957,7 +20960,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J238">
         <v>1.571</v>
@@ -21025,16 +21028,16 @@
         <v>6869758</v>
       </c>
       <c r="C239" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D239" s="2">
         <v>45381.6875</v>
       </c>
       <c r="E239" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F239" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G239">
         <v>3</v>
@@ -21043,7 +21046,7 @@
         <v>3</v>
       </c>
       <c r="I239" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J239">
         <v>1.727</v>
@@ -21111,16 +21114,16 @@
         <v>6875646</v>
       </c>
       <c r="C240" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D240" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E240" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F240" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -21129,7 +21132,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J240">
         <v>2.25</v>
@@ -21197,16 +21200,16 @@
         <v>6885137</v>
       </c>
       <c r="C241" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D241" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E241" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -21215,7 +21218,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J241">
         <v>1.95</v>
@@ -21283,16 +21286,16 @@
         <v>6846894</v>
       </c>
       <c r="C242" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D242" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E242" t="s">
+        <v>48</v>
+      </c>
+      <c r="F242" t="s">
         <v>47</v>
-      </c>
-      <c r="F242" t="s">
-        <v>46</v>
       </c>
       <c r="G242">
         <v>2</v>
@@ -21301,7 +21304,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J242">
         <v>1.571</v>
@@ -21369,16 +21372,16 @@
         <v>6846896</v>
       </c>
       <c r="C243" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D243" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E243" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F243" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -21387,7 +21390,7 @@
         <v>3</v>
       </c>
       <c r="I243" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J243">
         <v>2.375</v>
@@ -21455,16 +21458,16 @@
         <v>6846897</v>
       </c>
       <c r="C244" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D244" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E244" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F244" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21473,7 +21476,7 @@
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J244">
         <v>3</v>
@@ -21541,16 +21544,16 @@
         <v>6921568</v>
       </c>
       <c r="C245" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D245" s="2">
         <v>45387.5625</v>
       </c>
       <c r="E245" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F245" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G245">
         <v>3</v>
@@ -21559,7 +21562,7 @@
         <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J245">
         <v>2.55</v>
@@ -21627,16 +21630,16 @@
         <v>6925419</v>
       </c>
       <c r="C246" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D246" s="2">
         <v>45387.5625</v>
       </c>
       <c r="E246" t="s">
+        <v>47</v>
+      </c>
+      <c r="F246" t="s">
         <v>46</v>
-      </c>
-      <c r="F246" t="s">
-        <v>45</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -21645,7 +21648,7 @@
         <v>3</v>
       </c>
       <c r="I246" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J246">
         <v>2.2</v>
@@ -21713,16 +21716,16 @@
         <v>6921566</v>
       </c>
       <c r="C247" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D247" s="2">
         <v>45388.33333333334</v>
       </c>
       <c r="E247" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F247" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21731,7 +21734,7 @@
         <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J247">
         <v>1.615</v>
@@ -21799,16 +21802,16 @@
         <v>6846898</v>
       </c>
       <c r="C248" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D248" s="2">
         <v>45388.33333333334</v>
       </c>
       <c r="E248" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F248" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -21817,7 +21820,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J248">
         <v>2.4</v>
@@ -21885,16 +21888,16 @@
         <v>6912174</v>
       </c>
       <c r="C249" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D249" s="2">
         <v>45388.33333333334</v>
       </c>
       <c r="E249" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F249" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -21903,7 +21906,7 @@
         <v>4</v>
       </c>
       <c r="I249" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J249">
         <v>3.1</v>
@@ -21971,16 +21974,16 @@
         <v>6865693</v>
       </c>
       <c r="C250" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D250" s="2">
         <v>45388.64583333334</v>
       </c>
       <c r="E250" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F250" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -21989,7 +21992,7 @@
         <v>1</v>
       </c>
       <c r="I250" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J250">
         <v>3</v>
@@ -22057,16 +22060,16 @@
         <v>6931135</v>
       </c>
       <c r="C251" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D251" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E251" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F251" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -22075,7 +22078,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J251">
         <v>1.615</v>
@@ -22143,16 +22146,16 @@
         <v>6861718</v>
       </c>
       <c r="C252" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D252" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E252" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F252" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -22161,7 +22164,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J252">
         <v>3</v>
@@ -22229,16 +22232,16 @@
         <v>6921567</v>
       </c>
       <c r="C253" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D253" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E253" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F253" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -22247,7 +22250,7 @@
         <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J253">
         <v>1.909</v>
@@ -22315,16 +22318,16 @@
         <v>6956521</v>
       </c>
       <c r="C254" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D254" s="2">
         <v>45394.5625</v>
       </c>
       <c r="E254" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F254" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G254">
         <v>2</v>
@@ -22333,7 +22336,7 @@
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J254">
         <v>2.2</v>
@@ -22401,16 +22404,16 @@
         <v>6953230</v>
       </c>
       <c r="C255" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D255" s="2">
         <v>45394.5625</v>
       </c>
       <c r="E255" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F255" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G255">
         <v>4</v>
@@ -22419,7 +22422,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J255">
         <v>1.666</v>
@@ -22487,16 +22490,16 @@
         <v>6956520</v>
       </c>
       <c r="C256" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D256" s="2">
         <v>45395.33333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F256" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G256">
         <v>4</v>
@@ -22505,7 +22508,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J256">
         <v>1.45</v>
@@ -22573,16 +22576,16 @@
         <v>6956660</v>
       </c>
       <c r="C257" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D257" s="2">
         <v>45395.33333333334</v>
       </c>
       <c r="E257" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F257" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -22591,7 +22594,7 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J257">
         <v>2.3</v>
@@ -22659,16 +22662,16 @@
         <v>6953231</v>
       </c>
       <c r="C258" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D258" s="2">
         <v>45395.33333333334</v>
       </c>
       <c r="E258" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F258" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -22677,7 +22680,7 @@
         <v>2</v>
       </c>
       <c r="I258" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J258">
         <v>3.8</v>
@@ -22745,16 +22748,16 @@
         <v>6921569</v>
       </c>
       <c r="C259" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D259" s="2">
         <v>45395.64583333334</v>
       </c>
       <c r="E259" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F259" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -22763,7 +22766,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J259">
         <v>1.7</v>
@@ -22831,16 +22834,16 @@
         <v>6852489</v>
       </c>
       <c r="C260" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D260" s="2">
         <v>45396.35416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G260">
         <v>2</v>
@@ -22849,7 +22852,7 @@
         <v>2</v>
       </c>
       <c r="I260" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J260">
         <v>3.3</v>
@@ -22917,16 +22920,16 @@
         <v>6956522</v>
       </c>
       <c r="C261" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D261" s="2">
         <v>45396.35416666666</v>
       </c>
       <c r="E261" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F261" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -22935,7 +22938,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J261">
         <v>2.875</v>
@@ -23003,16 +23006,16 @@
         <v>6956519</v>
       </c>
       <c r="C262" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D262" s="2">
         <v>45396.35416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F262" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G262">
         <v>3</v>
@@ -23021,7 +23024,7 @@
         <v>4</v>
       </c>
       <c r="I262" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J262">
         <v>1.45</v>
@@ -23089,16 +23092,16 @@
         <v>6998200</v>
       </c>
       <c r="C263" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D263" s="2">
         <v>45401.5625</v>
       </c>
       <c r="E263" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -23107,7 +23110,7 @@
         <v>2</v>
       </c>
       <c r="I263" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J263">
         <v>3.1</v>
@@ -23175,16 +23178,16 @@
         <v>8100923</v>
       </c>
       <c r="C264" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D264" s="2">
         <v>45401.5625</v>
       </c>
       <c r="E264" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F264" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -23193,7 +23196,7 @@
         <v>1</v>
       </c>
       <c r="I264" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J264">
         <v>2.5</v>
@@ -23261,16 +23264,16 @@
         <v>6994449</v>
       </c>
       <c r="C265" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D265" s="2">
         <v>45402.33333333334</v>
       </c>
       <c r="E265" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F265" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23279,7 +23282,7 @@
         <v>3</v>
       </c>
       <c r="I265" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J265">
         <v>2.875</v>
@@ -23347,16 +23350,16 @@
         <v>6994928</v>
       </c>
       <c r="C266" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D266" s="2">
         <v>45402.33333333334</v>
       </c>
       <c r="E266" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F266" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -23365,7 +23368,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J266">
         <v>1.55</v>
@@ -23433,16 +23436,16 @@
         <v>6994451</v>
       </c>
       <c r="C267" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D267" s="2">
         <v>45402.33333333334</v>
       </c>
       <c r="E267" t="s">
+        <v>39</v>
+      </c>
+      <c r="F267" t="s">
         <v>38</v>
-      </c>
-      <c r="F267" t="s">
-        <v>37</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -23451,7 +23454,7 @@
         <v>1</v>
       </c>
       <c r="I267" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J267">
         <v>1.8</v>
@@ -23519,16 +23522,16 @@
         <v>6990386</v>
       </c>
       <c r="C268" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D268" s="2">
         <v>45402.64583333334</v>
       </c>
       <c r="E268" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F268" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -23537,7 +23540,7 @@
         <v>1</v>
       </c>
       <c r="I268" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J268">
         <v>2</v>
@@ -23605,16 +23608,16 @@
         <v>6994452</v>
       </c>
       <c r="C269" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D269" s="2">
         <v>45403.35416666666</v>
       </c>
       <c r="E269" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F269" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -23623,7 +23626,7 @@
         <v>2</v>
       </c>
       <c r="I269" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J269">
         <v>2.7</v>
@@ -23691,16 +23694,16 @@
         <v>6994448</v>
       </c>
       <c r="C270" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D270" s="2">
         <v>45403.35416666666</v>
       </c>
       <c r="E270" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F270" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23709,7 +23712,7 @@
         <v>2</v>
       </c>
       <c r="I270" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J270">
         <v>2.9</v>
@@ -23777,16 +23780,16 @@
         <v>6994447</v>
       </c>
       <c r="C271" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D271" s="2">
         <v>45403.35416666666</v>
       </c>
       <c r="E271" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F271" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G271">
         <v>3</v>
@@ -23795,7 +23798,7 @@
         <v>2</v>
       </c>
       <c r="I271" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J271">
         <v>2</v>
@@ -23863,16 +23866,16 @@
         <v>7021853</v>
       </c>
       <c r="C272" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D272" s="2">
         <v>45408.5625</v>
       </c>
       <c r="E272" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F272" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -23881,7 +23884,7 @@
         <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J272">
         <v>2.3</v>
@@ -23949,16 +23952,16 @@
         <v>7023403</v>
       </c>
       <c r="C273" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D273" s="2">
         <v>45408.5625</v>
       </c>
       <c r="E273" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F273" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -23967,7 +23970,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J273">
         <v>1.363</v>
@@ -24035,16 +24038,16 @@
         <v>7021854</v>
       </c>
       <c r="C274" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D274" s="2">
         <v>45409.33333333334</v>
       </c>
       <c r="E274" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F274" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G274">
         <v>3</v>
@@ -24053,7 +24056,7 @@
         <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J274">
         <v>1.8</v>
@@ -24121,16 +24124,16 @@
         <v>7023404</v>
       </c>
       <c r="C275" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D275" s="2">
         <v>45409.33333333334</v>
       </c>
       <c r="E275" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F275" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -24139,7 +24142,7 @@
         <v>3</v>
       </c>
       <c r="I275" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J275">
         <v>1.75</v>
@@ -24207,16 +24210,16 @@
         <v>7027648</v>
       </c>
       <c r="C276" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D276" s="2">
         <v>45409.33333333334</v>
       </c>
       <c r="E276" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F276" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -24225,7 +24228,7 @@
         <v>4</v>
       </c>
       <c r="I276" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J276">
         <v>3.1</v>
@@ -24293,16 +24296,16 @@
         <v>7023402</v>
       </c>
       <c r="C277" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D277" s="2">
         <v>45409.64583333334</v>
       </c>
       <c r="E277" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -24311,7 +24314,7 @@
         <v>1</v>
       </c>
       <c r="I277" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J277">
         <v>2.55</v>
@@ -24379,16 +24382,16 @@
         <v>7021855</v>
       </c>
       <c r="C278" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D278" s="2">
         <v>45410.35416666666</v>
       </c>
       <c r="E278" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F278" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G278">
         <v>3</v>
@@ -24397,7 +24400,7 @@
         <v>5</v>
       </c>
       <c r="I278" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J278">
         <v>2.5</v>
@@ -24465,16 +24468,16 @@
         <v>7021859</v>
       </c>
       <c r="C279" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D279" s="2">
         <v>45410.35416666666</v>
       </c>
       <c r="E279" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F279" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -24483,7 +24486,7 @@
         <v>1</v>
       </c>
       <c r="I279" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J279">
         <v>1.65</v>
@@ -24551,16 +24554,16 @@
         <v>7027647</v>
       </c>
       <c r="C280" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D280" s="2">
         <v>45410.35416666666</v>
       </c>
       <c r="E280" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F280" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -24569,7 +24572,7 @@
         <v>1</v>
       </c>
       <c r="I280" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J280">
         <v>3.3</v>
@@ -24637,16 +24640,16 @@
         <v>7059358</v>
       </c>
       <c r="C281" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D281" s="2">
         <v>45415.5625</v>
       </c>
       <c r="E281" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F281" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G281">
         <v>3</v>
@@ -24655,7 +24658,7 @@
         <v>1</v>
       </c>
       <c r="I281" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J281">
         <v>1.444</v>
@@ -24723,16 +24726,16 @@
         <v>7060567</v>
       </c>
       <c r="C282" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D282" s="2">
         <v>45415.5625</v>
       </c>
       <c r="E282" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F282" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -24741,7 +24744,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J282">
         <v>2.5</v>
@@ -24809,16 +24812,16 @@
         <v>7055068</v>
       </c>
       <c r="C283" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D283" s="2">
         <v>45416.33333333334</v>
       </c>
       <c r="E283" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F283" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G283">
         <v>3</v>
@@ -24827,7 +24830,7 @@
         <v>3</v>
       </c>
       <c r="I283" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J283">
         <v>2.4</v>
@@ -24895,16 +24898,16 @@
         <v>7055069</v>
       </c>
       <c r="C284" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D284" s="2">
         <v>45416.33333333334</v>
       </c>
       <c r="E284" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F284" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -24913,7 +24916,7 @@
         <v>2</v>
       </c>
       <c r="I284" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J284">
         <v>2.9</v>
@@ -24981,16 +24984,16 @@
         <v>7066113</v>
       </c>
       <c r="C285" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D285" s="2">
         <v>45416.64583333334</v>
       </c>
       <c r="E285" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F285" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G285">
         <v>4</v>
@@ -24999,7 +25002,7 @@
         <v>1</v>
       </c>
       <c r="I285" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J285">
         <v>2</v>
@@ -25067,16 +25070,16 @@
         <v>7060568</v>
       </c>
       <c r="C286" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D286" s="2">
         <v>45417.35416666666</v>
       </c>
       <c r="E286" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F286" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -25085,7 +25088,7 @@
         <v>1</v>
       </c>
       <c r="I286" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J286">
         <v>3.2</v>
@@ -25153,16 +25156,16 @@
         <v>7059359</v>
       </c>
       <c r="C287" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D287" s="2">
         <v>45417.35416666666</v>
       </c>
       <c r="E287" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F287" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G287">
         <v>4</v>
@@ -25171,7 +25174,7 @@
         <v>2</v>
       </c>
       <c r="I287" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J287">
         <v>2.7</v>
@@ -25239,16 +25242,16 @@
         <v>7055067</v>
       </c>
       <c r="C288" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D288" s="2">
         <v>45417.35416666666</v>
       </c>
       <c r="E288" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F288" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G288">
         <v>3</v>
@@ -25257,7 +25260,7 @@
         <v>2</v>
       </c>
       <c r="I288" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J288">
         <v>2</v>
@@ -25325,37 +25328,37 @@
         <v>27</v>
       </c>
       <c r="C289" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D289" s="2">
-        <v>45419.5625</v>
+        <v>45422.5625</v>
       </c>
       <c r="E289" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F289" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J289">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="K289">
+        <v>3.4</v>
+      </c>
+      <c r="L289">
         <v>3.75</v>
       </c>
-      <c r="L289">
-        <v>2.05</v>
-      </c>
       <c r="M289">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="N289">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O289">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="P289">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q289">
         <v>2.025</v>
@@ -25364,13 +25367,13 @@
         <v>1.825</v>
       </c>
       <c r="S289">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T289">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U289">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V289">
         <v>0</v>
@@ -25390,52 +25393,52 @@
         <v>28</v>
       </c>
       <c r="C290" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D290" s="2">
         <v>45422.5625</v>
       </c>
       <c r="E290" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F290" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J290">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K290">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L290">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="M290">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N290">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O290">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="P290">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q290">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R290">
+        <v>1.9</v>
+      </c>
+      <c r="S290">
+        <v>3.5</v>
+      </c>
+      <c r="T290">
         <v>1.85</v>
       </c>
-      <c r="S290">
-        <v>3.25</v>
-      </c>
-      <c r="T290">
-        <v>2</v>
-      </c>
       <c r="U290">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V290">
         <v>0</v>
@@ -25455,52 +25458,52 @@
         <v>29</v>
       </c>
       <c r="C291" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D291" s="2">
-        <v>45422.5625</v>
+        <v>45423.33333333334</v>
       </c>
       <c r="E291" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F291" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J291">
-        <v>3.5</v>
+        <v>1.833</v>
       </c>
       <c r="K291">
         <v>4</v>
       </c>
       <c r="L291">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="M291">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="N291">
         <v>4</v>
       </c>
       <c r="O291">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="P291">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q291">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R291">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S291">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T291">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U291">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V291">
         <v>0</v>
@@ -25520,16 +25523,16 @@
         <v>30</v>
       </c>
       <c r="C292" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D292" s="2">
         <v>45423.33333333334</v>
       </c>
       <c r="E292" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F292" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J292">
         <v>2.5</v>
@@ -25553,19 +25556,19 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R292">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S292">
         <v>3.25</v>
       </c>
       <c r="T292">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U292">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V292">
         <v>0</v>
@@ -25585,16 +25588,16 @@
         <v>31</v>
       </c>
       <c r="C293" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D293" s="2">
         <v>45423.33333333334</v>
       </c>
       <c r="E293" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F293" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J293">
         <v>2.5</v>
@@ -25606,7 +25609,7 @@
         <v>2.6</v>
       </c>
       <c r="M293">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N293">
         <v>3.6</v>
@@ -25618,19 +25621,19 @@
         <v>0</v>
       </c>
       <c r="Q293">
+        <v>1.95</v>
+      </c>
+      <c r="R293">
         <v>1.9</v>
       </c>
-      <c r="R293">
-        <v>1.95</v>
-      </c>
       <c r="S293">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T293">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U293">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V293">
         <v>0</v>
@@ -25650,16 +25653,16 @@
         <v>32</v>
       </c>
       <c r="C294" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D294" s="2">
         <v>45423.64583333334</v>
       </c>
       <c r="E294" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F294" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J294">
         <v>2.375</v>
@@ -25692,10 +25695,10 @@
         <v>3.25</v>
       </c>
       <c r="T294">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U294">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V294">
         <v>0</v>
@@ -25715,52 +25718,52 @@
         <v>33</v>
       </c>
       <c r="C295" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D295" s="2">
         <v>45424.35416666666</v>
       </c>
       <c r="E295" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F295" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J295">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K295">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L295">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M295">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N295">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O295">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P295">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q295">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R295">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S295">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T295">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U295">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V295">
         <v>0</v>
@@ -25780,53 +25783,53 @@
         <v>34</v>
       </c>
       <c r="C296" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D296" s="2">
         <v>45424.35416666666</v>
       </c>
       <c r="E296" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F296" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J296">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K296">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L296">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M296">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N296">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O296">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P296">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q296">
+        <v>2</v>
+      </c>
+      <c r="R296">
+        <v>1.85</v>
+      </c>
+      <c r="S296">
+        <v>2.75</v>
+      </c>
+      <c r="T296">
         <v>1.925</v>
       </c>
-      <c r="R296">
+      <c r="U296">
         <v>1.925</v>
       </c>
-      <c r="S296">
-        <v>3</v>
-      </c>
-      <c r="T296">
-        <v>1.8</v>
-      </c>
-      <c r="U296">
-        <v>2.05</v>
-      </c>
       <c r="V296">
         <v>0</v>
       </c>
@@ -25834,6 +25837,71 @@
         <v>0</v>
       </c>
       <c r="X296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:24">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>35</v>
+      </c>
+      <c r="C297" t="s">
+        <v>36</v>
+      </c>
+      <c r="D297" s="2">
+        <v>45424.35416666666</v>
+      </c>
+      <c r="E297" t="s">
+        <v>48</v>
+      </c>
+      <c r="F297" t="s">
+        <v>41</v>
+      </c>
+      <c r="J297">
+        <v>1.166</v>
+      </c>
+      <c r="K297">
+        <v>7.5</v>
+      </c>
+      <c r="L297">
+        <v>15</v>
+      </c>
+      <c r="M297">
+        <v>1.166</v>
+      </c>
+      <c r="N297">
+        <v>7</v>
+      </c>
+      <c r="O297">
+        <v>17</v>
+      </c>
+      <c r="P297">
+        <v>-2</v>
+      </c>
+      <c r="Q297">
+        <v>1.9</v>
+      </c>
+      <c r="R297">
+        <v>1.95</v>
+      </c>
+      <c r="S297">
+        <v>3.25</v>
+      </c>
+      <c r="T297">
+        <v>1.875</v>
+      </c>
+      <c r="U297">
+        <v>1.975</v>
+      </c>
+      <c r="V297">
+        <v>0</v>
+      </c>
+      <c r="W297">
+        <v>0</v>
+      </c>
+      <c r="X297">
         <v>0</v>
       </c>
     </row>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -97,10 +97,13 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7132157</t>
+  </si>
+  <si>
     <t>7129467</t>
   </si>
   <si>
-    <t>7132157</t>
+    <t>7124348</t>
   </si>
   <si>
     <t>7128042</t>
@@ -110,9 +113,6 @@
   </si>
   <si>
     <t>7124349</t>
-  </si>
-  <si>
-    <t>7124348</t>
   </si>
   <si>
     <t>7123345</t>
@@ -145,10 +145,10 @@
     <t>Fortuna Dusseldorf</t>
   </si>
   <si>
-    <t>Greuther Furth</t>
+    <t>Eintracht Braunschweig</t>
   </si>
   <si>
-    <t>Eintracht Braunschweig</t>
+    <t>Greuther Furth</t>
   </si>
   <si>
     <t>Hansa Rostock</t>
@@ -160,13 +160,13 @@
     <t>Hertha Berlin</t>
   </si>
   <si>
-    <t>Elversberg</t>
+    <t>St Pauli</t>
   </si>
   <si>
     <t>Holstein Kiel</t>
   </si>
   <si>
-    <t>St Pauli</t>
+    <t>Elversberg</t>
   </si>
   <si>
     <t>Schalke</t>
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6846734</v>
+        <v>6846736</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1171,43 +1171,43 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J8">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K8">
         <v>3.4</v>
       </c>
       <c r="L8">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M8">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N8">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O8">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q8">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R8">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
         <v>3</v>
@@ -1219,25 +1219,25 @@
         <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6846736</v>
+        <v>6846734</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -1257,43 +1257,43 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J9">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="K9">
         <v>3.4</v>
       </c>
       <c r="L9">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M9">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="N9">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O9">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P9">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S9">
         <v>3</v>
@@ -1305,25 +1305,25 @@
         <v>1.8</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1589,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6846175</v>
+        <v>6846143</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -1601,73 +1601,73 @@
         <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="K13">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L13">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N13">
         <v>3.6</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
         <v>-0.5</v>
       </c>
       <c r="Q13">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T13">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V13">
         <v>-1</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X13">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA13">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1687,7 +1687,7 @@
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6846143</v>
+        <v>6846175</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -1773,73 +1773,73 @@
         <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="N15">
         <v>3.6</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
         <v>-0.5</v>
       </c>
       <c r="Q15">
+        <v>2.05</v>
+      </c>
+      <c r="R15">
+        <v>1.8</v>
+      </c>
+      <c r="S15">
+        <v>2.75</v>
+      </c>
+      <c r="T15">
         <v>1.95</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>1.9</v>
       </c>
-      <c r="S15">
-        <v>2.5</v>
-      </c>
-      <c r="T15">
-        <v>1.825</v>
-      </c>
-      <c r="U15">
-        <v>2.025</v>
-      </c>
       <c r="V15">
         <v>-1</v>
       </c>
       <c r="W15">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB15">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2117,7 +2117,7 @@
         <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2191,7 +2191,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6846176</v>
+        <v>6846750</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -2200,58 +2200,58 @@
         <v>45156.5625</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>55</v>
       </c>
       <c r="J20">
+        <v>3.5</v>
+      </c>
+      <c r="K20">
+        <v>3.4</v>
+      </c>
+      <c r="L20">
+        <v>1.95</v>
+      </c>
+      <c r="M20">
+        <v>2.8</v>
+      </c>
+      <c r="N20">
+        <v>3.4</v>
+      </c>
+      <c r="O20">
+        <v>2.4</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>2.1</v>
       </c>
-      <c r="K20">
-        <v>3.5</v>
-      </c>
-      <c r="L20">
-        <v>3.1</v>
-      </c>
-      <c r="M20">
-        <v>2.2</v>
-      </c>
-      <c r="N20">
-        <v>3.6</v>
-      </c>
-      <c r="O20">
-        <v>3.2</v>
-      </c>
-      <c r="P20">
-        <v>-0.25</v>
-      </c>
-      <c r="Q20">
-        <v>1.925</v>
-      </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S20">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T20">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2260,16 +2260,16 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2277,7 +2277,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6846750</v>
+        <v>6846176</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -2286,58 +2286,58 @@
         <v>45156.5625</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
         <v>55</v>
       </c>
       <c r="J21">
+        <v>2.1</v>
+      </c>
+      <c r="K21">
         <v>3.5</v>
       </c>
-      <c r="K21">
-        <v>3.4</v>
-      </c>
       <c r="L21">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O21">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q21">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T21">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2346,16 +2346,16 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2544,10 +2544,10 @@
         <v>45157.33333333334</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>45158.35416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
         <v>51</v>
@@ -3137,7 +3137,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6846177</v>
+        <v>6845857</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
@@ -3146,40 +3146,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J31">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="K31">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L31">
+        <v>3.4</v>
+      </c>
+      <c r="M31">
         <v>2.3</v>
       </c>
-      <c r="M31">
-        <v>2.7</v>
-      </c>
       <c r="N31">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O31">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q31">
         <v>2.05</v>
@@ -3188,31 +3188,31 @@
         <v>1.8</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T31">
+        <v>1.95</v>
+      </c>
+      <c r="U31">
         <v>1.9</v>
       </c>
-      <c r="U31">
-        <v>1.95</v>
-      </c>
       <c r="V31">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB31">
         <v>-1</v>
@@ -3223,7 +3223,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6846755</v>
+        <v>6846177</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
@@ -3232,73 +3232,73 @@
         <v>45164.33333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J32">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="K32">
         <v>3.5</v>
       </c>
       <c r="L32">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M32">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="N32">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="P32">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T32">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB32">
         <v>-1</v>
@@ -3309,7 +3309,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6845857</v>
+        <v>6846755</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -3318,58 +3318,58 @@
         <v>45164.33333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
         <v>55</v>
       </c>
       <c r="J33">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M33">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N33">
         <v>3.4</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
         <v>-0.25</v>
       </c>
       <c r="Q33">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T33">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3378,13 +3378,13 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
         <v>-1</v>
@@ -3579,7 +3579,7 @@
         <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3662,7 +3662,7 @@
         <v>45165.35416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
         <v>54</v>
@@ -3834,10 +3834,10 @@
         <v>45170.5625</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4255,7 +4255,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6846757</v>
+        <v>6846761</v>
       </c>
       <c r="C44" t="s">
         <v>36</v>
@@ -4264,76 +4264,76 @@
         <v>45172.35416666666</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J44">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="K44">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L44">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="N44">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O44">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q44">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T44">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4341,7 +4341,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6846761</v>
+        <v>6846757</v>
       </c>
       <c r="C45" t="s">
         <v>36</v>
@@ -4350,76 +4350,76 @@
         <v>45172.35416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J45">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M45">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N45">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P45">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T45">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4439,7 +4439,7 @@
         <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4525,7 +4525,7 @@
         <v>53</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4780,7 +4780,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F50" t="s">
         <v>37</v>
@@ -5029,7 +5029,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6846766</v>
+        <v>6846147</v>
       </c>
       <c r="C53" t="s">
         <v>36</v>
@@ -5038,58 +5038,58 @@
         <v>45186.35416666666</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="s">
         <v>55</v>
       </c>
       <c r="J53">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M53">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N53">
         <v>4</v>
       </c>
       <c r="O53">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P53">
         <v>-0.5</v>
       </c>
       <c r="Q53">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R53">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
         <v>3</v>
       </c>
       <c r="T53">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V53">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5098,13 +5098,13 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB53">
         <v>-1</v>
@@ -5127,7 +5127,7 @@
         <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -5201,7 +5201,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6846147</v>
+        <v>6846766</v>
       </c>
       <c r="C55" t="s">
         <v>36</v>
@@ -5210,58 +5210,58 @@
         <v>45186.35416666666</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
         <v>55</v>
       </c>
       <c r="J55">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K55">
+        <v>3.75</v>
+      </c>
+      <c r="L55">
         <v>4</v>
       </c>
-      <c r="L55">
-        <v>4.333</v>
-      </c>
       <c r="M55">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N55">
         <v>4</v>
       </c>
       <c r="O55">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
         <v>-0.5</v>
       </c>
       <c r="Q55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S55">
         <v>3</v>
       </c>
       <c r="T55">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5270,13 +5270,13 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB55">
         <v>-1</v>
@@ -5468,7 +5468,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
         <v>53</v>
@@ -5554,7 +5554,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
         <v>52</v>
@@ -5643,7 +5643,7 @@
         <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>45192.64583333334</v>
       </c>
       <c r="E61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
         <v>51</v>
@@ -6331,7 +6331,7 @@
         <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6503,7 +6503,7 @@
         <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6663,7 +6663,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6846181</v>
+        <v>6846781</v>
       </c>
       <c r="C72" t="s">
         <v>36</v>
@@ -6672,76 +6672,76 @@
         <v>45200.35416666666</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="s">
         <v>56</v>
       </c>
       <c r="J72">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="K72">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L72">
         <v>2.5</v>
       </c>
       <c r="M72">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="N72">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O72">
+        <v>2.625</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1.9</v>
+      </c>
+      <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
         <v>2.75</v>
       </c>
-      <c r="P72">
-        <v>-0.25</v>
-      </c>
-      <c r="Q72">
-        <v>2.05</v>
-      </c>
-      <c r="R72">
-        <v>1.75</v>
-      </c>
-      <c r="S72">
-        <v>3</v>
-      </c>
       <c r="T72">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
         <v>-1</v>
       </c>
       <c r="W72">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z72">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -6749,7 +6749,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6846781</v>
+        <v>6846181</v>
       </c>
       <c r="C73" t="s">
         <v>36</v>
@@ -6758,76 +6758,76 @@
         <v>45200.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="s">
         <v>56</v>
       </c>
       <c r="J73">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="K73">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L73">
         <v>2.5</v>
       </c>
       <c r="M73">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N73">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O73">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q73">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S73">
+        <v>3</v>
+      </c>
+      <c r="T73">
+        <v>2.025</v>
+      </c>
+      <c r="U73">
+        <v>1.825</v>
+      </c>
+      <c r="V73">
+        <v>-1</v>
+      </c>
+      <c r="W73">
         <v>2.75</v>
       </c>
-      <c r="T73">
-        <v>1.9</v>
-      </c>
-      <c r="U73">
-        <v>1.95</v>
-      </c>
-      <c r="V73">
-        <v>-1</v>
-      </c>
-      <c r="W73">
-        <v>2.6</v>
-      </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -7188,7 +7188,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
         <v>45</v>
@@ -7274,7 +7274,7 @@
         <v>45206.64583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s">
         <v>53</v>
@@ -7351,7 +7351,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6846182</v>
+        <v>6846786</v>
       </c>
       <c r="C80" t="s">
         <v>36</v>
@@ -7360,76 +7360,76 @@
         <v>45207.35416666666</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="K80">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="M80">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="N80">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O80">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="P80">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q80">
+        <v>2.05</v>
+      </c>
+      <c r="R80">
+        <v>1.75</v>
+      </c>
+      <c r="S80">
+        <v>3</v>
+      </c>
+      <c r="T80">
+        <v>2.025</v>
+      </c>
+      <c r="U80">
         <v>1.825</v>
       </c>
-      <c r="R80">
-        <v>2.025</v>
-      </c>
-      <c r="S80">
-        <v>3.25</v>
-      </c>
-      <c r="T80">
-        <v>2</v>
-      </c>
-      <c r="U80">
-        <v>1.85</v>
-      </c>
       <c r="V80">
         <v>-1</v>
       </c>
       <c r="W80">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.5125</v>
+        <v>0.75</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7437,7 +7437,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6846786</v>
+        <v>6846182</v>
       </c>
       <c r="C81" t="s">
         <v>36</v>
@@ -7446,76 +7446,76 @@
         <v>45207.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J81">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="K81">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L81">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
+        <v>2.1</v>
+      </c>
+      <c r="N81">
+        <v>3.8</v>
+      </c>
+      <c r="O81">
+        <v>3.2</v>
+      </c>
+      <c r="P81">
+        <v>-0.25</v>
+      </c>
+      <c r="Q81">
+        <v>1.825</v>
+      </c>
+      <c r="R81">
+        <v>2.025</v>
+      </c>
+      <c r="S81">
+        <v>3.25</v>
+      </c>
+      <c r="T81">
+        <v>2</v>
+      </c>
+      <c r="U81">
+        <v>1.85</v>
+      </c>
+      <c r="V81">
+        <v>-1</v>
+      </c>
+      <c r="W81">
         <v>2.8</v>
       </c>
-      <c r="N81">
-        <v>3.6</v>
-      </c>
-      <c r="O81">
-        <v>2.375</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>2.05</v>
-      </c>
-      <c r="R81">
-        <v>1.75</v>
-      </c>
-      <c r="S81">
-        <v>3</v>
-      </c>
-      <c r="T81">
-        <v>2.025</v>
-      </c>
-      <c r="U81">
-        <v>1.825</v>
-      </c>
-      <c r="V81">
-        <v>-1</v>
-      </c>
-      <c r="W81">
-        <v>-1</v>
-      </c>
       <c r="X81">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z81">
-        <v>0.75</v>
+        <v>0.5125</v>
       </c>
       <c r="AA81">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7609,7 +7609,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6846791</v>
+        <v>6846183</v>
       </c>
       <c r="C83" t="s">
         <v>36</v>
@@ -7618,58 +7618,58 @@
         <v>45219.5625</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F83" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
         <v>55</v>
       </c>
       <c r="J83">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="K83">
         <v>3.8</v>
       </c>
       <c r="L83">
+        <v>3.8</v>
+      </c>
+      <c r="M83">
+        <v>1.727</v>
+      </c>
+      <c r="N83">
+        <v>4.2</v>
+      </c>
+      <c r="O83">
+        <v>4.2</v>
+      </c>
+      <c r="P83">
+        <v>-0.75</v>
+      </c>
+      <c r="Q83">
+        <v>1.975</v>
+      </c>
+      <c r="R83">
+        <v>1.875</v>
+      </c>
+      <c r="S83">
         <v>3.25</v>
       </c>
-      <c r="M83">
-        <v>2.15</v>
-      </c>
-      <c r="N83">
-        <v>3.75</v>
-      </c>
-      <c r="O83">
-        <v>3.1</v>
-      </c>
-      <c r="P83">
-        <v>-0.25</v>
-      </c>
-      <c r="Q83">
-        <v>1.9</v>
-      </c>
-      <c r="R83">
-        <v>1.95</v>
-      </c>
-      <c r="S83">
-        <v>3</v>
-      </c>
       <c r="T83">
+        <v>2.05</v>
+      </c>
+      <c r="U83">
         <v>1.8</v>
       </c>
-      <c r="U83">
-        <v>2.05</v>
-      </c>
       <c r="V83">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7678,16 +7678,16 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7695,7 +7695,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6846183</v>
+        <v>6846791</v>
       </c>
       <c r="C84" t="s">
         <v>36</v>
@@ -7704,58 +7704,58 @@
         <v>45219.5625</v>
       </c>
       <c r="E84" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="s">
         <v>55</v>
       </c>
       <c r="J84">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="K84">
         <v>3.8</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M84">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N84">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P84">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T84">
+        <v>1.8</v>
+      </c>
+      <c r="U84">
         <v>2.05</v>
       </c>
-      <c r="U84">
-        <v>1.8</v>
-      </c>
       <c r="V84">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7764,16 +7764,16 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB84">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7867,7 +7867,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6846150</v>
+        <v>6846788</v>
       </c>
       <c r="C86" t="s">
         <v>36</v>
@@ -7876,76 +7876,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G86">
         <v>2</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J86">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="K86">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L86">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="M86">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="N86">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O86">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="P86">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q86">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R86">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S86">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W86">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7953,7 +7953,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6846788</v>
+        <v>6846150</v>
       </c>
       <c r="C87" t="s">
         <v>36</v>
@@ -7962,76 +7962,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G87">
         <v>2</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J87">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="K87">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L87">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="M87">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="N87">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O87">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="P87">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q87">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R87">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S87">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T87">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8392,7 +8392,7 @@
         <v>45226.5625</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
         <v>42</v>
@@ -8478,7 +8478,7 @@
         <v>45226.5625</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
         <v>41</v>
@@ -8555,7 +8555,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6845850</v>
+        <v>6846151</v>
       </c>
       <c r="C94" t="s">
         <v>36</v>
@@ -8564,13 +8564,13 @@
         <v>45227.33333333334</v>
       </c>
       <c r="E94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8579,25 +8579,25 @@
         <v>55</v>
       </c>
       <c r="J94">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="K94">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M94">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="N94">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O94">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P94">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q94">
         <v>1.925</v>
@@ -8606,16 +8606,16 @@
         <v>1.925</v>
       </c>
       <c r="S94">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T94">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8624,16 +8624,16 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8641,7 +8641,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6846151</v>
+        <v>6845850</v>
       </c>
       <c r="C95" t="s">
         <v>36</v>
@@ -8650,13 +8650,13 @@
         <v>45227.33333333334</v>
       </c>
       <c r="E95" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F95" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8665,25 +8665,25 @@
         <v>55</v>
       </c>
       <c r="J95">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="K95">
+        <v>3.6</v>
+      </c>
+      <c r="L95">
+        <v>3.25</v>
+      </c>
+      <c r="M95">
+        <v>2.2</v>
+      </c>
+      <c r="N95">
         <v>3.8</v>
       </c>
-      <c r="L95">
-        <v>4.5</v>
-      </c>
-      <c r="M95">
-        <v>1.571</v>
-      </c>
-      <c r="N95">
-        <v>4.333</v>
-      </c>
       <c r="O95">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P95">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q95">
         <v>1.925</v>
@@ -8692,16 +8692,16 @@
         <v>1.925</v>
       </c>
       <c r="S95">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T95">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8710,16 +8710,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -9083,7 +9083,7 @@
         <v>54</v>
       </c>
       <c r="F100" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9252,10 +9252,10 @@
         <v>45233.60416666666</v>
       </c>
       <c r="E102" t="s">
+        <v>50</v>
+      </c>
+      <c r="F102" t="s">
         <v>48</v>
-      </c>
-      <c r="F102" t="s">
-        <v>50</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9513,7 +9513,7 @@
         <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9943,7 +9943,7 @@
         <v>51</v>
       </c>
       <c r="F110" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -10026,7 +10026,7 @@
         <v>45240.60416666666</v>
       </c>
       <c r="E111" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F111" t="s">
         <v>40</v>
@@ -10112,7 +10112,7 @@
         <v>45241.375</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F112" t="s">
         <v>41</v>
@@ -10542,7 +10542,7 @@
         <v>45242.39583333334</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
         <v>42</v>
@@ -10717,7 +10717,7 @@
         <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10889,7 +10889,7 @@
         <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -11058,7 +11058,7 @@
         <v>45255.375</v>
       </c>
       <c r="E123" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F123" t="s">
         <v>46</v>
@@ -11230,7 +11230,7 @@
         <v>45256.39583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F125" t="s">
         <v>38</v>
@@ -11574,7 +11574,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F129" t="s">
         <v>37</v>
@@ -11746,10 +11746,10 @@
         <v>45262.375</v>
       </c>
       <c r="E131" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" t="s">
         <v>44</v>
-      </c>
-      <c r="F131" t="s">
-        <v>43</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -12007,7 +12007,7 @@
         <v>47</v>
       </c>
       <c r="F134" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G134">
         <v>5</v>
@@ -12351,7 +12351,7 @@
         <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12425,7 +12425,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6846829</v>
+        <v>6846826</v>
       </c>
       <c r="C139" t="s">
         <v>36</v>
@@ -12434,49 +12434,49 @@
         <v>45269.375</v>
       </c>
       <c r="E139" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F139" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G139">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J139">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="K139">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L139">
+        <v>4.5</v>
+      </c>
+      <c r="M139">
+        <v>1.65</v>
+      </c>
+      <c r="N139">
+        <v>4.5</v>
+      </c>
+      <c r="O139">
+        <v>4.333</v>
+      </c>
+      <c r="P139">
+        <v>-1</v>
+      </c>
+      <c r="Q139">
+        <v>2.05</v>
+      </c>
+      <c r="R139">
+        <v>1.8</v>
+      </c>
+      <c r="S139">
         <v>3.5</v>
-      </c>
-      <c r="M139">
-        <v>1.95</v>
-      </c>
-      <c r="N139">
-        <v>3.6</v>
-      </c>
-      <c r="O139">
-        <v>3.75</v>
-      </c>
-      <c r="P139">
-        <v>-0.5</v>
-      </c>
-      <c r="Q139">
-        <v>2</v>
-      </c>
-      <c r="R139">
-        <v>1.85</v>
-      </c>
-      <c r="S139">
-        <v>2.75</v>
       </c>
       <c r="T139">
         <v>1.925</v>
@@ -12488,16 +12488,16 @@
         <v>-1</v>
       </c>
       <c r="W139">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA139">
         <v>-1</v>
@@ -12597,7 +12597,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6846826</v>
+        <v>6846829</v>
       </c>
       <c r="C141" t="s">
         <v>36</v>
@@ -12606,49 +12606,49 @@
         <v>45269.375</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G141">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J141">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="K141">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L141">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="N141">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q141">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T141">
         <v>1.925</v>
@@ -12660,16 +12660,16 @@
         <v>-1</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X141">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA141">
         <v>-1</v>
@@ -12695,7 +12695,7 @@
         <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12778,7 +12778,7 @@
         <v>45270.39583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
         <v>53</v>
@@ -13027,7 +13027,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6846833</v>
+        <v>6846832</v>
       </c>
       <c r="C146" t="s">
         <v>36</v>
@@ -13036,76 +13036,76 @@
         <v>45275.60416666666</v>
       </c>
       <c r="E146" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J146">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="K146">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M146">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="N146">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O146">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P146">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q146">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R146">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T146">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V146">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA146">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13113,7 +13113,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6846832</v>
+        <v>6846833</v>
       </c>
       <c r="C147" t="s">
         <v>36</v>
@@ -13122,76 +13122,76 @@
         <v>45275.60416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J147">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K147">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L147">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M147">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N147">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O147">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P147">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q147">
+        <v>1.925</v>
+      </c>
+      <c r="R147">
+        <v>1.925</v>
+      </c>
+      <c r="S147">
+        <v>3</v>
+      </c>
+      <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
         <v>1.85</v>
       </c>
-      <c r="R147">
-        <v>2</v>
-      </c>
-      <c r="S147">
-        <v>2.75</v>
-      </c>
-      <c r="T147">
-        <v>1.975</v>
-      </c>
-      <c r="U147">
-        <v>1.875</v>
-      </c>
       <c r="V147">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W147">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z147">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13543,7 +13543,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6846157</v>
+        <v>6846837</v>
       </c>
       <c r="C152" t="s">
         <v>36</v>
@@ -13552,76 +13552,76 @@
         <v>45277.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J152">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="K152">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L152">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="M152">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="N152">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="O152">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="P152">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q152">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U152">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W152">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13641,7 +13641,7 @@
         <v>52</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13715,7 +13715,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6846837</v>
+        <v>6846157</v>
       </c>
       <c r="C154" t="s">
         <v>36</v>
@@ -13724,76 +13724,76 @@
         <v>45277.39583333334</v>
       </c>
       <c r="E154" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J154">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="K154">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L154">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="M154">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="N154">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="O154">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="P154">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q154">
+        <v>2</v>
+      </c>
+      <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
+        <v>3</v>
+      </c>
+      <c r="T154">
+        <v>1.825</v>
+      </c>
+      <c r="U154">
         <v>2.025</v>
       </c>
-      <c r="R154">
-        <v>1.825</v>
-      </c>
-      <c r="S154">
-        <v>2.5</v>
-      </c>
-      <c r="T154">
-        <v>1.925</v>
-      </c>
-      <c r="U154">
-        <v>1.925</v>
-      </c>
       <c r="V154">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
         <v>1.025</v>
-      </c>
-      <c r="Z154">
-        <v>-1</v>
-      </c>
-      <c r="AA154">
-        <v>0.925</v>
-      </c>
-      <c r="AB154">
-        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13813,7 +13813,7 @@
         <v>49</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13973,7 +13973,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6846189</v>
+        <v>7625866</v>
       </c>
       <c r="C157" t="s">
         <v>36</v>
@@ -13982,76 +13982,76 @@
         <v>45311.375</v>
       </c>
       <c r="E157" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J157">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K157">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L157">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N157">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P157">
         <v>-0.5</v>
       </c>
       <c r="Q157">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
         <v>2.75</v>
       </c>
       <c r="T157">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U157">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W157">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14068,7 +14068,7 @@
         <v>45311.375</v>
       </c>
       <c r="E158" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F158" t="s">
         <v>39</v>
@@ -14145,7 +14145,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7625866</v>
+        <v>6846189</v>
       </c>
       <c r="C159" t="s">
         <v>36</v>
@@ -14154,76 +14154,76 @@
         <v>45311.375</v>
       </c>
       <c r="E159" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F159" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G159">
+        <v>2</v>
+      </c>
+      <c r="H159">
+        <v>2</v>
+      </c>
+      <c r="I159" t="s">
+        <v>56</v>
+      </c>
+      <c r="J159">
+        <v>2.25</v>
+      </c>
+      <c r="K159">
+        <v>3.6</v>
+      </c>
+      <c r="L159">
         <v>3</v>
       </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-      <c r="I159" t="s">
-        <v>55</v>
-      </c>
-      <c r="J159">
-        <v>1.8</v>
-      </c>
-      <c r="K159">
-        <v>3.75</v>
-      </c>
-      <c r="L159">
-        <v>4.333</v>
-      </c>
       <c r="M159">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N159">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P159">
         <v>-0.5</v>
       </c>
       <c r="Q159">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R159">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S159">
         <v>2.75</v>
       </c>
       <c r="T159">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA159">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14317,7 +14317,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6846839</v>
+        <v>6845838</v>
       </c>
       <c r="C161" t="s">
         <v>36</v>
@@ -14326,40 +14326,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J161">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K161">
         <v>3.6</v>
       </c>
       <c r="L161">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M161">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="N161">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O161">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="P161">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q161">
         <v>2.05</v>
@@ -14371,31 +14371,31 @@
         <v>3</v>
       </c>
       <c r="T161">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
         <v>-1</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X161">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z161">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14403,7 +14403,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6845838</v>
+        <v>6846839</v>
       </c>
       <c r="C162" t="s">
         <v>36</v>
@@ -14412,40 +14412,40 @@
         <v>45312.39583333334</v>
       </c>
       <c r="E162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J162">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K162">
         <v>3.6</v>
       </c>
       <c r="L162">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M162">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N162">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O162">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="P162">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q162">
         <v>2.05</v>
@@ -14457,31 +14457,31 @@
         <v>3</v>
       </c>
       <c r="T162">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U162">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
         <v>-1</v>
       </c>
       <c r="W162">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA162">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14845,7 +14845,7 @@
         <v>45</v>
       </c>
       <c r="F167" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -15017,7 +15017,7 @@
         <v>42</v>
       </c>
       <c r="F169" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15186,7 +15186,7 @@
         <v>45319.39583333334</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
         <v>54</v>
@@ -15272,7 +15272,7 @@
         <v>45319.39583333334</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F172" t="s">
         <v>49</v>
@@ -15533,7 +15533,7 @@
         <v>51</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15702,10 +15702,10 @@
         <v>45325.375</v>
       </c>
       <c r="E177" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G177">
         <v>3</v>
@@ -15865,7 +15865,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6846191</v>
+        <v>6846850</v>
       </c>
       <c r="C179" t="s">
         <v>36</v>
@@ -15874,58 +15874,58 @@
         <v>45326.39583333334</v>
       </c>
       <c r="E179" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I179" t="s">
         <v>55</v>
       </c>
       <c r="J179">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="K179">
         <v>3.75</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="M179">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="N179">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O179">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="P179">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q179">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
         <v>2.75</v>
       </c>
       <c r="T179">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="W179">
         <v>-1</v>
@@ -15934,16 +15934,16 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15951,7 +15951,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6846850</v>
+        <v>6846191</v>
       </c>
       <c r="C180" t="s">
         <v>36</v>
@@ -15960,58 +15960,58 @@
         <v>45326.39583333334</v>
       </c>
       <c r="E180" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F180" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I180" t="s">
         <v>55</v>
       </c>
       <c r="J180">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="K180">
         <v>3.75</v>
       </c>
       <c r="L180">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="M180">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="N180">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O180">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="P180">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q180">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R180">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
         <v>2.75</v>
       </c>
       <c r="T180">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V180">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="W180">
         <v>-1</v>
@@ -16020,16 +16020,16 @@
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16123,7 +16123,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6846861</v>
+        <v>6846856</v>
       </c>
       <c r="C182" t="s">
         <v>36</v>
@@ -16132,76 +16132,76 @@
         <v>45331.60416666666</v>
       </c>
       <c r="E182" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F182" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I182" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J182">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="K182">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L182">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="M182">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="N182">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="O182">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P182">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q182">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R182">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S182">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T182">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U182">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
         <v>-1</v>
       </c>
       <c r="W182">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16209,7 +16209,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6846856</v>
+        <v>6846861</v>
       </c>
       <c r="C183" t="s">
         <v>36</v>
@@ -16218,76 +16218,76 @@
         <v>45331.60416666666</v>
       </c>
       <c r="E183" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J183">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="K183">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L183">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="M183">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="N183">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="O183">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P183">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q183">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R183">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S183">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T183">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U183">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V183">
         <v>-1</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X183">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA183">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16295,7 +16295,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6846161</v>
+        <v>6846859</v>
       </c>
       <c r="C184" t="s">
         <v>36</v>
@@ -16304,13 +16304,13 @@
         <v>45332.375</v>
       </c>
       <c r="E184" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F184" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16319,43 +16319,43 @@
         <v>55</v>
       </c>
       <c r="J184">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="K184">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L184">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="M184">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N184">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O184">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="P184">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q184">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R184">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S184">
         <v>2.75</v>
       </c>
       <c r="T184">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V184">
-        <v>3.2</v>
+        <v>1.375</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16364,7 +16364,7 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="Z184">
         <v>-1</v>
@@ -16373,7 +16373,7 @@
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -16381,7 +16381,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6846859</v>
+        <v>6846192</v>
       </c>
       <c r="C185" t="s">
         <v>36</v>
@@ -16390,46 +16390,46 @@
         <v>45332.375</v>
       </c>
       <c r="E185" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F185" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J185">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="K185">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L185">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="M185">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="N185">
         <v>3.8</v>
       </c>
       <c r="O185">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="P185">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q185">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S185">
         <v>2.75</v>
@@ -16441,19 +16441,19 @@
         <v>2.05</v>
       </c>
       <c r="V185">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA185">
         <v>-1</v>
@@ -16467,7 +16467,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6846192</v>
+        <v>6846161</v>
       </c>
       <c r="C186" t="s">
         <v>36</v>
@@ -16476,7 +16476,7 @@
         <v>45332.375</v>
       </c>
       <c r="E186" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F186" t="s">
         <v>48</v>
@@ -16485,67 +16485,67 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J186">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="K186">
+        <v>3.75</v>
+      </c>
+      <c r="L186">
+        <v>1.833</v>
+      </c>
+      <c r="M186">
         <v>4.2</v>
       </c>
-      <c r="L186">
-        <v>4.5</v>
-      </c>
-      <c r="M186">
-        <v>1.85</v>
-      </c>
       <c r="N186">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O186">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="P186">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q186">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R186">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S186">
         <v>2.75</v>
       </c>
       <c r="T186">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U186">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V186">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="W186">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z186">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16734,7 +16734,7 @@
         <v>45333.39583333334</v>
       </c>
       <c r="E189" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F189" t="s">
         <v>47</v>
@@ -16995,7 +16995,7 @@
         <v>40</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -17069,7 +17069,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6846863</v>
+        <v>6846862</v>
       </c>
       <c r="C193" t="s">
         <v>36</v>
@@ -17078,76 +17078,76 @@
         <v>45339.375</v>
       </c>
       <c r="E193" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F193" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193" t="s">
+        <v>55</v>
+      </c>
+      <c r="J193">
+        <v>1.7</v>
+      </c>
+      <c r="K193">
         <v>4</v>
       </c>
-      <c r="I193" t="s">
-        <v>57</v>
-      </c>
-      <c r="J193">
-        <v>2.15</v>
-      </c>
-      <c r="K193">
-        <v>3.75</v>
-      </c>
       <c r="L193">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M193">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="N193">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O193">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="P193">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q193">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R193">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S193">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T193">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U193">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z193">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA193">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:28">
@@ -17155,7 +17155,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6846866</v>
+        <v>6846863</v>
       </c>
       <c r="C194" t="s">
         <v>36</v>
@@ -17164,73 +17164,73 @@
         <v>45339.375</v>
       </c>
       <c r="E194" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I194" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J194">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="K194">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L194">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="M194">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N194">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O194">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="P194">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q194">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S194">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T194">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U194">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V194">
         <v>-1</v>
       </c>
       <c r="W194">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y194">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA194">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB194">
         <v>-1</v>
@@ -17241,7 +17241,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6846862</v>
+        <v>6846866</v>
       </c>
       <c r="C195" t="s">
         <v>36</v>
@@ -17250,76 +17250,76 @@
         <v>45339.375</v>
       </c>
       <c r="E195" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G195">
+        <v>2</v>
+      </c>
+      <c r="H195">
+        <v>2</v>
+      </c>
+      <c r="I195" t="s">
+        <v>56</v>
+      </c>
+      <c r="J195">
+        <v>4.5</v>
+      </c>
+      <c r="K195">
+        <v>4.2</v>
+      </c>
+      <c r="L195">
+        <v>1.65</v>
+      </c>
+      <c r="M195">
+        <v>4.75</v>
+      </c>
+      <c r="N195">
+        <v>4.5</v>
+      </c>
+      <c r="O195">
+        <v>1.615</v>
+      </c>
+      <c r="P195">
         <v>1</v>
       </c>
-      <c r="H195">
-        <v>0</v>
-      </c>
-      <c r="I195" t="s">
-        <v>55</v>
-      </c>
-      <c r="J195">
-        <v>1.7</v>
-      </c>
-      <c r="K195">
-        <v>4</v>
-      </c>
-      <c r="L195">
-        <v>4.5</v>
-      </c>
-      <c r="M195">
-        <v>1.7</v>
-      </c>
-      <c r="N195">
-        <v>4</v>
-      </c>
-      <c r="O195">
-        <v>4.5</v>
-      </c>
-      <c r="P195">
-        <v>-0.75</v>
-      </c>
       <c r="Q195">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R195">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S195">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T195">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U195">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V195">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB195">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17413,7 +17413,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6846162</v>
+        <v>6846867</v>
       </c>
       <c r="C197" t="s">
         <v>36</v>
@@ -17422,43 +17422,43 @@
         <v>45340.39583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F197" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G197">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J197">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="K197">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L197">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="M197">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="N197">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O197">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="P197">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q197">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R197">
         <v>2.05</v>
@@ -17467,31 +17467,31 @@
         <v>2.75</v>
       </c>
       <c r="T197">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V197">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
+        <v>0.375</v>
+      </c>
+      <c r="Z197">
         <v>-0.5</v>
       </c>
-      <c r="Z197">
-        <v>0.5249999999999999</v>
-      </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -17499,7 +17499,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6846193</v>
+        <v>6846162</v>
       </c>
       <c r="C198" t="s">
         <v>36</v>
@@ -17511,73 +17511,73 @@
         <v>48</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="s">
         <v>55</v>
       </c>
       <c r="J198">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="K198">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L198">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M198">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="N198">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="O198">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P198">
+        <v>-1.25</v>
+      </c>
+      <c r="Q198">
+        <v>1.8</v>
+      </c>
+      <c r="R198">
+        <v>2.05</v>
+      </c>
+      <c r="S198">
+        <v>2.75</v>
+      </c>
+      <c r="T198">
+        <v>1.825</v>
+      </c>
+      <c r="U198">
+        <v>2.025</v>
+      </c>
+      <c r="V198">
+        <v>0.363</v>
+      </c>
+      <c r="W198">
+        <v>-1</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
         <v>-0.5</v>
       </c>
-      <c r="Q198">
-        <v>1.975</v>
-      </c>
-      <c r="R198">
-        <v>1.875</v>
-      </c>
-      <c r="S198">
-        <v>3</v>
-      </c>
-      <c r="T198">
-        <v>1.925</v>
-      </c>
-      <c r="U198">
-        <v>1.925</v>
-      </c>
-      <c r="V198">
-        <v>0.95</v>
-      </c>
-      <c r="W198">
-        <v>-1</v>
-      </c>
-      <c r="X198">
-        <v>-1</v>
-      </c>
-      <c r="Y198">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA198">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -17585,7 +17585,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6846867</v>
+        <v>6846193</v>
       </c>
       <c r="C199" t="s">
         <v>36</v>
@@ -17594,76 +17594,76 @@
         <v>45340.39583333334</v>
       </c>
       <c r="E199" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H199">
         <v>1</v>
       </c>
       <c r="I199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J199">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="K199">
+        <v>4.2</v>
+      </c>
+      <c r="L199">
+        <v>4.5</v>
+      </c>
+      <c r="M199">
+        <v>1.95</v>
+      </c>
+      <c r="N199">
+        <v>3.8</v>
+      </c>
+      <c r="O199">
         <v>3.6</v>
       </c>
-      <c r="L199">
-        <v>2.7</v>
-      </c>
-      <c r="M199">
-        <v>2.75</v>
-      </c>
-      <c r="N199">
-        <v>3.5</v>
-      </c>
-      <c r="O199">
-        <v>2.45</v>
-      </c>
       <c r="P199">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q199">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R199">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T199">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U199">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W199">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB199">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -17671,7 +17671,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6846163</v>
+        <v>6846873</v>
       </c>
       <c r="C200" t="s">
         <v>36</v>
@@ -17680,55 +17680,55 @@
         <v>45345.60416666666</v>
       </c>
       <c r="E200" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F200" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I200" t="s">
         <v>57</v>
       </c>
       <c r="J200">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="K200">
         <v>3.6</v>
       </c>
       <c r="L200">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="M200">
         <v>2.8</v>
       </c>
       <c r="N200">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O200">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P200">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q200">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S200">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T200">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V200">
         <v>-1</v>
@@ -17737,19 +17737,19 @@
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA200">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17757,7 +17757,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6846873</v>
+        <v>6846163</v>
       </c>
       <c r="C201" t="s">
         <v>36</v>
@@ -17766,55 +17766,55 @@
         <v>45345.60416666666</v>
       </c>
       <c r="E201" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F201" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I201" t="s">
         <v>57</v>
       </c>
       <c r="J201">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="K201">
         <v>3.6</v>
       </c>
       <c r="L201">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="M201">
         <v>2.8</v>
       </c>
       <c r="N201">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O201">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P201">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q201">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="R201">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T201">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U201">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
         <v>-1</v>
@@ -17823,19 +17823,19 @@
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA201">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB201">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -18024,7 +18024,7 @@
         <v>45346.375</v>
       </c>
       <c r="E204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F204" t="s">
         <v>47</v>
@@ -18199,7 +18199,7 @@
         <v>37</v>
       </c>
       <c r="F206" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18282,7 +18282,7 @@
         <v>45347.39583333334</v>
       </c>
       <c r="E207" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F207" t="s">
         <v>53</v>
@@ -18457,7 +18457,7 @@
         <v>51</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G209">
         <v>3</v>
@@ -18629,7 +18629,7 @@
         <v>53</v>
       </c>
       <c r="F211" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -18887,7 +18887,7 @@
         <v>52</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G214">
         <v>4</v>
@@ -18961,7 +18961,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6846195</v>
+        <v>6846874</v>
       </c>
       <c r="C215" t="s">
         <v>36</v>
@@ -18970,55 +18970,55 @@
         <v>45354.39583333334</v>
       </c>
       <c r="E215" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="s">
         <v>57</v>
       </c>
       <c r="J215">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="K215">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L215">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M215">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="N215">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P215">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R215">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S215">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T215">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
         <v>-1</v>
@@ -19027,19 +19027,19 @@
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19047,7 +19047,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6846874</v>
+        <v>6846195</v>
       </c>
       <c r="C216" t="s">
         <v>36</v>
@@ -19056,55 +19056,55 @@
         <v>45354.39583333334</v>
       </c>
       <c r="E216" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F216" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I216" t="s">
         <v>57</v>
       </c>
       <c r="J216">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K216">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L216">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="M216">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="N216">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O216">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P216">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q216">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R216">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S216">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T216">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U216">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V216">
         <v>-1</v>
@@ -19113,19 +19113,19 @@
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB216">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19314,7 +19314,7 @@
         <v>45359.60416666666</v>
       </c>
       <c r="E219" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F219" t="s">
         <v>45</v>
@@ -19744,10 +19744,10 @@
         <v>45361.39583333334</v>
       </c>
       <c r="E224" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F224" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19830,7 +19830,7 @@
         <v>45361.39583333334</v>
       </c>
       <c r="E225" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F225" t="s">
         <v>47</v>
@@ -20005,7 +20005,7 @@
         <v>46</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -20174,7 +20174,7 @@
         <v>45367.375</v>
       </c>
       <c r="E229" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F229" t="s">
         <v>49</v>
@@ -20263,7 +20263,7 @@
         <v>45</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         <v>53</v>
       </c>
       <c r="F231" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20776,10 +20776,10 @@
         <v>45381.375</v>
       </c>
       <c r="E236" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F236" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G236">
         <v>5</v>
@@ -21120,7 +21120,7 @@
         <v>45382.35416666666</v>
       </c>
       <c r="E240" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F240" t="s">
         <v>46</v>
@@ -21292,7 +21292,7 @@
         <v>45382.35416666666</v>
       </c>
       <c r="E242" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F242" t="s">
         <v>37</v>
@@ -21722,7 +21722,7 @@
         <v>45388.33333333334</v>
       </c>
       <c r="E247" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F247" t="s">
         <v>54</v>
@@ -21983,7 +21983,7 @@
         <v>52</v>
       </c>
       <c r="F250" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -22069,7 +22069,7 @@
         <v>41</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -22241,7 +22241,7 @@
         <v>42</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -22324,7 +22324,7 @@
         <v>45394.5625</v>
       </c>
       <c r="E254" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F254" t="s">
         <v>39</v>
@@ -22840,7 +22840,7 @@
         <v>45396.35416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F260" t="s">
         <v>40</v>
@@ -22926,10 +22926,10 @@
         <v>45396.35416666666</v>
       </c>
       <c r="E261" t="s">
+        <v>48</v>
+      </c>
+      <c r="F261" t="s">
         <v>50</v>
-      </c>
-      <c r="F261" t="s">
-        <v>48</v>
       </c>
       <c r="G261">
         <v>3</v>
@@ -23184,7 +23184,7 @@
         <v>45401.5625</v>
       </c>
       <c r="E264" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F264" t="s">
         <v>51</v>
@@ -23273,7 +23273,7 @@
         <v>41</v>
       </c>
       <c r="F265" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23445,7 +23445,7 @@
         <v>42</v>
       </c>
       <c r="F267" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -23605,7 +23605,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6994447</v>
+        <v>6994452</v>
       </c>
       <c r="C269" t="s">
         <v>36</v>
@@ -23614,76 +23614,76 @@
         <v>45403.35416666666</v>
       </c>
       <c r="E269" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F269" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G269">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H269">
         <v>2</v>
       </c>
       <c r="I269" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J269">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="K269">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L269">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="M269">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N269">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O269">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="P269">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q269">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R269">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S269">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T269">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U269">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V269">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y269">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA269">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:28">
@@ -23691,7 +23691,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6994452</v>
+        <v>6994448</v>
       </c>
       <c r="C270" t="s">
         <v>36</v>
@@ -23700,13 +23700,13 @@
         <v>45403.35416666666</v>
       </c>
       <c r="E270" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F270" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270">
         <v>2</v>
@@ -23715,40 +23715,40 @@
         <v>57</v>
       </c>
       <c r="J270">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="K270">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L270">
+        <v>2.375</v>
+      </c>
+      <c r="M270">
+        <v>3.1</v>
+      </c>
+      <c r="N270">
+        <v>3.3</v>
+      </c>
+      <c r="O270">
+        <v>2.375</v>
+      </c>
+      <c r="P270">
+        <v>0.25</v>
+      </c>
+      <c r="Q270">
+        <v>1.8</v>
+      </c>
+      <c r="R270">
+        <v>2.05</v>
+      </c>
+      <c r="S270">
         <v>2.5</v>
       </c>
-      <c r="M270">
-        <v>2.75</v>
-      </c>
-      <c r="N270">
-        <v>3.5</v>
-      </c>
-      <c r="O270">
-        <v>2.45</v>
-      </c>
-      <c r="P270">
-        <v>0</v>
-      </c>
-      <c r="Q270">
-        <v>2.05</v>
-      </c>
-      <c r="R270">
-        <v>1.8</v>
-      </c>
-      <c r="S270">
-        <v>2.75</v>
-      </c>
       <c r="T270">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U270">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V270">
         <v>-1</v>
@@ -23757,19 +23757,19 @@
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>1.45</v>
+        <v>1.375</v>
       </c>
       <c r="Y270">
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB270">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:28">
@@ -23777,7 +23777,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6994448</v>
+        <v>6994447</v>
       </c>
       <c r="C271" t="s">
         <v>36</v>
@@ -23786,73 +23786,73 @@
         <v>45403.35416666666</v>
       </c>
       <c r="E271" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F271" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H271">
         <v>2</v>
       </c>
       <c r="I271" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J271">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="K271">
+        <v>3.75</v>
+      </c>
+      <c r="L271">
         <v>3.4</v>
       </c>
-      <c r="L271">
-        <v>2.375</v>
-      </c>
       <c r="M271">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N271">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O271">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="P271">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q271">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R271">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S271">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T271">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U271">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V271">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z271">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB271">
         <v>-1</v>
@@ -23872,7 +23872,7 @@
         <v>45408.5625</v>
       </c>
       <c r="E272" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F272" t="s">
         <v>45</v>
@@ -24047,7 +24047,7 @@
         <v>46</v>
       </c>
       <c r="F274" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G274">
         <v>3</v>
@@ -24121,7 +24121,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7027648</v>
+        <v>7023404</v>
       </c>
       <c r="C275" t="s">
         <v>36</v>
@@ -24130,55 +24130,55 @@
         <v>45409.33333333334</v>
       </c>
       <c r="E275" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F275" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I275" t="s">
         <v>57</v>
       </c>
       <c r="J275">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="K275">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L275">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="M275">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="N275">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O275">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="P275">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q275">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R275">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S275">
         <v>3</v>
       </c>
       <c r="T275">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U275">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V275">
         <v>-1</v>
@@ -24187,16 +24187,16 @@
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA275">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB275">
         <v>-1</v>
@@ -24207,7 +24207,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7023404</v>
+        <v>7027648</v>
       </c>
       <c r="C276" t="s">
         <v>36</v>
@@ -24216,55 +24216,55 @@
         <v>45409.33333333334</v>
       </c>
       <c r="E276" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H276">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I276" t="s">
         <v>57</v>
       </c>
       <c r="J276">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="K276">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L276">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="M276">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="N276">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O276">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="P276">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q276">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R276">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S276">
         <v>3</v>
       </c>
       <c r="T276">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U276">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V276">
         <v>-1</v>
@@ -24273,16 +24273,16 @@
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA276">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB276">
         <v>-1</v>
@@ -24477,7 +24477,7 @@
         <v>38</v>
       </c>
       <c r="F279" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G279">
         <v>3</v>
@@ -24649,7 +24649,7 @@
         <v>37</v>
       </c>
       <c r="F281" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -24818,10 +24818,10 @@
         <v>45416.33333333334</v>
       </c>
       <c r="E283" t="s">
+        <v>44</v>
+      </c>
+      <c r="F283" t="s">
         <v>43</v>
-      </c>
-      <c r="F283" t="s">
-        <v>44</v>
       </c>
       <c r="G283">
         <v>3</v>
@@ -25076,7 +25076,7 @@
         <v>45417.35416666666</v>
       </c>
       <c r="E286" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F286" t="s">
         <v>47</v>
@@ -25153,7 +25153,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7060568</v>
+        <v>7055067</v>
       </c>
       <c r="C287" t="s">
         <v>36</v>
@@ -25162,76 +25162,76 @@
         <v>45417.35416666666</v>
       </c>
       <c r="E287" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F287" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J287">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="K287">
         <v>3.75</v>
       </c>
       <c r="L287">
+        <v>3.4</v>
+      </c>
+      <c r="M287">
+        <v>2</v>
+      </c>
+      <c r="N287">
+        <v>3.8</v>
+      </c>
+      <c r="O287">
+        <v>3.4</v>
+      </c>
+      <c r="P287">
+        <v>-0.5</v>
+      </c>
+      <c r="Q287">
+        <v>2.025</v>
+      </c>
+      <c r="R287">
+        <v>1.825</v>
+      </c>
+      <c r="S287">
+        <v>3.25</v>
+      </c>
+      <c r="T287">
         <v>2.05</v>
       </c>
-      <c r="M287">
-        <v>3.4</v>
-      </c>
-      <c r="N287">
-        <v>3.6</v>
-      </c>
-      <c r="O287">
-        <v>2.05</v>
-      </c>
-      <c r="P287">
-        <v>0.25</v>
-      </c>
-      <c r="Q287">
-        <v>2.05</v>
-      </c>
-      <c r="R287">
+      <c r="U287">
         <v>1.8</v>
       </c>
-      <c r="S287">
-        <v>2.75</v>
-      </c>
-      <c r="T287">
-        <v>1.825</v>
-      </c>
-      <c r="U287">
-        <v>2.025</v>
-      </c>
       <c r="V287">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W287">
         <v>-1</v>
       </c>
       <c r="X287">
+        <v>-1</v>
+      </c>
+      <c r="Y287">
+        <v>1.025</v>
+      </c>
+      <c r="Z287">
+        <v>-1</v>
+      </c>
+      <c r="AA287">
         <v>1.05</v>
       </c>
-      <c r="Y287">
-        <v>-1</v>
-      </c>
-      <c r="Z287">
-        <v>0.8</v>
-      </c>
-      <c r="AA287">
-        <v>-1</v>
-      </c>
       <c r="AB287">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:28">
@@ -25239,7 +25239,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7055067</v>
+        <v>7060568</v>
       </c>
       <c r="C288" t="s">
         <v>36</v>
@@ -25248,76 +25248,76 @@
         <v>45417.35416666666</v>
       </c>
       <c r="E288" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F288" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G288">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J288">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="K288">
         <v>3.75</v>
       </c>
       <c r="L288">
+        <v>2.05</v>
+      </c>
+      <c r="M288">
         <v>3.4</v>
       </c>
-      <c r="M288">
-        <v>2</v>
-      </c>
       <c r="N288">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O288">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="P288">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q288">
+        <v>2.05</v>
+      </c>
+      <c r="R288">
+        <v>1.8</v>
+      </c>
+      <c r="S288">
+        <v>2.75</v>
+      </c>
+      <c r="T288">
+        <v>1.825</v>
+      </c>
+      <c r="U288">
         <v>2.025</v>
       </c>
-      <c r="R288">
-        <v>1.825</v>
-      </c>
-      <c r="S288">
-        <v>3.25</v>
-      </c>
-      <c r="T288">
-        <v>2.05</v>
-      </c>
-      <c r="U288">
-        <v>1.8</v>
-      </c>
       <c r="V288">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y288">
+        <v>-1</v>
+      </c>
+      <c r="Z288">
+        <v>0.8</v>
+      </c>
+      <c r="AA288">
+        <v>-1</v>
+      </c>
+      <c r="AB288">
         <v>1.025</v>
-      </c>
-      <c r="Z288">
-        <v>-1</v>
-      </c>
-      <c r="AA288">
-        <v>1.05</v>
-      </c>
-      <c r="AB288">
-        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:28">
@@ -25423,7 +25423,7 @@
         <v>54</v>
       </c>
       <c r="F290" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>53</v>
       </c>
       <c r="F293" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G293">
         <v>3</v>
@@ -25927,7 +25927,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7089049</v>
+        <v>7091752</v>
       </c>
       <c r="C296" t="s">
         <v>36</v>
@@ -25936,76 +25936,76 @@
         <v>45424.35416666666</v>
       </c>
       <c r="E296" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F296" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G296">
+        <v>3</v>
+      </c>
+      <c r="H296">
         <v>1</v>
       </c>
-      <c r="H296">
-        <v>2</v>
-      </c>
       <c r="I296" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J296">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="K296">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="L296">
-        <v>2.9</v>
+        <v>15</v>
       </c>
       <c r="M296">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="N296">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O296">
-        <v>2.875</v>
+        <v>12</v>
       </c>
       <c r="P296">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q296">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R296">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S296">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T296">
+        <v>2.025</v>
+      </c>
+      <c r="U296">
         <v>1.825</v>
       </c>
-      <c r="U296">
-        <v>2.025</v>
-      </c>
       <c r="V296">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W296">
         <v>-1</v>
       </c>
       <c r="X296">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z296">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA296">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB296">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:28">
@@ -26013,7 +26013,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7091752</v>
+        <v>7089049</v>
       </c>
       <c r="C297" t="s">
         <v>36</v>
@@ -26022,76 +26022,76 @@
         <v>45424.35416666666</v>
       </c>
       <c r="E297" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F297" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J297">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="K297">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="L297">
-        <v>15</v>
+        <v>2.9</v>
       </c>
       <c r="M297">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="N297">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="O297">
-        <v>12</v>
+        <v>2.875</v>
       </c>
       <c r="P297">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q297">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R297">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S297">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T297">
+        <v>1.825</v>
+      </c>
+      <c r="U297">
         <v>2.025</v>
       </c>
-      <c r="U297">
-        <v>1.825</v>
-      </c>
       <c r="V297">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y297">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA297">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="298" spans="1:28">
@@ -26108,7 +26108,7 @@
         <v>45424.35416666666</v>
       </c>
       <c r="E298" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F298" t="s">
         <v>38</v>
@@ -26194,46 +26194,46 @@
         <v>45431.4375</v>
       </c>
       <c r="E299" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F299" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J299">
-        <v>1.333</v>
+        <v>3.6</v>
       </c>
       <c r="K299">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L299">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="M299">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N299">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="O299">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="P299">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q299">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R299">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S299">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T299">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U299">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V299">
         <v>0</v>
@@ -26259,46 +26259,46 @@
         <v>45431.4375</v>
       </c>
       <c r="E300" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F300" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J300">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="K300">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L300">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="M300">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="N300">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="O300">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="P300">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q300">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R300">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S300">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T300">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U300">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V300">
         <v>0</v>
@@ -26324,31 +26324,31 @@
         <v>45431.4375</v>
       </c>
       <c r="E301" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F301" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J301">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="K301">
         <v>3.4</v>
       </c>
       <c r="L301">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="M301">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N301">
         <v>3.5</v>
       </c>
       <c r="O301">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="P301">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q301">
         <v>2.025</v>
@@ -26357,13 +26357,13 @@
         <v>1.825</v>
       </c>
       <c r="S301">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T301">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U301">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V301">
         <v>0</v>
@@ -26389,31 +26389,31 @@
         <v>45431.4375</v>
       </c>
       <c r="E302" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F302" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J302">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="K302">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L302">
         <v>2.1</v>
       </c>
       <c r="M302">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N302">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O302">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P302">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q302">
         <v>1.825</v>
@@ -26422,13 +26422,13 @@
         <v>2.025</v>
       </c>
       <c r="S302">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T302">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U302">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V302">
         <v>0</v>
@@ -26454,46 +26454,46 @@
         <v>45431.4375</v>
       </c>
       <c r="E303" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F303" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J303">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="K303">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L303">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="M303">
+        <v>2.8</v>
+      </c>
+      <c r="N303">
+        <v>3.75</v>
+      </c>
+      <c r="O303">
+        <v>2.25</v>
+      </c>
+      <c r="P303">
+        <v>0.25</v>
+      </c>
+      <c r="Q303">
         <v>1.85</v>
       </c>
-      <c r="N303">
-        <v>3.5</v>
-      </c>
-      <c r="O303">
-        <v>4.1</v>
-      </c>
-      <c r="P303">
-        <v>-0.5</v>
-      </c>
-      <c r="Q303">
-        <v>1.875</v>
-      </c>
       <c r="R303">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S303">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T303">
+        <v>2.025</v>
+      </c>
+      <c r="U303">
         <v>1.825</v>
-      </c>
-      <c r="U303">
-        <v>2.025</v>
       </c>
       <c r="V303">
         <v>0</v>
@@ -26519,46 +26519,46 @@
         <v>45431.4375</v>
       </c>
       <c r="E304" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F304" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J304">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K304">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L304">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="M304">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="N304">
         <v>3.5</v>
       </c>
       <c r="O304">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="P304">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q304">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R304">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S304">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T304">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U304">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V304">
         <v>0</v>
@@ -26611,19 +26611,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q305">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R305">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S305">
         <v>3.25</v>
       </c>
       <c r="T305">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U305">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V305">
         <v>0</v>
@@ -26649,7 +26649,7 @@
         <v>45431.4375</v>
       </c>
       <c r="E306" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F306" t="s">
         <v>51</v>

--- a/Germany Bundesliga II/Germany Bundesliga II.xlsx
+++ b/Germany Bundesliga II/Germany Bundesliga II.xlsx
@@ -106,10 +106,10 @@
     <t>VfL Osnabruck</t>
   </si>
   <si>
-    <t>Wehen SV</t>
+    <t>Kaiserslautern</t>
   </si>
   <si>
-    <t>Kaiserslautern</t>
+    <t>Wehen SV</t>
   </si>
   <si>
     <t>Hannover 96</t>
@@ -145,10 +145,10 @@
     <t>Schalke</t>
   </si>
   <si>
-    <t>Nurnberg</t>
+    <t>Magdeburg</t>
   </si>
   <si>
-    <t>Magdeburg</t>
+    <t>Nurnberg</t>
   </si>
   <si>
     <t>Karlsruhe</t>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6846738</v>
+        <v>6846142</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -800,73 +800,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="K4">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L4">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N4">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O4">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="P4">
         <v>0.25</v>
       </c>
       <c r="Q4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T4">
+        <v>1.8</v>
+      </c>
+      <c r="U4">
         <v>2.05</v>
       </c>
-      <c r="U4">
-        <v>1.8</v>
-      </c>
       <c r="V4">
         <v>-1</v>
       </c>
       <c r="W4">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y4">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6846142</v>
+        <v>6846738</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -886,73 +886,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="K5">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="M5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O5">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="P5">
         <v>0.25</v>
       </c>
       <c r="Q5">
+        <v>1.9</v>
+      </c>
+      <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>2.05</v>
+      </c>
+      <c r="U5">
         <v>1.8</v>
       </c>
-      <c r="R5">
-        <v>2.05</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>1.8</v>
-      </c>
-      <c r="U5">
-        <v>2.05</v>
-      </c>
       <c r="V5">
         <v>-1</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X5">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z5">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.8</v>
-      </c>
-      <c r="AB5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1316,7 +1316,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1402,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1906,7 +1906,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6846744</v>
+        <v>6846743</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1918,73 +1918,73 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J17">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="K17">
+        <v>3.75</v>
+      </c>
+      <c r="L17">
         <v>3.6</v>
       </c>
-      <c r="L17">
-        <v>3.1</v>
-      </c>
       <c r="M17">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O17">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="P17">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q17">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W17">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
+        <v>0.475</v>
+      </c>
+      <c r="Z17">
         <v>-0.5</v>
       </c>
-      <c r="Z17">
-        <v>0.3875</v>
-      </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1992,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6846743</v>
+        <v>6846744</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -2004,73 +2004,73 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J18">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="K18">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M18">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P18">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q18">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="R18">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="Z18">
-        <v>-0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2173,7 +2173,7 @@
         <v>45156.5625</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
@@ -2259,7 +2259,7 @@
         <v>45156.5625</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
         <v>45</v>
@@ -2422,7 +2422,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6846745</v>
+        <v>6846144</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2431,76 +2431,76 @@
         <v>45157.33333333334</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J23">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K23">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="M23">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="N23">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O23">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="P23">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
         <v>-1</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X23">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2508,7 +2508,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6846144</v>
+        <v>6846745</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2517,76 +2517,76 @@
         <v>45157.33333333334</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J24">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K24">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L24">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N24">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O24">
+        <v>3.75</v>
+      </c>
+      <c r="P24">
+        <v>-0.5</v>
+      </c>
+      <c r="Q24">
+        <v>1.975</v>
+      </c>
+      <c r="R24">
+        <v>1.875</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>1.95</v>
+      </c>
+      <c r="U24">
+        <v>1.9</v>
+      </c>
+      <c r="V24">
+        <v>-1</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
         <v>2.75</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>1.8</v>
-      </c>
-      <c r="R24">
-        <v>2.05</v>
-      </c>
-      <c r="S24">
-        <v>2.75</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="U24">
-        <v>1.85</v>
-      </c>
-      <c r="V24">
-        <v>-1</v>
-      </c>
-      <c r="W24">
-        <v>2.4</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
       <c r="Y24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2692,7 +2692,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2778,7 +2778,7 @@
         <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2950,7 +2950,7 @@
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3110,7 +3110,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6845857</v>
+        <v>6846177</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3119,40 +3119,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>5</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J31">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="K31">
+        <v>3.5</v>
+      </c>
+      <c r="L31">
+        <v>2.3</v>
+      </c>
+      <c r="M31">
+        <v>2.7</v>
+      </c>
+      <c r="N31">
         <v>3.6</v>
       </c>
-      <c r="L31">
-        <v>3.4</v>
-      </c>
-      <c r="M31">
-        <v>2.3</v>
-      </c>
-      <c r="N31">
-        <v>3.4</v>
-      </c>
       <c r="O31">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="P31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>2.05</v>
@@ -3161,31 +3161,31 @@
         <v>1.8</v>
       </c>
       <c r="S31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T31">
+        <v>1.9</v>
+      </c>
+      <c r="U31">
         <v>1.95</v>
       </c>
-      <c r="U31">
-        <v>1.9</v>
-      </c>
       <c r="V31">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y31">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
         <v>-1</v>
@@ -3196,7 +3196,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6846755</v>
+        <v>6845857</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3205,58 +3205,58 @@
         <v>45164.33333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
         <v>46</v>
       </c>
       <c r="J32">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K32">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L32">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N32">
         <v>3.4</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P32">
         <v>-0.25</v>
       </c>
       <c r="Q32">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T32">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3265,13 +3265,13 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB32">
         <v>-1</v>
@@ -3282,7 +3282,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6846177</v>
+        <v>6846755</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3291,73 +3291,73 @@
         <v>45164.33333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J33">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="K33">
         <v>3.5</v>
       </c>
       <c r="L33">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M33">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="N33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O33">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q33">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T33">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
         <v>-1</v>
@@ -3552,7 +3552,7 @@
         <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>45165.35416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3893,7 +3893,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
         <v>37</v>
@@ -3979,7 +3979,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -4151,10 +4151,10 @@
         <v>45171.64583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4495,7 +4495,7 @@
         <v>45184.5625</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
         <v>35</v>
@@ -4584,7 +4584,7 @@
         <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4756,7 +4756,7 @@
         <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4928,7 +4928,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -5269,7 +5269,7 @@
         <v>45191.5625</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
         <v>38</v>
@@ -5441,7 +5441,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
         <v>40</v>
@@ -5530,7 +5530,7 @@
         <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5776,7 +5776,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6845854</v>
+        <v>6846770</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
@@ -5785,73 +5785,73 @@
         <v>45193.35416666666</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J62">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K62">
         <v>3.5</v>
       </c>
       <c r="L62">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N62">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O62">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
         <v>-0.25</v>
       </c>
       <c r="Q62">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S62">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T62">
+        <v>2.025</v>
+      </c>
+      <c r="U62">
         <v>1.825</v>
       </c>
-      <c r="U62">
-        <v>2.025</v>
-      </c>
       <c r="V62">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
         <v>-1</v>
@@ -5862,7 +5862,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6846770</v>
+        <v>6846769</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -5871,76 +5871,76 @@
         <v>45193.35416666666</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="K63">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M63">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="N63">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O63">
         <v>3.6</v>
       </c>
       <c r="P63">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q63">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R63">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T63">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5948,7 +5948,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6846769</v>
+        <v>6845854</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -5957,76 +5957,76 @@
         <v>45193.35416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="K64">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L64">
+        <v>2.625</v>
+      </c>
+      <c r="M64">
+        <v>2.2</v>
+      </c>
+      <c r="N64">
         <v>3.8</v>
       </c>
-      <c r="M64">
-        <v>1.95</v>
-      </c>
-      <c r="N64">
-        <v>3.75</v>
-      </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P64">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R64">
+        <v>1.875</v>
+      </c>
+      <c r="S64">
+        <v>3.25</v>
+      </c>
+      <c r="T64">
+        <v>1.825</v>
+      </c>
+      <c r="U64">
+        <v>2.025</v>
+      </c>
+      <c r="V64">
+        <v>-1</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
         <v>1.9</v>
       </c>
-      <c r="S64">
-        <v>3</v>
-      </c>
-      <c r="T64">
-        <v>1.95</v>
-      </c>
-      <c r="U64">
-        <v>1.9</v>
-      </c>
-      <c r="V64">
-        <v>-1</v>
-      </c>
-      <c r="W64">
-        <v>2.75</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6390,7 +6390,7 @@
         <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6559,10 +6559,10 @@
         <v>45200.35416666666</v>
       </c>
       <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
         <v>43</v>
-      </c>
-      <c r="F71" t="s">
-        <v>44</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6648,7 +6648,7 @@
         <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6808,7 +6808,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6846782</v>
+        <v>6846783</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6817,40 +6817,40 @@
         <v>45205.5625</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J74">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="K74">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="L74">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N74">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P74">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -6859,34 +6859,34 @@
         <v>1.9</v>
       </c>
       <c r="S74">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W74">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6894,7 +6894,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6846783</v>
+        <v>6846782</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -6903,40 +6903,40 @@
         <v>45205.5625</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J75">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="K75">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M75">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N75">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q75">
         <v>1.95</v>
@@ -6945,34 +6945,34 @@
         <v>1.9</v>
       </c>
       <c r="S75">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T75">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -7075,7 +7075,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
         <v>45</v>
@@ -7161,7 +7161,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
         <v>28</v>
@@ -7250,7 +7250,7 @@
         <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G79">
         <v>5</v>
@@ -7582,7 +7582,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6846791</v>
+        <v>6846183</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7591,58 +7591,58 @@
         <v>45219.5625</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
         <v>46</v>
       </c>
       <c r="J83">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="K83">
         <v>3.8</v>
       </c>
       <c r="L83">
+        <v>3.8</v>
+      </c>
+      <c r="M83">
+        <v>1.727</v>
+      </c>
+      <c r="N83">
+        <v>4.2</v>
+      </c>
+      <c r="O83">
+        <v>4.2</v>
+      </c>
+      <c r="P83">
+        <v>-0.75</v>
+      </c>
+      <c r="Q83">
+        <v>1.975</v>
+      </c>
+      <c r="R83">
+        <v>1.875</v>
+      </c>
+      <c r="S83">
         <v>3.25</v>
       </c>
-      <c r="M83">
-        <v>2.15</v>
-      </c>
-      <c r="N83">
-        <v>3.75</v>
-      </c>
-      <c r="O83">
-        <v>3.1</v>
-      </c>
-      <c r="P83">
-        <v>-0.25</v>
-      </c>
-      <c r="Q83">
-        <v>1.9</v>
-      </c>
-      <c r="R83">
-        <v>1.95</v>
-      </c>
-      <c r="S83">
-        <v>3</v>
-      </c>
       <c r="T83">
+        <v>2.05</v>
+      </c>
+      <c r="U83">
         <v>1.8</v>
       </c>
-      <c r="U83">
-        <v>2.05</v>
-      </c>
       <c r="V83">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7651,16 +7651,16 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7668,7 +7668,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6846183</v>
+        <v>6846791</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7677,58 +7677,58 @@
         <v>45219.5625</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="s">
         <v>46</v>
       </c>
       <c r="J84">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="K84">
         <v>3.8</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M84">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N84">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P84">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T84">
+        <v>1.8</v>
+      </c>
+      <c r="U84">
         <v>2.05</v>
       </c>
-      <c r="U84">
-        <v>1.8</v>
-      </c>
       <c r="V84">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7737,16 +7737,16 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB84">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7766,7 +7766,7 @@
         <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -8024,7 +8024,7 @@
         <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8184,7 +8184,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845851</v>
+        <v>6846792</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8193,37 +8193,37 @@
         <v>45221.35416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
         <v>3</v>
       </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
       <c r="I90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J90">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="K90">
         <v>3.5</v>
       </c>
       <c r="L90">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="M90">
         <v>2.5</v>
       </c>
       <c r="N90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O90">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -8235,31 +8235,31 @@
         <v>2.025</v>
       </c>
       <c r="S90">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB90">
         <v>-1</v>
@@ -8270,7 +8270,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6846792</v>
+        <v>6845851</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8279,37 +8279,37 @@
         <v>45221.35416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
         <v>1</v>
       </c>
-      <c r="H91">
-        <v>3</v>
-      </c>
       <c r="I91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J91">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="K91">
         <v>3.5</v>
       </c>
       <c r="L91">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="M91">
         <v>2.5</v>
       </c>
       <c r="N91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O91">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -8321,31 +8321,31 @@
         <v>2.025</v>
       </c>
       <c r="S91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V91">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB91">
         <v>-1</v>
@@ -8795,7 +8795,7 @@
         <v>45227.64583333334</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s">
         <v>28</v>
@@ -8872,7 +8872,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6846795</v>
+        <v>6846184</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8881,13 +8881,13 @@
         <v>45228.39583333334</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -8896,40 +8896,40 @@
         <v>47</v>
       </c>
       <c r="J98">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="K98">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L98">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N98">
         <v>3.8</v>
       </c>
       <c r="O98">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q98">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
         <v>-1</v>
@@ -8938,19 +8938,19 @@
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8967,7 +8967,7 @@
         <v>45228.39583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F99" t="s">
         <v>36</v>
@@ -9044,7 +9044,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6846184</v>
+        <v>6846795</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9053,13 +9053,13 @@
         <v>45228.39583333334</v>
       </c>
       <c r="E100" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s">
         <v>44</v>
       </c>
-      <c r="F100" t="s">
-        <v>40</v>
-      </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9068,40 +9068,40 @@
         <v>47</v>
       </c>
       <c r="J100">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="K100">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N100">
         <v>3.8</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q100">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
         <v>-1</v>
@@ -9110,19 +9110,19 @@
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9142,7 +9142,7 @@
         <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9311,7 +9311,7 @@
         <v>45234.375</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
         <v>35</v>
@@ -9483,7 +9483,7 @@
         <v>45234.375</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
         <v>42</v>
@@ -9572,7 +9572,7 @@
         <v>28</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9732,7 +9732,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6846802</v>
+        <v>6845849</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9741,76 +9741,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J108">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K108">
         <v>3.6</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M108">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="N108">
         <v>3.6</v>
       </c>
       <c r="O108">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="P108">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
         <v>3</v>
       </c>
       <c r="T108">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U108">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X108">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z108">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9818,7 +9818,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6845849</v>
+        <v>6846802</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -9827,76 +9827,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J109">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K109">
         <v>3.6</v>
       </c>
       <c r="L109">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M109">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N109">
         <v>3.6</v>
       </c>
       <c r="O109">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="P109">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q109">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
         <v>3</v>
       </c>
       <c r="T109">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V109">
         <v>-1</v>
       </c>
       <c r="W109">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB109">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -9904,7 +9904,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6846153</v>
+        <v>6846185</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
@@ -9913,76 +9913,76 @@
         <v>45240.60416666666</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J110">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K110">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L110">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M110">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="N110">
         <v>4</v>
       </c>
       <c r="O110">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q110">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T110">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
         <v>-1</v>
       </c>
       <c r="W110">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB110">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -9990,7 +9990,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6846185</v>
+        <v>6846153</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -9999,76 +9999,76 @@
         <v>45240.60416666666</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J111">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K111">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M111">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="N111">
         <v>4</v>
       </c>
       <c r="O111">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P111">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q111">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S111">
+        <v>2.75</v>
+      </c>
+      <c r="T111">
+        <v>1.975</v>
+      </c>
+      <c r="U111">
+        <v>1.875</v>
+      </c>
+      <c r="V111">
+        <v>-1</v>
+      </c>
+      <c r="W111">
         <v>3</v>
       </c>
-      <c r="T111">
-        <v>2.025</v>
-      </c>
-      <c r="U111">
-        <v>1.825</v>
-      </c>
-      <c r="V111">
-        <v>-1</v>
-      </c>
-      <c r="W111">
-        <v>-1</v>
-      </c>
       <c r="X111">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10088,7 +10088,7 @@
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10429,10 +10429,10 @@
         <v>45242.39583333334</v>
       </c>
       <c r="E116" t="s">
+        <v>31</v>
+      </c>
+      <c r="F116" t="s">
         <v>30</v>
-      </c>
-      <c r="F116" t="s">
-        <v>31</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10601,7 +10601,7 @@
         <v>45242.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F118" t="s">
         <v>36</v>
@@ -10850,7 +10850,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6846154</v>
+        <v>6846818</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -10859,55 +10859,55 @@
         <v>45255.375</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="s">
         <v>47</v>
       </c>
       <c r="J121">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="K121">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L121">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="M121">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N121">
         <v>3.75</v>
       </c>
       <c r="O121">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="P121">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q121">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R121">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T121">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
         <v>-1</v>
@@ -10916,19 +10916,19 @@
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="Y121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10936,7 +10936,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6846818</v>
+        <v>6846186</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10945,76 +10945,76 @@
         <v>45255.375</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J122">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="K122">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L122">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M122">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N122">
         <v>3.75</v>
       </c>
       <c r="O122">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="P122">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q122">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R122">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S122">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11022,7 +11022,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6846186</v>
+        <v>6846154</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11031,73 +11031,73 @@
         <v>45255.375</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J123">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="K123">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="M123">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N123">
         <v>3.75</v>
       </c>
       <c r="O123">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="P123">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q123">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R123">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T123">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y123">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA123">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB123">
         <v>-1</v>
@@ -11206,7 +11206,7 @@
         <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11292,7 +11292,7 @@
         <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11375,7 +11375,7 @@
         <v>45256.39583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
         <v>41</v>
@@ -11452,7 +11452,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6846155</v>
+        <v>6846819</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11461,40 +11461,40 @@
         <v>45261.60416666666</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J128">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="K128">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L128">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="M128">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q128">
         <v>1.825</v>
@@ -11503,31 +11503,31 @@
         <v>2.025</v>
       </c>
       <c r="S128">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T128">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W128">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z128">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB128">
         <v>-1</v>
@@ -11538,7 +11538,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6846819</v>
+        <v>6846155</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11547,40 +11547,40 @@
         <v>45261.60416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129" t="s">
+        <v>48</v>
+      </c>
+      <c r="J129">
+        <v>2.3</v>
+      </c>
+      <c r="K129">
+        <v>3.6</v>
+      </c>
+      <c r="L129">
+        <v>2.8</v>
+      </c>
+      <c r="M129">
+        <v>1.833</v>
+      </c>
+      <c r="N129">
         <v>4</v>
       </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129" t="s">
-        <v>46</v>
-      </c>
-      <c r="J129">
-        <v>1.85</v>
-      </c>
-      <c r="K129">
-        <v>3.75</v>
-      </c>
-      <c r="L129">
-        <v>3.9</v>
-      </c>
-      <c r="M129">
-        <v>1.533</v>
-      </c>
-      <c r="N129">
-        <v>4.5</v>
-      </c>
       <c r="O129">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q129">
         <v>1.825</v>
@@ -11589,31 +11589,31 @@
         <v>2.025</v>
       </c>
       <c r="S129">
+        <v>2.75</v>
+      </c>
+      <c r="T129">
+        <v>1.85</v>
+      </c>
+      <c r="U129">
+        <v>2</v>
+      </c>
+      <c r="V129">
+        <v>-1</v>
+      </c>
+      <c r="W129">
         <v>3</v>
       </c>
-      <c r="T129">
-        <v>1.9</v>
-      </c>
-      <c r="U129">
-        <v>1.95</v>
-      </c>
-      <c r="V129">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="W129">
-        <v>-1</v>
-      </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA129">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB129">
         <v>-1</v>
@@ -11636,7 +11636,7 @@
         <v>41</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11805,7 +11805,7 @@
         <v>45262.375</v>
       </c>
       <c r="E132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F132" t="s">
         <v>33</v>
@@ -11891,10 +11891,10 @@
         <v>45262.6875</v>
       </c>
       <c r="E133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -12054,7 +12054,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6846820</v>
+        <v>6846821</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -12063,76 +12063,76 @@
         <v>45263.39583333334</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J135">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="K135">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L135">
-        <v>2.875</v>
+        <v>3.9</v>
       </c>
       <c r="M135">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="N135">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O135">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="P135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q135">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
         <v>2.75</v>
       </c>
       <c r="T135">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB135">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12140,7 +12140,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6846821</v>
+        <v>6846820</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12149,76 +12149,76 @@
         <v>45263.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J136">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="K136">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L136">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="M136">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N136">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O136">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="P136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q136">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
         <v>2.75</v>
       </c>
       <c r="T136">
+        <v>1.925</v>
+      </c>
+      <c r="U136">
+        <v>1.925</v>
+      </c>
+      <c r="V136">
         <v>1.8</v>
       </c>
-      <c r="U136">
-        <v>2.05</v>
-      </c>
-      <c r="V136">
-        <v>-1</v>
-      </c>
       <c r="W136">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
   